--- a/doc/アプリケーション一覧.xlsx
+++ b/doc/アプリケーション一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\django_base\django_base\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D835AC1-E2F0-47C3-8229-E32FA4D6F2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7178260A-4D1A-4DB6-A212-8D2CB2F136FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>アプリケーション一覧</t>
     <rPh sb="8" eb="10">
@@ -139,6 +139,55 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマートクエリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pg005_smarturl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/pg005_smarturl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータは?指定</t>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラメータはURL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型指定クエリ</t>
+    <rPh sb="0" eb="3">
+      <t>カタシテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pg006_calcurl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/pg006_calaurl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>left,right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>left+rightを出力する</t>
+    <rPh sb="11" eb="13">
+      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -218,10 +267,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -505,7 +554,7 @@
   <dimension ref="B1:DM19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK3" sqref="AK3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18"/>
@@ -747,123 +796,123 @@
       <c r="DL2" s="3"/>
     </row>
     <row r="4" spans="2:117">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5" t="s">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="5"/>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="5"/>
-      <c r="BF4" s="5"/>
-      <c r="BG4" s="5"/>
-      <c r="BH4" s="5"/>
-      <c r="BI4" s="5"/>
-      <c r="BJ4" s="5"/>
-      <c r="BK4" s="5"/>
-      <c r="BL4" s="5"/>
-      <c r="BM4" s="5" t="s">
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="BN4" s="5"/>
-      <c r="BO4" s="5"/>
-      <c r="BP4" s="5"/>
-      <c r="BQ4" s="5"/>
-      <c r="BR4" s="5"/>
-      <c r="BS4" s="5"/>
-      <c r="BT4" s="5"/>
-      <c r="BU4" s="5"/>
-      <c r="BV4" s="5"/>
-      <c r="BW4" s="5"/>
-      <c r="BX4" s="5"/>
-      <c r="BY4" s="5"/>
-      <c r="BZ4" s="5"/>
-      <c r="CA4" s="5"/>
-      <c r="CB4" s="5"/>
-      <c r="CC4" s="5"/>
-      <c r="CD4" s="5"/>
-      <c r="CE4" s="5"/>
-      <c r="CF4" s="5"/>
-      <c r="CG4" s="5"/>
-      <c r="CH4" s="5" t="s">
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4"/>
+      <c r="BU4" s="4"/>
+      <c r="BV4" s="4"/>
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="4"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="4"/>
+      <c r="CA4" s="4"/>
+      <c r="CB4" s="4"/>
+      <c r="CC4" s="4"/>
+      <c r="CD4" s="4"/>
+      <c r="CE4" s="4"/>
+      <c r="CF4" s="4"/>
+      <c r="CG4" s="4"/>
+      <c r="CH4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="CI4" s="5"/>
-      <c r="CJ4" s="5"/>
-      <c r="CK4" s="5"/>
-      <c r="CL4" s="5"/>
-      <c r="CM4" s="5"/>
-      <c r="CN4" s="5"/>
-      <c r="CO4" s="5"/>
-      <c r="CP4" s="5"/>
-      <c r="CQ4" s="5"/>
-      <c r="CR4" s="5"/>
-      <c r="CS4" s="5"/>
-      <c r="CT4" s="5"/>
-      <c r="CU4" s="5"/>
-      <c r="CV4" s="5"/>
-      <c r="CW4" s="5"/>
-      <c r="CX4" s="5"/>
-      <c r="CY4" s="5"/>
-      <c r="CZ4" s="5"/>
-      <c r="DA4" s="5"/>
-      <c r="DB4" s="5"/>
+      <c r="CI4" s="4"/>
+      <c r="CJ4" s="4"/>
+      <c r="CK4" s="4"/>
+      <c r="CL4" s="4"/>
+      <c r="CM4" s="4"/>
+      <c r="CN4" s="4"/>
+      <c r="CO4" s="4"/>
+      <c r="CP4" s="4"/>
+      <c r="CQ4" s="4"/>
+      <c r="CR4" s="4"/>
+      <c r="CS4" s="4"/>
+      <c r="CT4" s="4"/>
+      <c r="CU4" s="4"/>
+      <c r="CV4" s="4"/>
+      <c r="CW4" s="4"/>
+      <c r="CX4" s="4"/>
+      <c r="CY4" s="4"/>
+      <c r="CZ4" s="4"/>
+      <c r="DA4" s="4"/>
+      <c r="DB4" s="4"/>
       <c r="DC4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1227,30 +1276,32 @@
       <c r="CE7" s="2"/>
       <c r="CF7" s="2"/>
       <c r="CG7" s="2"/>
-      <c r="CH7" s="4" t="s">
+      <c r="CH7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="CI7" s="4"/>
-      <c r="CJ7" s="4"/>
-      <c r="CK7" s="4"/>
-      <c r="CL7" s="4"/>
-      <c r="CM7" s="4"/>
-      <c r="CN7" s="4"/>
-      <c r="CO7" s="4"/>
-      <c r="CP7" s="4"/>
-      <c r="CQ7" s="4"/>
-      <c r="CR7" s="4"/>
-      <c r="CS7" s="4"/>
-      <c r="CT7" s="4"/>
-      <c r="CU7" s="4"/>
-      <c r="CV7" s="4"/>
-      <c r="CW7" s="4"/>
-      <c r="CX7" s="4"/>
-      <c r="CY7" s="4"/>
-      <c r="CZ7" s="4"/>
-      <c r="DA7" s="4"/>
-      <c r="DB7" s="4"/>
-      <c r="DC7" s="2"/>
+      <c r="CI7" s="5"/>
+      <c r="CJ7" s="5"/>
+      <c r="CK7" s="5"/>
+      <c r="CL7" s="5"/>
+      <c r="CM7" s="5"/>
+      <c r="CN7" s="5"/>
+      <c r="CO7" s="5"/>
+      <c r="CP7" s="5"/>
+      <c r="CQ7" s="5"/>
+      <c r="CR7" s="5"/>
+      <c r="CS7" s="5"/>
+      <c r="CT7" s="5"/>
+      <c r="CU7" s="5"/>
+      <c r="CV7" s="5"/>
+      <c r="CW7" s="5"/>
+      <c r="CX7" s="5"/>
+      <c r="CY7" s="5"/>
+      <c r="CZ7" s="5"/>
+      <c r="DA7" s="5"/>
+      <c r="DB7" s="5"/>
+      <c r="DC7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="DD7" s="2"/>
       <c r="DE7" s="2"/>
       <c r="DF7" s="2"/>
@@ -1263,10 +1314,14 @@
       <c r="DM7" s="2"/>
     </row>
     <row r="8" spans="2:117" ht="18.5" customHeight="1">
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1284,7 +1339,9 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
+      <c r="W8" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
@@ -1305,7 +1362,9 @@
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
-      <c r="AR8" s="2"/>
+      <c r="AR8" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
@@ -1326,7 +1385,9 @@
       <c r="BJ8" s="2"/>
       <c r="BK8" s="2"/>
       <c r="BL8" s="2"/>
-      <c r="BM8" s="2"/>
+      <c r="BM8" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="BN8" s="2"/>
       <c r="BO8" s="2"/>
       <c r="BP8" s="2"/>
@@ -1347,28 +1408,32 @@
       <c r="CE8" s="2"/>
       <c r="CF8" s="2"/>
       <c r="CG8" s="2"/>
-      <c r="CH8" s="2"/>
-      <c r="CI8" s="2"/>
-      <c r="CJ8" s="2"/>
-      <c r="CK8" s="2"/>
-      <c r="CL8" s="2"/>
-      <c r="CM8" s="2"/>
-      <c r="CN8" s="2"/>
-      <c r="CO8" s="2"/>
-      <c r="CP8" s="2"/>
-      <c r="CQ8" s="2"/>
-      <c r="CR8" s="2"/>
-      <c r="CS8" s="2"/>
-      <c r="CT8" s="2"/>
-      <c r="CU8" s="2"/>
-      <c r="CV8" s="2"/>
-      <c r="CW8" s="2"/>
-      <c r="CX8" s="2"/>
-      <c r="CY8" s="2"/>
-      <c r="CZ8" s="2"/>
-      <c r="DA8" s="2"/>
-      <c r="DB8" s="2"/>
-      <c r="DC8" s="2"/>
+      <c r="CH8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="CI8" s="5"/>
+      <c r="CJ8" s="5"/>
+      <c r="CK8" s="5"/>
+      <c r="CL8" s="5"/>
+      <c r="CM8" s="5"/>
+      <c r="CN8" s="5"/>
+      <c r="CO8" s="5"/>
+      <c r="CP8" s="5"/>
+      <c r="CQ8" s="5"/>
+      <c r="CR8" s="5"/>
+      <c r="CS8" s="5"/>
+      <c r="CT8" s="5"/>
+      <c r="CU8" s="5"/>
+      <c r="CV8" s="5"/>
+      <c r="CW8" s="5"/>
+      <c r="CX8" s="5"/>
+      <c r="CY8" s="5"/>
+      <c r="CZ8" s="5"/>
+      <c r="DA8" s="5"/>
+      <c r="DB8" s="5"/>
+      <c r="DC8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="DD8" s="2"/>
       <c r="DE8" s="2"/>
       <c r="DF8" s="2"/>
@@ -1381,10 +1446,14 @@
       <c r="DM8" s="2"/>
     </row>
     <row r="9" spans="2:117" ht="18.5" customHeight="1">
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1402,7 +1471,9 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
+      <c r="W9" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
@@ -1423,7 +1494,9 @@
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
+      <c r="AR9" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
@@ -1444,7 +1517,9 @@
       <c r="BJ9" s="2"/>
       <c r="BK9" s="2"/>
       <c r="BL9" s="2"/>
-      <c r="BM9" s="2"/>
+      <c r="BM9" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="BN9" s="2"/>
       <c r="BO9" s="2"/>
       <c r="BP9" s="2"/>
@@ -1465,7 +1540,9 @@
       <c r="CE9" s="2"/>
       <c r="CF9" s="2"/>
       <c r="CG9" s="2"/>
-      <c r="CH9" s="2"/>
+      <c r="CH9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="CI9" s="2"/>
       <c r="CJ9" s="2"/>
       <c r="CK9" s="2"/>
@@ -2680,6 +2757,104 @@
     </row>
   </sheetData>
   <mergeCells count="113">
+    <mergeCell ref="DC19:DM19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:V18"/>
+    <mergeCell ref="W18:AQ18"/>
+    <mergeCell ref="AR18:BL18"/>
+    <mergeCell ref="CH18:DB18"/>
+    <mergeCell ref="DC18:DM18"/>
+    <mergeCell ref="BM18:CG18"/>
+    <mergeCell ref="BM19:CG19"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:V19"/>
+    <mergeCell ref="W19:AQ19"/>
+    <mergeCell ref="AR19:BL19"/>
+    <mergeCell ref="CH19:DB19"/>
+    <mergeCell ref="DC17:DM17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:V16"/>
+    <mergeCell ref="W16:AQ16"/>
+    <mergeCell ref="AR16:BL16"/>
+    <mergeCell ref="CH16:DB16"/>
+    <mergeCell ref="DC16:DM16"/>
+    <mergeCell ref="BM16:CG16"/>
+    <mergeCell ref="BM17:CG17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:V17"/>
+    <mergeCell ref="W17:AQ17"/>
+    <mergeCell ref="AR17:BL17"/>
+    <mergeCell ref="CH17:DB17"/>
+    <mergeCell ref="DC15:DM15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:V14"/>
+    <mergeCell ref="W14:AQ14"/>
+    <mergeCell ref="AR14:BL14"/>
+    <mergeCell ref="CH14:DB14"/>
+    <mergeCell ref="DC14:DM14"/>
+    <mergeCell ref="BM14:CG14"/>
+    <mergeCell ref="BM15:CG15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:V15"/>
+    <mergeCell ref="W15:AQ15"/>
+    <mergeCell ref="AR15:BL15"/>
+    <mergeCell ref="CH15:DB15"/>
+    <mergeCell ref="DC13:DM13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:V12"/>
+    <mergeCell ref="W12:AQ12"/>
+    <mergeCell ref="AR12:BL12"/>
+    <mergeCell ref="CH12:DB12"/>
+    <mergeCell ref="DC12:DM12"/>
+    <mergeCell ref="BM12:CG12"/>
+    <mergeCell ref="BM13:CG13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:V13"/>
+    <mergeCell ref="W13:AQ13"/>
+    <mergeCell ref="AR13:BL13"/>
+    <mergeCell ref="CH13:DB13"/>
+    <mergeCell ref="DC11:DM11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:V10"/>
+    <mergeCell ref="W10:AQ10"/>
+    <mergeCell ref="AR10:BL10"/>
+    <mergeCell ref="CH10:DB10"/>
+    <mergeCell ref="DC10:DM10"/>
+    <mergeCell ref="BM10:CG10"/>
+    <mergeCell ref="BM11:CG11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:V11"/>
+    <mergeCell ref="W11:AQ11"/>
+    <mergeCell ref="AR11:BL11"/>
+    <mergeCell ref="CH11:DB11"/>
+    <mergeCell ref="DC9:DM9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:V8"/>
+    <mergeCell ref="W8:AQ8"/>
+    <mergeCell ref="AR8:BL8"/>
+    <mergeCell ref="CH8:DB8"/>
+    <mergeCell ref="DC8:DM8"/>
+    <mergeCell ref="BM8:CG8"/>
+    <mergeCell ref="BM9:CG9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:V9"/>
+    <mergeCell ref="W9:AQ9"/>
+    <mergeCell ref="AR9:BL9"/>
+    <mergeCell ref="CH9:DB9"/>
+    <mergeCell ref="DC7:DM7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:V6"/>
+    <mergeCell ref="W6:AQ6"/>
+    <mergeCell ref="AR6:BL6"/>
+    <mergeCell ref="CH6:DB6"/>
+    <mergeCell ref="DC6:DM6"/>
+    <mergeCell ref="BM6:CG6"/>
+    <mergeCell ref="BM7:CG7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:V7"/>
+    <mergeCell ref="W7:AQ7"/>
+    <mergeCell ref="AR7:BL7"/>
+    <mergeCell ref="CH7:DB7"/>
     <mergeCell ref="DC5:DM5"/>
     <mergeCell ref="B2:DL2"/>
     <mergeCell ref="B4:D4"/>
@@ -2695,104 +2870,6 @@
     <mergeCell ref="W5:AQ5"/>
     <mergeCell ref="AR5:BL5"/>
     <mergeCell ref="CH5:DB5"/>
-    <mergeCell ref="DC7:DM7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:V6"/>
-    <mergeCell ref="W6:AQ6"/>
-    <mergeCell ref="AR6:BL6"/>
-    <mergeCell ref="CH6:DB6"/>
-    <mergeCell ref="DC6:DM6"/>
-    <mergeCell ref="BM6:CG6"/>
-    <mergeCell ref="BM7:CG7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:V7"/>
-    <mergeCell ref="W7:AQ7"/>
-    <mergeCell ref="AR7:BL7"/>
-    <mergeCell ref="CH7:DB7"/>
-    <mergeCell ref="DC9:DM9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:V8"/>
-    <mergeCell ref="W8:AQ8"/>
-    <mergeCell ref="AR8:BL8"/>
-    <mergeCell ref="CH8:DB8"/>
-    <mergeCell ref="DC8:DM8"/>
-    <mergeCell ref="BM8:CG8"/>
-    <mergeCell ref="BM9:CG9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:V9"/>
-    <mergeCell ref="W9:AQ9"/>
-    <mergeCell ref="AR9:BL9"/>
-    <mergeCell ref="CH9:DB9"/>
-    <mergeCell ref="DC11:DM11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:V10"/>
-    <mergeCell ref="W10:AQ10"/>
-    <mergeCell ref="AR10:BL10"/>
-    <mergeCell ref="CH10:DB10"/>
-    <mergeCell ref="DC10:DM10"/>
-    <mergeCell ref="BM10:CG10"/>
-    <mergeCell ref="BM11:CG11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:V11"/>
-    <mergeCell ref="W11:AQ11"/>
-    <mergeCell ref="AR11:BL11"/>
-    <mergeCell ref="CH11:DB11"/>
-    <mergeCell ref="DC13:DM13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:V12"/>
-    <mergeCell ref="W12:AQ12"/>
-    <mergeCell ref="AR12:BL12"/>
-    <mergeCell ref="CH12:DB12"/>
-    <mergeCell ref="DC12:DM12"/>
-    <mergeCell ref="BM12:CG12"/>
-    <mergeCell ref="BM13:CG13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:V13"/>
-    <mergeCell ref="W13:AQ13"/>
-    <mergeCell ref="AR13:BL13"/>
-    <mergeCell ref="CH13:DB13"/>
-    <mergeCell ref="DC15:DM15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:V14"/>
-    <mergeCell ref="W14:AQ14"/>
-    <mergeCell ref="AR14:BL14"/>
-    <mergeCell ref="CH14:DB14"/>
-    <mergeCell ref="DC14:DM14"/>
-    <mergeCell ref="BM14:CG14"/>
-    <mergeCell ref="BM15:CG15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:V15"/>
-    <mergeCell ref="W15:AQ15"/>
-    <mergeCell ref="AR15:BL15"/>
-    <mergeCell ref="CH15:DB15"/>
-    <mergeCell ref="DC17:DM17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:V16"/>
-    <mergeCell ref="W16:AQ16"/>
-    <mergeCell ref="AR16:BL16"/>
-    <mergeCell ref="CH16:DB16"/>
-    <mergeCell ref="DC16:DM16"/>
-    <mergeCell ref="BM16:CG16"/>
-    <mergeCell ref="BM17:CG17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:V17"/>
-    <mergeCell ref="W17:AQ17"/>
-    <mergeCell ref="AR17:BL17"/>
-    <mergeCell ref="CH17:DB17"/>
-    <mergeCell ref="DC19:DM19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:V18"/>
-    <mergeCell ref="W18:AQ18"/>
-    <mergeCell ref="AR18:BL18"/>
-    <mergeCell ref="CH18:DB18"/>
-    <mergeCell ref="DC18:DM18"/>
-    <mergeCell ref="BM18:CG18"/>
-    <mergeCell ref="BM19:CG19"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:V19"/>
-    <mergeCell ref="W19:AQ19"/>
-    <mergeCell ref="AR19:BL19"/>
-    <mergeCell ref="CH19:DB19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/アプリケーション一覧.xlsx
+++ b/doc/アプリケーション一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\django_base\django_base\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7178260A-4D1A-4DB6-A212-8D2CB2F136FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC721FE5-CB0B-469A-A64C-D695CCC26CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>アプリケーション一覧</t>
     <rPh sb="8" eb="10">
@@ -189,6 +189,78 @@
     <rPh sb="11" eb="13">
       <t>シュツリョク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pg010_css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/pg010_css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cssをかける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pg009_pagemove</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/pg009_pagemove</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページ移動</t>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数ページ</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pg008_dynamic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/pg008_dynamic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動的ページ</t>
+    <rPh sb="0" eb="2">
+      <t>ドウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title,start,end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>静的ページ</t>
+    <rPh sb="0" eb="2">
+      <t>セイテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pg007_statictemp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/pg007_statictemp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -264,13 +336,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -551,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:DM19"/>
+  <dimension ref="B1:DM18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E11" sqref="E11:V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18"/>
@@ -677,242 +749,242 @@
       <c r="DL1" s="1"/>
     </row>
     <row r="2" spans="2:117" ht="26.5">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3"/>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3"/>
-      <c r="BG2" s="3"/>
-      <c r="BH2" s="3"/>
-      <c r="BI2" s="3"/>
-      <c r="BJ2" s="3"/>
-      <c r="BK2" s="3"/>
-      <c r="BL2" s="3"/>
-      <c r="BM2" s="3"/>
-      <c r="BN2" s="3"/>
-      <c r="BO2" s="3"/>
-      <c r="BP2" s="3"/>
-      <c r="BQ2" s="3"/>
-      <c r="BR2" s="3"/>
-      <c r="BS2" s="3"/>
-      <c r="BT2" s="3"/>
-      <c r="BU2" s="3"/>
-      <c r="BV2" s="3"/>
-      <c r="BW2" s="3"/>
-      <c r="BX2" s="3"/>
-      <c r="BY2" s="3"/>
-      <c r="BZ2" s="3"/>
-      <c r="CA2" s="3"/>
-      <c r="CB2" s="3"/>
-      <c r="CC2" s="3"/>
-      <c r="CD2" s="3"/>
-      <c r="CE2" s="3"/>
-      <c r="CF2" s="3"/>
-      <c r="CG2" s="3"/>
-      <c r="CH2" s="3"/>
-      <c r="CI2" s="3"/>
-      <c r="CJ2" s="3"/>
-      <c r="CK2" s="3"/>
-      <c r="CL2" s="3"/>
-      <c r="CM2" s="3"/>
-      <c r="CN2" s="3"/>
-      <c r="CO2" s="3"/>
-      <c r="CP2" s="3"/>
-      <c r="CQ2" s="3"/>
-      <c r="CR2" s="3"/>
-      <c r="CS2" s="3"/>
-      <c r="CT2" s="3"/>
-      <c r="CU2" s="3"/>
-      <c r="CV2" s="3"/>
-      <c r="CW2" s="3"/>
-      <c r="CX2" s="3"/>
-      <c r="CY2" s="3"/>
-      <c r="CZ2" s="3"/>
-      <c r="DA2" s="3"/>
-      <c r="DB2" s="3"/>
-      <c r="DC2" s="3"/>
-      <c r="DD2" s="3"/>
-      <c r="DE2" s="3"/>
-      <c r="DF2" s="3"/>
-      <c r="DG2" s="3"/>
-      <c r="DH2" s="3"/>
-      <c r="DI2" s="3"/>
-      <c r="DJ2" s="3"/>
-      <c r="DK2" s="3"/>
-      <c r="DL2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="4"/>
+      <c r="BZ2" s="4"/>
+      <c r="CA2" s="4"/>
+      <c r="CB2" s="4"/>
+      <c r="CC2" s="4"/>
+      <c r="CD2" s="4"/>
+      <c r="CE2" s="4"/>
+      <c r="CF2" s="4"/>
+      <c r="CG2" s="4"/>
+      <c r="CH2" s="4"/>
+      <c r="CI2" s="4"/>
+      <c r="CJ2" s="4"/>
+      <c r="CK2" s="4"/>
+      <c r="CL2" s="4"/>
+      <c r="CM2" s="4"/>
+      <c r="CN2" s="4"/>
+      <c r="CO2" s="4"/>
+      <c r="CP2" s="4"/>
+      <c r="CQ2" s="4"/>
+      <c r="CR2" s="4"/>
+      <c r="CS2" s="4"/>
+      <c r="CT2" s="4"/>
+      <c r="CU2" s="4"/>
+      <c r="CV2" s="4"/>
+      <c r="CW2" s="4"/>
+      <c r="CX2" s="4"/>
+      <c r="CY2" s="4"/>
+      <c r="CZ2" s="4"/>
+      <c r="DA2" s="4"/>
+      <c r="DB2" s="4"/>
+      <c r="DC2" s="4"/>
+      <c r="DD2" s="4"/>
+      <c r="DE2" s="4"/>
+      <c r="DF2" s="4"/>
+      <c r="DG2" s="4"/>
+      <c r="DH2" s="4"/>
+      <c r="DI2" s="4"/>
+      <c r="DJ2" s="4"/>
+      <c r="DK2" s="4"/>
+      <c r="DL2" s="4"/>
     </row>
     <row r="4" spans="2:117">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4" t="s">
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-      <c r="BF4" s="4"/>
-      <c r="BG4" s="4"/>
-      <c r="BH4" s="4"/>
-      <c r="BI4" s="4"/>
-      <c r="BJ4" s="4"/>
-      <c r="BK4" s="4"/>
-      <c r="BL4" s="4"/>
-      <c r="BM4" s="4" t="s">
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
+      <c r="BF4" s="5"/>
+      <c r="BG4" s="5"/>
+      <c r="BH4" s="5"/>
+      <c r="BI4" s="5"/>
+      <c r="BJ4" s="5"/>
+      <c r="BK4" s="5"/>
+      <c r="BL4" s="5"/>
+      <c r="BM4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="BN4" s="4"/>
-      <c r="BO4" s="4"/>
-      <c r="BP4" s="4"/>
-      <c r="BQ4" s="4"/>
-      <c r="BR4" s="4"/>
-      <c r="BS4" s="4"/>
-      <c r="BT4" s="4"/>
-      <c r="BU4" s="4"/>
-      <c r="BV4" s="4"/>
-      <c r="BW4" s="4"/>
-      <c r="BX4" s="4"/>
-      <c r="BY4" s="4"/>
-      <c r="BZ4" s="4"/>
-      <c r="CA4" s="4"/>
-      <c r="CB4" s="4"/>
-      <c r="CC4" s="4"/>
-      <c r="CD4" s="4"/>
-      <c r="CE4" s="4"/>
-      <c r="CF4" s="4"/>
-      <c r="CG4" s="4"/>
-      <c r="CH4" s="4" t="s">
+      <c r="BN4" s="5"/>
+      <c r="BO4" s="5"/>
+      <c r="BP4" s="5"/>
+      <c r="BQ4" s="5"/>
+      <c r="BR4" s="5"/>
+      <c r="BS4" s="5"/>
+      <c r="BT4" s="5"/>
+      <c r="BU4" s="5"/>
+      <c r="BV4" s="5"/>
+      <c r="BW4" s="5"/>
+      <c r="BX4" s="5"/>
+      <c r="BY4" s="5"/>
+      <c r="BZ4" s="5"/>
+      <c r="CA4" s="5"/>
+      <c r="CB4" s="5"/>
+      <c r="CC4" s="5"/>
+      <c r="CD4" s="5"/>
+      <c r="CE4" s="5"/>
+      <c r="CF4" s="5"/>
+      <c r="CG4" s="5"/>
+      <c r="CH4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="CI4" s="4"/>
-      <c r="CJ4" s="4"/>
-      <c r="CK4" s="4"/>
-      <c r="CL4" s="4"/>
-      <c r="CM4" s="4"/>
-      <c r="CN4" s="4"/>
-      <c r="CO4" s="4"/>
-      <c r="CP4" s="4"/>
-      <c r="CQ4" s="4"/>
-      <c r="CR4" s="4"/>
-      <c r="CS4" s="4"/>
-      <c r="CT4" s="4"/>
-      <c r="CU4" s="4"/>
-      <c r="CV4" s="4"/>
-      <c r="CW4" s="4"/>
-      <c r="CX4" s="4"/>
-      <c r="CY4" s="4"/>
-      <c r="CZ4" s="4"/>
-      <c r="DA4" s="4"/>
-      <c r="DB4" s="4"/>
+      <c r="CI4" s="5"/>
+      <c r="CJ4" s="5"/>
+      <c r="CK4" s="5"/>
+      <c r="CL4" s="5"/>
+      <c r="CM4" s="5"/>
+      <c r="CN4" s="5"/>
+      <c r="CO4" s="5"/>
+      <c r="CP4" s="5"/>
+      <c r="CQ4" s="5"/>
+      <c r="CR4" s="5"/>
+      <c r="CS4" s="5"/>
+      <c r="CT4" s="5"/>
+      <c r="CU4" s="5"/>
+      <c r="CV4" s="5"/>
+      <c r="CW4" s="5"/>
+      <c r="CX4" s="5"/>
+      <c r="CY4" s="5"/>
+      <c r="CZ4" s="5"/>
+      <c r="DA4" s="5"/>
+      <c r="DB4" s="5"/>
       <c r="DC4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1276,29 +1348,29 @@
       <c r="CE7" s="2"/>
       <c r="CF7" s="2"/>
       <c r="CG7" s="2"/>
-      <c r="CH7" s="5" t="s">
+      <c r="CH7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="CI7" s="5"/>
-      <c r="CJ7" s="5"/>
-      <c r="CK7" s="5"/>
-      <c r="CL7" s="5"/>
-      <c r="CM7" s="5"/>
-      <c r="CN7" s="5"/>
-      <c r="CO7" s="5"/>
-      <c r="CP7" s="5"/>
-      <c r="CQ7" s="5"/>
-      <c r="CR7" s="5"/>
-      <c r="CS7" s="5"/>
-      <c r="CT7" s="5"/>
-      <c r="CU7" s="5"/>
-      <c r="CV7" s="5"/>
-      <c r="CW7" s="5"/>
-      <c r="CX7" s="5"/>
-      <c r="CY7" s="5"/>
-      <c r="CZ7" s="5"/>
-      <c r="DA7" s="5"/>
-      <c r="DB7" s="5"/>
+      <c r="CI7" s="3"/>
+      <c r="CJ7" s="3"/>
+      <c r="CK7" s="3"/>
+      <c r="CL7" s="3"/>
+      <c r="CM7" s="3"/>
+      <c r="CN7" s="3"/>
+      <c r="CO7" s="3"/>
+      <c r="CP7" s="3"/>
+      <c r="CQ7" s="3"/>
+      <c r="CR7" s="3"/>
+      <c r="CS7" s="3"/>
+      <c r="CT7" s="3"/>
+      <c r="CU7" s="3"/>
+      <c r="CV7" s="3"/>
+      <c r="CW7" s="3"/>
+      <c r="CX7" s="3"/>
+      <c r="CY7" s="3"/>
+      <c r="CZ7" s="3"/>
+      <c r="DA7" s="3"/>
+      <c r="DB7" s="3"/>
       <c r="DC7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1408,29 +1480,29 @@
       <c r="CE8" s="2"/>
       <c r="CF8" s="2"/>
       <c r="CG8" s="2"/>
-      <c r="CH8" s="5" t="s">
+      <c r="CH8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="CI8" s="5"/>
-      <c r="CJ8" s="5"/>
-      <c r="CK8" s="5"/>
-      <c r="CL8" s="5"/>
-      <c r="CM8" s="5"/>
-      <c r="CN8" s="5"/>
-      <c r="CO8" s="5"/>
-      <c r="CP8" s="5"/>
-      <c r="CQ8" s="5"/>
-      <c r="CR8" s="5"/>
-      <c r="CS8" s="5"/>
-      <c r="CT8" s="5"/>
-      <c r="CU8" s="5"/>
-      <c r="CV8" s="5"/>
-      <c r="CW8" s="5"/>
-      <c r="CX8" s="5"/>
-      <c r="CY8" s="5"/>
-      <c r="CZ8" s="5"/>
-      <c r="DA8" s="5"/>
-      <c r="DB8" s="5"/>
+      <c r="CI8" s="3"/>
+      <c r="CJ8" s="3"/>
+      <c r="CK8" s="3"/>
+      <c r="CL8" s="3"/>
+      <c r="CM8" s="3"/>
+      <c r="CN8" s="3"/>
+      <c r="CO8" s="3"/>
+      <c r="CP8" s="3"/>
+      <c r="CQ8" s="3"/>
+      <c r="CR8" s="3"/>
+      <c r="CS8" s="3"/>
+      <c r="CT8" s="3"/>
+      <c r="CU8" s="3"/>
+      <c r="CV8" s="3"/>
+      <c r="CW8" s="3"/>
+      <c r="CX8" s="3"/>
+      <c r="CY8" s="3"/>
+      <c r="CZ8" s="3"/>
+      <c r="DA8" s="3"/>
+      <c r="DB8" s="3"/>
       <c r="DC8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1576,10 +1648,14 @@
       <c r="DM9" s="2"/>
     </row>
     <row r="10" spans="2:117" ht="18.5" customHeight="1">
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1597,7 +1673,9 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
+      <c r="W10" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
@@ -1618,7 +1696,9 @@
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
+      <c r="AR10" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="AS10" s="2"/>
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
@@ -1660,7 +1740,9 @@
       <c r="CE10" s="2"/>
       <c r="CF10" s="2"/>
       <c r="CG10" s="2"/>
-      <c r="CH10" s="2"/>
+      <c r="CH10" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="CI10" s="2"/>
       <c r="CJ10" s="2"/>
       <c r="CK10" s="2"/>
@@ -1694,10 +1776,14 @@
       <c r="DM10" s="2"/>
     </row>
     <row r="11" spans="2:117" ht="18.5" customHeight="1">
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1715,7 +1801,9 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
+      <c r="W11" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
@@ -1736,7 +1824,9 @@
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
+      <c r="AR11" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="AS11" s="2"/>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
@@ -1757,7 +1847,9 @@
       <c r="BJ11" s="2"/>
       <c r="BK11" s="2"/>
       <c r="BL11" s="2"/>
-      <c r="BM11" s="2"/>
+      <c r="BM11" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="BN11" s="2"/>
       <c r="BO11" s="2"/>
       <c r="BP11" s="2"/>
@@ -1778,7 +1870,9 @@
       <c r="CE11" s="2"/>
       <c r="CF11" s="2"/>
       <c r="CG11" s="2"/>
-      <c r="CH11" s="2"/>
+      <c r="CH11" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="CI11" s="2"/>
       <c r="CJ11" s="2"/>
       <c r="CK11" s="2"/>
@@ -1812,10 +1906,14 @@
       <c r="DM11" s="2"/>
     </row>
     <row r="12" spans="2:117" ht="18.5" customHeight="1">
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1833,7 +1931,9 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
+      <c r="W12" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
@@ -1854,7 +1954,9 @@
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
-      <c r="AR12" s="2"/>
+      <c r="AR12" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="AS12" s="2"/>
       <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
@@ -1896,7 +1998,9 @@
       <c r="CE12" s="2"/>
       <c r="CF12" s="2"/>
       <c r="CG12" s="2"/>
-      <c r="CH12" s="2"/>
+      <c r="CH12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="CI12" s="2"/>
       <c r="CJ12" s="2"/>
       <c r="CK12" s="2"/>
@@ -1930,10 +2034,14 @@
       <c r="DM12" s="2"/>
     </row>
     <row r="13" spans="2:117" ht="18.5" customHeight="1">
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1951,7 +2059,9 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
+      <c r="W13" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
@@ -1972,7 +2082,9 @@
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
-      <c r="AR13" s="2"/>
+      <c r="AR13" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="AS13" s="2"/>
       <c r="AT13" s="2"/>
       <c r="AU13" s="2"/>
@@ -2014,7 +2126,9 @@
       <c r="CE13" s="2"/>
       <c r="CF13" s="2"/>
       <c r="CG13" s="2"/>
-      <c r="CH13" s="2"/>
+      <c r="CH13" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="CI13" s="2"/>
       <c r="CJ13" s="2"/>
       <c r="CK13" s="2"/>
@@ -2637,224 +2751,8 @@
       <c r="DL18" s="2"/>
       <c r="DM18" s="2"/>
     </row>
-    <row r="19" spans="2:117" ht="18.5" customHeight="1">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2"/>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
-      <c r="AN19" s="2"/>
-      <c r="AO19" s="2"/>
-      <c r="AP19" s="2"/>
-      <c r="AQ19" s="2"/>
-      <c r="AR19" s="2"/>
-      <c r="AS19" s="2"/>
-      <c r="AT19" s="2"/>
-      <c r="AU19" s="2"/>
-      <c r="AV19" s="2"/>
-      <c r="AW19" s="2"/>
-      <c r="AX19" s="2"/>
-      <c r="AY19" s="2"/>
-      <c r="AZ19" s="2"/>
-      <c r="BA19" s="2"/>
-      <c r="BB19" s="2"/>
-      <c r="BC19" s="2"/>
-      <c r="BD19" s="2"/>
-      <c r="BE19" s="2"/>
-      <c r="BF19" s="2"/>
-      <c r="BG19" s="2"/>
-      <c r="BH19" s="2"/>
-      <c r="BI19" s="2"/>
-      <c r="BJ19" s="2"/>
-      <c r="BK19" s="2"/>
-      <c r="BL19" s="2"/>
-      <c r="BM19" s="2"/>
-      <c r="BN19" s="2"/>
-      <c r="BO19" s="2"/>
-      <c r="BP19" s="2"/>
-      <c r="BQ19" s="2"/>
-      <c r="BR19" s="2"/>
-      <c r="BS19" s="2"/>
-      <c r="BT19" s="2"/>
-      <c r="BU19" s="2"/>
-      <c r="BV19" s="2"/>
-      <c r="BW19" s="2"/>
-      <c r="BX19" s="2"/>
-      <c r="BY19" s="2"/>
-      <c r="BZ19" s="2"/>
-      <c r="CA19" s="2"/>
-      <c r="CB19" s="2"/>
-      <c r="CC19" s="2"/>
-      <c r="CD19" s="2"/>
-      <c r="CE19" s="2"/>
-      <c r="CF19" s="2"/>
-      <c r="CG19" s="2"/>
-      <c r="CH19" s="2"/>
-      <c r="CI19" s="2"/>
-      <c r="CJ19" s="2"/>
-      <c r="CK19" s="2"/>
-      <c r="CL19" s="2"/>
-      <c r="CM19" s="2"/>
-      <c r="CN19" s="2"/>
-      <c r="CO19" s="2"/>
-      <c r="CP19" s="2"/>
-      <c r="CQ19" s="2"/>
-      <c r="CR19" s="2"/>
-      <c r="CS19" s="2"/>
-      <c r="CT19" s="2"/>
-      <c r="CU19" s="2"/>
-      <c r="CV19" s="2"/>
-      <c r="CW19" s="2"/>
-      <c r="CX19" s="2"/>
-      <c r="CY19" s="2"/>
-      <c r="CZ19" s="2"/>
-      <c r="DA19" s="2"/>
-      <c r="DB19" s="2"/>
-      <c r="DC19" s="2"/>
-      <c r="DD19" s="2"/>
-      <c r="DE19" s="2"/>
-      <c r="DF19" s="2"/>
-      <c r="DG19" s="2"/>
-      <c r="DH19" s="2"/>
-      <c r="DI19" s="2"/>
-      <c r="DJ19" s="2"/>
-      <c r="DK19" s="2"/>
-      <c r="DL19" s="2"/>
-      <c r="DM19" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="DC19:DM19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:V18"/>
-    <mergeCell ref="W18:AQ18"/>
-    <mergeCell ref="AR18:BL18"/>
-    <mergeCell ref="CH18:DB18"/>
-    <mergeCell ref="DC18:DM18"/>
-    <mergeCell ref="BM18:CG18"/>
-    <mergeCell ref="BM19:CG19"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:V19"/>
-    <mergeCell ref="W19:AQ19"/>
-    <mergeCell ref="AR19:BL19"/>
-    <mergeCell ref="CH19:DB19"/>
-    <mergeCell ref="DC17:DM17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:V16"/>
-    <mergeCell ref="W16:AQ16"/>
-    <mergeCell ref="AR16:BL16"/>
-    <mergeCell ref="CH16:DB16"/>
-    <mergeCell ref="DC16:DM16"/>
-    <mergeCell ref="BM16:CG16"/>
-    <mergeCell ref="BM17:CG17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:V17"/>
-    <mergeCell ref="W17:AQ17"/>
-    <mergeCell ref="AR17:BL17"/>
-    <mergeCell ref="CH17:DB17"/>
-    <mergeCell ref="DC15:DM15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:V14"/>
-    <mergeCell ref="W14:AQ14"/>
-    <mergeCell ref="AR14:BL14"/>
-    <mergeCell ref="CH14:DB14"/>
-    <mergeCell ref="DC14:DM14"/>
-    <mergeCell ref="BM14:CG14"/>
-    <mergeCell ref="BM15:CG15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:V15"/>
-    <mergeCell ref="W15:AQ15"/>
-    <mergeCell ref="AR15:BL15"/>
-    <mergeCell ref="CH15:DB15"/>
-    <mergeCell ref="DC13:DM13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:V12"/>
-    <mergeCell ref="W12:AQ12"/>
-    <mergeCell ref="AR12:BL12"/>
-    <mergeCell ref="CH12:DB12"/>
-    <mergeCell ref="DC12:DM12"/>
-    <mergeCell ref="BM12:CG12"/>
-    <mergeCell ref="BM13:CG13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:V13"/>
-    <mergeCell ref="W13:AQ13"/>
-    <mergeCell ref="AR13:BL13"/>
-    <mergeCell ref="CH13:DB13"/>
-    <mergeCell ref="DC11:DM11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:V10"/>
-    <mergeCell ref="W10:AQ10"/>
-    <mergeCell ref="AR10:BL10"/>
-    <mergeCell ref="CH10:DB10"/>
-    <mergeCell ref="DC10:DM10"/>
-    <mergeCell ref="BM10:CG10"/>
-    <mergeCell ref="BM11:CG11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:V11"/>
-    <mergeCell ref="W11:AQ11"/>
-    <mergeCell ref="AR11:BL11"/>
-    <mergeCell ref="CH11:DB11"/>
-    <mergeCell ref="DC9:DM9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:V8"/>
-    <mergeCell ref="W8:AQ8"/>
-    <mergeCell ref="AR8:BL8"/>
-    <mergeCell ref="CH8:DB8"/>
-    <mergeCell ref="DC8:DM8"/>
-    <mergeCell ref="BM8:CG8"/>
-    <mergeCell ref="BM9:CG9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:V9"/>
-    <mergeCell ref="W9:AQ9"/>
-    <mergeCell ref="AR9:BL9"/>
-    <mergeCell ref="CH9:DB9"/>
-    <mergeCell ref="DC7:DM7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:V6"/>
-    <mergeCell ref="W6:AQ6"/>
-    <mergeCell ref="AR6:BL6"/>
-    <mergeCell ref="CH6:DB6"/>
-    <mergeCell ref="DC6:DM6"/>
-    <mergeCell ref="BM6:CG6"/>
-    <mergeCell ref="BM7:CG7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:V7"/>
-    <mergeCell ref="W7:AQ7"/>
-    <mergeCell ref="AR7:BL7"/>
-    <mergeCell ref="CH7:DB7"/>
+  <mergeCells count="106">
     <mergeCell ref="DC5:DM5"/>
     <mergeCell ref="B2:DL2"/>
     <mergeCell ref="B4:D4"/>
@@ -2870,6 +2768,97 @@
     <mergeCell ref="W5:AQ5"/>
     <mergeCell ref="AR5:BL5"/>
     <mergeCell ref="CH5:DB5"/>
+    <mergeCell ref="DC7:DM7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:V6"/>
+    <mergeCell ref="W6:AQ6"/>
+    <mergeCell ref="AR6:BL6"/>
+    <mergeCell ref="CH6:DB6"/>
+    <mergeCell ref="DC6:DM6"/>
+    <mergeCell ref="BM6:CG6"/>
+    <mergeCell ref="BM7:CG7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:V7"/>
+    <mergeCell ref="W7:AQ7"/>
+    <mergeCell ref="AR7:BL7"/>
+    <mergeCell ref="CH7:DB7"/>
+    <mergeCell ref="DC9:DM9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:V8"/>
+    <mergeCell ref="W8:AQ8"/>
+    <mergeCell ref="AR8:BL8"/>
+    <mergeCell ref="CH8:DB8"/>
+    <mergeCell ref="DC8:DM8"/>
+    <mergeCell ref="BM8:CG8"/>
+    <mergeCell ref="BM9:CG9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:V9"/>
+    <mergeCell ref="W9:AQ9"/>
+    <mergeCell ref="AR9:BL9"/>
+    <mergeCell ref="CH9:DB9"/>
+    <mergeCell ref="DC10:DM10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="BM10:CG10"/>
+    <mergeCell ref="E10:V10"/>
+    <mergeCell ref="W10:AQ10"/>
+    <mergeCell ref="AR10:BL10"/>
+    <mergeCell ref="CH10:DB10"/>
+    <mergeCell ref="DC12:DM12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:V11"/>
+    <mergeCell ref="W11:AQ11"/>
+    <mergeCell ref="AR11:BL11"/>
+    <mergeCell ref="CH11:DB11"/>
+    <mergeCell ref="DC11:DM11"/>
+    <mergeCell ref="BM11:CG11"/>
+    <mergeCell ref="BM12:CG12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:V12"/>
+    <mergeCell ref="W12:AQ12"/>
+    <mergeCell ref="AR12:BL12"/>
+    <mergeCell ref="CH12:DB12"/>
+    <mergeCell ref="DC14:DM14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:V13"/>
+    <mergeCell ref="W13:AQ13"/>
+    <mergeCell ref="AR13:BL13"/>
+    <mergeCell ref="CH13:DB13"/>
+    <mergeCell ref="DC13:DM13"/>
+    <mergeCell ref="BM13:CG13"/>
+    <mergeCell ref="BM14:CG14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:V14"/>
+    <mergeCell ref="W14:AQ14"/>
+    <mergeCell ref="AR14:BL14"/>
+    <mergeCell ref="CH14:DB14"/>
+    <mergeCell ref="DC16:DM16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:V15"/>
+    <mergeCell ref="W15:AQ15"/>
+    <mergeCell ref="AR15:BL15"/>
+    <mergeCell ref="CH15:DB15"/>
+    <mergeCell ref="DC15:DM15"/>
+    <mergeCell ref="BM15:CG15"/>
+    <mergeCell ref="BM16:CG16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:V16"/>
+    <mergeCell ref="W16:AQ16"/>
+    <mergeCell ref="AR16:BL16"/>
+    <mergeCell ref="CH16:DB16"/>
+    <mergeCell ref="DC18:DM18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:V17"/>
+    <mergeCell ref="W17:AQ17"/>
+    <mergeCell ref="AR17:BL17"/>
+    <mergeCell ref="CH17:DB17"/>
+    <mergeCell ref="DC17:DM17"/>
+    <mergeCell ref="BM17:CG17"/>
+    <mergeCell ref="BM18:CG18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:V18"/>
+    <mergeCell ref="W18:AQ18"/>
+    <mergeCell ref="AR18:BL18"/>
+    <mergeCell ref="CH18:DB18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/アプリケーション一覧.xlsx
+++ b/doc/アプリケーション一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\django_base\django_base\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC721FE5-CB0B-469A-A64C-D695CCC26CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E89693B-4A0D-4617-BF08-1C038E07DD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>アプリケーション一覧</t>
     <rPh sb="8" eb="10">
@@ -261,6 +261,25 @@
   </si>
   <si>
     <t>/pg007_statictemp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BootStrap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pg011_boot_strap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/pg011_boot_strap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>net上のcssをかける</t>
+    <rPh sb="3" eb="4">
+      <t>ジョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -291,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +320,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,17 +357,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -625,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:DM18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:V11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18"/>
@@ -749,255 +775,255 @@
       <c r="DL1" s="1"/>
     </row>
     <row r="2" spans="2:117" ht="26.5">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4"/>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4"/>
-      <c r="BL2" s="4"/>
-      <c r="BM2" s="4"/>
-      <c r="BN2" s="4"/>
-      <c r="BO2" s="4"/>
-      <c r="BP2" s="4"/>
-      <c r="BQ2" s="4"/>
-      <c r="BR2" s="4"/>
-      <c r="BS2" s="4"/>
-      <c r="BT2" s="4"/>
-      <c r="BU2" s="4"/>
-      <c r="BV2" s="4"/>
-      <c r="BW2" s="4"/>
-      <c r="BX2" s="4"/>
-      <c r="BY2" s="4"/>
-      <c r="BZ2" s="4"/>
-      <c r="CA2" s="4"/>
-      <c r="CB2" s="4"/>
-      <c r="CC2" s="4"/>
-      <c r="CD2" s="4"/>
-      <c r="CE2" s="4"/>
-      <c r="CF2" s="4"/>
-      <c r="CG2" s="4"/>
-      <c r="CH2" s="4"/>
-      <c r="CI2" s="4"/>
-      <c r="CJ2" s="4"/>
-      <c r="CK2" s="4"/>
-      <c r="CL2" s="4"/>
-      <c r="CM2" s="4"/>
-      <c r="CN2" s="4"/>
-      <c r="CO2" s="4"/>
-      <c r="CP2" s="4"/>
-      <c r="CQ2" s="4"/>
-      <c r="CR2" s="4"/>
-      <c r="CS2" s="4"/>
-      <c r="CT2" s="4"/>
-      <c r="CU2" s="4"/>
-      <c r="CV2" s="4"/>
-      <c r="CW2" s="4"/>
-      <c r="CX2" s="4"/>
-      <c r="CY2" s="4"/>
-      <c r="CZ2" s="4"/>
-      <c r="DA2" s="4"/>
-      <c r="DB2" s="4"/>
-      <c r="DC2" s="4"/>
-      <c r="DD2" s="4"/>
-      <c r="DE2" s="4"/>
-      <c r="DF2" s="4"/>
-      <c r="DG2" s="4"/>
-      <c r="DH2" s="4"/>
-      <c r="DI2" s="4"/>
-      <c r="DJ2" s="4"/>
-      <c r="DK2" s="4"/>
-      <c r="DL2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="3"/>
+      <c r="BP2" s="3"/>
+      <c r="BQ2" s="3"/>
+      <c r="BR2" s="3"/>
+      <c r="BS2" s="3"/>
+      <c r="BT2" s="3"/>
+      <c r="BU2" s="3"/>
+      <c r="BV2" s="3"/>
+      <c r="BW2" s="3"/>
+      <c r="BX2" s="3"/>
+      <c r="BY2" s="3"/>
+      <c r="BZ2" s="3"/>
+      <c r="CA2" s="3"/>
+      <c r="CB2" s="3"/>
+      <c r="CC2" s="3"/>
+      <c r="CD2" s="3"/>
+      <c r="CE2" s="3"/>
+      <c r="CF2" s="3"/>
+      <c r="CG2" s="3"/>
+      <c r="CH2" s="3"/>
+      <c r="CI2" s="3"/>
+      <c r="CJ2" s="3"/>
+      <c r="CK2" s="3"/>
+      <c r="CL2" s="3"/>
+      <c r="CM2" s="3"/>
+      <c r="CN2" s="3"/>
+      <c r="CO2" s="3"/>
+      <c r="CP2" s="3"/>
+      <c r="CQ2" s="3"/>
+      <c r="CR2" s="3"/>
+      <c r="CS2" s="3"/>
+      <c r="CT2" s="3"/>
+      <c r="CU2" s="3"/>
+      <c r="CV2" s="3"/>
+      <c r="CW2" s="3"/>
+      <c r="CX2" s="3"/>
+      <c r="CY2" s="3"/>
+      <c r="CZ2" s="3"/>
+      <c r="DA2" s="3"/>
+      <c r="DB2" s="3"/>
+      <c r="DC2" s="3"/>
+      <c r="DD2" s="3"/>
+      <c r="DE2" s="3"/>
+      <c r="DF2" s="3"/>
+      <c r="DG2" s="3"/>
+      <c r="DH2" s="3"/>
+      <c r="DI2" s="3"/>
+      <c r="DJ2" s="3"/>
+      <c r="DK2" s="3"/>
+      <c r="DL2" s="3"/>
     </row>
     <row r="4" spans="2:117">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5" t="s">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="5"/>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="5"/>
-      <c r="BF4" s="5"/>
-      <c r="BG4" s="5"/>
-      <c r="BH4" s="5"/>
-      <c r="BI4" s="5"/>
-      <c r="BJ4" s="5"/>
-      <c r="BK4" s="5"/>
-      <c r="BL4" s="5"/>
-      <c r="BM4" s="5" t="s">
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="BN4" s="5"/>
-      <c r="BO4" s="5"/>
-      <c r="BP4" s="5"/>
-      <c r="BQ4" s="5"/>
-      <c r="BR4" s="5"/>
-      <c r="BS4" s="5"/>
-      <c r="BT4" s="5"/>
-      <c r="BU4" s="5"/>
-      <c r="BV4" s="5"/>
-      <c r="BW4" s="5"/>
-      <c r="BX4" s="5"/>
-      <c r="BY4" s="5"/>
-      <c r="BZ4" s="5"/>
-      <c r="CA4" s="5"/>
-      <c r="CB4" s="5"/>
-      <c r="CC4" s="5"/>
-      <c r="CD4" s="5"/>
-      <c r="CE4" s="5"/>
-      <c r="CF4" s="5"/>
-      <c r="CG4" s="5"/>
-      <c r="CH4" s="5" t="s">
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4"/>
+      <c r="BU4" s="4"/>
+      <c r="BV4" s="4"/>
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="4"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="4"/>
+      <c r="CA4" s="4"/>
+      <c r="CB4" s="4"/>
+      <c r="CC4" s="4"/>
+      <c r="CD4" s="4"/>
+      <c r="CE4" s="4"/>
+      <c r="CF4" s="4"/>
+      <c r="CG4" s="4"/>
+      <c r="CH4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="CI4" s="5"/>
-      <c r="CJ4" s="5"/>
-      <c r="CK4" s="5"/>
-      <c r="CL4" s="5"/>
-      <c r="CM4" s="5"/>
-      <c r="CN4" s="5"/>
-      <c r="CO4" s="5"/>
-      <c r="CP4" s="5"/>
-      <c r="CQ4" s="5"/>
-      <c r="CR4" s="5"/>
-      <c r="CS4" s="5"/>
-      <c r="CT4" s="5"/>
-      <c r="CU4" s="5"/>
-      <c r="CV4" s="5"/>
-      <c r="CW4" s="5"/>
-      <c r="CX4" s="5"/>
-      <c r="CY4" s="5"/>
-      <c r="CZ4" s="5"/>
-      <c r="DA4" s="5"/>
-      <c r="DB4" s="5"/>
-      <c r="DC4" s="2" t="s">
+      <c r="CI4" s="4"/>
+      <c r="CJ4" s="4"/>
+      <c r="CK4" s="4"/>
+      <c r="CL4" s="4"/>
+      <c r="CM4" s="4"/>
+      <c r="CN4" s="4"/>
+      <c r="CO4" s="4"/>
+      <c r="CP4" s="4"/>
+      <c r="CQ4" s="4"/>
+      <c r="CR4" s="4"/>
+      <c r="CS4" s="4"/>
+      <c r="CT4" s="4"/>
+      <c r="CU4" s="4"/>
+      <c r="CV4" s="4"/>
+      <c r="CW4" s="4"/>
+      <c r="CX4" s="4"/>
+      <c r="CY4" s="4"/>
+      <c r="CZ4" s="4"/>
+      <c r="DA4" s="4"/>
+      <c r="DB4" s="4"/>
+      <c r="DC4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="DD4" s="2"/>
-      <c r="DE4" s="2"/>
-      <c r="DF4" s="2"/>
-      <c r="DG4" s="2"/>
-      <c r="DH4" s="2"/>
-      <c r="DI4" s="2"/>
-      <c r="DJ4" s="2"/>
-      <c r="DK4" s="2"/>
-      <c r="DL4" s="2"/>
-      <c r="DM4" s="2"/>
+      <c r="DD4" s="6"/>
+      <c r="DE4" s="6"/>
+      <c r="DF4" s="6"/>
+      <c r="DG4" s="6"/>
+      <c r="DH4" s="6"/>
+      <c r="DI4" s="6"/>
+      <c r="DJ4" s="6"/>
+      <c r="DK4" s="6"/>
+      <c r="DL4" s="6"/>
+      <c r="DM4" s="6"/>
     </row>
     <row r="5" spans="2:117" ht="18.5" customHeight="1">
       <c r="B5" s="2">
@@ -1348,29 +1374,29 @@
       <c r="CE7" s="2"/>
       <c r="CF7" s="2"/>
       <c r="CG7" s="2"/>
-      <c r="CH7" s="3" t="s">
+      <c r="CH7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="CI7" s="3"/>
-      <c r="CJ7" s="3"/>
-      <c r="CK7" s="3"/>
-      <c r="CL7" s="3"/>
-      <c r="CM7" s="3"/>
-      <c r="CN7" s="3"/>
-      <c r="CO7" s="3"/>
-      <c r="CP7" s="3"/>
-      <c r="CQ7" s="3"/>
-      <c r="CR7" s="3"/>
-      <c r="CS7" s="3"/>
-      <c r="CT7" s="3"/>
-      <c r="CU7" s="3"/>
-      <c r="CV7" s="3"/>
-      <c r="CW7" s="3"/>
-      <c r="CX7" s="3"/>
-      <c r="CY7" s="3"/>
-      <c r="CZ7" s="3"/>
-      <c r="DA7" s="3"/>
-      <c r="DB7" s="3"/>
+      <c r="CI7" s="5"/>
+      <c r="CJ7" s="5"/>
+      <c r="CK7" s="5"/>
+      <c r="CL7" s="5"/>
+      <c r="CM7" s="5"/>
+      <c r="CN7" s="5"/>
+      <c r="CO7" s="5"/>
+      <c r="CP7" s="5"/>
+      <c r="CQ7" s="5"/>
+      <c r="CR7" s="5"/>
+      <c r="CS7" s="5"/>
+      <c r="CT7" s="5"/>
+      <c r="CU7" s="5"/>
+      <c r="CV7" s="5"/>
+      <c r="CW7" s="5"/>
+      <c r="CX7" s="5"/>
+      <c r="CY7" s="5"/>
+      <c r="CZ7" s="5"/>
+      <c r="DA7" s="5"/>
+      <c r="DB7" s="5"/>
       <c r="DC7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1480,29 +1506,29 @@
       <c r="CE8" s="2"/>
       <c r="CF8" s="2"/>
       <c r="CG8" s="2"/>
-      <c r="CH8" s="3" t="s">
+      <c r="CH8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="CI8" s="3"/>
-      <c r="CJ8" s="3"/>
-      <c r="CK8" s="3"/>
-      <c r="CL8" s="3"/>
-      <c r="CM8" s="3"/>
-      <c r="CN8" s="3"/>
-      <c r="CO8" s="3"/>
-      <c r="CP8" s="3"/>
-      <c r="CQ8" s="3"/>
-      <c r="CR8" s="3"/>
-      <c r="CS8" s="3"/>
-      <c r="CT8" s="3"/>
-      <c r="CU8" s="3"/>
-      <c r="CV8" s="3"/>
-      <c r="CW8" s="3"/>
-      <c r="CX8" s="3"/>
-      <c r="CY8" s="3"/>
-      <c r="CZ8" s="3"/>
-      <c r="DA8" s="3"/>
-      <c r="DB8" s="3"/>
+      <c r="CI8" s="5"/>
+      <c r="CJ8" s="5"/>
+      <c r="CK8" s="5"/>
+      <c r="CL8" s="5"/>
+      <c r="CM8" s="5"/>
+      <c r="CN8" s="5"/>
+      <c r="CO8" s="5"/>
+      <c r="CP8" s="5"/>
+      <c r="CQ8" s="5"/>
+      <c r="CR8" s="5"/>
+      <c r="CS8" s="5"/>
+      <c r="CT8" s="5"/>
+      <c r="CU8" s="5"/>
+      <c r="CV8" s="5"/>
+      <c r="CW8" s="5"/>
+      <c r="CX8" s="5"/>
+      <c r="CY8" s="5"/>
+      <c r="CZ8" s="5"/>
+      <c r="DA8" s="5"/>
+      <c r="DB8" s="5"/>
       <c r="DC8" s="2" t="s">
         <v>24</v>
       </c>
@@ -2162,10 +2188,14 @@
       <c r="DM13" s="2"/>
     </row>
     <row r="14" spans="2:117" ht="18.5" customHeight="1">
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2183,7 +2213,9 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
+      <c r="W14" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
@@ -2204,7 +2236,9 @@
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
-      <c r="AR14" s="2"/>
+      <c r="AR14" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2"/>
@@ -2246,7 +2280,9 @@
       <c r="CE14" s="2"/>
       <c r="CF14" s="2"/>
       <c r="CG14" s="2"/>
-      <c r="CH14" s="2"/>
+      <c r="CH14" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="CI14" s="2"/>
       <c r="CJ14" s="2"/>
       <c r="CK14" s="2"/>
@@ -2753,49 +2789,48 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="DC5:DM5"/>
-    <mergeCell ref="B2:DL2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:V4"/>
-    <mergeCell ref="W4:AQ4"/>
-    <mergeCell ref="AR4:BL4"/>
-    <mergeCell ref="CH4:DB4"/>
-    <mergeCell ref="DC4:DM4"/>
-    <mergeCell ref="BM4:CG4"/>
-    <mergeCell ref="BM5:CG5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:V5"/>
-    <mergeCell ref="W5:AQ5"/>
-    <mergeCell ref="AR5:BL5"/>
-    <mergeCell ref="CH5:DB5"/>
-    <mergeCell ref="DC7:DM7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:V6"/>
-    <mergeCell ref="W6:AQ6"/>
-    <mergeCell ref="AR6:BL6"/>
-    <mergeCell ref="CH6:DB6"/>
-    <mergeCell ref="DC6:DM6"/>
-    <mergeCell ref="BM6:CG6"/>
-    <mergeCell ref="BM7:CG7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:V7"/>
-    <mergeCell ref="W7:AQ7"/>
-    <mergeCell ref="AR7:BL7"/>
-    <mergeCell ref="CH7:DB7"/>
-    <mergeCell ref="DC9:DM9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:V8"/>
-    <mergeCell ref="W8:AQ8"/>
-    <mergeCell ref="AR8:BL8"/>
-    <mergeCell ref="CH8:DB8"/>
-    <mergeCell ref="DC8:DM8"/>
-    <mergeCell ref="BM8:CG8"/>
-    <mergeCell ref="BM9:CG9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:V9"/>
-    <mergeCell ref="W9:AQ9"/>
-    <mergeCell ref="AR9:BL9"/>
-    <mergeCell ref="CH9:DB9"/>
+    <mergeCell ref="DC18:DM18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:V17"/>
+    <mergeCell ref="W17:AQ17"/>
+    <mergeCell ref="AR17:BL17"/>
+    <mergeCell ref="CH17:DB17"/>
+    <mergeCell ref="DC17:DM17"/>
+    <mergeCell ref="BM17:CG17"/>
+    <mergeCell ref="BM18:CG18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:V18"/>
+    <mergeCell ref="W18:AQ18"/>
+    <mergeCell ref="AR18:BL18"/>
+    <mergeCell ref="CH18:DB18"/>
+    <mergeCell ref="DC16:DM16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:V15"/>
+    <mergeCell ref="W15:AQ15"/>
+    <mergeCell ref="AR15:BL15"/>
+    <mergeCell ref="CH15:DB15"/>
+    <mergeCell ref="DC15:DM15"/>
+    <mergeCell ref="BM15:CG15"/>
+    <mergeCell ref="BM16:CG16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:V16"/>
+    <mergeCell ref="W16:AQ16"/>
+    <mergeCell ref="AR16:BL16"/>
+    <mergeCell ref="CH16:DB16"/>
+    <mergeCell ref="DC14:DM14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:V13"/>
+    <mergeCell ref="W13:AQ13"/>
+    <mergeCell ref="AR13:BL13"/>
+    <mergeCell ref="CH13:DB13"/>
+    <mergeCell ref="DC13:DM13"/>
+    <mergeCell ref="BM13:CG13"/>
+    <mergeCell ref="BM14:CG14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:V14"/>
+    <mergeCell ref="W14:AQ14"/>
+    <mergeCell ref="AR14:BL14"/>
+    <mergeCell ref="CH14:DB14"/>
     <mergeCell ref="DC10:DM10"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="BM10:CG10"/>
@@ -2817,48 +2852,49 @@
     <mergeCell ref="W12:AQ12"/>
     <mergeCell ref="AR12:BL12"/>
     <mergeCell ref="CH12:DB12"/>
-    <mergeCell ref="DC14:DM14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:V13"/>
-    <mergeCell ref="W13:AQ13"/>
-    <mergeCell ref="AR13:BL13"/>
-    <mergeCell ref="CH13:DB13"/>
-    <mergeCell ref="DC13:DM13"/>
-    <mergeCell ref="BM13:CG13"/>
-    <mergeCell ref="BM14:CG14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:V14"/>
-    <mergeCell ref="W14:AQ14"/>
-    <mergeCell ref="AR14:BL14"/>
-    <mergeCell ref="CH14:DB14"/>
-    <mergeCell ref="DC16:DM16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:V15"/>
-    <mergeCell ref="W15:AQ15"/>
-    <mergeCell ref="AR15:BL15"/>
-    <mergeCell ref="CH15:DB15"/>
-    <mergeCell ref="DC15:DM15"/>
-    <mergeCell ref="BM15:CG15"/>
-    <mergeCell ref="BM16:CG16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:V16"/>
-    <mergeCell ref="W16:AQ16"/>
-    <mergeCell ref="AR16:BL16"/>
-    <mergeCell ref="CH16:DB16"/>
-    <mergeCell ref="DC18:DM18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:V17"/>
-    <mergeCell ref="W17:AQ17"/>
-    <mergeCell ref="AR17:BL17"/>
-    <mergeCell ref="CH17:DB17"/>
-    <mergeCell ref="DC17:DM17"/>
-    <mergeCell ref="BM17:CG17"/>
-    <mergeCell ref="BM18:CG18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:V18"/>
-    <mergeCell ref="W18:AQ18"/>
-    <mergeCell ref="AR18:BL18"/>
-    <mergeCell ref="CH18:DB18"/>
+    <mergeCell ref="DC9:DM9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:V8"/>
+    <mergeCell ref="W8:AQ8"/>
+    <mergeCell ref="AR8:BL8"/>
+    <mergeCell ref="CH8:DB8"/>
+    <mergeCell ref="DC8:DM8"/>
+    <mergeCell ref="BM8:CG8"/>
+    <mergeCell ref="BM9:CG9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:V9"/>
+    <mergeCell ref="W9:AQ9"/>
+    <mergeCell ref="AR9:BL9"/>
+    <mergeCell ref="CH9:DB9"/>
+    <mergeCell ref="DC7:DM7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:V6"/>
+    <mergeCell ref="W6:AQ6"/>
+    <mergeCell ref="AR6:BL6"/>
+    <mergeCell ref="CH6:DB6"/>
+    <mergeCell ref="DC6:DM6"/>
+    <mergeCell ref="BM6:CG6"/>
+    <mergeCell ref="BM7:CG7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:V7"/>
+    <mergeCell ref="W7:AQ7"/>
+    <mergeCell ref="AR7:BL7"/>
+    <mergeCell ref="CH7:DB7"/>
+    <mergeCell ref="DC5:DM5"/>
+    <mergeCell ref="B2:DL2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:V4"/>
+    <mergeCell ref="W4:AQ4"/>
+    <mergeCell ref="AR4:BL4"/>
+    <mergeCell ref="CH4:DB4"/>
+    <mergeCell ref="DC4:DM4"/>
+    <mergeCell ref="BM4:CG4"/>
+    <mergeCell ref="BM5:CG5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:V5"/>
+    <mergeCell ref="W5:AQ5"/>
+    <mergeCell ref="AR5:BL5"/>
+    <mergeCell ref="CH5:DB5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/アプリケーション一覧.xlsx
+++ b/doc/アプリケーション一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\django_base\django_base\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E89693B-4A0D-4617-BF08-1C038E07DD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2B16FD-74EE-4D38-A23B-07DFF28E7394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>アプリケーション一覧</t>
     <rPh sb="8" eb="10">
@@ -279,6 +279,40 @@
     <t>net上のcssをかける</t>
     <rPh sb="3" eb="4">
       <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Post送信</t>
+    <rPh sb="4" eb="6">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>page012_post</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/pg012_post</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t投稿ページから送信された内容を受け取る</t>
+    <rPh sb="1" eb="3">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -361,13 +395,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -651,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:DM18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="U4" workbookViewId="0">
+      <selection activeCell="CH16" sqref="CH16:DB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18"/>
@@ -775,242 +809,242 @@
       <c r="DL1" s="1"/>
     </row>
     <row r="2" spans="2:117" ht="26.5">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3"/>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3"/>
-      <c r="BG2" s="3"/>
-      <c r="BH2" s="3"/>
-      <c r="BI2" s="3"/>
-      <c r="BJ2" s="3"/>
-      <c r="BK2" s="3"/>
-      <c r="BL2" s="3"/>
-      <c r="BM2" s="3"/>
-      <c r="BN2" s="3"/>
-      <c r="BO2" s="3"/>
-      <c r="BP2" s="3"/>
-      <c r="BQ2" s="3"/>
-      <c r="BR2" s="3"/>
-      <c r="BS2" s="3"/>
-      <c r="BT2" s="3"/>
-      <c r="BU2" s="3"/>
-      <c r="BV2" s="3"/>
-      <c r="BW2" s="3"/>
-      <c r="BX2" s="3"/>
-      <c r="BY2" s="3"/>
-      <c r="BZ2" s="3"/>
-      <c r="CA2" s="3"/>
-      <c r="CB2" s="3"/>
-      <c r="CC2" s="3"/>
-      <c r="CD2" s="3"/>
-      <c r="CE2" s="3"/>
-      <c r="CF2" s="3"/>
-      <c r="CG2" s="3"/>
-      <c r="CH2" s="3"/>
-      <c r="CI2" s="3"/>
-      <c r="CJ2" s="3"/>
-      <c r="CK2" s="3"/>
-      <c r="CL2" s="3"/>
-      <c r="CM2" s="3"/>
-      <c r="CN2" s="3"/>
-      <c r="CO2" s="3"/>
-      <c r="CP2" s="3"/>
-      <c r="CQ2" s="3"/>
-      <c r="CR2" s="3"/>
-      <c r="CS2" s="3"/>
-      <c r="CT2" s="3"/>
-      <c r="CU2" s="3"/>
-      <c r="CV2" s="3"/>
-      <c r="CW2" s="3"/>
-      <c r="CX2" s="3"/>
-      <c r="CY2" s="3"/>
-      <c r="CZ2" s="3"/>
-      <c r="DA2" s="3"/>
-      <c r="DB2" s="3"/>
-      <c r="DC2" s="3"/>
-      <c r="DD2" s="3"/>
-      <c r="DE2" s="3"/>
-      <c r="DF2" s="3"/>
-      <c r="DG2" s="3"/>
-      <c r="DH2" s="3"/>
-      <c r="DI2" s="3"/>
-      <c r="DJ2" s="3"/>
-      <c r="DK2" s="3"/>
-      <c r="DL2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="4"/>
+      <c r="BZ2" s="4"/>
+      <c r="CA2" s="4"/>
+      <c r="CB2" s="4"/>
+      <c r="CC2" s="4"/>
+      <c r="CD2" s="4"/>
+      <c r="CE2" s="4"/>
+      <c r="CF2" s="4"/>
+      <c r="CG2" s="4"/>
+      <c r="CH2" s="4"/>
+      <c r="CI2" s="4"/>
+      <c r="CJ2" s="4"/>
+      <c r="CK2" s="4"/>
+      <c r="CL2" s="4"/>
+      <c r="CM2" s="4"/>
+      <c r="CN2" s="4"/>
+      <c r="CO2" s="4"/>
+      <c r="CP2" s="4"/>
+      <c r="CQ2" s="4"/>
+      <c r="CR2" s="4"/>
+      <c r="CS2" s="4"/>
+      <c r="CT2" s="4"/>
+      <c r="CU2" s="4"/>
+      <c r="CV2" s="4"/>
+      <c r="CW2" s="4"/>
+      <c r="CX2" s="4"/>
+      <c r="CY2" s="4"/>
+      <c r="CZ2" s="4"/>
+      <c r="DA2" s="4"/>
+      <c r="DB2" s="4"/>
+      <c r="DC2" s="4"/>
+      <c r="DD2" s="4"/>
+      <c r="DE2" s="4"/>
+      <c r="DF2" s="4"/>
+      <c r="DG2" s="4"/>
+      <c r="DH2" s="4"/>
+      <c r="DI2" s="4"/>
+      <c r="DJ2" s="4"/>
+      <c r="DK2" s="4"/>
+      <c r="DL2" s="4"/>
     </row>
     <row r="4" spans="2:117">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4" t="s">
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-      <c r="BF4" s="4"/>
-      <c r="BG4" s="4"/>
-      <c r="BH4" s="4"/>
-      <c r="BI4" s="4"/>
-      <c r="BJ4" s="4"/>
-      <c r="BK4" s="4"/>
-      <c r="BL4" s="4"/>
-      <c r="BM4" s="4" t="s">
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
+      <c r="BF4" s="5"/>
+      <c r="BG4" s="5"/>
+      <c r="BH4" s="5"/>
+      <c r="BI4" s="5"/>
+      <c r="BJ4" s="5"/>
+      <c r="BK4" s="5"/>
+      <c r="BL4" s="5"/>
+      <c r="BM4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="BN4" s="4"/>
-      <c r="BO4" s="4"/>
-      <c r="BP4" s="4"/>
-      <c r="BQ4" s="4"/>
-      <c r="BR4" s="4"/>
-      <c r="BS4" s="4"/>
-      <c r="BT4" s="4"/>
-      <c r="BU4" s="4"/>
-      <c r="BV4" s="4"/>
-      <c r="BW4" s="4"/>
-      <c r="BX4" s="4"/>
-      <c r="BY4" s="4"/>
-      <c r="BZ4" s="4"/>
-      <c r="CA4" s="4"/>
-      <c r="CB4" s="4"/>
-      <c r="CC4" s="4"/>
-      <c r="CD4" s="4"/>
-      <c r="CE4" s="4"/>
-      <c r="CF4" s="4"/>
-      <c r="CG4" s="4"/>
-      <c r="CH4" s="4" t="s">
+      <c r="BN4" s="5"/>
+      <c r="BO4" s="5"/>
+      <c r="BP4" s="5"/>
+      <c r="BQ4" s="5"/>
+      <c r="BR4" s="5"/>
+      <c r="BS4" s="5"/>
+      <c r="BT4" s="5"/>
+      <c r="BU4" s="5"/>
+      <c r="BV4" s="5"/>
+      <c r="BW4" s="5"/>
+      <c r="BX4" s="5"/>
+      <c r="BY4" s="5"/>
+      <c r="BZ4" s="5"/>
+      <c r="CA4" s="5"/>
+      <c r="CB4" s="5"/>
+      <c r="CC4" s="5"/>
+      <c r="CD4" s="5"/>
+      <c r="CE4" s="5"/>
+      <c r="CF4" s="5"/>
+      <c r="CG4" s="5"/>
+      <c r="CH4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="CI4" s="4"/>
-      <c r="CJ4" s="4"/>
-      <c r="CK4" s="4"/>
-      <c r="CL4" s="4"/>
-      <c r="CM4" s="4"/>
-      <c r="CN4" s="4"/>
-      <c r="CO4" s="4"/>
-      <c r="CP4" s="4"/>
-      <c r="CQ4" s="4"/>
-      <c r="CR4" s="4"/>
-      <c r="CS4" s="4"/>
-      <c r="CT4" s="4"/>
-      <c r="CU4" s="4"/>
-      <c r="CV4" s="4"/>
-      <c r="CW4" s="4"/>
-      <c r="CX4" s="4"/>
-      <c r="CY4" s="4"/>
-      <c r="CZ4" s="4"/>
-      <c r="DA4" s="4"/>
-      <c r="DB4" s="4"/>
+      <c r="CI4" s="5"/>
+      <c r="CJ4" s="5"/>
+      <c r="CK4" s="5"/>
+      <c r="CL4" s="5"/>
+      <c r="CM4" s="5"/>
+      <c r="CN4" s="5"/>
+      <c r="CO4" s="5"/>
+      <c r="CP4" s="5"/>
+      <c r="CQ4" s="5"/>
+      <c r="CR4" s="5"/>
+      <c r="CS4" s="5"/>
+      <c r="CT4" s="5"/>
+      <c r="CU4" s="5"/>
+      <c r="CV4" s="5"/>
+      <c r="CW4" s="5"/>
+      <c r="CX4" s="5"/>
+      <c r="CY4" s="5"/>
+      <c r="CZ4" s="5"/>
+      <c r="DA4" s="5"/>
+      <c r="DB4" s="5"/>
       <c r="DC4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1374,29 +1408,29 @@
       <c r="CE7" s="2"/>
       <c r="CF7" s="2"/>
       <c r="CG7" s="2"/>
-      <c r="CH7" s="5" t="s">
+      <c r="CH7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="CI7" s="5"/>
-      <c r="CJ7" s="5"/>
-      <c r="CK7" s="5"/>
-      <c r="CL7" s="5"/>
-      <c r="CM7" s="5"/>
-      <c r="CN7" s="5"/>
-      <c r="CO7" s="5"/>
-      <c r="CP7" s="5"/>
-      <c r="CQ7" s="5"/>
-      <c r="CR7" s="5"/>
-      <c r="CS7" s="5"/>
-      <c r="CT7" s="5"/>
-      <c r="CU7" s="5"/>
-      <c r="CV7" s="5"/>
-      <c r="CW7" s="5"/>
-      <c r="CX7" s="5"/>
-      <c r="CY7" s="5"/>
-      <c r="CZ7" s="5"/>
-      <c r="DA7" s="5"/>
-      <c r="DB7" s="5"/>
+      <c r="CI7" s="3"/>
+      <c r="CJ7" s="3"/>
+      <c r="CK7" s="3"/>
+      <c r="CL7" s="3"/>
+      <c r="CM7" s="3"/>
+      <c r="CN7" s="3"/>
+      <c r="CO7" s="3"/>
+      <c r="CP7" s="3"/>
+      <c r="CQ7" s="3"/>
+      <c r="CR7" s="3"/>
+      <c r="CS7" s="3"/>
+      <c r="CT7" s="3"/>
+      <c r="CU7" s="3"/>
+      <c r="CV7" s="3"/>
+      <c r="CW7" s="3"/>
+      <c r="CX7" s="3"/>
+      <c r="CY7" s="3"/>
+      <c r="CZ7" s="3"/>
+      <c r="DA7" s="3"/>
+      <c r="DB7" s="3"/>
       <c r="DC7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1506,29 +1540,29 @@
       <c r="CE8" s="2"/>
       <c r="CF8" s="2"/>
       <c r="CG8" s="2"/>
-      <c r="CH8" s="5" t="s">
+      <c r="CH8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="CI8" s="5"/>
-      <c r="CJ8" s="5"/>
-      <c r="CK8" s="5"/>
-      <c r="CL8" s="5"/>
-      <c r="CM8" s="5"/>
-      <c r="CN8" s="5"/>
-      <c r="CO8" s="5"/>
-      <c r="CP8" s="5"/>
-      <c r="CQ8" s="5"/>
-      <c r="CR8" s="5"/>
-      <c r="CS8" s="5"/>
-      <c r="CT8" s="5"/>
-      <c r="CU8" s="5"/>
-      <c r="CV8" s="5"/>
-      <c r="CW8" s="5"/>
-      <c r="CX8" s="5"/>
-      <c r="CY8" s="5"/>
-      <c r="CZ8" s="5"/>
-      <c r="DA8" s="5"/>
-      <c r="DB8" s="5"/>
+      <c r="CI8" s="3"/>
+      <c r="CJ8" s="3"/>
+      <c r="CK8" s="3"/>
+      <c r="CL8" s="3"/>
+      <c r="CM8" s="3"/>
+      <c r="CN8" s="3"/>
+      <c r="CO8" s="3"/>
+      <c r="CP8" s="3"/>
+      <c r="CQ8" s="3"/>
+      <c r="CR8" s="3"/>
+      <c r="CS8" s="3"/>
+      <c r="CT8" s="3"/>
+      <c r="CU8" s="3"/>
+      <c r="CV8" s="3"/>
+      <c r="CW8" s="3"/>
+      <c r="CX8" s="3"/>
+      <c r="CY8" s="3"/>
+      <c r="CZ8" s="3"/>
+      <c r="DA8" s="3"/>
+      <c r="DB8" s="3"/>
       <c r="DC8" s="2" t="s">
         <v>24</v>
       </c>
@@ -2316,10 +2350,14 @@
       <c r="DM14" s="2"/>
     </row>
     <row r="15" spans="2:117" ht="18.5" customHeight="1">
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>11</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -2337,7 +2375,9 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
+      <c r="W15" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
@@ -2358,7 +2398,9 @@
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
-      <c r="AR15" s="2"/>
+      <c r="AR15" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2"/>
       <c r="AU15" s="2"/>
@@ -2400,7 +2442,9 @@
       <c r="CE15" s="2"/>
       <c r="CF15" s="2"/>
       <c r="CG15" s="2"/>
-      <c r="CH15" s="2"/>
+      <c r="CH15" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="CI15" s="2"/>
       <c r="CJ15" s="2"/>
       <c r="CK15" s="2"/>
@@ -2789,48 +2833,49 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="DC18:DM18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:V17"/>
-    <mergeCell ref="W17:AQ17"/>
-    <mergeCell ref="AR17:BL17"/>
-    <mergeCell ref="CH17:DB17"/>
-    <mergeCell ref="DC17:DM17"/>
-    <mergeCell ref="BM17:CG17"/>
-    <mergeCell ref="BM18:CG18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:V18"/>
-    <mergeCell ref="W18:AQ18"/>
-    <mergeCell ref="AR18:BL18"/>
-    <mergeCell ref="CH18:DB18"/>
-    <mergeCell ref="DC16:DM16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:V15"/>
-    <mergeCell ref="W15:AQ15"/>
-    <mergeCell ref="AR15:BL15"/>
-    <mergeCell ref="CH15:DB15"/>
-    <mergeCell ref="DC15:DM15"/>
-    <mergeCell ref="BM15:CG15"/>
-    <mergeCell ref="BM16:CG16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:V16"/>
-    <mergeCell ref="W16:AQ16"/>
-    <mergeCell ref="AR16:BL16"/>
-    <mergeCell ref="CH16:DB16"/>
-    <mergeCell ref="DC14:DM14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:V13"/>
-    <mergeCell ref="W13:AQ13"/>
-    <mergeCell ref="AR13:BL13"/>
-    <mergeCell ref="CH13:DB13"/>
-    <mergeCell ref="DC13:DM13"/>
-    <mergeCell ref="BM13:CG13"/>
-    <mergeCell ref="BM14:CG14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:V14"/>
-    <mergeCell ref="W14:AQ14"/>
-    <mergeCell ref="AR14:BL14"/>
-    <mergeCell ref="CH14:DB14"/>
+    <mergeCell ref="DC5:DM5"/>
+    <mergeCell ref="B2:DL2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:V4"/>
+    <mergeCell ref="W4:AQ4"/>
+    <mergeCell ref="AR4:BL4"/>
+    <mergeCell ref="CH4:DB4"/>
+    <mergeCell ref="DC4:DM4"/>
+    <mergeCell ref="BM4:CG4"/>
+    <mergeCell ref="BM5:CG5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:V5"/>
+    <mergeCell ref="W5:AQ5"/>
+    <mergeCell ref="AR5:BL5"/>
+    <mergeCell ref="CH5:DB5"/>
+    <mergeCell ref="DC7:DM7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:V6"/>
+    <mergeCell ref="W6:AQ6"/>
+    <mergeCell ref="AR6:BL6"/>
+    <mergeCell ref="CH6:DB6"/>
+    <mergeCell ref="DC6:DM6"/>
+    <mergeCell ref="BM6:CG6"/>
+    <mergeCell ref="BM7:CG7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:V7"/>
+    <mergeCell ref="W7:AQ7"/>
+    <mergeCell ref="AR7:BL7"/>
+    <mergeCell ref="CH7:DB7"/>
+    <mergeCell ref="DC9:DM9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:V8"/>
+    <mergeCell ref="W8:AQ8"/>
+    <mergeCell ref="AR8:BL8"/>
+    <mergeCell ref="CH8:DB8"/>
+    <mergeCell ref="DC8:DM8"/>
+    <mergeCell ref="BM8:CG8"/>
+    <mergeCell ref="BM9:CG9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:V9"/>
+    <mergeCell ref="W9:AQ9"/>
+    <mergeCell ref="AR9:BL9"/>
+    <mergeCell ref="CH9:DB9"/>
     <mergeCell ref="DC10:DM10"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="BM10:CG10"/>
@@ -2852,49 +2897,48 @@
     <mergeCell ref="W12:AQ12"/>
     <mergeCell ref="AR12:BL12"/>
     <mergeCell ref="CH12:DB12"/>
-    <mergeCell ref="DC9:DM9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:V8"/>
-    <mergeCell ref="W8:AQ8"/>
-    <mergeCell ref="AR8:BL8"/>
-    <mergeCell ref="CH8:DB8"/>
-    <mergeCell ref="DC8:DM8"/>
-    <mergeCell ref="BM8:CG8"/>
-    <mergeCell ref="BM9:CG9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:V9"/>
-    <mergeCell ref="W9:AQ9"/>
-    <mergeCell ref="AR9:BL9"/>
-    <mergeCell ref="CH9:DB9"/>
-    <mergeCell ref="DC7:DM7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:V6"/>
-    <mergeCell ref="W6:AQ6"/>
-    <mergeCell ref="AR6:BL6"/>
-    <mergeCell ref="CH6:DB6"/>
-    <mergeCell ref="DC6:DM6"/>
-    <mergeCell ref="BM6:CG6"/>
-    <mergeCell ref="BM7:CG7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:V7"/>
-    <mergeCell ref="W7:AQ7"/>
-    <mergeCell ref="AR7:BL7"/>
-    <mergeCell ref="CH7:DB7"/>
-    <mergeCell ref="DC5:DM5"/>
-    <mergeCell ref="B2:DL2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:V4"/>
-    <mergeCell ref="W4:AQ4"/>
-    <mergeCell ref="AR4:BL4"/>
-    <mergeCell ref="CH4:DB4"/>
-    <mergeCell ref="DC4:DM4"/>
-    <mergeCell ref="BM4:CG4"/>
-    <mergeCell ref="BM5:CG5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:V5"/>
-    <mergeCell ref="W5:AQ5"/>
-    <mergeCell ref="AR5:BL5"/>
-    <mergeCell ref="CH5:DB5"/>
+    <mergeCell ref="DC14:DM14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:V13"/>
+    <mergeCell ref="W13:AQ13"/>
+    <mergeCell ref="AR13:BL13"/>
+    <mergeCell ref="CH13:DB13"/>
+    <mergeCell ref="DC13:DM13"/>
+    <mergeCell ref="BM13:CG13"/>
+    <mergeCell ref="BM14:CG14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:V14"/>
+    <mergeCell ref="W14:AQ14"/>
+    <mergeCell ref="AR14:BL14"/>
+    <mergeCell ref="CH14:DB14"/>
+    <mergeCell ref="DC16:DM16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:V15"/>
+    <mergeCell ref="W15:AQ15"/>
+    <mergeCell ref="AR15:BL15"/>
+    <mergeCell ref="CH15:DB15"/>
+    <mergeCell ref="DC15:DM15"/>
+    <mergeCell ref="BM15:CG15"/>
+    <mergeCell ref="BM16:CG16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:V16"/>
+    <mergeCell ref="W16:AQ16"/>
+    <mergeCell ref="AR16:BL16"/>
+    <mergeCell ref="CH16:DB16"/>
+    <mergeCell ref="DC18:DM18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:V17"/>
+    <mergeCell ref="W17:AQ17"/>
+    <mergeCell ref="AR17:BL17"/>
+    <mergeCell ref="CH17:DB17"/>
+    <mergeCell ref="DC17:DM17"/>
+    <mergeCell ref="BM17:CG17"/>
+    <mergeCell ref="BM18:CG18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:V18"/>
+    <mergeCell ref="W18:AQ18"/>
+    <mergeCell ref="AR18:BL18"/>
+    <mergeCell ref="CH18:DB18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/アプリケーション一覧.xlsx
+++ b/doc/アプリケーション一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\django_base\django_base\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2B16FD-74EE-4D38-A23B-07DFF28E7394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD657E3-7706-4D9F-B60E-570762C4BF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>アプリケーション一覧</t>
     <rPh sb="8" eb="10">
@@ -287,10 +287,6 @@
     <rPh sb="4" eb="6">
       <t>ソウシン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>page012_post</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -313,6 +309,35 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Viewで作成したhtml</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pg012_post</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pg013_makeview</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/pg013_makeview</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>viewで作成したhtmlを表示する</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -395,14 +420,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -686,7 +711,7 @@
   <dimension ref="B1:DM18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U4" workbookViewId="0">
-      <selection activeCell="CH16" sqref="CH16:DB16"/>
+      <selection activeCell="CH17" sqref="CH17:DB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18"/>
@@ -809,255 +834,255 @@
       <c r="DL1" s="1"/>
     </row>
     <row r="2" spans="2:117" ht="26.5">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4"/>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4"/>
-      <c r="BL2" s="4"/>
-      <c r="BM2" s="4"/>
-      <c r="BN2" s="4"/>
-      <c r="BO2" s="4"/>
-      <c r="BP2" s="4"/>
-      <c r="BQ2" s="4"/>
-      <c r="BR2" s="4"/>
-      <c r="BS2" s="4"/>
-      <c r="BT2" s="4"/>
-      <c r="BU2" s="4"/>
-      <c r="BV2" s="4"/>
-      <c r="BW2" s="4"/>
-      <c r="BX2" s="4"/>
-      <c r="BY2" s="4"/>
-      <c r="BZ2" s="4"/>
-      <c r="CA2" s="4"/>
-      <c r="CB2" s="4"/>
-      <c r="CC2" s="4"/>
-      <c r="CD2" s="4"/>
-      <c r="CE2" s="4"/>
-      <c r="CF2" s="4"/>
-      <c r="CG2" s="4"/>
-      <c r="CH2" s="4"/>
-      <c r="CI2" s="4"/>
-      <c r="CJ2" s="4"/>
-      <c r="CK2" s="4"/>
-      <c r="CL2" s="4"/>
-      <c r="CM2" s="4"/>
-      <c r="CN2" s="4"/>
-      <c r="CO2" s="4"/>
-      <c r="CP2" s="4"/>
-      <c r="CQ2" s="4"/>
-      <c r="CR2" s="4"/>
-      <c r="CS2" s="4"/>
-      <c r="CT2" s="4"/>
-      <c r="CU2" s="4"/>
-      <c r="CV2" s="4"/>
-      <c r="CW2" s="4"/>
-      <c r="CX2" s="4"/>
-      <c r="CY2" s="4"/>
-      <c r="CZ2" s="4"/>
-      <c r="DA2" s="4"/>
-      <c r="DB2" s="4"/>
-      <c r="DC2" s="4"/>
-      <c r="DD2" s="4"/>
-      <c r="DE2" s="4"/>
-      <c r="DF2" s="4"/>
-      <c r="DG2" s="4"/>
-      <c r="DH2" s="4"/>
-      <c r="DI2" s="4"/>
-      <c r="DJ2" s="4"/>
-      <c r="DK2" s="4"/>
-      <c r="DL2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="3"/>
+      <c r="BP2" s="3"/>
+      <c r="BQ2" s="3"/>
+      <c r="BR2" s="3"/>
+      <c r="BS2" s="3"/>
+      <c r="BT2" s="3"/>
+      <c r="BU2" s="3"/>
+      <c r="BV2" s="3"/>
+      <c r="BW2" s="3"/>
+      <c r="BX2" s="3"/>
+      <c r="BY2" s="3"/>
+      <c r="BZ2" s="3"/>
+      <c r="CA2" s="3"/>
+      <c r="CB2" s="3"/>
+      <c r="CC2" s="3"/>
+      <c r="CD2" s="3"/>
+      <c r="CE2" s="3"/>
+      <c r="CF2" s="3"/>
+      <c r="CG2" s="3"/>
+      <c r="CH2" s="3"/>
+      <c r="CI2" s="3"/>
+      <c r="CJ2" s="3"/>
+      <c r="CK2" s="3"/>
+      <c r="CL2" s="3"/>
+      <c r="CM2" s="3"/>
+      <c r="CN2" s="3"/>
+      <c r="CO2" s="3"/>
+      <c r="CP2" s="3"/>
+      <c r="CQ2" s="3"/>
+      <c r="CR2" s="3"/>
+      <c r="CS2" s="3"/>
+      <c r="CT2" s="3"/>
+      <c r="CU2" s="3"/>
+      <c r="CV2" s="3"/>
+      <c r="CW2" s="3"/>
+      <c r="CX2" s="3"/>
+      <c r="CY2" s="3"/>
+      <c r="CZ2" s="3"/>
+      <c r="DA2" s="3"/>
+      <c r="DB2" s="3"/>
+      <c r="DC2" s="3"/>
+      <c r="DD2" s="3"/>
+      <c r="DE2" s="3"/>
+      <c r="DF2" s="3"/>
+      <c r="DG2" s="3"/>
+      <c r="DH2" s="3"/>
+      <c r="DI2" s="3"/>
+      <c r="DJ2" s="3"/>
+      <c r="DK2" s="3"/>
+      <c r="DL2" s="3"/>
     </row>
     <row r="4" spans="2:117">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5" t="s">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="5"/>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="5"/>
-      <c r="BF4" s="5"/>
-      <c r="BG4" s="5"/>
-      <c r="BH4" s="5"/>
-      <c r="BI4" s="5"/>
-      <c r="BJ4" s="5"/>
-      <c r="BK4" s="5"/>
-      <c r="BL4" s="5"/>
-      <c r="BM4" s="5" t="s">
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="BN4" s="5"/>
-      <c r="BO4" s="5"/>
-      <c r="BP4" s="5"/>
-      <c r="BQ4" s="5"/>
-      <c r="BR4" s="5"/>
-      <c r="BS4" s="5"/>
-      <c r="BT4" s="5"/>
-      <c r="BU4" s="5"/>
-      <c r="BV4" s="5"/>
-      <c r="BW4" s="5"/>
-      <c r="BX4" s="5"/>
-      <c r="BY4" s="5"/>
-      <c r="BZ4" s="5"/>
-      <c r="CA4" s="5"/>
-      <c r="CB4" s="5"/>
-      <c r="CC4" s="5"/>
-      <c r="CD4" s="5"/>
-      <c r="CE4" s="5"/>
-      <c r="CF4" s="5"/>
-      <c r="CG4" s="5"/>
-      <c r="CH4" s="5" t="s">
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4"/>
+      <c r="BU4" s="4"/>
+      <c r="BV4" s="4"/>
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="4"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="4"/>
+      <c r="CA4" s="4"/>
+      <c r="CB4" s="4"/>
+      <c r="CC4" s="4"/>
+      <c r="CD4" s="4"/>
+      <c r="CE4" s="4"/>
+      <c r="CF4" s="4"/>
+      <c r="CG4" s="4"/>
+      <c r="CH4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="CI4" s="5"/>
-      <c r="CJ4" s="5"/>
-      <c r="CK4" s="5"/>
-      <c r="CL4" s="5"/>
-      <c r="CM4" s="5"/>
-      <c r="CN4" s="5"/>
-      <c r="CO4" s="5"/>
-      <c r="CP4" s="5"/>
-      <c r="CQ4" s="5"/>
-      <c r="CR4" s="5"/>
-      <c r="CS4" s="5"/>
-      <c r="CT4" s="5"/>
-      <c r="CU4" s="5"/>
-      <c r="CV4" s="5"/>
-      <c r="CW4" s="5"/>
-      <c r="CX4" s="5"/>
-      <c r="CY4" s="5"/>
-      <c r="CZ4" s="5"/>
-      <c r="DA4" s="5"/>
-      <c r="DB4" s="5"/>
-      <c r="DC4" s="6" t="s">
+      <c r="CI4" s="4"/>
+      <c r="CJ4" s="4"/>
+      <c r="CK4" s="4"/>
+      <c r="CL4" s="4"/>
+      <c r="CM4" s="4"/>
+      <c r="CN4" s="4"/>
+      <c r="CO4" s="4"/>
+      <c r="CP4" s="4"/>
+      <c r="CQ4" s="4"/>
+      <c r="CR4" s="4"/>
+      <c r="CS4" s="4"/>
+      <c r="CT4" s="4"/>
+      <c r="CU4" s="4"/>
+      <c r="CV4" s="4"/>
+      <c r="CW4" s="4"/>
+      <c r="CX4" s="4"/>
+      <c r="CY4" s="4"/>
+      <c r="CZ4" s="4"/>
+      <c r="DA4" s="4"/>
+      <c r="DB4" s="4"/>
+      <c r="DC4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="DD4" s="6"/>
-      <c r="DE4" s="6"/>
-      <c r="DF4" s="6"/>
-      <c r="DG4" s="6"/>
-      <c r="DH4" s="6"/>
-      <c r="DI4" s="6"/>
-      <c r="DJ4" s="6"/>
-      <c r="DK4" s="6"/>
-      <c r="DL4" s="6"/>
-      <c r="DM4" s="6"/>
+      <c r="DD4" s="5"/>
+      <c r="DE4" s="5"/>
+      <c r="DF4" s="5"/>
+      <c r="DG4" s="5"/>
+      <c r="DH4" s="5"/>
+      <c r="DI4" s="5"/>
+      <c r="DJ4" s="5"/>
+      <c r="DK4" s="5"/>
+      <c r="DL4" s="5"/>
+      <c r="DM4" s="5"/>
     </row>
     <row r="5" spans="2:117" ht="18.5" customHeight="1">
       <c r="B5" s="2">
@@ -1408,29 +1433,29 @@
       <c r="CE7" s="2"/>
       <c r="CF7" s="2"/>
       <c r="CG7" s="2"/>
-      <c r="CH7" s="3" t="s">
+      <c r="CH7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CI7" s="3"/>
-      <c r="CJ7" s="3"/>
-      <c r="CK7" s="3"/>
-      <c r="CL7" s="3"/>
-      <c r="CM7" s="3"/>
-      <c r="CN7" s="3"/>
-      <c r="CO7" s="3"/>
-      <c r="CP7" s="3"/>
-      <c r="CQ7" s="3"/>
-      <c r="CR7" s="3"/>
-      <c r="CS7" s="3"/>
-      <c r="CT7" s="3"/>
-      <c r="CU7" s="3"/>
-      <c r="CV7" s="3"/>
-      <c r="CW7" s="3"/>
-      <c r="CX7" s="3"/>
-      <c r="CY7" s="3"/>
-      <c r="CZ7" s="3"/>
-      <c r="DA7" s="3"/>
-      <c r="DB7" s="3"/>
+      <c r="CI7" s="6"/>
+      <c r="CJ7" s="6"/>
+      <c r="CK7" s="6"/>
+      <c r="CL7" s="6"/>
+      <c r="CM7" s="6"/>
+      <c r="CN7" s="6"/>
+      <c r="CO7" s="6"/>
+      <c r="CP7" s="6"/>
+      <c r="CQ7" s="6"/>
+      <c r="CR7" s="6"/>
+      <c r="CS7" s="6"/>
+      <c r="CT7" s="6"/>
+      <c r="CU7" s="6"/>
+      <c r="CV7" s="6"/>
+      <c r="CW7" s="6"/>
+      <c r="CX7" s="6"/>
+      <c r="CY7" s="6"/>
+      <c r="CZ7" s="6"/>
+      <c r="DA7" s="6"/>
+      <c r="DB7" s="6"/>
       <c r="DC7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1540,29 +1565,29 @@
       <c r="CE8" s="2"/>
       <c r="CF8" s="2"/>
       <c r="CG8" s="2"/>
-      <c r="CH8" s="3" t="s">
+      <c r="CH8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CI8" s="3"/>
-      <c r="CJ8" s="3"/>
-      <c r="CK8" s="3"/>
-      <c r="CL8" s="3"/>
-      <c r="CM8" s="3"/>
-      <c r="CN8" s="3"/>
-      <c r="CO8" s="3"/>
-      <c r="CP8" s="3"/>
-      <c r="CQ8" s="3"/>
-      <c r="CR8" s="3"/>
-      <c r="CS8" s="3"/>
-      <c r="CT8" s="3"/>
-      <c r="CU8" s="3"/>
-      <c r="CV8" s="3"/>
-      <c r="CW8" s="3"/>
-      <c r="CX8" s="3"/>
-      <c r="CY8" s="3"/>
-      <c r="CZ8" s="3"/>
-      <c r="DA8" s="3"/>
-      <c r="DB8" s="3"/>
+      <c r="CI8" s="6"/>
+      <c r="CJ8" s="6"/>
+      <c r="CK8" s="6"/>
+      <c r="CL8" s="6"/>
+      <c r="CM8" s="6"/>
+      <c r="CN8" s="6"/>
+      <c r="CO8" s="6"/>
+      <c r="CP8" s="6"/>
+      <c r="CQ8" s="6"/>
+      <c r="CR8" s="6"/>
+      <c r="CS8" s="6"/>
+      <c r="CT8" s="6"/>
+      <c r="CU8" s="6"/>
+      <c r="CV8" s="6"/>
+      <c r="CW8" s="6"/>
+      <c r="CX8" s="6"/>
+      <c r="CY8" s="6"/>
+      <c r="CZ8" s="6"/>
+      <c r="DA8" s="6"/>
+      <c r="DB8" s="6"/>
       <c r="DC8" s="2" t="s">
         <v>24</v>
       </c>
@@ -2376,7 +2401,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
@@ -2399,7 +2424,7 @@
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
       <c r="AR15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2"/>
@@ -2443,7 +2468,7 @@
       <c r="CF15" s="2"/>
       <c r="CG15" s="2"/>
       <c r="CH15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="CI15" s="2"/>
       <c r="CJ15" s="2"/>
@@ -2478,10 +2503,14 @@
       <c r="DM15" s="2"/>
     </row>
     <row r="16" spans="2:117" ht="18.5" customHeight="1">
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>12</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -2499,7 +2528,9 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
+      <c r="W16" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
@@ -2520,7 +2551,9 @@
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2"/>
-      <c r="AR16" s="2"/>
+      <c r="AR16" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="AS16" s="2"/>
       <c r="AT16" s="2"/>
       <c r="AU16" s="2"/>
@@ -2562,7 +2595,9 @@
       <c r="CE16" s="2"/>
       <c r="CF16" s="2"/>
       <c r="CG16" s="2"/>
-      <c r="CH16" s="2"/>
+      <c r="CH16" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="CI16" s="2"/>
       <c r="CJ16" s="2"/>
       <c r="CK16" s="2"/>
@@ -2833,49 +2868,48 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="DC5:DM5"/>
-    <mergeCell ref="B2:DL2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:V4"/>
-    <mergeCell ref="W4:AQ4"/>
-    <mergeCell ref="AR4:BL4"/>
-    <mergeCell ref="CH4:DB4"/>
-    <mergeCell ref="DC4:DM4"/>
-    <mergeCell ref="BM4:CG4"/>
-    <mergeCell ref="BM5:CG5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:V5"/>
-    <mergeCell ref="W5:AQ5"/>
-    <mergeCell ref="AR5:BL5"/>
-    <mergeCell ref="CH5:DB5"/>
-    <mergeCell ref="DC7:DM7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:V6"/>
-    <mergeCell ref="W6:AQ6"/>
-    <mergeCell ref="AR6:BL6"/>
-    <mergeCell ref="CH6:DB6"/>
-    <mergeCell ref="DC6:DM6"/>
-    <mergeCell ref="BM6:CG6"/>
-    <mergeCell ref="BM7:CG7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:V7"/>
-    <mergeCell ref="W7:AQ7"/>
-    <mergeCell ref="AR7:BL7"/>
-    <mergeCell ref="CH7:DB7"/>
-    <mergeCell ref="DC9:DM9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:V8"/>
-    <mergeCell ref="W8:AQ8"/>
-    <mergeCell ref="AR8:BL8"/>
-    <mergeCell ref="CH8:DB8"/>
-    <mergeCell ref="DC8:DM8"/>
-    <mergeCell ref="BM8:CG8"/>
-    <mergeCell ref="BM9:CG9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:V9"/>
-    <mergeCell ref="W9:AQ9"/>
-    <mergeCell ref="AR9:BL9"/>
-    <mergeCell ref="CH9:DB9"/>
+    <mergeCell ref="DC18:DM18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:V17"/>
+    <mergeCell ref="W17:AQ17"/>
+    <mergeCell ref="AR17:BL17"/>
+    <mergeCell ref="CH17:DB17"/>
+    <mergeCell ref="DC17:DM17"/>
+    <mergeCell ref="BM17:CG17"/>
+    <mergeCell ref="BM18:CG18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:V18"/>
+    <mergeCell ref="W18:AQ18"/>
+    <mergeCell ref="AR18:BL18"/>
+    <mergeCell ref="CH18:DB18"/>
+    <mergeCell ref="DC16:DM16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:V15"/>
+    <mergeCell ref="W15:AQ15"/>
+    <mergeCell ref="AR15:BL15"/>
+    <mergeCell ref="CH15:DB15"/>
+    <mergeCell ref="DC15:DM15"/>
+    <mergeCell ref="BM15:CG15"/>
+    <mergeCell ref="BM16:CG16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:V16"/>
+    <mergeCell ref="W16:AQ16"/>
+    <mergeCell ref="AR16:BL16"/>
+    <mergeCell ref="CH16:DB16"/>
+    <mergeCell ref="DC14:DM14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:V13"/>
+    <mergeCell ref="W13:AQ13"/>
+    <mergeCell ref="AR13:BL13"/>
+    <mergeCell ref="CH13:DB13"/>
+    <mergeCell ref="DC13:DM13"/>
+    <mergeCell ref="BM13:CG13"/>
+    <mergeCell ref="BM14:CG14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:V14"/>
+    <mergeCell ref="W14:AQ14"/>
+    <mergeCell ref="AR14:BL14"/>
+    <mergeCell ref="CH14:DB14"/>
     <mergeCell ref="DC10:DM10"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="BM10:CG10"/>
@@ -2897,48 +2931,49 @@
     <mergeCell ref="W12:AQ12"/>
     <mergeCell ref="AR12:BL12"/>
     <mergeCell ref="CH12:DB12"/>
-    <mergeCell ref="DC14:DM14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:V13"/>
-    <mergeCell ref="W13:AQ13"/>
-    <mergeCell ref="AR13:BL13"/>
-    <mergeCell ref="CH13:DB13"/>
-    <mergeCell ref="DC13:DM13"/>
-    <mergeCell ref="BM13:CG13"/>
-    <mergeCell ref="BM14:CG14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:V14"/>
-    <mergeCell ref="W14:AQ14"/>
-    <mergeCell ref="AR14:BL14"/>
-    <mergeCell ref="CH14:DB14"/>
-    <mergeCell ref="DC16:DM16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:V15"/>
-    <mergeCell ref="W15:AQ15"/>
-    <mergeCell ref="AR15:BL15"/>
-    <mergeCell ref="CH15:DB15"/>
-    <mergeCell ref="DC15:DM15"/>
-    <mergeCell ref="BM15:CG15"/>
-    <mergeCell ref="BM16:CG16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:V16"/>
-    <mergeCell ref="W16:AQ16"/>
-    <mergeCell ref="AR16:BL16"/>
-    <mergeCell ref="CH16:DB16"/>
-    <mergeCell ref="DC18:DM18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:V17"/>
-    <mergeCell ref="W17:AQ17"/>
-    <mergeCell ref="AR17:BL17"/>
-    <mergeCell ref="CH17:DB17"/>
-    <mergeCell ref="DC17:DM17"/>
-    <mergeCell ref="BM17:CG17"/>
-    <mergeCell ref="BM18:CG18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:V18"/>
-    <mergeCell ref="W18:AQ18"/>
-    <mergeCell ref="AR18:BL18"/>
-    <mergeCell ref="CH18:DB18"/>
+    <mergeCell ref="DC9:DM9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:V8"/>
+    <mergeCell ref="W8:AQ8"/>
+    <mergeCell ref="AR8:BL8"/>
+    <mergeCell ref="CH8:DB8"/>
+    <mergeCell ref="DC8:DM8"/>
+    <mergeCell ref="BM8:CG8"/>
+    <mergeCell ref="BM9:CG9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:V9"/>
+    <mergeCell ref="W9:AQ9"/>
+    <mergeCell ref="AR9:BL9"/>
+    <mergeCell ref="CH9:DB9"/>
+    <mergeCell ref="DC7:DM7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:V6"/>
+    <mergeCell ref="W6:AQ6"/>
+    <mergeCell ref="AR6:BL6"/>
+    <mergeCell ref="CH6:DB6"/>
+    <mergeCell ref="DC6:DM6"/>
+    <mergeCell ref="BM6:CG6"/>
+    <mergeCell ref="BM7:CG7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:V7"/>
+    <mergeCell ref="W7:AQ7"/>
+    <mergeCell ref="AR7:BL7"/>
+    <mergeCell ref="CH7:DB7"/>
+    <mergeCell ref="DC5:DM5"/>
+    <mergeCell ref="B2:DL2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:V4"/>
+    <mergeCell ref="W4:AQ4"/>
+    <mergeCell ref="AR4:BL4"/>
+    <mergeCell ref="CH4:DB4"/>
+    <mergeCell ref="DC4:DM4"/>
+    <mergeCell ref="BM4:CG4"/>
+    <mergeCell ref="BM5:CG5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:V5"/>
+    <mergeCell ref="W5:AQ5"/>
+    <mergeCell ref="AR5:BL5"/>
+    <mergeCell ref="CH5:DB5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/アプリケーション一覧.xlsx
+++ b/doc/アプリケーション一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\django_base\django_base\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD657E3-7706-4D9F-B60E-570762C4BF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17BB376-5A20-411F-8FAD-3268B32C6ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>アプリケーション一覧</t>
     <rPh sb="8" eb="10">
@@ -338,6 +338,32 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GetとPost判定</t>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pg014_get_post_view</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・pg014_get_post_view</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Post:msg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GetとPostの表示分け</t>
+    <rPh sb="9" eb="12">
+      <t>ヒョウジワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -420,14 +446,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -710,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:DM18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U4" workbookViewId="0">
-      <selection activeCell="CH17" sqref="CH17:DB17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="CH1" sqref="CH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18"/>
@@ -834,255 +860,255 @@
       <c r="DL1" s="1"/>
     </row>
     <row r="2" spans="2:117" ht="26.5">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3"/>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3"/>
-      <c r="BG2" s="3"/>
-      <c r="BH2" s="3"/>
-      <c r="BI2" s="3"/>
-      <c r="BJ2" s="3"/>
-      <c r="BK2" s="3"/>
-      <c r="BL2" s="3"/>
-      <c r="BM2" s="3"/>
-      <c r="BN2" s="3"/>
-      <c r="BO2" s="3"/>
-      <c r="BP2" s="3"/>
-      <c r="BQ2" s="3"/>
-      <c r="BR2" s="3"/>
-      <c r="BS2" s="3"/>
-      <c r="BT2" s="3"/>
-      <c r="BU2" s="3"/>
-      <c r="BV2" s="3"/>
-      <c r="BW2" s="3"/>
-      <c r="BX2" s="3"/>
-      <c r="BY2" s="3"/>
-      <c r="BZ2" s="3"/>
-      <c r="CA2" s="3"/>
-      <c r="CB2" s="3"/>
-      <c r="CC2" s="3"/>
-      <c r="CD2" s="3"/>
-      <c r="CE2" s="3"/>
-      <c r="CF2" s="3"/>
-      <c r="CG2" s="3"/>
-      <c r="CH2" s="3"/>
-      <c r="CI2" s="3"/>
-      <c r="CJ2" s="3"/>
-      <c r="CK2" s="3"/>
-      <c r="CL2" s="3"/>
-      <c r="CM2" s="3"/>
-      <c r="CN2" s="3"/>
-      <c r="CO2" s="3"/>
-      <c r="CP2" s="3"/>
-      <c r="CQ2" s="3"/>
-      <c r="CR2" s="3"/>
-      <c r="CS2" s="3"/>
-      <c r="CT2" s="3"/>
-      <c r="CU2" s="3"/>
-      <c r="CV2" s="3"/>
-      <c r="CW2" s="3"/>
-      <c r="CX2" s="3"/>
-      <c r="CY2" s="3"/>
-      <c r="CZ2" s="3"/>
-      <c r="DA2" s="3"/>
-      <c r="DB2" s="3"/>
-      <c r="DC2" s="3"/>
-      <c r="DD2" s="3"/>
-      <c r="DE2" s="3"/>
-      <c r="DF2" s="3"/>
-      <c r="DG2" s="3"/>
-      <c r="DH2" s="3"/>
-      <c r="DI2" s="3"/>
-      <c r="DJ2" s="3"/>
-      <c r="DK2" s="3"/>
-      <c r="DL2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="4"/>
+      <c r="BZ2" s="4"/>
+      <c r="CA2" s="4"/>
+      <c r="CB2" s="4"/>
+      <c r="CC2" s="4"/>
+      <c r="CD2" s="4"/>
+      <c r="CE2" s="4"/>
+      <c r="CF2" s="4"/>
+      <c r="CG2" s="4"/>
+      <c r="CH2" s="4"/>
+      <c r="CI2" s="4"/>
+      <c r="CJ2" s="4"/>
+      <c r="CK2" s="4"/>
+      <c r="CL2" s="4"/>
+      <c r="CM2" s="4"/>
+      <c r="CN2" s="4"/>
+      <c r="CO2" s="4"/>
+      <c r="CP2" s="4"/>
+      <c r="CQ2" s="4"/>
+      <c r="CR2" s="4"/>
+      <c r="CS2" s="4"/>
+      <c r="CT2" s="4"/>
+      <c r="CU2" s="4"/>
+      <c r="CV2" s="4"/>
+      <c r="CW2" s="4"/>
+      <c r="CX2" s="4"/>
+      <c r="CY2" s="4"/>
+      <c r="CZ2" s="4"/>
+      <c r="DA2" s="4"/>
+      <c r="DB2" s="4"/>
+      <c r="DC2" s="4"/>
+      <c r="DD2" s="4"/>
+      <c r="DE2" s="4"/>
+      <c r="DF2" s="4"/>
+      <c r="DG2" s="4"/>
+      <c r="DH2" s="4"/>
+      <c r="DI2" s="4"/>
+      <c r="DJ2" s="4"/>
+      <c r="DK2" s="4"/>
+      <c r="DL2" s="4"/>
     </row>
     <row r="4" spans="2:117">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4" t="s">
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-      <c r="BF4" s="4"/>
-      <c r="BG4" s="4"/>
-      <c r="BH4" s="4"/>
-      <c r="BI4" s="4"/>
-      <c r="BJ4" s="4"/>
-      <c r="BK4" s="4"/>
-      <c r="BL4" s="4"/>
-      <c r="BM4" s="4" t="s">
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
+      <c r="BF4" s="5"/>
+      <c r="BG4" s="5"/>
+      <c r="BH4" s="5"/>
+      <c r="BI4" s="5"/>
+      <c r="BJ4" s="5"/>
+      <c r="BK4" s="5"/>
+      <c r="BL4" s="5"/>
+      <c r="BM4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="BN4" s="4"/>
-      <c r="BO4" s="4"/>
-      <c r="BP4" s="4"/>
-      <c r="BQ4" s="4"/>
-      <c r="BR4" s="4"/>
-      <c r="BS4" s="4"/>
-      <c r="BT4" s="4"/>
-      <c r="BU4" s="4"/>
-      <c r="BV4" s="4"/>
-      <c r="BW4" s="4"/>
-      <c r="BX4" s="4"/>
-      <c r="BY4" s="4"/>
-      <c r="BZ4" s="4"/>
-      <c r="CA4" s="4"/>
-      <c r="CB4" s="4"/>
-      <c r="CC4" s="4"/>
-      <c r="CD4" s="4"/>
-      <c r="CE4" s="4"/>
-      <c r="CF4" s="4"/>
-      <c r="CG4" s="4"/>
-      <c r="CH4" s="4" t="s">
+      <c r="BN4" s="5"/>
+      <c r="BO4" s="5"/>
+      <c r="BP4" s="5"/>
+      <c r="BQ4" s="5"/>
+      <c r="BR4" s="5"/>
+      <c r="BS4" s="5"/>
+      <c r="BT4" s="5"/>
+      <c r="BU4" s="5"/>
+      <c r="BV4" s="5"/>
+      <c r="BW4" s="5"/>
+      <c r="BX4" s="5"/>
+      <c r="BY4" s="5"/>
+      <c r="BZ4" s="5"/>
+      <c r="CA4" s="5"/>
+      <c r="CB4" s="5"/>
+      <c r="CC4" s="5"/>
+      <c r="CD4" s="5"/>
+      <c r="CE4" s="5"/>
+      <c r="CF4" s="5"/>
+      <c r="CG4" s="5"/>
+      <c r="CH4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="CI4" s="4"/>
-      <c r="CJ4" s="4"/>
-      <c r="CK4" s="4"/>
-      <c r="CL4" s="4"/>
-      <c r="CM4" s="4"/>
-      <c r="CN4" s="4"/>
-      <c r="CO4" s="4"/>
-      <c r="CP4" s="4"/>
-      <c r="CQ4" s="4"/>
-      <c r="CR4" s="4"/>
-      <c r="CS4" s="4"/>
-      <c r="CT4" s="4"/>
-      <c r="CU4" s="4"/>
-      <c r="CV4" s="4"/>
-      <c r="CW4" s="4"/>
-      <c r="CX4" s="4"/>
-      <c r="CY4" s="4"/>
-      <c r="CZ4" s="4"/>
-      <c r="DA4" s="4"/>
-      <c r="DB4" s="4"/>
-      <c r="DC4" s="5" t="s">
+      <c r="CI4" s="5"/>
+      <c r="CJ4" s="5"/>
+      <c r="CK4" s="5"/>
+      <c r="CL4" s="5"/>
+      <c r="CM4" s="5"/>
+      <c r="CN4" s="5"/>
+      <c r="CO4" s="5"/>
+      <c r="CP4" s="5"/>
+      <c r="CQ4" s="5"/>
+      <c r="CR4" s="5"/>
+      <c r="CS4" s="5"/>
+      <c r="CT4" s="5"/>
+      <c r="CU4" s="5"/>
+      <c r="CV4" s="5"/>
+      <c r="CW4" s="5"/>
+      <c r="CX4" s="5"/>
+      <c r="CY4" s="5"/>
+      <c r="CZ4" s="5"/>
+      <c r="DA4" s="5"/>
+      <c r="DB4" s="5"/>
+      <c r="DC4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="DD4" s="5"/>
-      <c r="DE4" s="5"/>
-      <c r="DF4" s="5"/>
-      <c r="DG4" s="5"/>
-      <c r="DH4" s="5"/>
-      <c r="DI4" s="5"/>
-      <c r="DJ4" s="5"/>
-      <c r="DK4" s="5"/>
-      <c r="DL4" s="5"/>
-      <c r="DM4" s="5"/>
+      <c r="DD4" s="6"/>
+      <c r="DE4" s="6"/>
+      <c r="DF4" s="6"/>
+      <c r="DG4" s="6"/>
+      <c r="DH4" s="6"/>
+      <c r="DI4" s="6"/>
+      <c r="DJ4" s="6"/>
+      <c r="DK4" s="6"/>
+      <c r="DL4" s="6"/>
+      <c r="DM4" s="6"/>
     </row>
     <row r="5" spans="2:117" ht="18.5" customHeight="1">
       <c r="B5" s="2">
@@ -1433,29 +1459,29 @@
       <c r="CE7" s="2"/>
       <c r="CF7" s="2"/>
       <c r="CG7" s="2"/>
-      <c r="CH7" s="6" t="s">
+      <c r="CH7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="CI7" s="6"/>
-      <c r="CJ7" s="6"/>
-      <c r="CK7" s="6"/>
-      <c r="CL7" s="6"/>
-      <c r="CM7" s="6"/>
-      <c r="CN7" s="6"/>
-      <c r="CO7" s="6"/>
-      <c r="CP7" s="6"/>
-      <c r="CQ7" s="6"/>
-      <c r="CR7" s="6"/>
-      <c r="CS7" s="6"/>
-      <c r="CT7" s="6"/>
-      <c r="CU7" s="6"/>
-      <c r="CV7" s="6"/>
-      <c r="CW7" s="6"/>
-      <c r="CX7" s="6"/>
-      <c r="CY7" s="6"/>
-      <c r="CZ7" s="6"/>
-      <c r="DA7" s="6"/>
-      <c r="DB7" s="6"/>
+      <c r="CI7" s="3"/>
+      <c r="CJ7" s="3"/>
+      <c r="CK7" s="3"/>
+      <c r="CL7" s="3"/>
+      <c r="CM7" s="3"/>
+      <c r="CN7" s="3"/>
+      <c r="CO7" s="3"/>
+      <c r="CP7" s="3"/>
+      <c r="CQ7" s="3"/>
+      <c r="CR7" s="3"/>
+      <c r="CS7" s="3"/>
+      <c r="CT7" s="3"/>
+      <c r="CU7" s="3"/>
+      <c r="CV7" s="3"/>
+      <c r="CW7" s="3"/>
+      <c r="CX7" s="3"/>
+      <c r="CY7" s="3"/>
+      <c r="CZ7" s="3"/>
+      <c r="DA7" s="3"/>
+      <c r="DB7" s="3"/>
       <c r="DC7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1565,29 +1591,29 @@
       <c r="CE8" s="2"/>
       <c r="CF8" s="2"/>
       <c r="CG8" s="2"/>
-      <c r="CH8" s="6" t="s">
+      <c r="CH8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="CI8" s="6"/>
-      <c r="CJ8" s="6"/>
-      <c r="CK8" s="6"/>
-      <c r="CL8" s="6"/>
-      <c r="CM8" s="6"/>
-      <c r="CN8" s="6"/>
-      <c r="CO8" s="6"/>
-      <c r="CP8" s="6"/>
-      <c r="CQ8" s="6"/>
-      <c r="CR8" s="6"/>
-      <c r="CS8" s="6"/>
-      <c r="CT8" s="6"/>
-      <c r="CU8" s="6"/>
-      <c r="CV8" s="6"/>
-      <c r="CW8" s="6"/>
-      <c r="CX8" s="6"/>
-      <c r="CY8" s="6"/>
-      <c r="CZ8" s="6"/>
-      <c r="DA8" s="6"/>
-      <c r="DB8" s="6"/>
+      <c r="CI8" s="3"/>
+      <c r="CJ8" s="3"/>
+      <c r="CK8" s="3"/>
+      <c r="CL8" s="3"/>
+      <c r="CM8" s="3"/>
+      <c r="CN8" s="3"/>
+      <c r="CO8" s="3"/>
+      <c r="CP8" s="3"/>
+      <c r="CQ8" s="3"/>
+      <c r="CR8" s="3"/>
+      <c r="CS8" s="3"/>
+      <c r="CT8" s="3"/>
+      <c r="CU8" s="3"/>
+      <c r="CV8" s="3"/>
+      <c r="CW8" s="3"/>
+      <c r="CX8" s="3"/>
+      <c r="CY8" s="3"/>
+      <c r="CZ8" s="3"/>
+      <c r="DA8" s="3"/>
+      <c r="DB8" s="3"/>
       <c r="DC8" s="2" t="s">
         <v>24</v>
       </c>
@@ -2631,10 +2657,14 @@
       <c r="DM16" s="2"/>
     </row>
     <row r="17" spans="2:117" ht="18.5" customHeight="1">
-      <c r="B17" s="2"/>
+      <c r="B17" s="2">
+        <v>13</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -2652,7 +2682,9 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
+      <c r="W17" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
@@ -2673,7 +2705,9 @@
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
-      <c r="AR17" s="2"/>
+      <c r="AR17" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2"/>
       <c r="AU17" s="2"/>
@@ -2694,7 +2728,9 @@
       <c r="BJ17" s="2"/>
       <c r="BK17" s="2"/>
       <c r="BL17" s="2"/>
-      <c r="BM17" s="2"/>
+      <c r="BM17" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="BN17" s="2"/>
       <c r="BO17" s="2"/>
       <c r="BP17" s="2"/>
@@ -2715,7 +2751,9 @@
       <c r="CE17" s="2"/>
       <c r="CF17" s="2"/>
       <c r="CG17" s="2"/>
-      <c r="CH17" s="2"/>
+      <c r="CH17" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="CI17" s="2"/>
       <c r="CJ17" s="2"/>
       <c r="CK17" s="2"/>
@@ -2868,48 +2906,49 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="DC18:DM18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:V17"/>
-    <mergeCell ref="W17:AQ17"/>
-    <mergeCell ref="AR17:BL17"/>
-    <mergeCell ref="CH17:DB17"/>
-    <mergeCell ref="DC17:DM17"/>
-    <mergeCell ref="BM17:CG17"/>
-    <mergeCell ref="BM18:CG18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:V18"/>
-    <mergeCell ref="W18:AQ18"/>
-    <mergeCell ref="AR18:BL18"/>
-    <mergeCell ref="CH18:DB18"/>
-    <mergeCell ref="DC16:DM16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:V15"/>
-    <mergeCell ref="W15:AQ15"/>
-    <mergeCell ref="AR15:BL15"/>
-    <mergeCell ref="CH15:DB15"/>
-    <mergeCell ref="DC15:DM15"/>
-    <mergeCell ref="BM15:CG15"/>
-    <mergeCell ref="BM16:CG16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:V16"/>
-    <mergeCell ref="W16:AQ16"/>
-    <mergeCell ref="AR16:BL16"/>
-    <mergeCell ref="CH16:DB16"/>
-    <mergeCell ref="DC14:DM14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:V13"/>
-    <mergeCell ref="W13:AQ13"/>
-    <mergeCell ref="AR13:BL13"/>
-    <mergeCell ref="CH13:DB13"/>
-    <mergeCell ref="DC13:DM13"/>
-    <mergeCell ref="BM13:CG13"/>
-    <mergeCell ref="BM14:CG14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:V14"/>
-    <mergeCell ref="W14:AQ14"/>
-    <mergeCell ref="AR14:BL14"/>
-    <mergeCell ref="CH14:DB14"/>
+    <mergeCell ref="DC5:DM5"/>
+    <mergeCell ref="B2:DL2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:V4"/>
+    <mergeCell ref="W4:AQ4"/>
+    <mergeCell ref="AR4:BL4"/>
+    <mergeCell ref="CH4:DB4"/>
+    <mergeCell ref="DC4:DM4"/>
+    <mergeCell ref="BM4:CG4"/>
+    <mergeCell ref="BM5:CG5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:V5"/>
+    <mergeCell ref="W5:AQ5"/>
+    <mergeCell ref="AR5:BL5"/>
+    <mergeCell ref="CH5:DB5"/>
+    <mergeCell ref="DC7:DM7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:V6"/>
+    <mergeCell ref="W6:AQ6"/>
+    <mergeCell ref="AR6:BL6"/>
+    <mergeCell ref="CH6:DB6"/>
+    <mergeCell ref="DC6:DM6"/>
+    <mergeCell ref="BM6:CG6"/>
+    <mergeCell ref="BM7:CG7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:V7"/>
+    <mergeCell ref="W7:AQ7"/>
+    <mergeCell ref="AR7:BL7"/>
+    <mergeCell ref="CH7:DB7"/>
+    <mergeCell ref="DC9:DM9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:V8"/>
+    <mergeCell ref="W8:AQ8"/>
+    <mergeCell ref="AR8:BL8"/>
+    <mergeCell ref="CH8:DB8"/>
+    <mergeCell ref="DC8:DM8"/>
+    <mergeCell ref="BM8:CG8"/>
+    <mergeCell ref="BM9:CG9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:V9"/>
+    <mergeCell ref="W9:AQ9"/>
+    <mergeCell ref="AR9:BL9"/>
+    <mergeCell ref="CH9:DB9"/>
     <mergeCell ref="DC10:DM10"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="BM10:CG10"/>
@@ -2931,49 +2970,48 @@
     <mergeCell ref="W12:AQ12"/>
     <mergeCell ref="AR12:BL12"/>
     <mergeCell ref="CH12:DB12"/>
-    <mergeCell ref="DC9:DM9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:V8"/>
-    <mergeCell ref="W8:AQ8"/>
-    <mergeCell ref="AR8:BL8"/>
-    <mergeCell ref="CH8:DB8"/>
-    <mergeCell ref="DC8:DM8"/>
-    <mergeCell ref="BM8:CG8"/>
-    <mergeCell ref="BM9:CG9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:V9"/>
-    <mergeCell ref="W9:AQ9"/>
-    <mergeCell ref="AR9:BL9"/>
-    <mergeCell ref="CH9:DB9"/>
-    <mergeCell ref="DC7:DM7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:V6"/>
-    <mergeCell ref="W6:AQ6"/>
-    <mergeCell ref="AR6:BL6"/>
-    <mergeCell ref="CH6:DB6"/>
-    <mergeCell ref="DC6:DM6"/>
-    <mergeCell ref="BM6:CG6"/>
-    <mergeCell ref="BM7:CG7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:V7"/>
-    <mergeCell ref="W7:AQ7"/>
-    <mergeCell ref="AR7:BL7"/>
-    <mergeCell ref="CH7:DB7"/>
-    <mergeCell ref="DC5:DM5"/>
-    <mergeCell ref="B2:DL2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:V4"/>
-    <mergeCell ref="W4:AQ4"/>
-    <mergeCell ref="AR4:BL4"/>
-    <mergeCell ref="CH4:DB4"/>
-    <mergeCell ref="DC4:DM4"/>
-    <mergeCell ref="BM4:CG4"/>
-    <mergeCell ref="BM5:CG5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:V5"/>
-    <mergeCell ref="W5:AQ5"/>
-    <mergeCell ref="AR5:BL5"/>
-    <mergeCell ref="CH5:DB5"/>
+    <mergeCell ref="DC14:DM14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:V13"/>
+    <mergeCell ref="W13:AQ13"/>
+    <mergeCell ref="AR13:BL13"/>
+    <mergeCell ref="CH13:DB13"/>
+    <mergeCell ref="DC13:DM13"/>
+    <mergeCell ref="BM13:CG13"/>
+    <mergeCell ref="BM14:CG14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:V14"/>
+    <mergeCell ref="W14:AQ14"/>
+    <mergeCell ref="AR14:BL14"/>
+    <mergeCell ref="CH14:DB14"/>
+    <mergeCell ref="DC16:DM16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:V15"/>
+    <mergeCell ref="W15:AQ15"/>
+    <mergeCell ref="AR15:BL15"/>
+    <mergeCell ref="CH15:DB15"/>
+    <mergeCell ref="DC15:DM15"/>
+    <mergeCell ref="BM15:CG15"/>
+    <mergeCell ref="BM16:CG16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:V16"/>
+    <mergeCell ref="W16:AQ16"/>
+    <mergeCell ref="AR16:BL16"/>
+    <mergeCell ref="CH16:DB16"/>
+    <mergeCell ref="DC18:DM18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:V17"/>
+    <mergeCell ref="W17:AQ17"/>
+    <mergeCell ref="AR17:BL17"/>
+    <mergeCell ref="CH17:DB17"/>
+    <mergeCell ref="DC17:DM17"/>
+    <mergeCell ref="BM17:CG17"/>
+    <mergeCell ref="BM18:CG18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:V18"/>
+    <mergeCell ref="W18:AQ18"/>
+    <mergeCell ref="AR18:BL18"/>
+    <mergeCell ref="CH18:DB18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/アプリケーション一覧.xlsx
+++ b/doc/アプリケーション一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\django_base\django_base\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17BB376-5A20-411F-8FAD-3268B32C6ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCC97DB-6F8F-4186-A009-86F48269C339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>アプリケーション一覧</t>
     <rPh sb="8" eb="10">
@@ -353,10 +353,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・pg014_get_post_view</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Post:msg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -364,6 +360,42 @@
     <t>GetとPostの表示分け</t>
     <rPh sb="9" eb="12">
       <t>ヒョウジワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Form機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pg015_form_class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/pg014_get_post_view</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/pg015_form_class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title,memberform</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Formクラスによる画面の自動生成</t>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -446,14 +478,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -734,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:DM18"/>
+  <dimension ref="B1:DM43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="CH1" sqref="CH1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18"/>
@@ -860,255 +892,255 @@
       <c r="DL1" s="1"/>
     </row>
     <row r="2" spans="2:117" ht="26.5">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4"/>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4"/>
-      <c r="BL2" s="4"/>
-      <c r="BM2" s="4"/>
-      <c r="BN2" s="4"/>
-      <c r="BO2" s="4"/>
-      <c r="BP2" s="4"/>
-      <c r="BQ2" s="4"/>
-      <c r="BR2" s="4"/>
-      <c r="BS2" s="4"/>
-      <c r="BT2" s="4"/>
-      <c r="BU2" s="4"/>
-      <c r="BV2" s="4"/>
-      <c r="BW2" s="4"/>
-      <c r="BX2" s="4"/>
-      <c r="BY2" s="4"/>
-      <c r="BZ2" s="4"/>
-      <c r="CA2" s="4"/>
-      <c r="CB2" s="4"/>
-      <c r="CC2" s="4"/>
-      <c r="CD2" s="4"/>
-      <c r="CE2" s="4"/>
-      <c r="CF2" s="4"/>
-      <c r="CG2" s="4"/>
-      <c r="CH2" s="4"/>
-      <c r="CI2" s="4"/>
-      <c r="CJ2" s="4"/>
-      <c r="CK2" s="4"/>
-      <c r="CL2" s="4"/>
-      <c r="CM2" s="4"/>
-      <c r="CN2" s="4"/>
-      <c r="CO2" s="4"/>
-      <c r="CP2" s="4"/>
-      <c r="CQ2" s="4"/>
-      <c r="CR2" s="4"/>
-      <c r="CS2" s="4"/>
-      <c r="CT2" s="4"/>
-      <c r="CU2" s="4"/>
-      <c r="CV2" s="4"/>
-      <c r="CW2" s="4"/>
-      <c r="CX2" s="4"/>
-      <c r="CY2" s="4"/>
-      <c r="CZ2" s="4"/>
-      <c r="DA2" s="4"/>
-      <c r="DB2" s="4"/>
-      <c r="DC2" s="4"/>
-      <c r="DD2" s="4"/>
-      <c r="DE2" s="4"/>
-      <c r="DF2" s="4"/>
-      <c r="DG2" s="4"/>
-      <c r="DH2" s="4"/>
-      <c r="DI2" s="4"/>
-      <c r="DJ2" s="4"/>
-      <c r="DK2" s="4"/>
-      <c r="DL2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="3"/>
+      <c r="BP2" s="3"/>
+      <c r="BQ2" s="3"/>
+      <c r="BR2" s="3"/>
+      <c r="BS2" s="3"/>
+      <c r="BT2" s="3"/>
+      <c r="BU2" s="3"/>
+      <c r="BV2" s="3"/>
+      <c r="BW2" s="3"/>
+      <c r="BX2" s="3"/>
+      <c r="BY2" s="3"/>
+      <c r="BZ2" s="3"/>
+      <c r="CA2" s="3"/>
+      <c r="CB2" s="3"/>
+      <c r="CC2" s="3"/>
+      <c r="CD2" s="3"/>
+      <c r="CE2" s="3"/>
+      <c r="CF2" s="3"/>
+      <c r="CG2" s="3"/>
+      <c r="CH2" s="3"/>
+      <c r="CI2" s="3"/>
+      <c r="CJ2" s="3"/>
+      <c r="CK2" s="3"/>
+      <c r="CL2" s="3"/>
+      <c r="CM2" s="3"/>
+      <c r="CN2" s="3"/>
+      <c r="CO2" s="3"/>
+      <c r="CP2" s="3"/>
+      <c r="CQ2" s="3"/>
+      <c r="CR2" s="3"/>
+      <c r="CS2" s="3"/>
+      <c r="CT2" s="3"/>
+      <c r="CU2" s="3"/>
+      <c r="CV2" s="3"/>
+      <c r="CW2" s="3"/>
+      <c r="CX2" s="3"/>
+      <c r="CY2" s="3"/>
+      <c r="CZ2" s="3"/>
+      <c r="DA2" s="3"/>
+      <c r="DB2" s="3"/>
+      <c r="DC2" s="3"/>
+      <c r="DD2" s="3"/>
+      <c r="DE2" s="3"/>
+      <c r="DF2" s="3"/>
+      <c r="DG2" s="3"/>
+      <c r="DH2" s="3"/>
+      <c r="DI2" s="3"/>
+      <c r="DJ2" s="3"/>
+      <c r="DK2" s="3"/>
+      <c r="DL2" s="3"/>
     </row>
     <row r="4" spans="2:117">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5" t="s">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="5"/>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="5"/>
-      <c r="BF4" s="5"/>
-      <c r="BG4" s="5"/>
-      <c r="BH4" s="5"/>
-      <c r="BI4" s="5"/>
-      <c r="BJ4" s="5"/>
-      <c r="BK4" s="5"/>
-      <c r="BL4" s="5"/>
-      <c r="BM4" s="5" t="s">
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="BN4" s="5"/>
-      <c r="BO4" s="5"/>
-      <c r="BP4" s="5"/>
-      <c r="BQ4" s="5"/>
-      <c r="BR4" s="5"/>
-      <c r="BS4" s="5"/>
-      <c r="BT4" s="5"/>
-      <c r="BU4" s="5"/>
-      <c r="BV4" s="5"/>
-      <c r="BW4" s="5"/>
-      <c r="BX4" s="5"/>
-      <c r="BY4" s="5"/>
-      <c r="BZ4" s="5"/>
-      <c r="CA4" s="5"/>
-      <c r="CB4" s="5"/>
-      <c r="CC4" s="5"/>
-      <c r="CD4" s="5"/>
-      <c r="CE4" s="5"/>
-      <c r="CF4" s="5"/>
-      <c r="CG4" s="5"/>
-      <c r="CH4" s="5" t="s">
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4"/>
+      <c r="BU4" s="4"/>
+      <c r="BV4" s="4"/>
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="4"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="4"/>
+      <c r="CA4" s="4"/>
+      <c r="CB4" s="4"/>
+      <c r="CC4" s="4"/>
+      <c r="CD4" s="4"/>
+      <c r="CE4" s="4"/>
+      <c r="CF4" s="4"/>
+      <c r="CG4" s="4"/>
+      <c r="CH4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="CI4" s="5"/>
-      <c r="CJ4" s="5"/>
-      <c r="CK4" s="5"/>
-      <c r="CL4" s="5"/>
-      <c r="CM4" s="5"/>
-      <c r="CN4" s="5"/>
-      <c r="CO4" s="5"/>
-      <c r="CP4" s="5"/>
-      <c r="CQ4" s="5"/>
-      <c r="CR4" s="5"/>
-      <c r="CS4" s="5"/>
-      <c r="CT4" s="5"/>
-      <c r="CU4" s="5"/>
-      <c r="CV4" s="5"/>
-      <c r="CW4" s="5"/>
-      <c r="CX4" s="5"/>
-      <c r="CY4" s="5"/>
-      <c r="CZ4" s="5"/>
-      <c r="DA4" s="5"/>
-      <c r="DB4" s="5"/>
-      <c r="DC4" s="6" t="s">
+      <c r="CI4" s="4"/>
+      <c r="CJ4" s="4"/>
+      <c r="CK4" s="4"/>
+      <c r="CL4" s="4"/>
+      <c r="CM4" s="4"/>
+      <c r="CN4" s="4"/>
+      <c r="CO4" s="4"/>
+      <c r="CP4" s="4"/>
+      <c r="CQ4" s="4"/>
+      <c r="CR4" s="4"/>
+      <c r="CS4" s="4"/>
+      <c r="CT4" s="4"/>
+      <c r="CU4" s="4"/>
+      <c r="CV4" s="4"/>
+      <c r="CW4" s="4"/>
+      <c r="CX4" s="4"/>
+      <c r="CY4" s="4"/>
+      <c r="CZ4" s="4"/>
+      <c r="DA4" s="4"/>
+      <c r="DB4" s="4"/>
+      <c r="DC4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="DD4" s="6"/>
-      <c r="DE4" s="6"/>
-      <c r="DF4" s="6"/>
-      <c r="DG4" s="6"/>
-      <c r="DH4" s="6"/>
-      <c r="DI4" s="6"/>
-      <c r="DJ4" s="6"/>
-      <c r="DK4" s="6"/>
-      <c r="DL4" s="6"/>
-      <c r="DM4" s="6"/>
+      <c r="DD4" s="5"/>
+      <c r="DE4" s="5"/>
+      <c r="DF4" s="5"/>
+      <c r="DG4" s="5"/>
+      <c r="DH4" s="5"/>
+      <c r="DI4" s="5"/>
+      <c r="DJ4" s="5"/>
+      <c r="DK4" s="5"/>
+      <c r="DL4" s="5"/>
+      <c r="DM4" s="5"/>
     </row>
     <row r="5" spans="2:117" ht="18.5" customHeight="1">
       <c r="B5" s="2">
@@ -1459,29 +1491,29 @@
       <c r="CE7" s="2"/>
       <c r="CF7" s="2"/>
       <c r="CG7" s="2"/>
-      <c r="CH7" s="3" t="s">
+      <c r="CH7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CI7" s="3"/>
-      <c r="CJ7" s="3"/>
-      <c r="CK7" s="3"/>
-      <c r="CL7" s="3"/>
-      <c r="CM7" s="3"/>
-      <c r="CN7" s="3"/>
-      <c r="CO7" s="3"/>
-      <c r="CP7" s="3"/>
-      <c r="CQ7" s="3"/>
-      <c r="CR7" s="3"/>
-      <c r="CS7" s="3"/>
-      <c r="CT7" s="3"/>
-      <c r="CU7" s="3"/>
-      <c r="CV7" s="3"/>
-      <c r="CW7" s="3"/>
-      <c r="CX7" s="3"/>
-      <c r="CY7" s="3"/>
-      <c r="CZ7" s="3"/>
-      <c r="DA7" s="3"/>
-      <c r="DB7" s="3"/>
+      <c r="CI7" s="6"/>
+      <c r="CJ7" s="6"/>
+      <c r="CK7" s="6"/>
+      <c r="CL7" s="6"/>
+      <c r="CM7" s="6"/>
+      <c r="CN7" s="6"/>
+      <c r="CO7" s="6"/>
+      <c r="CP7" s="6"/>
+      <c r="CQ7" s="6"/>
+      <c r="CR7" s="6"/>
+      <c r="CS7" s="6"/>
+      <c r="CT7" s="6"/>
+      <c r="CU7" s="6"/>
+      <c r="CV7" s="6"/>
+      <c r="CW7" s="6"/>
+      <c r="CX7" s="6"/>
+      <c r="CY7" s="6"/>
+      <c r="CZ7" s="6"/>
+      <c r="DA7" s="6"/>
+      <c r="DB7" s="6"/>
       <c r="DC7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1591,29 +1623,29 @@
       <c r="CE8" s="2"/>
       <c r="CF8" s="2"/>
       <c r="CG8" s="2"/>
-      <c r="CH8" s="3" t="s">
+      <c r="CH8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CI8" s="3"/>
-      <c r="CJ8" s="3"/>
-      <c r="CK8" s="3"/>
-      <c r="CL8" s="3"/>
-      <c r="CM8" s="3"/>
-      <c r="CN8" s="3"/>
-      <c r="CO8" s="3"/>
-      <c r="CP8" s="3"/>
-      <c r="CQ8" s="3"/>
-      <c r="CR8" s="3"/>
-      <c r="CS8" s="3"/>
-      <c r="CT8" s="3"/>
-      <c r="CU8" s="3"/>
-      <c r="CV8" s="3"/>
-      <c r="CW8" s="3"/>
-      <c r="CX8" s="3"/>
-      <c r="CY8" s="3"/>
-      <c r="CZ8" s="3"/>
-      <c r="DA8" s="3"/>
-      <c r="DB8" s="3"/>
+      <c r="CI8" s="6"/>
+      <c r="CJ8" s="6"/>
+      <c r="CK8" s="6"/>
+      <c r="CL8" s="6"/>
+      <c r="CM8" s="6"/>
+      <c r="CN8" s="6"/>
+      <c r="CO8" s="6"/>
+      <c r="CP8" s="6"/>
+      <c r="CQ8" s="6"/>
+      <c r="CR8" s="6"/>
+      <c r="CS8" s="6"/>
+      <c r="CT8" s="6"/>
+      <c r="CU8" s="6"/>
+      <c r="CV8" s="6"/>
+      <c r="CW8" s="6"/>
+      <c r="CX8" s="6"/>
+      <c r="CY8" s="6"/>
+      <c r="CZ8" s="6"/>
+      <c r="DA8" s="6"/>
+      <c r="DB8" s="6"/>
       <c r="DC8" s="2" t="s">
         <v>24</v>
       </c>
@@ -2706,7 +2738,7 @@
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2"/>
@@ -2729,7 +2761,7 @@
       <c r="BK17" s="2"/>
       <c r="BL17" s="2"/>
       <c r="BM17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BN17" s="2"/>
       <c r="BO17" s="2"/>
@@ -2752,7 +2784,7 @@
       <c r="CF17" s="2"/>
       <c r="CG17" s="2"/>
       <c r="CH17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="CI17" s="2"/>
       <c r="CJ17" s="2"/>
@@ -2787,10 +2819,14 @@
       <c r="DM17" s="2"/>
     </row>
     <row r="18" spans="2:117" ht="18.5" customHeight="1">
-      <c r="B18" s="2"/>
+      <c r="B18" s="2">
+        <v>14</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -2808,7 +2844,9 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
+      <c r="W18" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
@@ -2829,7 +2867,9 @@
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
-      <c r="AR18" s="2"/>
+      <c r="AR18" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2"/>
       <c r="AU18" s="2"/>
@@ -2850,7 +2890,9 @@
       <c r="BJ18" s="2"/>
       <c r="BK18" s="2"/>
       <c r="BL18" s="2"/>
-      <c r="BM18" s="2"/>
+      <c r="BM18" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="BN18" s="2"/>
       <c r="BO18" s="2"/>
       <c r="BP18" s="2"/>
@@ -2871,7 +2913,9 @@
       <c r="CE18" s="2"/>
       <c r="CF18" s="2"/>
       <c r="CG18" s="2"/>
-      <c r="CH18" s="2"/>
+      <c r="CH18" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="CI18" s="2"/>
       <c r="CJ18" s="2"/>
       <c r="CK18" s="2"/>
@@ -2904,51 +2948,3175 @@
       <c r="DL18" s="2"/>
       <c r="DM18" s="2"/>
     </row>
+    <row r="19" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="2"/>
+      <c r="BM19" s="2"/>
+      <c r="BN19" s="2"/>
+      <c r="BO19" s="2"/>
+      <c r="BP19" s="2"/>
+      <c r="BQ19" s="2"/>
+      <c r="BR19" s="2"/>
+      <c r="BS19" s="2"/>
+      <c r="BT19" s="2"/>
+      <c r="BU19" s="2"/>
+      <c r="BV19" s="2"/>
+      <c r="BW19" s="2"/>
+      <c r="BX19" s="2"/>
+      <c r="BY19" s="2"/>
+      <c r="BZ19" s="2"/>
+      <c r="CA19" s="2"/>
+      <c r="CB19" s="2"/>
+      <c r="CC19" s="2"/>
+      <c r="CD19" s="2"/>
+      <c r="CE19" s="2"/>
+      <c r="CF19" s="2"/>
+      <c r="CG19" s="2"/>
+      <c r="CH19" s="2"/>
+      <c r="CI19" s="2"/>
+      <c r="CJ19" s="2"/>
+      <c r="CK19" s="2"/>
+      <c r="CL19" s="2"/>
+      <c r="CM19" s="2"/>
+      <c r="CN19" s="2"/>
+      <c r="CO19" s="2"/>
+      <c r="CP19" s="2"/>
+      <c r="CQ19" s="2"/>
+      <c r="CR19" s="2"/>
+      <c r="CS19" s="2"/>
+      <c r="CT19" s="2"/>
+      <c r="CU19" s="2"/>
+      <c r="CV19" s="2"/>
+      <c r="CW19" s="2"/>
+      <c r="CX19" s="2"/>
+      <c r="CY19" s="2"/>
+      <c r="CZ19" s="2"/>
+      <c r="DA19" s="2"/>
+      <c r="DB19" s="2"/>
+      <c r="DC19" s="2"/>
+      <c r="DD19" s="2"/>
+      <c r="DE19" s="2"/>
+      <c r="DF19" s="2"/>
+      <c r="DG19" s="2"/>
+      <c r="DH19" s="2"/>
+      <c r="DI19" s="2"/>
+      <c r="DJ19" s="2"/>
+      <c r="DK19" s="2"/>
+      <c r="DL19" s="2"/>
+      <c r="DM19" s="2"/>
+    </row>
+    <row r="20" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="2"/>
+      <c r="BM20" s="2"/>
+      <c r="BN20" s="2"/>
+      <c r="BO20" s="2"/>
+      <c r="BP20" s="2"/>
+      <c r="BQ20" s="2"/>
+      <c r="BR20" s="2"/>
+      <c r="BS20" s="2"/>
+      <c r="BT20" s="2"/>
+      <c r="BU20" s="2"/>
+      <c r="BV20" s="2"/>
+      <c r="BW20" s="2"/>
+      <c r="BX20" s="2"/>
+      <c r="BY20" s="2"/>
+      <c r="BZ20" s="2"/>
+      <c r="CA20" s="2"/>
+      <c r="CB20" s="2"/>
+      <c r="CC20" s="2"/>
+      <c r="CD20" s="2"/>
+      <c r="CE20" s="2"/>
+      <c r="CF20" s="2"/>
+      <c r="CG20" s="2"/>
+      <c r="CH20" s="2"/>
+      <c r="CI20" s="2"/>
+      <c r="CJ20" s="2"/>
+      <c r="CK20" s="2"/>
+      <c r="CL20" s="2"/>
+      <c r="CM20" s="2"/>
+      <c r="CN20" s="2"/>
+      <c r="CO20" s="2"/>
+      <c r="CP20" s="2"/>
+      <c r="CQ20" s="2"/>
+      <c r="CR20" s="2"/>
+      <c r="CS20" s="2"/>
+      <c r="CT20" s="2"/>
+      <c r="CU20" s="2"/>
+      <c r="CV20" s="2"/>
+      <c r="CW20" s="2"/>
+      <c r="CX20" s="2"/>
+      <c r="CY20" s="2"/>
+      <c r="CZ20" s="2"/>
+      <c r="DA20" s="2"/>
+      <c r="DB20" s="2"/>
+      <c r="DC20" s="2"/>
+      <c r="DD20" s="2"/>
+      <c r="DE20" s="2"/>
+      <c r="DF20" s="2"/>
+      <c r="DG20" s="2"/>
+      <c r="DH20" s="2"/>
+      <c r="DI20" s="2"/>
+      <c r="DJ20" s="2"/>
+      <c r="DK20" s="2"/>
+      <c r="DL20" s="2"/>
+      <c r="DM20" s="2"/>
+    </row>
+    <row r="21" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="2"/>
+      <c r="BG21" s="2"/>
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="2"/>
+      <c r="BK21" s="2"/>
+      <c r="BL21" s="2"/>
+      <c r="BM21" s="2"/>
+      <c r="BN21" s="2"/>
+      <c r="BO21" s="2"/>
+      <c r="BP21" s="2"/>
+      <c r="BQ21" s="2"/>
+      <c r="BR21" s="2"/>
+      <c r="BS21" s="2"/>
+      <c r="BT21" s="2"/>
+      <c r="BU21" s="2"/>
+      <c r="BV21" s="2"/>
+      <c r="BW21" s="2"/>
+      <c r="BX21" s="2"/>
+      <c r="BY21" s="2"/>
+      <c r="BZ21" s="2"/>
+      <c r="CA21" s="2"/>
+      <c r="CB21" s="2"/>
+      <c r="CC21" s="2"/>
+      <c r="CD21" s="2"/>
+      <c r="CE21" s="2"/>
+      <c r="CF21" s="2"/>
+      <c r="CG21" s="2"/>
+      <c r="CH21" s="2"/>
+      <c r="CI21" s="2"/>
+      <c r="CJ21" s="2"/>
+      <c r="CK21" s="2"/>
+      <c r="CL21" s="2"/>
+      <c r="CM21" s="2"/>
+      <c r="CN21" s="2"/>
+      <c r="CO21" s="2"/>
+      <c r="CP21" s="2"/>
+      <c r="CQ21" s="2"/>
+      <c r="CR21" s="2"/>
+      <c r="CS21" s="2"/>
+      <c r="CT21" s="2"/>
+      <c r="CU21" s="2"/>
+      <c r="CV21" s="2"/>
+      <c r="CW21" s="2"/>
+      <c r="CX21" s="2"/>
+      <c r="CY21" s="2"/>
+      <c r="CZ21" s="2"/>
+      <c r="DA21" s="2"/>
+      <c r="DB21" s="2"/>
+      <c r="DC21" s="2"/>
+      <c r="DD21" s="2"/>
+      <c r="DE21" s="2"/>
+      <c r="DF21" s="2"/>
+      <c r="DG21" s="2"/>
+      <c r="DH21" s="2"/>
+      <c r="DI21" s="2"/>
+      <c r="DJ21" s="2"/>
+      <c r="DK21" s="2"/>
+      <c r="DL21" s="2"/>
+      <c r="DM21" s="2"/>
+    </row>
+    <row r="22" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="2"/>
+      <c r="BG22" s="2"/>
+      <c r="BH22" s="2"/>
+      <c r="BI22" s="2"/>
+      <c r="BJ22" s="2"/>
+      <c r="BK22" s="2"/>
+      <c r="BL22" s="2"/>
+      <c r="BM22" s="2"/>
+      <c r="BN22" s="2"/>
+      <c r="BO22" s="2"/>
+      <c r="BP22" s="2"/>
+      <c r="BQ22" s="2"/>
+      <c r="BR22" s="2"/>
+      <c r="BS22" s="2"/>
+      <c r="BT22" s="2"/>
+      <c r="BU22" s="2"/>
+      <c r="BV22" s="2"/>
+      <c r="BW22" s="2"/>
+      <c r="BX22" s="2"/>
+      <c r="BY22" s="2"/>
+      <c r="BZ22" s="2"/>
+      <c r="CA22" s="2"/>
+      <c r="CB22" s="2"/>
+      <c r="CC22" s="2"/>
+      <c r="CD22" s="2"/>
+      <c r="CE22" s="2"/>
+      <c r="CF22" s="2"/>
+      <c r="CG22" s="2"/>
+      <c r="CH22" s="2"/>
+      <c r="CI22" s="2"/>
+      <c r="CJ22" s="2"/>
+      <c r="CK22" s="2"/>
+      <c r="CL22" s="2"/>
+      <c r="CM22" s="2"/>
+      <c r="CN22" s="2"/>
+      <c r="CO22" s="2"/>
+      <c r="CP22" s="2"/>
+      <c r="CQ22" s="2"/>
+      <c r="CR22" s="2"/>
+      <c r="CS22" s="2"/>
+      <c r="CT22" s="2"/>
+      <c r="CU22" s="2"/>
+      <c r="CV22" s="2"/>
+      <c r="CW22" s="2"/>
+      <c r="CX22" s="2"/>
+      <c r="CY22" s="2"/>
+      <c r="CZ22" s="2"/>
+      <c r="DA22" s="2"/>
+      <c r="DB22" s="2"/>
+      <c r="DC22" s="2"/>
+      <c r="DD22" s="2"/>
+      <c r="DE22" s="2"/>
+      <c r="DF22" s="2"/>
+      <c r="DG22" s="2"/>
+      <c r="DH22" s="2"/>
+      <c r="DI22" s="2"/>
+      <c r="DJ22" s="2"/>
+      <c r="DK22" s="2"/>
+      <c r="DL22" s="2"/>
+      <c r="DM22" s="2"/>
+    </row>
+    <row r="23" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="2"/>
+      <c r="BK23" s="2"/>
+      <c r="BL23" s="2"/>
+      <c r="BM23" s="2"/>
+      <c r="BN23" s="2"/>
+      <c r="BO23" s="2"/>
+      <c r="BP23" s="2"/>
+      <c r="BQ23" s="2"/>
+      <c r="BR23" s="2"/>
+      <c r="BS23" s="2"/>
+      <c r="BT23" s="2"/>
+      <c r="BU23" s="2"/>
+      <c r="BV23" s="2"/>
+      <c r="BW23" s="2"/>
+      <c r="BX23" s="2"/>
+      <c r="BY23" s="2"/>
+      <c r="BZ23" s="2"/>
+      <c r="CA23" s="2"/>
+      <c r="CB23" s="2"/>
+      <c r="CC23" s="2"/>
+      <c r="CD23" s="2"/>
+      <c r="CE23" s="2"/>
+      <c r="CF23" s="2"/>
+      <c r="CG23" s="2"/>
+      <c r="CH23" s="2"/>
+      <c r="CI23" s="2"/>
+      <c r="CJ23" s="2"/>
+      <c r="CK23" s="2"/>
+      <c r="CL23" s="2"/>
+      <c r="CM23" s="2"/>
+      <c r="CN23" s="2"/>
+      <c r="CO23" s="2"/>
+      <c r="CP23" s="2"/>
+      <c r="CQ23" s="2"/>
+      <c r="CR23" s="2"/>
+      <c r="CS23" s="2"/>
+      <c r="CT23" s="2"/>
+      <c r="CU23" s="2"/>
+      <c r="CV23" s="2"/>
+      <c r="CW23" s="2"/>
+      <c r="CX23" s="2"/>
+      <c r="CY23" s="2"/>
+      <c r="CZ23" s="2"/>
+      <c r="DA23" s="2"/>
+      <c r="DB23" s="2"/>
+      <c r="DC23" s="2"/>
+      <c r="DD23" s="2"/>
+      <c r="DE23" s="2"/>
+      <c r="DF23" s="2"/>
+      <c r="DG23" s="2"/>
+      <c r="DH23" s="2"/>
+      <c r="DI23" s="2"/>
+      <c r="DJ23" s="2"/>
+      <c r="DK23" s="2"/>
+      <c r="DL23" s="2"/>
+      <c r="DM23" s="2"/>
+    </row>
+    <row r="24" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="2"/>
+      <c r="BH24" s="2"/>
+      <c r="BI24" s="2"/>
+      <c r="BJ24" s="2"/>
+      <c r="BK24" s="2"/>
+      <c r="BL24" s="2"/>
+      <c r="BM24" s="2"/>
+      <c r="BN24" s="2"/>
+      <c r="BO24" s="2"/>
+      <c r="BP24" s="2"/>
+      <c r="BQ24" s="2"/>
+      <c r="BR24" s="2"/>
+      <c r="BS24" s="2"/>
+      <c r="BT24" s="2"/>
+      <c r="BU24" s="2"/>
+      <c r="BV24" s="2"/>
+      <c r="BW24" s="2"/>
+      <c r="BX24" s="2"/>
+      <c r="BY24" s="2"/>
+      <c r="BZ24" s="2"/>
+      <c r="CA24" s="2"/>
+      <c r="CB24" s="2"/>
+      <c r="CC24" s="2"/>
+      <c r="CD24" s="2"/>
+      <c r="CE24" s="2"/>
+      <c r="CF24" s="2"/>
+      <c r="CG24" s="2"/>
+      <c r="CH24" s="2"/>
+      <c r="CI24" s="2"/>
+      <c r="CJ24" s="2"/>
+      <c r="CK24" s="2"/>
+      <c r="CL24" s="2"/>
+      <c r="CM24" s="2"/>
+      <c r="CN24" s="2"/>
+      <c r="CO24" s="2"/>
+      <c r="CP24" s="2"/>
+      <c r="CQ24" s="2"/>
+      <c r="CR24" s="2"/>
+      <c r="CS24" s="2"/>
+      <c r="CT24" s="2"/>
+      <c r="CU24" s="2"/>
+      <c r="CV24" s="2"/>
+      <c r="CW24" s="2"/>
+      <c r="CX24" s="2"/>
+      <c r="CY24" s="2"/>
+      <c r="CZ24" s="2"/>
+      <c r="DA24" s="2"/>
+      <c r="DB24" s="2"/>
+      <c r="DC24" s="2"/>
+      <c r="DD24" s="2"/>
+      <c r="DE24" s="2"/>
+      <c r="DF24" s="2"/>
+      <c r="DG24" s="2"/>
+      <c r="DH24" s="2"/>
+      <c r="DI24" s="2"/>
+      <c r="DJ24" s="2"/>
+      <c r="DK24" s="2"/>
+      <c r="DL24" s="2"/>
+      <c r="DM24" s="2"/>
+    </row>
+    <row r="25" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2"/>
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="2"/>
+      <c r="BJ25" s="2"/>
+      <c r="BK25" s="2"/>
+      <c r="BL25" s="2"/>
+      <c r="BM25" s="2"/>
+      <c r="BN25" s="2"/>
+      <c r="BO25" s="2"/>
+      <c r="BP25" s="2"/>
+      <c r="BQ25" s="2"/>
+      <c r="BR25" s="2"/>
+      <c r="BS25" s="2"/>
+      <c r="BT25" s="2"/>
+      <c r="BU25" s="2"/>
+      <c r="BV25" s="2"/>
+      <c r="BW25" s="2"/>
+      <c r="BX25" s="2"/>
+      <c r="BY25" s="2"/>
+      <c r="BZ25" s="2"/>
+      <c r="CA25" s="2"/>
+      <c r="CB25" s="2"/>
+      <c r="CC25" s="2"/>
+      <c r="CD25" s="2"/>
+      <c r="CE25" s="2"/>
+      <c r="CF25" s="2"/>
+      <c r="CG25" s="2"/>
+      <c r="CH25" s="2"/>
+      <c r="CI25" s="2"/>
+      <c r="CJ25" s="2"/>
+      <c r="CK25" s="2"/>
+      <c r="CL25" s="2"/>
+      <c r="CM25" s="2"/>
+      <c r="CN25" s="2"/>
+      <c r="CO25" s="2"/>
+      <c r="CP25" s="2"/>
+      <c r="CQ25" s="2"/>
+      <c r="CR25" s="2"/>
+      <c r="CS25" s="2"/>
+      <c r="CT25" s="2"/>
+      <c r="CU25" s="2"/>
+      <c r="CV25" s="2"/>
+      <c r="CW25" s="2"/>
+      <c r="CX25" s="2"/>
+      <c r="CY25" s="2"/>
+      <c r="CZ25" s="2"/>
+      <c r="DA25" s="2"/>
+      <c r="DB25" s="2"/>
+      <c r="DC25" s="2"/>
+      <c r="DD25" s="2"/>
+      <c r="DE25" s="2"/>
+      <c r="DF25" s="2"/>
+      <c r="DG25" s="2"/>
+      <c r="DH25" s="2"/>
+      <c r="DI25" s="2"/>
+      <c r="DJ25" s="2"/>
+      <c r="DK25" s="2"/>
+      <c r="DL25" s="2"/>
+      <c r="DM25" s="2"/>
+    </row>
+    <row r="26" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
+      <c r="BG26" s="2"/>
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="2"/>
+      <c r="BJ26" s="2"/>
+      <c r="BK26" s="2"/>
+      <c r="BL26" s="2"/>
+      <c r="BM26" s="2"/>
+      <c r="BN26" s="2"/>
+      <c r="BO26" s="2"/>
+      <c r="BP26" s="2"/>
+      <c r="BQ26" s="2"/>
+      <c r="BR26" s="2"/>
+      <c r="BS26" s="2"/>
+      <c r="BT26" s="2"/>
+      <c r="BU26" s="2"/>
+      <c r="BV26" s="2"/>
+      <c r="BW26" s="2"/>
+      <c r="BX26" s="2"/>
+      <c r="BY26" s="2"/>
+      <c r="BZ26" s="2"/>
+      <c r="CA26" s="2"/>
+      <c r="CB26" s="2"/>
+      <c r="CC26" s="2"/>
+      <c r="CD26" s="2"/>
+      <c r="CE26" s="2"/>
+      <c r="CF26" s="2"/>
+      <c r="CG26" s="2"/>
+      <c r="CH26" s="2"/>
+      <c r="CI26" s="2"/>
+      <c r="CJ26" s="2"/>
+      <c r="CK26" s="2"/>
+      <c r="CL26" s="2"/>
+      <c r="CM26" s="2"/>
+      <c r="CN26" s="2"/>
+      <c r="CO26" s="2"/>
+      <c r="CP26" s="2"/>
+      <c r="CQ26" s="2"/>
+      <c r="CR26" s="2"/>
+      <c r="CS26" s="2"/>
+      <c r="CT26" s="2"/>
+      <c r="CU26" s="2"/>
+      <c r="CV26" s="2"/>
+      <c r="CW26" s="2"/>
+      <c r="CX26" s="2"/>
+      <c r="CY26" s="2"/>
+      <c r="CZ26" s="2"/>
+      <c r="DA26" s="2"/>
+      <c r="DB26" s="2"/>
+      <c r="DC26" s="2"/>
+      <c r="DD26" s="2"/>
+      <c r="DE26" s="2"/>
+      <c r="DF26" s="2"/>
+      <c r="DG26" s="2"/>
+      <c r="DH26" s="2"/>
+      <c r="DI26" s="2"/>
+      <c r="DJ26" s="2"/>
+      <c r="DK26" s="2"/>
+      <c r="DL26" s="2"/>
+      <c r="DM26" s="2"/>
+    </row>
+    <row r="27" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2"/>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="2"/>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="2"/>
+      <c r="BD27" s="2"/>
+      <c r="BE27" s="2"/>
+      <c r="BF27" s="2"/>
+      <c r="BG27" s="2"/>
+      <c r="BH27" s="2"/>
+      <c r="BI27" s="2"/>
+      <c r="BJ27" s="2"/>
+      <c r="BK27" s="2"/>
+      <c r="BL27" s="2"/>
+      <c r="BM27" s="2"/>
+      <c r="BN27" s="2"/>
+      <c r="BO27" s="2"/>
+      <c r="BP27" s="2"/>
+      <c r="BQ27" s="2"/>
+      <c r="BR27" s="2"/>
+      <c r="BS27" s="2"/>
+      <c r="BT27" s="2"/>
+      <c r="BU27" s="2"/>
+      <c r="BV27" s="2"/>
+      <c r="BW27" s="2"/>
+      <c r="BX27" s="2"/>
+      <c r="BY27" s="2"/>
+      <c r="BZ27" s="2"/>
+      <c r="CA27" s="2"/>
+      <c r="CB27" s="2"/>
+      <c r="CC27" s="2"/>
+      <c r="CD27" s="2"/>
+      <c r="CE27" s="2"/>
+      <c r="CF27" s="2"/>
+      <c r="CG27" s="2"/>
+      <c r="CH27" s="2"/>
+      <c r="CI27" s="2"/>
+      <c r="CJ27" s="2"/>
+      <c r="CK27" s="2"/>
+      <c r="CL27" s="2"/>
+      <c r="CM27" s="2"/>
+      <c r="CN27" s="2"/>
+      <c r="CO27" s="2"/>
+      <c r="CP27" s="2"/>
+      <c r="CQ27" s="2"/>
+      <c r="CR27" s="2"/>
+      <c r="CS27" s="2"/>
+      <c r="CT27" s="2"/>
+      <c r="CU27" s="2"/>
+      <c r="CV27" s="2"/>
+      <c r="CW27" s="2"/>
+      <c r="CX27" s="2"/>
+      <c r="CY27" s="2"/>
+      <c r="CZ27" s="2"/>
+      <c r="DA27" s="2"/>
+      <c r="DB27" s="2"/>
+      <c r="DC27" s="2"/>
+      <c r="DD27" s="2"/>
+      <c r="DE27" s="2"/>
+      <c r="DF27" s="2"/>
+      <c r="DG27" s="2"/>
+      <c r="DH27" s="2"/>
+      <c r="DI27" s="2"/>
+      <c r="DJ27" s="2"/>
+      <c r="DK27" s="2"/>
+      <c r="DL27" s="2"/>
+      <c r="DM27" s="2"/>
+    </row>
+    <row r="28" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2"/>
+      <c r="BG28" s="2"/>
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="2"/>
+      <c r="BJ28" s="2"/>
+      <c r="BK28" s="2"/>
+      <c r="BL28" s="2"/>
+      <c r="BM28" s="2"/>
+      <c r="BN28" s="2"/>
+      <c r="BO28" s="2"/>
+      <c r="BP28" s="2"/>
+      <c r="BQ28" s="2"/>
+      <c r="BR28" s="2"/>
+      <c r="BS28" s="2"/>
+      <c r="BT28" s="2"/>
+      <c r="BU28" s="2"/>
+      <c r="BV28" s="2"/>
+      <c r="BW28" s="2"/>
+      <c r="BX28" s="2"/>
+      <c r="BY28" s="2"/>
+      <c r="BZ28" s="2"/>
+      <c r="CA28" s="2"/>
+      <c r="CB28" s="2"/>
+      <c r="CC28" s="2"/>
+      <c r="CD28" s="2"/>
+      <c r="CE28" s="2"/>
+      <c r="CF28" s="2"/>
+      <c r="CG28" s="2"/>
+      <c r="CH28" s="2"/>
+      <c r="CI28" s="2"/>
+      <c r="CJ28" s="2"/>
+      <c r="CK28" s="2"/>
+      <c r="CL28" s="2"/>
+      <c r="CM28" s="2"/>
+      <c r="CN28" s="2"/>
+      <c r="CO28" s="2"/>
+      <c r="CP28" s="2"/>
+      <c r="CQ28" s="2"/>
+      <c r="CR28" s="2"/>
+      <c r="CS28" s="2"/>
+      <c r="CT28" s="2"/>
+      <c r="CU28" s="2"/>
+      <c r="CV28" s="2"/>
+      <c r="CW28" s="2"/>
+      <c r="CX28" s="2"/>
+      <c r="CY28" s="2"/>
+      <c r="CZ28" s="2"/>
+      <c r="DA28" s="2"/>
+      <c r="DB28" s="2"/>
+      <c r="DC28" s="2"/>
+      <c r="DD28" s="2"/>
+      <c r="DE28" s="2"/>
+      <c r="DF28" s="2"/>
+      <c r="DG28" s="2"/>
+      <c r="DH28" s="2"/>
+      <c r="DI28" s="2"/>
+      <c r="DJ28" s="2"/>
+      <c r="DK28" s="2"/>
+      <c r="DL28" s="2"/>
+      <c r="DM28" s="2"/>
+    </row>
+    <row r="29" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="2"/>
+      <c r="BA29" s="2"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="2"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="2"/>
+      <c r="BG29" s="2"/>
+      <c r="BH29" s="2"/>
+      <c r="BI29" s="2"/>
+      <c r="BJ29" s="2"/>
+      <c r="BK29" s="2"/>
+      <c r="BL29" s="2"/>
+      <c r="BM29" s="2"/>
+      <c r="BN29" s="2"/>
+      <c r="BO29" s="2"/>
+      <c r="BP29" s="2"/>
+      <c r="BQ29" s="2"/>
+      <c r="BR29" s="2"/>
+      <c r="BS29" s="2"/>
+      <c r="BT29" s="2"/>
+      <c r="BU29" s="2"/>
+      <c r="BV29" s="2"/>
+      <c r="BW29" s="2"/>
+      <c r="BX29" s="2"/>
+      <c r="BY29" s="2"/>
+      <c r="BZ29" s="2"/>
+      <c r="CA29" s="2"/>
+      <c r="CB29" s="2"/>
+      <c r="CC29" s="2"/>
+      <c r="CD29" s="2"/>
+      <c r="CE29" s="2"/>
+      <c r="CF29" s="2"/>
+      <c r="CG29" s="2"/>
+      <c r="CH29" s="2"/>
+      <c r="CI29" s="2"/>
+      <c r="CJ29" s="2"/>
+      <c r="CK29" s="2"/>
+      <c r="CL29" s="2"/>
+      <c r="CM29" s="2"/>
+      <c r="CN29" s="2"/>
+      <c r="CO29" s="2"/>
+      <c r="CP29" s="2"/>
+      <c r="CQ29" s="2"/>
+      <c r="CR29" s="2"/>
+      <c r="CS29" s="2"/>
+      <c r="CT29" s="2"/>
+      <c r="CU29" s="2"/>
+      <c r="CV29" s="2"/>
+      <c r="CW29" s="2"/>
+      <c r="CX29" s="2"/>
+      <c r="CY29" s="2"/>
+      <c r="CZ29" s="2"/>
+      <c r="DA29" s="2"/>
+      <c r="DB29" s="2"/>
+      <c r="DC29" s="2"/>
+      <c r="DD29" s="2"/>
+      <c r="DE29" s="2"/>
+      <c r="DF29" s="2"/>
+      <c r="DG29" s="2"/>
+      <c r="DH29" s="2"/>
+      <c r="DI29" s="2"/>
+      <c r="DJ29" s="2"/>
+      <c r="DK29" s="2"/>
+      <c r="DL29" s="2"/>
+      <c r="DM29" s="2"/>
+    </row>
+    <row r="30" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2"/>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="2"/>
+      <c r="AZ30" s="2"/>
+      <c r="BA30" s="2"/>
+      <c r="BB30" s="2"/>
+      <c r="BC30" s="2"/>
+      <c r="BD30" s="2"/>
+      <c r="BE30" s="2"/>
+      <c r="BF30" s="2"/>
+      <c r="BG30" s="2"/>
+      <c r="BH30" s="2"/>
+      <c r="BI30" s="2"/>
+      <c r="BJ30" s="2"/>
+      <c r="BK30" s="2"/>
+      <c r="BL30" s="2"/>
+      <c r="BM30" s="2"/>
+      <c r="BN30" s="2"/>
+      <c r="BO30" s="2"/>
+      <c r="BP30" s="2"/>
+      <c r="BQ30" s="2"/>
+      <c r="BR30" s="2"/>
+      <c r="BS30" s="2"/>
+      <c r="BT30" s="2"/>
+      <c r="BU30" s="2"/>
+      <c r="BV30" s="2"/>
+      <c r="BW30" s="2"/>
+      <c r="BX30" s="2"/>
+      <c r="BY30" s="2"/>
+      <c r="BZ30" s="2"/>
+      <c r="CA30" s="2"/>
+      <c r="CB30" s="2"/>
+      <c r="CC30" s="2"/>
+      <c r="CD30" s="2"/>
+      <c r="CE30" s="2"/>
+      <c r="CF30" s="2"/>
+      <c r="CG30" s="2"/>
+      <c r="CH30" s="2"/>
+      <c r="CI30" s="2"/>
+      <c r="CJ30" s="2"/>
+      <c r="CK30" s="2"/>
+      <c r="CL30" s="2"/>
+      <c r="CM30" s="2"/>
+      <c r="CN30" s="2"/>
+      <c r="CO30" s="2"/>
+      <c r="CP30" s="2"/>
+      <c r="CQ30" s="2"/>
+      <c r="CR30" s="2"/>
+      <c r="CS30" s="2"/>
+      <c r="CT30" s="2"/>
+      <c r="CU30" s="2"/>
+      <c r="CV30" s="2"/>
+      <c r="CW30" s="2"/>
+      <c r="CX30" s="2"/>
+      <c r="CY30" s="2"/>
+      <c r="CZ30" s="2"/>
+      <c r="DA30" s="2"/>
+      <c r="DB30" s="2"/>
+      <c r="DC30" s="2"/>
+      <c r="DD30" s="2"/>
+      <c r="DE30" s="2"/>
+      <c r="DF30" s="2"/>
+      <c r="DG30" s="2"/>
+      <c r="DH30" s="2"/>
+      <c r="DI30" s="2"/>
+      <c r="DJ30" s="2"/>
+      <c r="DK30" s="2"/>
+      <c r="DL30" s="2"/>
+      <c r="DM30" s="2"/>
+    </row>
+    <row r="31" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="2"/>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2"/>
+      <c r="AZ31" s="2"/>
+      <c r="BA31" s="2"/>
+      <c r="BB31" s="2"/>
+      <c r="BC31" s="2"/>
+      <c r="BD31" s="2"/>
+      <c r="BE31" s="2"/>
+      <c r="BF31" s="2"/>
+      <c r="BG31" s="2"/>
+      <c r="BH31" s="2"/>
+      <c r="BI31" s="2"/>
+      <c r="BJ31" s="2"/>
+      <c r="BK31" s="2"/>
+      <c r="BL31" s="2"/>
+      <c r="BM31" s="2"/>
+      <c r="BN31" s="2"/>
+      <c r="BO31" s="2"/>
+      <c r="BP31" s="2"/>
+      <c r="BQ31" s="2"/>
+      <c r="BR31" s="2"/>
+      <c r="BS31" s="2"/>
+      <c r="BT31" s="2"/>
+      <c r="BU31" s="2"/>
+      <c r="BV31" s="2"/>
+      <c r="BW31" s="2"/>
+      <c r="BX31" s="2"/>
+      <c r="BY31" s="2"/>
+      <c r="BZ31" s="2"/>
+      <c r="CA31" s="2"/>
+      <c r="CB31" s="2"/>
+      <c r="CC31" s="2"/>
+      <c r="CD31" s="2"/>
+      <c r="CE31" s="2"/>
+      <c r="CF31" s="2"/>
+      <c r="CG31" s="2"/>
+      <c r="CH31" s="2"/>
+      <c r="CI31" s="2"/>
+      <c r="CJ31" s="2"/>
+      <c r="CK31" s="2"/>
+      <c r="CL31" s="2"/>
+      <c r="CM31" s="2"/>
+      <c r="CN31" s="2"/>
+      <c r="CO31" s="2"/>
+      <c r="CP31" s="2"/>
+      <c r="CQ31" s="2"/>
+      <c r="CR31" s="2"/>
+      <c r="CS31" s="2"/>
+      <c r="CT31" s="2"/>
+      <c r="CU31" s="2"/>
+      <c r="CV31" s="2"/>
+      <c r="CW31" s="2"/>
+      <c r="CX31" s="2"/>
+      <c r="CY31" s="2"/>
+      <c r="CZ31" s="2"/>
+      <c r="DA31" s="2"/>
+      <c r="DB31" s="2"/>
+      <c r="DC31" s="2"/>
+      <c r="DD31" s="2"/>
+      <c r="DE31" s="2"/>
+      <c r="DF31" s="2"/>
+      <c r="DG31" s="2"/>
+      <c r="DH31" s="2"/>
+      <c r="DI31" s="2"/>
+      <c r="DJ31" s="2"/>
+      <c r="DK31" s="2"/>
+      <c r="DL31" s="2"/>
+      <c r="DM31" s="2"/>
+    </row>
+    <row r="32" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="2"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="2"/>
+      <c r="AV32" s="2"/>
+      <c r="AW32" s="2"/>
+      <c r="AX32" s="2"/>
+      <c r="AY32" s="2"/>
+      <c r="AZ32" s="2"/>
+      <c r="BA32" s="2"/>
+      <c r="BB32" s="2"/>
+      <c r="BC32" s="2"/>
+      <c r="BD32" s="2"/>
+      <c r="BE32" s="2"/>
+      <c r="BF32" s="2"/>
+      <c r="BG32" s="2"/>
+      <c r="BH32" s="2"/>
+      <c r="BI32" s="2"/>
+      <c r="BJ32" s="2"/>
+      <c r="BK32" s="2"/>
+      <c r="BL32" s="2"/>
+      <c r="BM32" s="2"/>
+      <c r="BN32" s="2"/>
+      <c r="BO32" s="2"/>
+      <c r="BP32" s="2"/>
+      <c r="BQ32" s="2"/>
+      <c r="BR32" s="2"/>
+      <c r="BS32" s="2"/>
+      <c r="BT32" s="2"/>
+      <c r="BU32" s="2"/>
+      <c r="BV32" s="2"/>
+      <c r="BW32" s="2"/>
+      <c r="BX32" s="2"/>
+      <c r="BY32" s="2"/>
+      <c r="BZ32" s="2"/>
+      <c r="CA32" s="2"/>
+      <c r="CB32" s="2"/>
+      <c r="CC32" s="2"/>
+      <c r="CD32" s="2"/>
+      <c r="CE32" s="2"/>
+      <c r="CF32" s="2"/>
+      <c r="CG32" s="2"/>
+      <c r="CH32" s="2"/>
+      <c r="CI32" s="2"/>
+      <c r="CJ32" s="2"/>
+      <c r="CK32" s="2"/>
+      <c r="CL32" s="2"/>
+      <c r="CM32" s="2"/>
+      <c r="CN32" s="2"/>
+      <c r="CO32" s="2"/>
+      <c r="CP32" s="2"/>
+      <c r="CQ32" s="2"/>
+      <c r="CR32" s="2"/>
+      <c r="CS32" s="2"/>
+      <c r="CT32" s="2"/>
+      <c r="CU32" s="2"/>
+      <c r="CV32" s="2"/>
+      <c r="CW32" s="2"/>
+      <c r="CX32" s="2"/>
+      <c r="CY32" s="2"/>
+      <c r="CZ32" s="2"/>
+      <c r="DA32" s="2"/>
+      <c r="DB32" s="2"/>
+      <c r="DC32" s="2"/>
+      <c r="DD32" s="2"/>
+      <c r="DE32" s="2"/>
+      <c r="DF32" s="2"/>
+      <c r="DG32" s="2"/>
+      <c r="DH32" s="2"/>
+      <c r="DI32" s="2"/>
+      <c r="DJ32" s="2"/>
+      <c r="DK32" s="2"/>
+      <c r="DL32" s="2"/>
+      <c r="DM32" s="2"/>
+    </row>
+    <row r="33" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="2"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="2"/>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="2"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="2"/>
+      <c r="BJ33" s="2"/>
+      <c r="BK33" s="2"/>
+      <c r="BL33" s="2"/>
+      <c r="BM33" s="2"/>
+      <c r="BN33" s="2"/>
+      <c r="BO33" s="2"/>
+      <c r="BP33" s="2"/>
+      <c r="BQ33" s="2"/>
+      <c r="BR33" s="2"/>
+      <c r="BS33" s="2"/>
+      <c r="BT33" s="2"/>
+      <c r="BU33" s="2"/>
+      <c r="BV33" s="2"/>
+      <c r="BW33" s="2"/>
+      <c r="BX33" s="2"/>
+      <c r="BY33" s="2"/>
+      <c r="BZ33" s="2"/>
+      <c r="CA33" s="2"/>
+      <c r="CB33" s="2"/>
+      <c r="CC33" s="2"/>
+      <c r="CD33" s="2"/>
+      <c r="CE33" s="2"/>
+      <c r="CF33" s="2"/>
+      <c r="CG33" s="2"/>
+      <c r="CH33" s="2"/>
+      <c r="CI33" s="2"/>
+      <c r="CJ33" s="2"/>
+      <c r="CK33" s="2"/>
+      <c r="CL33" s="2"/>
+      <c r="CM33" s="2"/>
+      <c r="CN33" s="2"/>
+      <c r="CO33" s="2"/>
+      <c r="CP33" s="2"/>
+      <c r="CQ33" s="2"/>
+      <c r="CR33" s="2"/>
+      <c r="CS33" s="2"/>
+      <c r="CT33" s="2"/>
+      <c r="CU33" s="2"/>
+      <c r="CV33" s="2"/>
+      <c r="CW33" s="2"/>
+      <c r="CX33" s="2"/>
+      <c r="CY33" s="2"/>
+      <c r="CZ33" s="2"/>
+      <c r="DA33" s="2"/>
+      <c r="DB33" s="2"/>
+      <c r="DC33" s="2"/>
+      <c r="DD33" s="2"/>
+      <c r="DE33" s="2"/>
+      <c r="DF33" s="2"/>
+      <c r="DG33" s="2"/>
+      <c r="DH33" s="2"/>
+      <c r="DI33" s="2"/>
+      <c r="DJ33" s="2"/>
+      <c r="DK33" s="2"/>
+      <c r="DL33" s="2"/>
+      <c r="DM33" s="2"/>
+    </row>
+    <row r="34" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="2"/>
+      <c r="AU34" s="2"/>
+      <c r="AV34" s="2"/>
+      <c r="AW34" s="2"/>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="2"/>
+      <c r="AZ34" s="2"/>
+      <c r="BA34" s="2"/>
+      <c r="BB34" s="2"/>
+      <c r="BC34" s="2"/>
+      <c r="BD34" s="2"/>
+      <c r="BE34" s="2"/>
+      <c r="BF34" s="2"/>
+      <c r="BG34" s="2"/>
+      <c r="BH34" s="2"/>
+      <c r="BI34" s="2"/>
+      <c r="BJ34" s="2"/>
+      <c r="BK34" s="2"/>
+      <c r="BL34" s="2"/>
+      <c r="BM34" s="2"/>
+      <c r="BN34" s="2"/>
+      <c r="BO34" s="2"/>
+      <c r="BP34" s="2"/>
+      <c r="BQ34" s="2"/>
+      <c r="BR34" s="2"/>
+      <c r="BS34" s="2"/>
+      <c r="BT34" s="2"/>
+      <c r="BU34" s="2"/>
+      <c r="BV34" s="2"/>
+      <c r="BW34" s="2"/>
+      <c r="BX34" s="2"/>
+      <c r="BY34" s="2"/>
+      <c r="BZ34" s="2"/>
+      <c r="CA34" s="2"/>
+      <c r="CB34" s="2"/>
+      <c r="CC34" s="2"/>
+      <c r="CD34" s="2"/>
+      <c r="CE34" s="2"/>
+      <c r="CF34" s="2"/>
+      <c r="CG34" s="2"/>
+      <c r="CH34" s="2"/>
+      <c r="CI34" s="2"/>
+      <c r="CJ34" s="2"/>
+      <c r="CK34" s="2"/>
+      <c r="CL34" s="2"/>
+      <c r="CM34" s="2"/>
+      <c r="CN34" s="2"/>
+      <c r="CO34" s="2"/>
+      <c r="CP34" s="2"/>
+      <c r="CQ34" s="2"/>
+      <c r="CR34" s="2"/>
+      <c r="CS34" s="2"/>
+      <c r="CT34" s="2"/>
+      <c r="CU34" s="2"/>
+      <c r="CV34" s="2"/>
+      <c r="CW34" s="2"/>
+      <c r="CX34" s="2"/>
+      <c r="CY34" s="2"/>
+      <c r="CZ34" s="2"/>
+      <c r="DA34" s="2"/>
+      <c r="DB34" s="2"/>
+      <c r="DC34" s="2"/>
+      <c r="DD34" s="2"/>
+      <c r="DE34" s="2"/>
+      <c r="DF34" s="2"/>
+      <c r="DG34" s="2"/>
+      <c r="DH34" s="2"/>
+      <c r="DI34" s="2"/>
+      <c r="DJ34" s="2"/>
+      <c r="DK34" s="2"/>
+      <c r="DL34" s="2"/>
+      <c r="DM34" s="2"/>
+    </row>
+    <row r="35" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="2"/>
+      <c r="AV35" s="2"/>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="2"/>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="2"/>
+      <c r="BD35" s="2"/>
+      <c r="BE35" s="2"/>
+      <c r="BF35" s="2"/>
+      <c r="BG35" s="2"/>
+      <c r="BH35" s="2"/>
+      <c r="BI35" s="2"/>
+      <c r="BJ35" s="2"/>
+      <c r="BK35" s="2"/>
+      <c r="BL35" s="2"/>
+      <c r="BM35" s="2"/>
+      <c r="BN35" s="2"/>
+      <c r="BO35" s="2"/>
+      <c r="BP35" s="2"/>
+      <c r="BQ35" s="2"/>
+      <c r="BR35" s="2"/>
+      <c r="BS35" s="2"/>
+      <c r="BT35" s="2"/>
+      <c r="BU35" s="2"/>
+      <c r="BV35" s="2"/>
+      <c r="BW35" s="2"/>
+      <c r="BX35" s="2"/>
+      <c r="BY35" s="2"/>
+      <c r="BZ35" s="2"/>
+      <c r="CA35" s="2"/>
+      <c r="CB35" s="2"/>
+      <c r="CC35" s="2"/>
+      <c r="CD35" s="2"/>
+      <c r="CE35" s="2"/>
+      <c r="CF35" s="2"/>
+      <c r="CG35" s="2"/>
+      <c r="CH35" s="2"/>
+      <c r="CI35" s="2"/>
+      <c r="CJ35" s="2"/>
+      <c r="CK35" s="2"/>
+      <c r="CL35" s="2"/>
+      <c r="CM35" s="2"/>
+      <c r="CN35" s="2"/>
+      <c r="CO35" s="2"/>
+      <c r="CP35" s="2"/>
+      <c r="CQ35" s="2"/>
+      <c r="CR35" s="2"/>
+      <c r="CS35" s="2"/>
+      <c r="CT35" s="2"/>
+      <c r="CU35" s="2"/>
+      <c r="CV35" s="2"/>
+      <c r="CW35" s="2"/>
+      <c r="CX35" s="2"/>
+      <c r="CY35" s="2"/>
+      <c r="CZ35" s="2"/>
+      <c r="DA35" s="2"/>
+      <c r="DB35" s="2"/>
+      <c r="DC35" s="2"/>
+      <c r="DD35" s="2"/>
+      <c r="DE35" s="2"/>
+      <c r="DF35" s="2"/>
+      <c r="DG35" s="2"/>
+      <c r="DH35" s="2"/>
+      <c r="DI35" s="2"/>
+      <c r="DJ35" s="2"/>
+      <c r="DK35" s="2"/>
+      <c r="DL35" s="2"/>
+      <c r="DM35" s="2"/>
+    </row>
+    <row r="36" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="2"/>
+      <c r="AN36" s="2"/>
+      <c r="AO36" s="2"/>
+      <c r="AP36" s="2"/>
+      <c r="AQ36" s="2"/>
+      <c r="AR36" s="2"/>
+      <c r="AS36" s="2"/>
+      <c r="AT36" s="2"/>
+      <c r="AU36" s="2"/>
+      <c r="AV36" s="2"/>
+      <c r="AW36" s="2"/>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="2"/>
+      <c r="AZ36" s="2"/>
+      <c r="BA36" s="2"/>
+      <c r="BB36" s="2"/>
+      <c r="BC36" s="2"/>
+      <c r="BD36" s="2"/>
+      <c r="BE36" s="2"/>
+      <c r="BF36" s="2"/>
+      <c r="BG36" s="2"/>
+      <c r="BH36" s="2"/>
+      <c r="BI36" s="2"/>
+      <c r="BJ36" s="2"/>
+      <c r="BK36" s="2"/>
+      <c r="BL36" s="2"/>
+      <c r="BM36" s="2"/>
+      <c r="BN36" s="2"/>
+      <c r="BO36" s="2"/>
+      <c r="BP36" s="2"/>
+      <c r="BQ36" s="2"/>
+      <c r="BR36" s="2"/>
+      <c r="BS36" s="2"/>
+      <c r="BT36" s="2"/>
+      <c r="BU36" s="2"/>
+      <c r="BV36" s="2"/>
+      <c r="BW36" s="2"/>
+      <c r="BX36" s="2"/>
+      <c r="BY36" s="2"/>
+      <c r="BZ36" s="2"/>
+      <c r="CA36" s="2"/>
+      <c r="CB36" s="2"/>
+      <c r="CC36" s="2"/>
+      <c r="CD36" s="2"/>
+      <c r="CE36" s="2"/>
+      <c r="CF36" s="2"/>
+      <c r="CG36" s="2"/>
+      <c r="CH36" s="2"/>
+      <c r="CI36" s="2"/>
+      <c r="CJ36" s="2"/>
+      <c r="CK36" s="2"/>
+      <c r="CL36" s="2"/>
+      <c r="CM36" s="2"/>
+      <c r="CN36" s="2"/>
+      <c r="CO36" s="2"/>
+      <c r="CP36" s="2"/>
+      <c r="CQ36" s="2"/>
+      <c r="CR36" s="2"/>
+      <c r="CS36" s="2"/>
+      <c r="CT36" s="2"/>
+      <c r="CU36" s="2"/>
+      <c r="CV36" s="2"/>
+      <c r="CW36" s="2"/>
+      <c r="CX36" s="2"/>
+      <c r="CY36" s="2"/>
+      <c r="CZ36" s="2"/>
+      <c r="DA36" s="2"/>
+      <c r="DB36" s="2"/>
+      <c r="DC36" s="2"/>
+      <c r="DD36" s="2"/>
+      <c r="DE36" s="2"/>
+      <c r="DF36" s="2"/>
+      <c r="DG36" s="2"/>
+      <c r="DH36" s="2"/>
+      <c r="DI36" s="2"/>
+      <c r="DJ36" s="2"/>
+      <c r="DK36" s="2"/>
+      <c r="DL36" s="2"/>
+      <c r="DM36" s="2"/>
+    </row>
+    <row r="37" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="2"/>
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="2"/>
+      <c r="AU37" s="2"/>
+      <c r="AV37" s="2"/>
+      <c r="AW37" s="2"/>
+      <c r="AX37" s="2"/>
+      <c r="AY37" s="2"/>
+      <c r="AZ37" s="2"/>
+      <c r="BA37" s="2"/>
+      <c r="BB37" s="2"/>
+      <c r="BC37" s="2"/>
+      <c r="BD37" s="2"/>
+      <c r="BE37" s="2"/>
+      <c r="BF37" s="2"/>
+      <c r="BG37" s="2"/>
+      <c r="BH37" s="2"/>
+      <c r="BI37" s="2"/>
+      <c r="BJ37" s="2"/>
+      <c r="BK37" s="2"/>
+      <c r="BL37" s="2"/>
+      <c r="BM37" s="2"/>
+      <c r="BN37" s="2"/>
+      <c r="BO37" s="2"/>
+      <c r="BP37" s="2"/>
+      <c r="BQ37" s="2"/>
+      <c r="BR37" s="2"/>
+      <c r="BS37" s="2"/>
+      <c r="BT37" s="2"/>
+      <c r="BU37" s="2"/>
+      <c r="BV37" s="2"/>
+      <c r="BW37" s="2"/>
+      <c r="BX37" s="2"/>
+      <c r="BY37" s="2"/>
+      <c r="BZ37" s="2"/>
+      <c r="CA37" s="2"/>
+      <c r="CB37" s="2"/>
+      <c r="CC37" s="2"/>
+      <c r="CD37" s="2"/>
+      <c r="CE37" s="2"/>
+      <c r="CF37" s="2"/>
+      <c r="CG37" s="2"/>
+      <c r="CH37" s="2"/>
+      <c r="CI37" s="2"/>
+      <c r="CJ37" s="2"/>
+      <c r="CK37" s="2"/>
+      <c r="CL37" s="2"/>
+      <c r="CM37" s="2"/>
+      <c r="CN37" s="2"/>
+      <c r="CO37" s="2"/>
+      <c r="CP37" s="2"/>
+      <c r="CQ37" s="2"/>
+      <c r="CR37" s="2"/>
+      <c r="CS37" s="2"/>
+      <c r="CT37" s="2"/>
+      <c r="CU37" s="2"/>
+      <c r="CV37" s="2"/>
+      <c r="CW37" s="2"/>
+      <c r="CX37" s="2"/>
+      <c r="CY37" s="2"/>
+      <c r="CZ37" s="2"/>
+      <c r="DA37" s="2"/>
+      <c r="DB37" s="2"/>
+      <c r="DC37" s="2"/>
+      <c r="DD37" s="2"/>
+      <c r="DE37" s="2"/>
+      <c r="DF37" s="2"/>
+      <c r="DG37" s="2"/>
+      <c r="DH37" s="2"/>
+      <c r="DI37" s="2"/>
+      <c r="DJ37" s="2"/>
+      <c r="DK37" s="2"/>
+      <c r="DL37" s="2"/>
+      <c r="DM37" s="2"/>
+    </row>
+    <row r="38" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2"/>
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="2"/>
+      <c r="AN38" s="2"/>
+      <c r="AO38" s="2"/>
+      <c r="AP38" s="2"/>
+      <c r="AQ38" s="2"/>
+      <c r="AR38" s="2"/>
+      <c r="AS38" s="2"/>
+      <c r="AT38" s="2"/>
+      <c r="AU38" s="2"/>
+      <c r="AV38" s="2"/>
+      <c r="AW38" s="2"/>
+      <c r="AX38" s="2"/>
+      <c r="AY38" s="2"/>
+      <c r="AZ38" s="2"/>
+      <c r="BA38" s="2"/>
+      <c r="BB38" s="2"/>
+      <c r="BC38" s="2"/>
+      <c r="BD38" s="2"/>
+      <c r="BE38" s="2"/>
+      <c r="BF38" s="2"/>
+      <c r="BG38" s="2"/>
+      <c r="BH38" s="2"/>
+      <c r="BI38" s="2"/>
+      <c r="BJ38" s="2"/>
+      <c r="BK38" s="2"/>
+      <c r="BL38" s="2"/>
+      <c r="BM38" s="2"/>
+      <c r="BN38" s="2"/>
+      <c r="BO38" s="2"/>
+      <c r="BP38" s="2"/>
+      <c r="BQ38" s="2"/>
+      <c r="BR38" s="2"/>
+      <c r="BS38" s="2"/>
+      <c r="BT38" s="2"/>
+      <c r="BU38" s="2"/>
+      <c r="BV38" s="2"/>
+      <c r="BW38" s="2"/>
+      <c r="BX38" s="2"/>
+      <c r="BY38" s="2"/>
+      <c r="BZ38" s="2"/>
+      <c r="CA38" s="2"/>
+      <c r="CB38" s="2"/>
+      <c r="CC38" s="2"/>
+      <c r="CD38" s="2"/>
+      <c r="CE38" s="2"/>
+      <c r="CF38" s="2"/>
+      <c r="CG38" s="2"/>
+      <c r="CH38" s="2"/>
+      <c r="CI38" s="2"/>
+      <c r="CJ38" s="2"/>
+      <c r="CK38" s="2"/>
+      <c r="CL38" s="2"/>
+      <c r="CM38" s="2"/>
+      <c r="CN38" s="2"/>
+      <c r="CO38" s="2"/>
+      <c r="CP38" s="2"/>
+      <c r="CQ38" s="2"/>
+      <c r="CR38" s="2"/>
+      <c r="CS38" s="2"/>
+      <c r="CT38" s="2"/>
+      <c r="CU38" s="2"/>
+      <c r="CV38" s="2"/>
+      <c r="CW38" s="2"/>
+      <c r="CX38" s="2"/>
+      <c r="CY38" s="2"/>
+      <c r="CZ38" s="2"/>
+      <c r="DA38" s="2"/>
+      <c r="DB38" s="2"/>
+      <c r="DC38" s="2"/>
+      <c r="DD38" s="2"/>
+      <c r="DE38" s="2"/>
+      <c r="DF38" s="2"/>
+      <c r="DG38" s="2"/>
+      <c r="DH38" s="2"/>
+      <c r="DI38" s="2"/>
+      <c r="DJ38" s="2"/>
+      <c r="DK38" s="2"/>
+      <c r="DL38" s="2"/>
+      <c r="DM38" s="2"/>
+    </row>
+    <row r="39" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="2"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="2"/>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="2"/>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="2"/>
+      <c r="AV39" s="2"/>
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="2"/>
+      <c r="AZ39" s="2"/>
+      <c r="BA39" s="2"/>
+      <c r="BB39" s="2"/>
+      <c r="BC39" s="2"/>
+      <c r="BD39" s="2"/>
+      <c r="BE39" s="2"/>
+      <c r="BF39" s="2"/>
+      <c r="BG39" s="2"/>
+      <c r="BH39" s="2"/>
+      <c r="BI39" s="2"/>
+      <c r="BJ39" s="2"/>
+      <c r="BK39" s="2"/>
+      <c r="BL39" s="2"/>
+      <c r="BM39" s="2"/>
+      <c r="BN39" s="2"/>
+      <c r="BO39" s="2"/>
+      <c r="BP39" s="2"/>
+      <c r="BQ39" s="2"/>
+      <c r="BR39" s="2"/>
+      <c r="BS39" s="2"/>
+      <c r="BT39" s="2"/>
+      <c r="BU39" s="2"/>
+      <c r="BV39" s="2"/>
+      <c r="BW39" s="2"/>
+      <c r="BX39" s="2"/>
+      <c r="BY39" s="2"/>
+      <c r="BZ39" s="2"/>
+      <c r="CA39" s="2"/>
+      <c r="CB39" s="2"/>
+      <c r="CC39" s="2"/>
+      <c r="CD39" s="2"/>
+      <c r="CE39" s="2"/>
+      <c r="CF39" s="2"/>
+      <c r="CG39" s="2"/>
+      <c r="CH39" s="2"/>
+      <c r="CI39" s="2"/>
+      <c r="CJ39" s="2"/>
+      <c r="CK39" s="2"/>
+      <c r="CL39" s="2"/>
+      <c r="CM39" s="2"/>
+      <c r="CN39" s="2"/>
+      <c r="CO39" s="2"/>
+      <c r="CP39" s="2"/>
+      <c r="CQ39" s="2"/>
+      <c r="CR39" s="2"/>
+      <c r="CS39" s="2"/>
+      <c r="CT39" s="2"/>
+      <c r="CU39" s="2"/>
+      <c r="CV39" s="2"/>
+      <c r="CW39" s="2"/>
+      <c r="CX39" s="2"/>
+      <c r="CY39" s="2"/>
+      <c r="CZ39" s="2"/>
+      <c r="DA39" s="2"/>
+      <c r="DB39" s="2"/>
+      <c r="DC39" s="2"/>
+      <c r="DD39" s="2"/>
+      <c r="DE39" s="2"/>
+      <c r="DF39" s="2"/>
+      <c r="DG39" s="2"/>
+      <c r="DH39" s="2"/>
+      <c r="DI39" s="2"/>
+      <c r="DJ39" s="2"/>
+      <c r="DK39" s="2"/>
+      <c r="DL39" s="2"/>
+      <c r="DM39" s="2"/>
+    </row>
+    <row r="40" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2"/>
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="2"/>
+      <c r="AN40" s="2"/>
+      <c r="AO40" s="2"/>
+      <c r="AP40" s="2"/>
+      <c r="AQ40" s="2"/>
+      <c r="AR40" s="2"/>
+      <c r="AS40" s="2"/>
+      <c r="AT40" s="2"/>
+      <c r="AU40" s="2"/>
+      <c r="AV40" s="2"/>
+      <c r="AW40" s="2"/>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="2"/>
+      <c r="AZ40" s="2"/>
+      <c r="BA40" s="2"/>
+      <c r="BB40" s="2"/>
+      <c r="BC40" s="2"/>
+      <c r="BD40" s="2"/>
+      <c r="BE40" s="2"/>
+      <c r="BF40" s="2"/>
+      <c r="BG40" s="2"/>
+      <c r="BH40" s="2"/>
+      <c r="BI40" s="2"/>
+      <c r="BJ40" s="2"/>
+      <c r="BK40" s="2"/>
+      <c r="BL40" s="2"/>
+      <c r="BM40" s="2"/>
+      <c r="BN40" s="2"/>
+      <c r="BO40" s="2"/>
+      <c r="BP40" s="2"/>
+      <c r="BQ40" s="2"/>
+      <c r="BR40" s="2"/>
+      <c r="BS40" s="2"/>
+      <c r="BT40" s="2"/>
+      <c r="BU40" s="2"/>
+      <c r="BV40" s="2"/>
+      <c r="BW40" s="2"/>
+      <c r="BX40" s="2"/>
+      <c r="BY40" s="2"/>
+      <c r="BZ40" s="2"/>
+      <c r="CA40" s="2"/>
+      <c r="CB40" s="2"/>
+      <c r="CC40" s="2"/>
+      <c r="CD40" s="2"/>
+      <c r="CE40" s="2"/>
+      <c r="CF40" s="2"/>
+      <c r="CG40" s="2"/>
+      <c r="CH40" s="2"/>
+      <c r="CI40" s="2"/>
+      <c r="CJ40" s="2"/>
+      <c r="CK40" s="2"/>
+      <c r="CL40" s="2"/>
+      <c r="CM40" s="2"/>
+      <c r="CN40" s="2"/>
+      <c r="CO40" s="2"/>
+      <c r="CP40" s="2"/>
+      <c r="CQ40" s="2"/>
+      <c r="CR40" s="2"/>
+      <c r="CS40" s="2"/>
+      <c r="CT40" s="2"/>
+      <c r="CU40" s="2"/>
+      <c r="CV40" s="2"/>
+      <c r="CW40" s="2"/>
+      <c r="CX40" s="2"/>
+      <c r="CY40" s="2"/>
+      <c r="CZ40" s="2"/>
+      <c r="DA40" s="2"/>
+      <c r="DB40" s="2"/>
+      <c r="DC40" s="2"/>
+      <c r="DD40" s="2"/>
+      <c r="DE40" s="2"/>
+      <c r="DF40" s="2"/>
+      <c r="DG40" s="2"/>
+      <c r="DH40" s="2"/>
+      <c r="DI40" s="2"/>
+      <c r="DJ40" s="2"/>
+      <c r="DK40" s="2"/>
+      <c r="DL40" s="2"/>
+      <c r="DM40" s="2"/>
+    </row>
+    <row r="41" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2"/>
+      <c r="AL41" s="2"/>
+      <c r="AM41" s="2"/>
+      <c r="AN41" s="2"/>
+      <c r="AO41" s="2"/>
+      <c r="AP41" s="2"/>
+      <c r="AQ41" s="2"/>
+      <c r="AR41" s="2"/>
+      <c r="AS41" s="2"/>
+      <c r="AT41" s="2"/>
+      <c r="AU41" s="2"/>
+      <c r="AV41" s="2"/>
+      <c r="AW41" s="2"/>
+      <c r="AX41" s="2"/>
+      <c r="AY41" s="2"/>
+      <c r="AZ41" s="2"/>
+      <c r="BA41" s="2"/>
+      <c r="BB41" s="2"/>
+      <c r="BC41" s="2"/>
+      <c r="BD41" s="2"/>
+      <c r="BE41" s="2"/>
+      <c r="BF41" s="2"/>
+      <c r="BG41" s="2"/>
+      <c r="BH41" s="2"/>
+      <c r="BI41" s="2"/>
+      <c r="BJ41" s="2"/>
+      <c r="BK41" s="2"/>
+      <c r="BL41" s="2"/>
+      <c r="BM41" s="2"/>
+      <c r="BN41" s="2"/>
+      <c r="BO41" s="2"/>
+      <c r="BP41" s="2"/>
+      <c r="BQ41" s="2"/>
+      <c r="BR41" s="2"/>
+      <c r="BS41" s="2"/>
+      <c r="BT41" s="2"/>
+      <c r="BU41" s="2"/>
+      <c r="BV41" s="2"/>
+      <c r="BW41" s="2"/>
+      <c r="BX41" s="2"/>
+      <c r="BY41" s="2"/>
+      <c r="BZ41" s="2"/>
+      <c r="CA41" s="2"/>
+      <c r="CB41" s="2"/>
+      <c r="CC41" s="2"/>
+      <c r="CD41" s="2"/>
+      <c r="CE41" s="2"/>
+      <c r="CF41" s="2"/>
+      <c r="CG41" s="2"/>
+      <c r="CH41" s="2"/>
+      <c r="CI41" s="2"/>
+      <c r="CJ41" s="2"/>
+      <c r="CK41" s="2"/>
+      <c r="CL41" s="2"/>
+      <c r="CM41" s="2"/>
+      <c r="CN41" s="2"/>
+      <c r="CO41" s="2"/>
+      <c r="CP41" s="2"/>
+      <c r="CQ41" s="2"/>
+      <c r="CR41" s="2"/>
+      <c r="CS41" s="2"/>
+      <c r="CT41" s="2"/>
+      <c r="CU41" s="2"/>
+      <c r="CV41" s="2"/>
+      <c r="CW41" s="2"/>
+      <c r="CX41" s="2"/>
+      <c r="CY41" s="2"/>
+      <c r="CZ41" s="2"/>
+      <c r="DA41" s="2"/>
+      <c r="DB41" s="2"/>
+      <c r="DC41" s="2"/>
+      <c r="DD41" s="2"/>
+      <c r="DE41" s="2"/>
+      <c r="DF41" s="2"/>
+      <c r="DG41" s="2"/>
+      <c r="DH41" s="2"/>
+      <c r="DI41" s="2"/>
+      <c r="DJ41" s="2"/>
+      <c r="DK41" s="2"/>
+      <c r="DL41" s="2"/>
+      <c r="DM41" s="2"/>
+    </row>
+    <row r="42" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2"/>
+      <c r="AL42" s="2"/>
+      <c r="AM42" s="2"/>
+      <c r="AN42" s="2"/>
+      <c r="AO42" s="2"/>
+      <c r="AP42" s="2"/>
+      <c r="AQ42" s="2"/>
+      <c r="AR42" s="2"/>
+      <c r="AS42" s="2"/>
+      <c r="AT42" s="2"/>
+      <c r="AU42" s="2"/>
+      <c r="AV42" s="2"/>
+      <c r="AW42" s="2"/>
+      <c r="AX42" s="2"/>
+      <c r="AY42" s="2"/>
+      <c r="AZ42" s="2"/>
+      <c r="BA42" s="2"/>
+      <c r="BB42" s="2"/>
+      <c r="BC42" s="2"/>
+      <c r="BD42" s="2"/>
+      <c r="BE42" s="2"/>
+      <c r="BF42" s="2"/>
+      <c r="BG42" s="2"/>
+      <c r="BH42" s="2"/>
+      <c r="BI42" s="2"/>
+      <c r="BJ42" s="2"/>
+      <c r="BK42" s="2"/>
+      <c r="BL42" s="2"/>
+      <c r="BM42" s="2"/>
+      <c r="BN42" s="2"/>
+      <c r="BO42" s="2"/>
+      <c r="BP42" s="2"/>
+      <c r="BQ42" s="2"/>
+      <c r="BR42" s="2"/>
+      <c r="BS42" s="2"/>
+      <c r="BT42" s="2"/>
+      <c r="BU42" s="2"/>
+      <c r="BV42" s="2"/>
+      <c r="BW42" s="2"/>
+      <c r="BX42" s="2"/>
+      <c r="BY42" s="2"/>
+      <c r="BZ42" s="2"/>
+      <c r="CA42" s="2"/>
+      <c r="CB42" s="2"/>
+      <c r="CC42" s="2"/>
+      <c r="CD42" s="2"/>
+      <c r="CE42" s="2"/>
+      <c r="CF42" s="2"/>
+      <c r="CG42" s="2"/>
+      <c r="CH42" s="2"/>
+      <c r="CI42" s="2"/>
+      <c r="CJ42" s="2"/>
+      <c r="CK42" s="2"/>
+      <c r="CL42" s="2"/>
+      <c r="CM42" s="2"/>
+      <c r="CN42" s="2"/>
+      <c r="CO42" s="2"/>
+      <c r="CP42" s="2"/>
+      <c r="CQ42" s="2"/>
+      <c r="CR42" s="2"/>
+      <c r="CS42" s="2"/>
+      <c r="CT42" s="2"/>
+      <c r="CU42" s="2"/>
+      <c r="CV42" s="2"/>
+      <c r="CW42" s="2"/>
+      <c r="CX42" s="2"/>
+      <c r="CY42" s="2"/>
+      <c r="CZ42" s="2"/>
+      <c r="DA42" s="2"/>
+      <c r="DB42" s="2"/>
+      <c r="DC42" s="2"/>
+      <c r="DD42" s="2"/>
+      <c r="DE42" s="2"/>
+      <c r="DF42" s="2"/>
+      <c r="DG42" s="2"/>
+      <c r="DH42" s="2"/>
+      <c r="DI42" s="2"/>
+      <c r="DJ42" s="2"/>
+      <c r="DK42" s="2"/>
+      <c r="DL42" s="2"/>
+      <c r="DM42" s="2"/>
+    </row>
+    <row r="43" spans="2:117" ht="18.5" customHeight="1">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2"/>
+      <c r="AL43" s="2"/>
+      <c r="AM43" s="2"/>
+      <c r="AN43" s="2"/>
+      <c r="AO43" s="2"/>
+      <c r="AP43" s="2"/>
+      <c r="AQ43" s="2"/>
+      <c r="AR43" s="2"/>
+      <c r="AS43" s="2"/>
+      <c r="AT43" s="2"/>
+      <c r="AU43" s="2"/>
+      <c r="AV43" s="2"/>
+      <c r="AW43" s="2"/>
+      <c r="AX43" s="2"/>
+      <c r="AY43" s="2"/>
+      <c r="AZ43" s="2"/>
+      <c r="BA43" s="2"/>
+      <c r="BB43" s="2"/>
+      <c r="BC43" s="2"/>
+      <c r="BD43" s="2"/>
+      <c r="BE43" s="2"/>
+      <c r="BF43" s="2"/>
+      <c r="BG43" s="2"/>
+      <c r="BH43" s="2"/>
+      <c r="BI43" s="2"/>
+      <c r="BJ43" s="2"/>
+      <c r="BK43" s="2"/>
+      <c r="BL43" s="2"/>
+      <c r="BM43" s="2"/>
+      <c r="BN43" s="2"/>
+      <c r="BO43" s="2"/>
+      <c r="BP43" s="2"/>
+      <c r="BQ43" s="2"/>
+      <c r="BR43" s="2"/>
+      <c r="BS43" s="2"/>
+      <c r="BT43" s="2"/>
+      <c r="BU43" s="2"/>
+      <c r="BV43" s="2"/>
+      <c r="BW43" s="2"/>
+      <c r="BX43" s="2"/>
+      <c r="BY43" s="2"/>
+      <c r="BZ43" s="2"/>
+      <c r="CA43" s="2"/>
+      <c r="CB43" s="2"/>
+      <c r="CC43" s="2"/>
+      <c r="CD43" s="2"/>
+      <c r="CE43" s="2"/>
+      <c r="CF43" s="2"/>
+      <c r="CG43" s="2"/>
+      <c r="CH43" s="2"/>
+      <c r="CI43" s="2"/>
+      <c r="CJ43" s="2"/>
+      <c r="CK43" s="2"/>
+      <c r="CL43" s="2"/>
+      <c r="CM43" s="2"/>
+      <c r="CN43" s="2"/>
+      <c r="CO43" s="2"/>
+      <c r="CP43" s="2"/>
+      <c r="CQ43" s="2"/>
+      <c r="CR43" s="2"/>
+      <c r="CS43" s="2"/>
+      <c r="CT43" s="2"/>
+      <c r="CU43" s="2"/>
+      <c r="CV43" s="2"/>
+      <c r="CW43" s="2"/>
+      <c r="CX43" s="2"/>
+      <c r="CY43" s="2"/>
+      <c r="CZ43" s="2"/>
+      <c r="DA43" s="2"/>
+      <c r="DB43" s="2"/>
+      <c r="DC43" s="2"/>
+      <c r="DD43" s="2"/>
+      <c r="DE43" s="2"/>
+      <c r="DF43" s="2"/>
+      <c r="DG43" s="2"/>
+      <c r="DH43" s="2"/>
+      <c r="DI43" s="2"/>
+      <c r="DJ43" s="2"/>
+      <c r="DK43" s="2"/>
+      <c r="DL43" s="2"/>
+      <c r="DM43" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="106">
-    <mergeCell ref="DC5:DM5"/>
-    <mergeCell ref="B2:DL2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:V4"/>
-    <mergeCell ref="W4:AQ4"/>
-    <mergeCell ref="AR4:BL4"/>
-    <mergeCell ref="CH4:DB4"/>
-    <mergeCell ref="DC4:DM4"/>
-    <mergeCell ref="BM4:CG4"/>
-    <mergeCell ref="BM5:CG5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:V5"/>
-    <mergeCell ref="W5:AQ5"/>
-    <mergeCell ref="AR5:BL5"/>
-    <mergeCell ref="CH5:DB5"/>
-    <mergeCell ref="DC7:DM7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:V6"/>
-    <mergeCell ref="W6:AQ6"/>
-    <mergeCell ref="AR6:BL6"/>
-    <mergeCell ref="CH6:DB6"/>
-    <mergeCell ref="DC6:DM6"/>
-    <mergeCell ref="BM6:CG6"/>
-    <mergeCell ref="BM7:CG7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:V7"/>
-    <mergeCell ref="W7:AQ7"/>
-    <mergeCell ref="AR7:BL7"/>
-    <mergeCell ref="CH7:DB7"/>
-    <mergeCell ref="DC9:DM9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:V8"/>
-    <mergeCell ref="W8:AQ8"/>
-    <mergeCell ref="AR8:BL8"/>
-    <mergeCell ref="CH8:DB8"/>
-    <mergeCell ref="DC8:DM8"/>
-    <mergeCell ref="BM8:CG8"/>
-    <mergeCell ref="BM9:CG9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:V9"/>
-    <mergeCell ref="W9:AQ9"/>
-    <mergeCell ref="AR9:BL9"/>
-    <mergeCell ref="CH9:DB9"/>
+  <mergeCells count="281">
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:V43"/>
+    <mergeCell ref="W43:AQ43"/>
+    <mergeCell ref="AR43:BL43"/>
+    <mergeCell ref="BM43:CG43"/>
+    <mergeCell ref="CH43:DB43"/>
+    <mergeCell ref="DC43:DM43"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:V41"/>
+    <mergeCell ref="W41:AQ41"/>
+    <mergeCell ref="AR41:BL41"/>
+    <mergeCell ref="BM41:CG41"/>
+    <mergeCell ref="CH41:DB41"/>
+    <mergeCell ref="DC41:DM41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:V42"/>
+    <mergeCell ref="W42:AQ42"/>
+    <mergeCell ref="AR42:BL42"/>
+    <mergeCell ref="BM42:CG42"/>
+    <mergeCell ref="CH42:DB42"/>
+    <mergeCell ref="DC42:DM42"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:V39"/>
+    <mergeCell ref="W39:AQ39"/>
+    <mergeCell ref="AR39:BL39"/>
+    <mergeCell ref="BM39:CG39"/>
+    <mergeCell ref="CH39:DB39"/>
+    <mergeCell ref="DC39:DM39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:V40"/>
+    <mergeCell ref="W40:AQ40"/>
+    <mergeCell ref="AR40:BL40"/>
+    <mergeCell ref="BM40:CG40"/>
+    <mergeCell ref="CH40:DB40"/>
+    <mergeCell ref="DC40:DM40"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:V37"/>
+    <mergeCell ref="W37:AQ37"/>
+    <mergeCell ref="AR37:BL37"/>
+    <mergeCell ref="BM37:CG37"/>
+    <mergeCell ref="CH37:DB37"/>
+    <mergeCell ref="DC37:DM37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:V38"/>
+    <mergeCell ref="W38:AQ38"/>
+    <mergeCell ref="AR38:BL38"/>
+    <mergeCell ref="BM38:CG38"/>
+    <mergeCell ref="CH38:DB38"/>
+    <mergeCell ref="DC38:DM38"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:V35"/>
+    <mergeCell ref="W35:AQ35"/>
+    <mergeCell ref="AR35:BL35"/>
+    <mergeCell ref="BM35:CG35"/>
+    <mergeCell ref="CH35:DB35"/>
+    <mergeCell ref="DC35:DM35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:V36"/>
+    <mergeCell ref="W36:AQ36"/>
+    <mergeCell ref="AR36:BL36"/>
+    <mergeCell ref="BM36:CG36"/>
+    <mergeCell ref="CH36:DB36"/>
+    <mergeCell ref="DC36:DM36"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:V33"/>
+    <mergeCell ref="W33:AQ33"/>
+    <mergeCell ref="AR33:BL33"/>
+    <mergeCell ref="BM33:CG33"/>
+    <mergeCell ref="CH33:DB33"/>
+    <mergeCell ref="DC33:DM33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:V34"/>
+    <mergeCell ref="W34:AQ34"/>
+    <mergeCell ref="AR34:BL34"/>
+    <mergeCell ref="BM34:CG34"/>
+    <mergeCell ref="CH34:DB34"/>
+    <mergeCell ref="DC34:DM34"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:V31"/>
+    <mergeCell ref="W31:AQ31"/>
+    <mergeCell ref="AR31:BL31"/>
+    <mergeCell ref="BM31:CG31"/>
+    <mergeCell ref="CH31:DB31"/>
+    <mergeCell ref="DC31:DM31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:V32"/>
+    <mergeCell ref="W32:AQ32"/>
+    <mergeCell ref="AR32:BL32"/>
+    <mergeCell ref="BM32:CG32"/>
+    <mergeCell ref="CH32:DB32"/>
+    <mergeCell ref="DC32:DM32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:V29"/>
+    <mergeCell ref="W29:AQ29"/>
+    <mergeCell ref="AR29:BL29"/>
+    <mergeCell ref="BM29:CG29"/>
+    <mergeCell ref="CH29:DB29"/>
+    <mergeCell ref="DC29:DM29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:V30"/>
+    <mergeCell ref="W30:AQ30"/>
+    <mergeCell ref="AR30:BL30"/>
+    <mergeCell ref="BM30:CG30"/>
+    <mergeCell ref="CH30:DB30"/>
+    <mergeCell ref="DC30:DM30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:V27"/>
+    <mergeCell ref="W27:AQ27"/>
+    <mergeCell ref="AR27:BL27"/>
+    <mergeCell ref="BM27:CG27"/>
+    <mergeCell ref="CH27:DB27"/>
+    <mergeCell ref="DC27:DM27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:V28"/>
+    <mergeCell ref="W28:AQ28"/>
+    <mergeCell ref="AR28:BL28"/>
+    <mergeCell ref="BM28:CG28"/>
+    <mergeCell ref="CH28:DB28"/>
+    <mergeCell ref="DC28:DM28"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:V25"/>
+    <mergeCell ref="W25:AQ25"/>
+    <mergeCell ref="AR25:BL25"/>
+    <mergeCell ref="BM25:CG25"/>
+    <mergeCell ref="CH25:DB25"/>
+    <mergeCell ref="DC25:DM25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:V26"/>
+    <mergeCell ref="W26:AQ26"/>
+    <mergeCell ref="AR26:BL26"/>
+    <mergeCell ref="BM26:CG26"/>
+    <mergeCell ref="CH26:DB26"/>
+    <mergeCell ref="DC26:DM26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:V23"/>
+    <mergeCell ref="W23:AQ23"/>
+    <mergeCell ref="AR23:BL23"/>
+    <mergeCell ref="BM23:CG23"/>
+    <mergeCell ref="CH23:DB23"/>
+    <mergeCell ref="DC23:DM23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:V24"/>
+    <mergeCell ref="W24:AQ24"/>
+    <mergeCell ref="AR24:BL24"/>
+    <mergeCell ref="BM24:CG24"/>
+    <mergeCell ref="CH24:DB24"/>
+    <mergeCell ref="DC24:DM24"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:V21"/>
+    <mergeCell ref="W21:AQ21"/>
+    <mergeCell ref="AR21:BL21"/>
+    <mergeCell ref="BM21:CG21"/>
+    <mergeCell ref="CH21:DB21"/>
+    <mergeCell ref="DC21:DM21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:V22"/>
+    <mergeCell ref="W22:AQ22"/>
+    <mergeCell ref="AR22:BL22"/>
+    <mergeCell ref="BM22:CG22"/>
+    <mergeCell ref="CH22:DB22"/>
+    <mergeCell ref="DC22:DM22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:V19"/>
+    <mergeCell ref="W19:AQ19"/>
+    <mergeCell ref="AR19:BL19"/>
+    <mergeCell ref="BM19:CG19"/>
+    <mergeCell ref="CH19:DB19"/>
+    <mergeCell ref="DC19:DM19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:V20"/>
+    <mergeCell ref="W20:AQ20"/>
+    <mergeCell ref="AR20:BL20"/>
+    <mergeCell ref="BM20:CG20"/>
+    <mergeCell ref="CH20:DB20"/>
+    <mergeCell ref="DC20:DM20"/>
+    <mergeCell ref="DC18:DM18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:V17"/>
+    <mergeCell ref="W17:AQ17"/>
+    <mergeCell ref="AR17:BL17"/>
+    <mergeCell ref="CH17:DB17"/>
+    <mergeCell ref="DC17:DM17"/>
+    <mergeCell ref="BM17:CG17"/>
+    <mergeCell ref="BM18:CG18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:V18"/>
+    <mergeCell ref="W18:AQ18"/>
+    <mergeCell ref="AR18:BL18"/>
+    <mergeCell ref="CH18:DB18"/>
+    <mergeCell ref="DC16:DM16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:V15"/>
+    <mergeCell ref="W15:AQ15"/>
+    <mergeCell ref="AR15:BL15"/>
+    <mergeCell ref="CH15:DB15"/>
+    <mergeCell ref="DC15:DM15"/>
+    <mergeCell ref="BM15:CG15"/>
+    <mergeCell ref="BM16:CG16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:V16"/>
+    <mergeCell ref="W16:AQ16"/>
+    <mergeCell ref="AR16:BL16"/>
+    <mergeCell ref="CH16:DB16"/>
+    <mergeCell ref="DC14:DM14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:V13"/>
+    <mergeCell ref="W13:AQ13"/>
+    <mergeCell ref="AR13:BL13"/>
+    <mergeCell ref="CH13:DB13"/>
+    <mergeCell ref="DC13:DM13"/>
+    <mergeCell ref="BM13:CG13"/>
+    <mergeCell ref="BM14:CG14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:V14"/>
+    <mergeCell ref="W14:AQ14"/>
+    <mergeCell ref="AR14:BL14"/>
+    <mergeCell ref="CH14:DB14"/>
     <mergeCell ref="DC10:DM10"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="BM10:CG10"/>
@@ -2970,48 +6138,49 @@
     <mergeCell ref="W12:AQ12"/>
     <mergeCell ref="AR12:BL12"/>
     <mergeCell ref="CH12:DB12"/>
-    <mergeCell ref="DC14:DM14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:V13"/>
-    <mergeCell ref="W13:AQ13"/>
-    <mergeCell ref="AR13:BL13"/>
-    <mergeCell ref="CH13:DB13"/>
-    <mergeCell ref="DC13:DM13"/>
-    <mergeCell ref="BM13:CG13"/>
-    <mergeCell ref="BM14:CG14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:V14"/>
-    <mergeCell ref="W14:AQ14"/>
-    <mergeCell ref="AR14:BL14"/>
-    <mergeCell ref="CH14:DB14"/>
-    <mergeCell ref="DC16:DM16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:V15"/>
-    <mergeCell ref="W15:AQ15"/>
-    <mergeCell ref="AR15:BL15"/>
-    <mergeCell ref="CH15:DB15"/>
-    <mergeCell ref="DC15:DM15"/>
-    <mergeCell ref="BM15:CG15"/>
-    <mergeCell ref="BM16:CG16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:V16"/>
-    <mergeCell ref="W16:AQ16"/>
-    <mergeCell ref="AR16:BL16"/>
-    <mergeCell ref="CH16:DB16"/>
-    <mergeCell ref="DC18:DM18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:V17"/>
-    <mergeCell ref="W17:AQ17"/>
-    <mergeCell ref="AR17:BL17"/>
-    <mergeCell ref="CH17:DB17"/>
-    <mergeCell ref="DC17:DM17"/>
-    <mergeCell ref="BM17:CG17"/>
-    <mergeCell ref="BM18:CG18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:V18"/>
-    <mergeCell ref="W18:AQ18"/>
-    <mergeCell ref="AR18:BL18"/>
-    <mergeCell ref="CH18:DB18"/>
+    <mergeCell ref="DC9:DM9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:V8"/>
+    <mergeCell ref="W8:AQ8"/>
+    <mergeCell ref="AR8:BL8"/>
+    <mergeCell ref="CH8:DB8"/>
+    <mergeCell ref="DC8:DM8"/>
+    <mergeCell ref="BM8:CG8"/>
+    <mergeCell ref="BM9:CG9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:V9"/>
+    <mergeCell ref="W9:AQ9"/>
+    <mergeCell ref="AR9:BL9"/>
+    <mergeCell ref="CH9:DB9"/>
+    <mergeCell ref="DC7:DM7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:V6"/>
+    <mergeCell ref="W6:AQ6"/>
+    <mergeCell ref="AR6:BL6"/>
+    <mergeCell ref="CH6:DB6"/>
+    <mergeCell ref="DC6:DM6"/>
+    <mergeCell ref="BM6:CG6"/>
+    <mergeCell ref="BM7:CG7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:V7"/>
+    <mergeCell ref="W7:AQ7"/>
+    <mergeCell ref="AR7:BL7"/>
+    <mergeCell ref="CH7:DB7"/>
+    <mergeCell ref="DC5:DM5"/>
+    <mergeCell ref="B2:DL2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:V4"/>
+    <mergeCell ref="W4:AQ4"/>
+    <mergeCell ref="AR4:BL4"/>
+    <mergeCell ref="CH4:DB4"/>
+    <mergeCell ref="DC4:DM4"/>
+    <mergeCell ref="BM4:CG4"/>
+    <mergeCell ref="BM5:CG5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:V5"/>
+    <mergeCell ref="W5:AQ5"/>
+    <mergeCell ref="AR5:BL5"/>
+    <mergeCell ref="CH5:DB5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/アプリケーション一覧.xlsx
+++ b/doc/アプリケーション一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\django_base\django_base\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCC97DB-6F8F-4186-A009-86F48269C339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC93C71-4588-4E5C-818E-43676EECEB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>アプリケーション一覧</t>
     <rPh sb="8" eb="10">
@@ -396,6 +396,31 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pg016_as_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./pg016_as_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FormクラスによるTable整形表示</t>
+    <rPh sb="15" eb="17">
+      <t>セイケイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -478,14 +503,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -768,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:DM43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="BM1" sqref="BM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18"/>
@@ -892,255 +917,255 @@
       <c r="DL1" s="1"/>
     </row>
     <row r="2" spans="2:117" ht="26.5">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3"/>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3"/>
-      <c r="BG2" s="3"/>
-      <c r="BH2" s="3"/>
-      <c r="BI2" s="3"/>
-      <c r="BJ2" s="3"/>
-      <c r="BK2" s="3"/>
-      <c r="BL2" s="3"/>
-      <c r="BM2" s="3"/>
-      <c r="BN2" s="3"/>
-      <c r="BO2" s="3"/>
-      <c r="BP2" s="3"/>
-      <c r="BQ2" s="3"/>
-      <c r="BR2" s="3"/>
-      <c r="BS2" s="3"/>
-      <c r="BT2" s="3"/>
-      <c r="BU2" s="3"/>
-      <c r="BV2" s="3"/>
-      <c r="BW2" s="3"/>
-      <c r="BX2" s="3"/>
-      <c r="BY2" s="3"/>
-      <c r="BZ2" s="3"/>
-      <c r="CA2" s="3"/>
-      <c r="CB2" s="3"/>
-      <c r="CC2" s="3"/>
-      <c r="CD2" s="3"/>
-      <c r="CE2" s="3"/>
-      <c r="CF2" s="3"/>
-      <c r="CG2" s="3"/>
-      <c r="CH2" s="3"/>
-      <c r="CI2" s="3"/>
-      <c r="CJ2" s="3"/>
-      <c r="CK2" s="3"/>
-      <c r="CL2" s="3"/>
-      <c r="CM2" s="3"/>
-      <c r="CN2" s="3"/>
-      <c r="CO2" s="3"/>
-      <c r="CP2" s="3"/>
-      <c r="CQ2" s="3"/>
-      <c r="CR2" s="3"/>
-      <c r="CS2" s="3"/>
-      <c r="CT2" s="3"/>
-      <c r="CU2" s="3"/>
-      <c r="CV2" s="3"/>
-      <c r="CW2" s="3"/>
-      <c r="CX2" s="3"/>
-      <c r="CY2" s="3"/>
-      <c r="CZ2" s="3"/>
-      <c r="DA2" s="3"/>
-      <c r="DB2" s="3"/>
-      <c r="DC2" s="3"/>
-      <c r="DD2" s="3"/>
-      <c r="DE2" s="3"/>
-      <c r="DF2" s="3"/>
-      <c r="DG2" s="3"/>
-      <c r="DH2" s="3"/>
-      <c r="DI2" s="3"/>
-      <c r="DJ2" s="3"/>
-      <c r="DK2" s="3"/>
-      <c r="DL2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="4"/>
+      <c r="BZ2" s="4"/>
+      <c r="CA2" s="4"/>
+      <c r="CB2" s="4"/>
+      <c r="CC2" s="4"/>
+      <c r="CD2" s="4"/>
+      <c r="CE2" s="4"/>
+      <c r="CF2" s="4"/>
+      <c r="CG2" s="4"/>
+      <c r="CH2" s="4"/>
+      <c r="CI2" s="4"/>
+      <c r="CJ2" s="4"/>
+      <c r="CK2" s="4"/>
+      <c r="CL2" s="4"/>
+      <c r="CM2" s="4"/>
+      <c r="CN2" s="4"/>
+      <c r="CO2" s="4"/>
+      <c r="CP2" s="4"/>
+      <c r="CQ2" s="4"/>
+      <c r="CR2" s="4"/>
+      <c r="CS2" s="4"/>
+      <c r="CT2" s="4"/>
+      <c r="CU2" s="4"/>
+      <c r="CV2" s="4"/>
+      <c r="CW2" s="4"/>
+      <c r="CX2" s="4"/>
+      <c r="CY2" s="4"/>
+      <c r="CZ2" s="4"/>
+      <c r="DA2" s="4"/>
+      <c r="DB2" s="4"/>
+      <c r="DC2" s="4"/>
+      <c r="DD2" s="4"/>
+      <c r="DE2" s="4"/>
+      <c r="DF2" s="4"/>
+      <c r="DG2" s="4"/>
+      <c r="DH2" s="4"/>
+      <c r="DI2" s="4"/>
+      <c r="DJ2" s="4"/>
+      <c r="DK2" s="4"/>
+      <c r="DL2" s="4"/>
     </row>
     <row r="4" spans="2:117">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4" t="s">
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-      <c r="BF4" s="4"/>
-      <c r="BG4" s="4"/>
-      <c r="BH4" s="4"/>
-      <c r="BI4" s="4"/>
-      <c r="BJ4" s="4"/>
-      <c r="BK4" s="4"/>
-      <c r="BL4" s="4"/>
-      <c r="BM4" s="4" t="s">
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
+      <c r="BF4" s="5"/>
+      <c r="BG4" s="5"/>
+      <c r="BH4" s="5"/>
+      <c r="BI4" s="5"/>
+      <c r="BJ4" s="5"/>
+      <c r="BK4" s="5"/>
+      <c r="BL4" s="5"/>
+      <c r="BM4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="BN4" s="4"/>
-      <c r="BO4" s="4"/>
-      <c r="BP4" s="4"/>
-      <c r="BQ4" s="4"/>
-      <c r="BR4" s="4"/>
-      <c r="BS4" s="4"/>
-      <c r="BT4" s="4"/>
-      <c r="BU4" s="4"/>
-      <c r="BV4" s="4"/>
-      <c r="BW4" s="4"/>
-      <c r="BX4" s="4"/>
-      <c r="BY4" s="4"/>
-      <c r="BZ4" s="4"/>
-      <c r="CA4" s="4"/>
-      <c r="CB4" s="4"/>
-      <c r="CC4" s="4"/>
-      <c r="CD4" s="4"/>
-      <c r="CE4" s="4"/>
-      <c r="CF4" s="4"/>
-      <c r="CG4" s="4"/>
-      <c r="CH4" s="4" t="s">
+      <c r="BN4" s="5"/>
+      <c r="BO4" s="5"/>
+      <c r="BP4" s="5"/>
+      <c r="BQ4" s="5"/>
+      <c r="BR4" s="5"/>
+      <c r="BS4" s="5"/>
+      <c r="BT4" s="5"/>
+      <c r="BU4" s="5"/>
+      <c r="BV4" s="5"/>
+      <c r="BW4" s="5"/>
+      <c r="BX4" s="5"/>
+      <c r="BY4" s="5"/>
+      <c r="BZ4" s="5"/>
+      <c r="CA4" s="5"/>
+      <c r="CB4" s="5"/>
+      <c r="CC4" s="5"/>
+      <c r="CD4" s="5"/>
+      <c r="CE4" s="5"/>
+      <c r="CF4" s="5"/>
+      <c r="CG4" s="5"/>
+      <c r="CH4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="CI4" s="4"/>
-      <c r="CJ4" s="4"/>
-      <c r="CK4" s="4"/>
-      <c r="CL4" s="4"/>
-      <c r="CM4" s="4"/>
-      <c r="CN4" s="4"/>
-      <c r="CO4" s="4"/>
-      <c r="CP4" s="4"/>
-      <c r="CQ4" s="4"/>
-      <c r="CR4" s="4"/>
-      <c r="CS4" s="4"/>
-      <c r="CT4" s="4"/>
-      <c r="CU4" s="4"/>
-      <c r="CV4" s="4"/>
-      <c r="CW4" s="4"/>
-      <c r="CX4" s="4"/>
-      <c r="CY4" s="4"/>
-      <c r="CZ4" s="4"/>
-      <c r="DA4" s="4"/>
-      <c r="DB4" s="4"/>
-      <c r="DC4" s="5" t="s">
+      <c r="CI4" s="5"/>
+      <c r="CJ4" s="5"/>
+      <c r="CK4" s="5"/>
+      <c r="CL4" s="5"/>
+      <c r="CM4" s="5"/>
+      <c r="CN4" s="5"/>
+      <c r="CO4" s="5"/>
+      <c r="CP4" s="5"/>
+      <c r="CQ4" s="5"/>
+      <c r="CR4" s="5"/>
+      <c r="CS4" s="5"/>
+      <c r="CT4" s="5"/>
+      <c r="CU4" s="5"/>
+      <c r="CV4" s="5"/>
+      <c r="CW4" s="5"/>
+      <c r="CX4" s="5"/>
+      <c r="CY4" s="5"/>
+      <c r="CZ4" s="5"/>
+      <c r="DA4" s="5"/>
+      <c r="DB4" s="5"/>
+      <c r="DC4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="DD4" s="5"/>
-      <c r="DE4" s="5"/>
-      <c r="DF4" s="5"/>
-      <c r="DG4" s="5"/>
-      <c r="DH4" s="5"/>
-      <c r="DI4" s="5"/>
-      <c r="DJ4" s="5"/>
-      <c r="DK4" s="5"/>
-      <c r="DL4" s="5"/>
-      <c r="DM4" s="5"/>
+      <c r="DD4" s="6"/>
+      <c r="DE4" s="6"/>
+      <c r="DF4" s="6"/>
+      <c r="DG4" s="6"/>
+      <c r="DH4" s="6"/>
+      <c r="DI4" s="6"/>
+      <c r="DJ4" s="6"/>
+      <c r="DK4" s="6"/>
+      <c r="DL4" s="6"/>
+      <c r="DM4" s="6"/>
     </row>
     <row r="5" spans="2:117" ht="18.5" customHeight="1">
       <c r="B5" s="2">
@@ -1491,29 +1516,29 @@
       <c r="CE7" s="2"/>
       <c r="CF7" s="2"/>
       <c r="CG7" s="2"/>
-      <c r="CH7" s="6" t="s">
+      <c r="CH7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="CI7" s="6"/>
-      <c r="CJ7" s="6"/>
-      <c r="CK7" s="6"/>
-      <c r="CL7" s="6"/>
-      <c r="CM7" s="6"/>
-      <c r="CN7" s="6"/>
-      <c r="CO7" s="6"/>
-      <c r="CP7" s="6"/>
-      <c r="CQ7" s="6"/>
-      <c r="CR7" s="6"/>
-      <c r="CS7" s="6"/>
-      <c r="CT7" s="6"/>
-      <c r="CU7" s="6"/>
-      <c r="CV7" s="6"/>
-      <c r="CW7" s="6"/>
-      <c r="CX7" s="6"/>
-      <c r="CY7" s="6"/>
-      <c r="CZ7" s="6"/>
-      <c r="DA7" s="6"/>
-      <c r="DB7" s="6"/>
+      <c r="CI7" s="3"/>
+      <c r="CJ7" s="3"/>
+      <c r="CK7" s="3"/>
+      <c r="CL7" s="3"/>
+      <c r="CM7" s="3"/>
+      <c r="CN7" s="3"/>
+      <c r="CO7" s="3"/>
+      <c r="CP7" s="3"/>
+      <c r="CQ7" s="3"/>
+      <c r="CR7" s="3"/>
+      <c r="CS7" s="3"/>
+      <c r="CT7" s="3"/>
+      <c r="CU7" s="3"/>
+      <c r="CV7" s="3"/>
+      <c r="CW7" s="3"/>
+      <c r="CX7" s="3"/>
+      <c r="CY7" s="3"/>
+      <c r="CZ7" s="3"/>
+      <c r="DA7" s="3"/>
+      <c r="DB7" s="3"/>
       <c r="DC7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1623,29 +1648,29 @@
       <c r="CE8" s="2"/>
       <c r="CF8" s="2"/>
       <c r="CG8" s="2"/>
-      <c r="CH8" s="6" t="s">
+      <c r="CH8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="CI8" s="6"/>
-      <c r="CJ8" s="6"/>
-      <c r="CK8" s="6"/>
-      <c r="CL8" s="6"/>
-      <c r="CM8" s="6"/>
-      <c r="CN8" s="6"/>
-      <c r="CO8" s="6"/>
-      <c r="CP8" s="6"/>
-      <c r="CQ8" s="6"/>
-      <c r="CR8" s="6"/>
-      <c r="CS8" s="6"/>
-      <c r="CT8" s="6"/>
-      <c r="CU8" s="6"/>
-      <c r="CV8" s="6"/>
-      <c r="CW8" s="6"/>
-      <c r="CX8" s="6"/>
-      <c r="CY8" s="6"/>
-      <c r="CZ8" s="6"/>
-      <c r="DA8" s="6"/>
-      <c r="DB8" s="6"/>
+      <c r="CI8" s="3"/>
+      <c r="CJ8" s="3"/>
+      <c r="CK8" s="3"/>
+      <c r="CL8" s="3"/>
+      <c r="CM8" s="3"/>
+      <c r="CN8" s="3"/>
+      <c r="CO8" s="3"/>
+      <c r="CP8" s="3"/>
+      <c r="CQ8" s="3"/>
+      <c r="CR8" s="3"/>
+      <c r="CS8" s="3"/>
+      <c r="CT8" s="3"/>
+      <c r="CU8" s="3"/>
+      <c r="CV8" s="3"/>
+      <c r="CW8" s="3"/>
+      <c r="CX8" s="3"/>
+      <c r="CY8" s="3"/>
+      <c r="CZ8" s="3"/>
+      <c r="DA8" s="3"/>
+      <c r="DB8" s="3"/>
       <c r="DC8" s="2" t="s">
         <v>24</v>
       </c>
@@ -2949,10 +2974,14 @@
       <c r="DM18" s="2"/>
     </row>
     <row r="19" spans="2:117" ht="18.5" customHeight="1">
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <v>15</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -2970,7 +2999,9 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
+      <c r="W19" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
@@ -2991,7 +3022,9 @@
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
-      <c r="AR19" s="2"/>
+      <c r="AR19" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="AS19" s="2"/>
       <c r="AT19" s="2"/>
       <c r="AU19" s="2"/>
@@ -3012,7 +3045,9 @@
       <c r="BJ19" s="2"/>
       <c r="BK19" s="2"/>
       <c r="BL19" s="2"/>
-      <c r="BM19" s="2"/>
+      <c r="BM19" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="BN19" s="2"/>
       <c r="BO19" s="2"/>
       <c r="BP19" s="2"/>
@@ -3033,7 +3068,9 @@
       <c r="CE19" s="2"/>
       <c r="CF19" s="2"/>
       <c r="CG19" s="2"/>
-      <c r="CH19" s="2"/>
+      <c r="CH19" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="CI19" s="2"/>
       <c r="CJ19" s="2"/>
       <c r="CK19" s="2"/>
@@ -5900,6 +5937,266 @@
     </row>
   </sheetData>
   <mergeCells count="281">
+    <mergeCell ref="DC5:DM5"/>
+    <mergeCell ref="B2:DL2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:V4"/>
+    <mergeCell ref="W4:AQ4"/>
+    <mergeCell ref="AR4:BL4"/>
+    <mergeCell ref="CH4:DB4"/>
+    <mergeCell ref="DC4:DM4"/>
+    <mergeCell ref="BM4:CG4"/>
+    <mergeCell ref="BM5:CG5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:V5"/>
+    <mergeCell ref="W5:AQ5"/>
+    <mergeCell ref="AR5:BL5"/>
+    <mergeCell ref="CH5:DB5"/>
+    <mergeCell ref="DC7:DM7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:V6"/>
+    <mergeCell ref="W6:AQ6"/>
+    <mergeCell ref="AR6:BL6"/>
+    <mergeCell ref="CH6:DB6"/>
+    <mergeCell ref="DC6:DM6"/>
+    <mergeCell ref="BM6:CG6"/>
+    <mergeCell ref="BM7:CG7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:V7"/>
+    <mergeCell ref="W7:AQ7"/>
+    <mergeCell ref="AR7:BL7"/>
+    <mergeCell ref="CH7:DB7"/>
+    <mergeCell ref="DC9:DM9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:V8"/>
+    <mergeCell ref="W8:AQ8"/>
+    <mergeCell ref="AR8:BL8"/>
+    <mergeCell ref="CH8:DB8"/>
+    <mergeCell ref="DC8:DM8"/>
+    <mergeCell ref="BM8:CG8"/>
+    <mergeCell ref="BM9:CG9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:V9"/>
+    <mergeCell ref="W9:AQ9"/>
+    <mergeCell ref="AR9:BL9"/>
+    <mergeCell ref="CH9:DB9"/>
+    <mergeCell ref="DC10:DM10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="BM10:CG10"/>
+    <mergeCell ref="E10:V10"/>
+    <mergeCell ref="W10:AQ10"/>
+    <mergeCell ref="AR10:BL10"/>
+    <mergeCell ref="CH10:DB10"/>
+    <mergeCell ref="DC12:DM12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:V11"/>
+    <mergeCell ref="W11:AQ11"/>
+    <mergeCell ref="AR11:BL11"/>
+    <mergeCell ref="CH11:DB11"/>
+    <mergeCell ref="DC11:DM11"/>
+    <mergeCell ref="BM11:CG11"/>
+    <mergeCell ref="BM12:CG12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:V12"/>
+    <mergeCell ref="W12:AQ12"/>
+    <mergeCell ref="AR12:BL12"/>
+    <mergeCell ref="CH12:DB12"/>
+    <mergeCell ref="DC14:DM14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:V13"/>
+    <mergeCell ref="W13:AQ13"/>
+    <mergeCell ref="AR13:BL13"/>
+    <mergeCell ref="CH13:DB13"/>
+    <mergeCell ref="DC13:DM13"/>
+    <mergeCell ref="BM13:CG13"/>
+    <mergeCell ref="BM14:CG14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:V14"/>
+    <mergeCell ref="W14:AQ14"/>
+    <mergeCell ref="AR14:BL14"/>
+    <mergeCell ref="CH14:DB14"/>
+    <mergeCell ref="DC16:DM16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:V15"/>
+    <mergeCell ref="W15:AQ15"/>
+    <mergeCell ref="AR15:BL15"/>
+    <mergeCell ref="CH15:DB15"/>
+    <mergeCell ref="DC15:DM15"/>
+    <mergeCell ref="BM15:CG15"/>
+    <mergeCell ref="BM16:CG16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:V16"/>
+    <mergeCell ref="W16:AQ16"/>
+    <mergeCell ref="AR16:BL16"/>
+    <mergeCell ref="CH16:DB16"/>
+    <mergeCell ref="DC18:DM18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:V17"/>
+    <mergeCell ref="W17:AQ17"/>
+    <mergeCell ref="AR17:BL17"/>
+    <mergeCell ref="CH17:DB17"/>
+    <mergeCell ref="DC17:DM17"/>
+    <mergeCell ref="BM17:CG17"/>
+    <mergeCell ref="BM18:CG18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:V18"/>
+    <mergeCell ref="W18:AQ18"/>
+    <mergeCell ref="AR18:BL18"/>
+    <mergeCell ref="CH18:DB18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:V19"/>
+    <mergeCell ref="W19:AQ19"/>
+    <mergeCell ref="AR19:BL19"/>
+    <mergeCell ref="BM19:CG19"/>
+    <mergeCell ref="CH19:DB19"/>
+    <mergeCell ref="DC19:DM19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:V20"/>
+    <mergeCell ref="W20:AQ20"/>
+    <mergeCell ref="AR20:BL20"/>
+    <mergeCell ref="BM20:CG20"/>
+    <mergeCell ref="CH20:DB20"/>
+    <mergeCell ref="DC20:DM20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:V21"/>
+    <mergeCell ref="W21:AQ21"/>
+    <mergeCell ref="AR21:BL21"/>
+    <mergeCell ref="BM21:CG21"/>
+    <mergeCell ref="CH21:DB21"/>
+    <mergeCell ref="DC21:DM21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:V22"/>
+    <mergeCell ref="W22:AQ22"/>
+    <mergeCell ref="AR22:BL22"/>
+    <mergeCell ref="BM22:CG22"/>
+    <mergeCell ref="CH22:DB22"/>
+    <mergeCell ref="DC22:DM22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:V23"/>
+    <mergeCell ref="W23:AQ23"/>
+    <mergeCell ref="AR23:BL23"/>
+    <mergeCell ref="BM23:CG23"/>
+    <mergeCell ref="CH23:DB23"/>
+    <mergeCell ref="DC23:DM23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:V24"/>
+    <mergeCell ref="W24:AQ24"/>
+    <mergeCell ref="AR24:BL24"/>
+    <mergeCell ref="BM24:CG24"/>
+    <mergeCell ref="CH24:DB24"/>
+    <mergeCell ref="DC24:DM24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:V25"/>
+    <mergeCell ref="W25:AQ25"/>
+    <mergeCell ref="AR25:BL25"/>
+    <mergeCell ref="BM25:CG25"/>
+    <mergeCell ref="CH25:DB25"/>
+    <mergeCell ref="DC25:DM25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:V26"/>
+    <mergeCell ref="W26:AQ26"/>
+    <mergeCell ref="AR26:BL26"/>
+    <mergeCell ref="BM26:CG26"/>
+    <mergeCell ref="CH26:DB26"/>
+    <mergeCell ref="DC26:DM26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:V27"/>
+    <mergeCell ref="W27:AQ27"/>
+    <mergeCell ref="AR27:BL27"/>
+    <mergeCell ref="BM27:CG27"/>
+    <mergeCell ref="CH27:DB27"/>
+    <mergeCell ref="DC27:DM27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:V28"/>
+    <mergeCell ref="W28:AQ28"/>
+    <mergeCell ref="AR28:BL28"/>
+    <mergeCell ref="BM28:CG28"/>
+    <mergeCell ref="CH28:DB28"/>
+    <mergeCell ref="DC28:DM28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:V29"/>
+    <mergeCell ref="W29:AQ29"/>
+    <mergeCell ref="AR29:BL29"/>
+    <mergeCell ref="BM29:CG29"/>
+    <mergeCell ref="CH29:DB29"/>
+    <mergeCell ref="DC29:DM29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:V30"/>
+    <mergeCell ref="W30:AQ30"/>
+    <mergeCell ref="AR30:BL30"/>
+    <mergeCell ref="BM30:CG30"/>
+    <mergeCell ref="CH30:DB30"/>
+    <mergeCell ref="DC30:DM30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:V31"/>
+    <mergeCell ref="W31:AQ31"/>
+    <mergeCell ref="AR31:BL31"/>
+    <mergeCell ref="BM31:CG31"/>
+    <mergeCell ref="CH31:DB31"/>
+    <mergeCell ref="DC31:DM31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:V32"/>
+    <mergeCell ref="W32:AQ32"/>
+    <mergeCell ref="AR32:BL32"/>
+    <mergeCell ref="BM32:CG32"/>
+    <mergeCell ref="CH32:DB32"/>
+    <mergeCell ref="DC32:DM32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:V33"/>
+    <mergeCell ref="W33:AQ33"/>
+    <mergeCell ref="AR33:BL33"/>
+    <mergeCell ref="BM33:CG33"/>
+    <mergeCell ref="CH33:DB33"/>
+    <mergeCell ref="DC33:DM33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:V34"/>
+    <mergeCell ref="W34:AQ34"/>
+    <mergeCell ref="AR34:BL34"/>
+    <mergeCell ref="BM34:CG34"/>
+    <mergeCell ref="CH34:DB34"/>
+    <mergeCell ref="DC34:DM34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:V35"/>
+    <mergeCell ref="W35:AQ35"/>
+    <mergeCell ref="AR35:BL35"/>
+    <mergeCell ref="BM35:CG35"/>
+    <mergeCell ref="CH35:DB35"/>
+    <mergeCell ref="DC35:DM35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:V36"/>
+    <mergeCell ref="W36:AQ36"/>
+    <mergeCell ref="AR36:BL36"/>
+    <mergeCell ref="BM36:CG36"/>
+    <mergeCell ref="CH36:DB36"/>
+    <mergeCell ref="DC36:DM36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:V37"/>
+    <mergeCell ref="W37:AQ37"/>
+    <mergeCell ref="AR37:BL37"/>
+    <mergeCell ref="BM37:CG37"/>
+    <mergeCell ref="CH37:DB37"/>
+    <mergeCell ref="DC37:DM37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:V38"/>
+    <mergeCell ref="W38:AQ38"/>
+    <mergeCell ref="AR38:BL38"/>
+    <mergeCell ref="BM38:CG38"/>
+    <mergeCell ref="CH38:DB38"/>
+    <mergeCell ref="DC38:DM38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:V39"/>
+    <mergeCell ref="W39:AQ39"/>
+    <mergeCell ref="AR39:BL39"/>
+    <mergeCell ref="BM39:CG39"/>
+    <mergeCell ref="CH39:DB39"/>
+    <mergeCell ref="DC39:DM39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:V40"/>
+    <mergeCell ref="W40:AQ40"/>
+    <mergeCell ref="AR40:BL40"/>
+    <mergeCell ref="BM40:CG40"/>
+    <mergeCell ref="CH40:DB40"/>
+    <mergeCell ref="DC40:DM40"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="E43:V43"/>
     <mergeCell ref="W43:AQ43"/>
@@ -5921,266 +6218,6 @@
     <mergeCell ref="BM42:CG42"/>
     <mergeCell ref="CH42:DB42"/>
     <mergeCell ref="DC42:DM42"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:V39"/>
-    <mergeCell ref="W39:AQ39"/>
-    <mergeCell ref="AR39:BL39"/>
-    <mergeCell ref="BM39:CG39"/>
-    <mergeCell ref="CH39:DB39"/>
-    <mergeCell ref="DC39:DM39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:V40"/>
-    <mergeCell ref="W40:AQ40"/>
-    <mergeCell ref="AR40:BL40"/>
-    <mergeCell ref="BM40:CG40"/>
-    <mergeCell ref="CH40:DB40"/>
-    <mergeCell ref="DC40:DM40"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:V37"/>
-    <mergeCell ref="W37:AQ37"/>
-    <mergeCell ref="AR37:BL37"/>
-    <mergeCell ref="BM37:CG37"/>
-    <mergeCell ref="CH37:DB37"/>
-    <mergeCell ref="DC37:DM37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:V38"/>
-    <mergeCell ref="W38:AQ38"/>
-    <mergeCell ref="AR38:BL38"/>
-    <mergeCell ref="BM38:CG38"/>
-    <mergeCell ref="CH38:DB38"/>
-    <mergeCell ref="DC38:DM38"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:V35"/>
-    <mergeCell ref="W35:AQ35"/>
-    <mergeCell ref="AR35:BL35"/>
-    <mergeCell ref="BM35:CG35"/>
-    <mergeCell ref="CH35:DB35"/>
-    <mergeCell ref="DC35:DM35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:V36"/>
-    <mergeCell ref="W36:AQ36"/>
-    <mergeCell ref="AR36:BL36"/>
-    <mergeCell ref="BM36:CG36"/>
-    <mergeCell ref="CH36:DB36"/>
-    <mergeCell ref="DC36:DM36"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:V33"/>
-    <mergeCell ref="W33:AQ33"/>
-    <mergeCell ref="AR33:BL33"/>
-    <mergeCell ref="BM33:CG33"/>
-    <mergeCell ref="CH33:DB33"/>
-    <mergeCell ref="DC33:DM33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:V34"/>
-    <mergeCell ref="W34:AQ34"/>
-    <mergeCell ref="AR34:BL34"/>
-    <mergeCell ref="BM34:CG34"/>
-    <mergeCell ref="CH34:DB34"/>
-    <mergeCell ref="DC34:DM34"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:V31"/>
-    <mergeCell ref="W31:AQ31"/>
-    <mergeCell ref="AR31:BL31"/>
-    <mergeCell ref="BM31:CG31"/>
-    <mergeCell ref="CH31:DB31"/>
-    <mergeCell ref="DC31:DM31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:V32"/>
-    <mergeCell ref="W32:AQ32"/>
-    <mergeCell ref="AR32:BL32"/>
-    <mergeCell ref="BM32:CG32"/>
-    <mergeCell ref="CH32:DB32"/>
-    <mergeCell ref="DC32:DM32"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:V29"/>
-    <mergeCell ref="W29:AQ29"/>
-    <mergeCell ref="AR29:BL29"/>
-    <mergeCell ref="BM29:CG29"/>
-    <mergeCell ref="CH29:DB29"/>
-    <mergeCell ref="DC29:DM29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:V30"/>
-    <mergeCell ref="W30:AQ30"/>
-    <mergeCell ref="AR30:BL30"/>
-    <mergeCell ref="BM30:CG30"/>
-    <mergeCell ref="CH30:DB30"/>
-    <mergeCell ref="DC30:DM30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:V27"/>
-    <mergeCell ref="W27:AQ27"/>
-    <mergeCell ref="AR27:BL27"/>
-    <mergeCell ref="BM27:CG27"/>
-    <mergeCell ref="CH27:DB27"/>
-    <mergeCell ref="DC27:DM27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:V28"/>
-    <mergeCell ref="W28:AQ28"/>
-    <mergeCell ref="AR28:BL28"/>
-    <mergeCell ref="BM28:CG28"/>
-    <mergeCell ref="CH28:DB28"/>
-    <mergeCell ref="DC28:DM28"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:V25"/>
-    <mergeCell ref="W25:AQ25"/>
-    <mergeCell ref="AR25:BL25"/>
-    <mergeCell ref="BM25:CG25"/>
-    <mergeCell ref="CH25:DB25"/>
-    <mergeCell ref="DC25:DM25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:V26"/>
-    <mergeCell ref="W26:AQ26"/>
-    <mergeCell ref="AR26:BL26"/>
-    <mergeCell ref="BM26:CG26"/>
-    <mergeCell ref="CH26:DB26"/>
-    <mergeCell ref="DC26:DM26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:V23"/>
-    <mergeCell ref="W23:AQ23"/>
-    <mergeCell ref="AR23:BL23"/>
-    <mergeCell ref="BM23:CG23"/>
-    <mergeCell ref="CH23:DB23"/>
-    <mergeCell ref="DC23:DM23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:V24"/>
-    <mergeCell ref="W24:AQ24"/>
-    <mergeCell ref="AR24:BL24"/>
-    <mergeCell ref="BM24:CG24"/>
-    <mergeCell ref="CH24:DB24"/>
-    <mergeCell ref="DC24:DM24"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:V21"/>
-    <mergeCell ref="W21:AQ21"/>
-    <mergeCell ref="AR21:BL21"/>
-    <mergeCell ref="BM21:CG21"/>
-    <mergeCell ref="CH21:DB21"/>
-    <mergeCell ref="DC21:DM21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:V22"/>
-    <mergeCell ref="W22:AQ22"/>
-    <mergeCell ref="AR22:BL22"/>
-    <mergeCell ref="BM22:CG22"/>
-    <mergeCell ref="CH22:DB22"/>
-    <mergeCell ref="DC22:DM22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:V19"/>
-    <mergeCell ref="W19:AQ19"/>
-    <mergeCell ref="AR19:BL19"/>
-    <mergeCell ref="BM19:CG19"/>
-    <mergeCell ref="CH19:DB19"/>
-    <mergeCell ref="DC19:DM19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:V20"/>
-    <mergeCell ref="W20:AQ20"/>
-    <mergeCell ref="AR20:BL20"/>
-    <mergeCell ref="BM20:CG20"/>
-    <mergeCell ref="CH20:DB20"/>
-    <mergeCell ref="DC20:DM20"/>
-    <mergeCell ref="DC18:DM18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:V17"/>
-    <mergeCell ref="W17:AQ17"/>
-    <mergeCell ref="AR17:BL17"/>
-    <mergeCell ref="CH17:DB17"/>
-    <mergeCell ref="DC17:DM17"/>
-    <mergeCell ref="BM17:CG17"/>
-    <mergeCell ref="BM18:CG18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:V18"/>
-    <mergeCell ref="W18:AQ18"/>
-    <mergeCell ref="AR18:BL18"/>
-    <mergeCell ref="CH18:DB18"/>
-    <mergeCell ref="DC16:DM16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:V15"/>
-    <mergeCell ref="W15:AQ15"/>
-    <mergeCell ref="AR15:BL15"/>
-    <mergeCell ref="CH15:DB15"/>
-    <mergeCell ref="DC15:DM15"/>
-    <mergeCell ref="BM15:CG15"/>
-    <mergeCell ref="BM16:CG16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:V16"/>
-    <mergeCell ref="W16:AQ16"/>
-    <mergeCell ref="AR16:BL16"/>
-    <mergeCell ref="CH16:DB16"/>
-    <mergeCell ref="DC14:DM14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:V13"/>
-    <mergeCell ref="W13:AQ13"/>
-    <mergeCell ref="AR13:BL13"/>
-    <mergeCell ref="CH13:DB13"/>
-    <mergeCell ref="DC13:DM13"/>
-    <mergeCell ref="BM13:CG13"/>
-    <mergeCell ref="BM14:CG14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:V14"/>
-    <mergeCell ref="W14:AQ14"/>
-    <mergeCell ref="AR14:BL14"/>
-    <mergeCell ref="CH14:DB14"/>
-    <mergeCell ref="DC10:DM10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="BM10:CG10"/>
-    <mergeCell ref="E10:V10"/>
-    <mergeCell ref="W10:AQ10"/>
-    <mergeCell ref="AR10:BL10"/>
-    <mergeCell ref="CH10:DB10"/>
-    <mergeCell ref="DC12:DM12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:V11"/>
-    <mergeCell ref="W11:AQ11"/>
-    <mergeCell ref="AR11:BL11"/>
-    <mergeCell ref="CH11:DB11"/>
-    <mergeCell ref="DC11:DM11"/>
-    <mergeCell ref="BM11:CG11"/>
-    <mergeCell ref="BM12:CG12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:V12"/>
-    <mergeCell ref="W12:AQ12"/>
-    <mergeCell ref="AR12:BL12"/>
-    <mergeCell ref="CH12:DB12"/>
-    <mergeCell ref="DC9:DM9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:V8"/>
-    <mergeCell ref="W8:AQ8"/>
-    <mergeCell ref="AR8:BL8"/>
-    <mergeCell ref="CH8:DB8"/>
-    <mergeCell ref="DC8:DM8"/>
-    <mergeCell ref="BM8:CG8"/>
-    <mergeCell ref="BM9:CG9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:V9"/>
-    <mergeCell ref="W9:AQ9"/>
-    <mergeCell ref="AR9:BL9"/>
-    <mergeCell ref="CH9:DB9"/>
-    <mergeCell ref="DC7:DM7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:V6"/>
-    <mergeCell ref="W6:AQ6"/>
-    <mergeCell ref="AR6:BL6"/>
-    <mergeCell ref="CH6:DB6"/>
-    <mergeCell ref="DC6:DM6"/>
-    <mergeCell ref="BM6:CG6"/>
-    <mergeCell ref="BM7:CG7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:V7"/>
-    <mergeCell ref="W7:AQ7"/>
-    <mergeCell ref="AR7:BL7"/>
-    <mergeCell ref="CH7:DB7"/>
-    <mergeCell ref="DC5:DM5"/>
-    <mergeCell ref="B2:DL2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:V4"/>
-    <mergeCell ref="W4:AQ4"/>
-    <mergeCell ref="AR4:BL4"/>
-    <mergeCell ref="CH4:DB4"/>
-    <mergeCell ref="DC4:DM4"/>
-    <mergeCell ref="BM4:CG4"/>
-    <mergeCell ref="BM5:CG5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:V5"/>
-    <mergeCell ref="W5:AQ5"/>
-    <mergeCell ref="AR5:BL5"/>
-    <mergeCell ref="CH5:DB5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/アプリケーション一覧.xlsx
+++ b/doc/アプリケーション一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\django_base\django_base\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC93C71-4588-4E5C-818E-43676EECEB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508077D5-192A-4E25-826D-453F0CD8ECC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>アプリケーション一覧</t>
     <rPh sb="8" eb="10">
@@ -113,10 +113,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パラメータ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クエリ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -126,10 +122,6 @@
   </si>
   <si>
     <t>/pg003_query</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>title</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -181,10 +173,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>left,right</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>left+rightを出力する</t>
     <rPh sb="11" eb="13">
       <t>シュツリョク</t>
@@ -242,10 +230,6 @@
     <rPh sb="0" eb="2">
       <t>ドウテキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>title,start,end</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -353,10 +337,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Post:msg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GetとPostの表示分け</t>
     <rPh sb="9" eb="12">
       <t>ヒョウジワ</t>
@@ -380,10 +360,6 @@
   </si>
   <si>
     <t>/pg015_form_class</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>title,memberform</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -421,6 +397,28 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>formのBootStrap対応</t>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pg017_form_bootstrap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./pg017_form_bootstrap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FormクラスによるBottStrap対応</t>
+    <rPh sb="19" eb="21">
+      <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -503,14 +501,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -791,15 +789,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:DM43"/>
+  <dimension ref="B1:CR43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="BM1" sqref="BM1"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="BM21" sqref="BM21:CG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="2:117" ht="26.5">
+    <row r="1" spans="2:96" ht="26.5">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -894,244 +892,202 @@
       <c r="CO1" s="1"/>
       <c r="CP1" s="1"/>
       <c r="CQ1" s="1"/>
-      <c r="CR1" s="1"/>
-      <c r="CS1" s="1"/>
-      <c r="CT1" s="1"/>
-      <c r="CU1" s="1"/>
-      <c r="CV1" s="1"/>
-      <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
-      <c r="CY1" s="1"/>
-      <c r="CZ1" s="1"/>
-      <c r="DA1" s="1"/>
-      <c r="DB1" s="1"/>
-      <c r="DC1" s="1"/>
-      <c r="DD1" s="1"/>
-      <c r="DE1" s="1"/>
-      <c r="DF1" s="1"/>
-      <c r="DG1" s="1"/>
-      <c r="DH1" s="1"/>
-      <c r="DI1" s="1"/>
-      <c r="DJ1" s="1"/>
-      <c r="DK1" s="1"/>
-      <c r="DL1" s="1"/>
     </row>
-    <row r="2" spans="2:117" ht="26.5">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:96" ht="26.5">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4"/>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4"/>
-      <c r="BL2" s="4"/>
-      <c r="BM2" s="4"/>
-      <c r="BN2" s="4"/>
-      <c r="BO2" s="4"/>
-      <c r="BP2" s="4"/>
-      <c r="BQ2" s="4"/>
-      <c r="BR2" s="4"/>
-      <c r="BS2" s="4"/>
-      <c r="BT2" s="4"/>
-      <c r="BU2" s="4"/>
-      <c r="BV2" s="4"/>
-      <c r="BW2" s="4"/>
-      <c r="BX2" s="4"/>
-      <c r="BY2" s="4"/>
-      <c r="BZ2" s="4"/>
-      <c r="CA2" s="4"/>
-      <c r="CB2" s="4"/>
-      <c r="CC2" s="4"/>
-      <c r="CD2" s="4"/>
-      <c r="CE2" s="4"/>
-      <c r="CF2" s="4"/>
-      <c r="CG2" s="4"/>
-      <c r="CH2" s="4"/>
-      <c r="CI2" s="4"/>
-      <c r="CJ2" s="4"/>
-      <c r="CK2" s="4"/>
-      <c r="CL2" s="4"/>
-      <c r="CM2" s="4"/>
-      <c r="CN2" s="4"/>
-      <c r="CO2" s="4"/>
-      <c r="CP2" s="4"/>
-      <c r="CQ2" s="4"/>
-      <c r="CR2" s="4"/>
-      <c r="CS2" s="4"/>
-      <c r="CT2" s="4"/>
-      <c r="CU2" s="4"/>
-      <c r="CV2" s="4"/>
-      <c r="CW2" s="4"/>
-      <c r="CX2" s="4"/>
-      <c r="CY2" s="4"/>
-      <c r="CZ2" s="4"/>
-      <c r="DA2" s="4"/>
-      <c r="DB2" s="4"/>
-      <c r="DC2" s="4"/>
-      <c r="DD2" s="4"/>
-      <c r="DE2" s="4"/>
-      <c r="DF2" s="4"/>
-      <c r="DG2" s="4"/>
-      <c r="DH2" s="4"/>
-      <c r="DI2" s="4"/>
-      <c r="DJ2" s="4"/>
-      <c r="DK2" s="4"/>
-      <c r="DL2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="3"/>
+      <c r="BP2" s="3"/>
+      <c r="BQ2" s="3"/>
+      <c r="BR2" s="3"/>
+      <c r="BS2" s="3"/>
+      <c r="BT2" s="3"/>
+      <c r="BU2" s="3"/>
+      <c r="BV2" s="3"/>
+      <c r="BW2" s="3"/>
+      <c r="BX2" s="3"/>
+      <c r="BY2" s="3"/>
+      <c r="BZ2" s="3"/>
+      <c r="CA2" s="3"/>
+      <c r="CB2" s="3"/>
+      <c r="CC2" s="3"/>
+      <c r="CD2" s="3"/>
+      <c r="CE2" s="3"/>
+      <c r="CF2" s="3"/>
+      <c r="CG2" s="3"/>
+      <c r="CH2" s="3"/>
+      <c r="CI2" s="3"/>
+      <c r="CJ2" s="3"/>
+      <c r="CK2" s="3"/>
+      <c r="CL2" s="3"/>
+      <c r="CM2" s="3"/>
+      <c r="CN2" s="3"/>
+      <c r="CO2" s="3"/>
+      <c r="CP2" s="3"/>
+      <c r="CQ2" s="3"/>
     </row>
-    <row r="4" spans="2:117">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="2:96">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5" t="s">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="5"/>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="5"/>
-      <c r="BF4" s="5"/>
-      <c r="BG4" s="5"/>
-      <c r="BH4" s="5"/>
-      <c r="BI4" s="5"/>
-      <c r="BJ4" s="5"/>
-      <c r="BK4" s="5"/>
-      <c r="BL4" s="5"/>
-      <c r="BM4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="BN4" s="5"/>
-      <c r="BO4" s="5"/>
-      <c r="BP4" s="5"/>
-      <c r="BQ4" s="5"/>
-      <c r="BR4" s="5"/>
-      <c r="BS4" s="5"/>
-      <c r="BT4" s="5"/>
-      <c r="BU4" s="5"/>
-      <c r="BV4" s="5"/>
-      <c r="BW4" s="5"/>
-      <c r="BX4" s="5"/>
-      <c r="BY4" s="5"/>
-      <c r="BZ4" s="5"/>
-      <c r="CA4" s="5"/>
-      <c r="CB4" s="5"/>
-      <c r="CC4" s="5"/>
-      <c r="CD4" s="5"/>
-      <c r="CE4" s="5"/>
-      <c r="CF4" s="5"/>
-      <c r="CG4" s="5"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4"/>
+      <c r="BU4" s="4"/>
+      <c r="BV4" s="4"/>
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="4"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="4"/>
+      <c r="CA4" s="4"/>
+      <c r="CB4" s="4"/>
+      <c r="CC4" s="4"/>
+      <c r="CD4" s="4"/>
+      <c r="CE4" s="4"/>
+      <c r="CF4" s="4"/>
+      <c r="CG4" s="4"/>
       <c r="CH4" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CI4" s="5"/>
       <c r="CJ4" s="5"/>
@@ -1143,31 +1099,8 @@
       <c r="CP4" s="5"/>
       <c r="CQ4" s="5"/>
       <c r="CR4" s="5"/>
-      <c r="CS4" s="5"/>
-      <c r="CT4" s="5"/>
-      <c r="CU4" s="5"/>
-      <c r="CV4" s="5"/>
-      <c r="CW4" s="5"/>
-      <c r="CX4" s="5"/>
-      <c r="CY4" s="5"/>
-      <c r="CZ4" s="5"/>
-      <c r="DA4" s="5"/>
-      <c r="DB4" s="5"/>
-      <c r="DC4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="DD4" s="6"/>
-      <c r="DE4" s="6"/>
-      <c r="DF4" s="6"/>
-      <c r="DG4" s="6"/>
-      <c r="DH4" s="6"/>
-      <c r="DI4" s="6"/>
-      <c r="DJ4" s="6"/>
-      <c r="DK4" s="6"/>
-      <c r="DL4" s="6"/>
-      <c r="DM4" s="6"/>
     </row>
-    <row r="5" spans="2:117" ht="18.5" customHeight="1">
+    <row r="5" spans="2:96" ht="18.5" customHeight="1">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1237,7 +1170,9 @@
       <c r="BJ5" s="2"/>
       <c r="BK5" s="2"/>
       <c r="BL5" s="2"/>
-      <c r="BM5" s="2"/>
+      <c r="BM5" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="BN5" s="2"/>
       <c r="BO5" s="2"/>
       <c r="BP5" s="2"/>
@@ -1258,9 +1193,7 @@
       <c r="CE5" s="2"/>
       <c r="CF5" s="2"/>
       <c r="CG5" s="2"/>
-      <c r="CH5" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="CH5" s="2"/>
       <c r="CI5" s="2"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
@@ -1271,29 +1204,8 @@
       <c r="CP5" s="2"/>
       <c r="CQ5" s="2"/>
       <c r="CR5" s="2"/>
-      <c r="CS5" s="2"/>
-      <c r="CT5" s="2"/>
-      <c r="CU5" s="2"/>
-      <c r="CV5" s="2"/>
-      <c r="CW5" s="2"/>
-      <c r="CX5" s="2"/>
-      <c r="CY5" s="2"/>
-      <c r="CZ5" s="2"/>
-      <c r="DA5" s="2"/>
-      <c r="DB5" s="2"/>
-      <c r="DC5" s="2"/>
-      <c r="DD5" s="2"/>
-      <c r="DE5" s="2"/>
-      <c r="DF5" s="2"/>
-      <c r="DG5" s="2"/>
-      <c r="DH5" s="2"/>
-      <c r="DI5" s="2"/>
-      <c r="DJ5" s="2"/>
-      <c r="DK5" s="2"/>
-      <c r="DL5" s="2"/>
-      <c r="DM5" s="2"/>
     </row>
-    <row r="6" spans="2:117" ht="18.5" customHeight="1">
+    <row r="6" spans="2:96" ht="18.5" customHeight="1">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -1365,7 +1277,9 @@
       <c r="BJ6" s="2"/>
       <c r="BK6" s="2"/>
       <c r="BL6" s="2"/>
-      <c r="BM6" s="2"/>
+      <c r="BM6" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="BN6" s="2"/>
       <c r="BO6" s="2"/>
       <c r="BP6" s="2"/>
@@ -1386,9 +1300,7 @@
       <c r="CE6" s="2"/>
       <c r="CF6" s="2"/>
       <c r="CG6" s="2"/>
-      <c r="CH6" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="CH6" s="2"/>
       <c r="CI6" s="2"/>
       <c r="CJ6" s="2"/>
       <c r="CK6" s="2"/>
@@ -1399,36 +1311,15 @@
       <c r="CP6" s="2"/>
       <c r="CQ6" s="2"/>
       <c r="CR6" s="2"/>
-      <c r="CS6" s="2"/>
-      <c r="CT6" s="2"/>
-      <c r="CU6" s="2"/>
-      <c r="CV6" s="2"/>
-      <c r="CW6" s="2"/>
-      <c r="CX6" s="2"/>
-      <c r="CY6" s="2"/>
-      <c r="CZ6" s="2"/>
-      <c r="DA6" s="2"/>
-      <c r="DB6" s="2"/>
-      <c r="DC6" s="2"/>
-      <c r="DD6" s="2"/>
-      <c r="DE6" s="2"/>
-      <c r="DF6" s="2"/>
-      <c r="DG6" s="2"/>
-      <c r="DH6" s="2"/>
-      <c r="DI6" s="2"/>
-      <c r="DJ6" s="2"/>
-      <c r="DK6" s="2"/>
-      <c r="DL6" s="2"/>
-      <c r="DM6" s="2"/>
     </row>
-    <row r="7" spans="2:117" ht="37.5" customHeight="1">
+    <row r="7" spans="2:96" ht="37.5" customHeight="1">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1448,7 +1339,7 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
@@ -1471,7 +1362,7 @@
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS7" s="2"/>
       <c r="AT7" s="2"/>
@@ -1493,74 +1384,51 @@
       <c r="BJ7" s="2"/>
       <c r="BK7" s="2"/>
       <c r="BL7" s="2"/>
-      <c r="BM7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="BN7" s="2"/>
-      <c r="BO7" s="2"/>
-      <c r="BP7" s="2"/>
-      <c r="BQ7" s="2"/>
-      <c r="BR7" s="2"/>
-      <c r="BS7" s="2"/>
-      <c r="BT7" s="2"/>
-      <c r="BU7" s="2"/>
-      <c r="BV7" s="2"/>
-      <c r="BW7" s="2"/>
-      <c r="BX7" s="2"/>
-      <c r="BY7" s="2"/>
-      <c r="BZ7" s="2"/>
-      <c r="CA7" s="2"/>
-      <c r="CB7" s="2"/>
-      <c r="CC7" s="2"/>
-      <c r="CD7" s="2"/>
-      <c r="CE7" s="2"/>
-      <c r="CF7" s="2"/>
-      <c r="CG7" s="2"/>
-      <c r="CH7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="CI7" s="3"/>
-      <c r="CJ7" s="3"/>
-      <c r="CK7" s="3"/>
-      <c r="CL7" s="3"/>
-      <c r="CM7" s="3"/>
-      <c r="CN7" s="3"/>
-      <c r="CO7" s="3"/>
-      <c r="CP7" s="3"/>
-      <c r="CQ7" s="3"/>
-      <c r="CR7" s="3"/>
-      <c r="CS7" s="3"/>
-      <c r="CT7" s="3"/>
-      <c r="CU7" s="3"/>
-      <c r="CV7" s="3"/>
-      <c r="CW7" s="3"/>
-      <c r="CX7" s="3"/>
-      <c r="CY7" s="3"/>
-      <c r="CZ7" s="3"/>
-      <c r="DA7" s="3"/>
-      <c r="DB7" s="3"/>
-      <c r="DC7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="DD7" s="2"/>
-      <c r="DE7" s="2"/>
-      <c r="DF7" s="2"/>
-      <c r="DG7" s="2"/>
-      <c r="DH7" s="2"/>
-      <c r="DI7" s="2"/>
-      <c r="DJ7" s="2"/>
-      <c r="DK7" s="2"/>
-      <c r="DL7" s="2"/>
-      <c r="DM7" s="2"/>
+      <c r="BM7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="BN7" s="6"/>
+      <c r="BO7" s="6"/>
+      <c r="BP7" s="6"/>
+      <c r="BQ7" s="6"/>
+      <c r="BR7" s="6"/>
+      <c r="BS7" s="6"/>
+      <c r="BT7" s="6"/>
+      <c r="BU7" s="6"/>
+      <c r="BV7" s="6"/>
+      <c r="BW7" s="6"/>
+      <c r="BX7" s="6"/>
+      <c r="BY7" s="6"/>
+      <c r="BZ7" s="6"/>
+      <c r="CA7" s="6"/>
+      <c r="CB7" s="6"/>
+      <c r="CC7" s="6"/>
+      <c r="CD7" s="6"/>
+      <c r="CE7" s="6"/>
+      <c r="CF7" s="6"/>
+      <c r="CG7" s="6"/>
+      <c r="CH7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="CI7" s="2"/>
+      <c r="CJ7" s="2"/>
+      <c r="CK7" s="2"/>
+      <c r="CL7" s="2"/>
+      <c r="CM7" s="2"/>
+      <c r="CN7" s="2"/>
+      <c r="CO7" s="2"/>
+      <c r="CP7" s="2"/>
+      <c r="CQ7" s="2"/>
+      <c r="CR7" s="2"/>
     </row>
-    <row r="8" spans="2:117" ht="18.5" customHeight="1">
+    <row r="8" spans="2:96" ht="18.5" customHeight="1">
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1580,7 +1448,7 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
@@ -1603,7 +1471,7 @@
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS8" s="2"/>
       <c r="AT8" s="2"/>
@@ -1625,74 +1493,51 @@
       <c r="BJ8" s="2"/>
       <c r="BK8" s="2"/>
       <c r="BL8" s="2"/>
-      <c r="BM8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="BN8" s="2"/>
-      <c r="BO8" s="2"/>
-      <c r="BP8" s="2"/>
-      <c r="BQ8" s="2"/>
-      <c r="BR8" s="2"/>
-      <c r="BS8" s="2"/>
-      <c r="BT8" s="2"/>
-      <c r="BU8" s="2"/>
-      <c r="BV8" s="2"/>
-      <c r="BW8" s="2"/>
-      <c r="BX8" s="2"/>
-      <c r="BY8" s="2"/>
-      <c r="BZ8" s="2"/>
-      <c r="CA8" s="2"/>
-      <c r="CB8" s="2"/>
-      <c r="CC8" s="2"/>
-      <c r="CD8" s="2"/>
-      <c r="CE8" s="2"/>
-      <c r="CF8" s="2"/>
-      <c r="CG8" s="2"/>
-      <c r="CH8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="CI8" s="3"/>
-      <c r="CJ8" s="3"/>
-      <c r="CK8" s="3"/>
-      <c r="CL8" s="3"/>
-      <c r="CM8" s="3"/>
-      <c r="CN8" s="3"/>
-      <c r="CO8" s="3"/>
-      <c r="CP8" s="3"/>
-      <c r="CQ8" s="3"/>
-      <c r="CR8" s="3"/>
-      <c r="CS8" s="3"/>
-      <c r="CT8" s="3"/>
-      <c r="CU8" s="3"/>
-      <c r="CV8" s="3"/>
-      <c r="CW8" s="3"/>
-      <c r="CX8" s="3"/>
-      <c r="CY8" s="3"/>
-      <c r="CZ8" s="3"/>
-      <c r="DA8" s="3"/>
-      <c r="DB8" s="3"/>
-      <c r="DC8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="DD8" s="2"/>
-      <c r="DE8" s="2"/>
-      <c r="DF8" s="2"/>
-      <c r="DG8" s="2"/>
-      <c r="DH8" s="2"/>
-      <c r="DI8" s="2"/>
-      <c r="DJ8" s="2"/>
-      <c r="DK8" s="2"/>
-      <c r="DL8" s="2"/>
-      <c r="DM8" s="2"/>
+      <c r="BM8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="BN8" s="6"/>
+      <c r="BO8" s="6"/>
+      <c r="BP8" s="6"/>
+      <c r="BQ8" s="6"/>
+      <c r="BR8" s="6"/>
+      <c r="BS8" s="6"/>
+      <c r="BT8" s="6"/>
+      <c r="BU8" s="6"/>
+      <c r="BV8" s="6"/>
+      <c r="BW8" s="6"/>
+      <c r="BX8" s="6"/>
+      <c r="BY8" s="6"/>
+      <c r="BZ8" s="6"/>
+      <c r="CA8" s="6"/>
+      <c r="CB8" s="6"/>
+      <c r="CC8" s="6"/>
+      <c r="CD8" s="6"/>
+      <c r="CE8" s="6"/>
+      <c r="CF8" s="6"/>
+      <c r="CG8" s="6"/>
+      <c r="CH8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="CI8" s="2"/>
+      <c r="CJ8" s="2"/>
+      <c r="CK8" s="2"/>
+      <c r="CL8" s="2"/>
+      <c r="CM8" s="2"/>
+      <c r="CN8" s="2"/>
+      <c r="CO8" s="2"/>
+      <c r="CP8" s="2"/>
+      <c r="CQ8" s="2"/>
+      <c r="CR8" s="2"/>
     </row>
-    <row r="9" spans="2:117" ht="18.5" customHeight="1">
+    <row r="9" spans="2:96" ht="18.5" customHeight="1">
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1712,7 +1557,7 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
@@ -1735,7 +1580,7 @@
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AS9" s="2"/>
       <c r="AT9" s="2"/>
@@ -1758,7 +1603,7 @@
       <c r="BK9" s="2"/>
       <c r="BL9" s="2"/>
       <c r="BM9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BN9" s="2"/>
       <c r="BO9" s="2"/>
@@ -1780,9 +1625,7 @@
       <c r="CE9" s="2"/>
       <c r="CF9" s="2"/>
       <c r="CG9" s="2"/>
-      <c r="CH9" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="CH9" s="2"/>
       <c r="CI9" s="2"/>
       <c r="CJ9" s="2"/>
       <c r="CK9" s="2"/>
@@ -1793,36 +1636,15 @@
       <c r="CP9" s="2"/>
       <c r="CQ9" s="2"/>
       <c r="CR9" s="2"/>
-      <c r="CS9" s="2"/>
-      <c r="CT9" s="2"/>
-      <c r="CU9" s="2"/>
-      <c r="CV9" s="2"/>
-      <c r="CW9" s="2"/>
-      <c r="CX9" s="2"/>
-      <c r="CY9" s="2"/>
-      <c r="CZ9" s="2"/>
-      <c r="DA9" s="2"/>
-      <c r="DB9" s="2"/>
-      <c r="DC9" s="2"/>
-      <c r="DD9" s="2"/>
-      <c r="DE9" s="2"/>
-      <c r="DF9" s="2"/>
-      <c r="DG9" s="2"/>
-      <c r="DH9" s="2"/>
-      <c r="DI9" s="2"/>
-      <c r="DJ9" s="2"/>
-      <c r="DK9" s="2"/>
-      <c r="DL9" s="2"/>
-      <c r="DM9" s="2"/>
     </row>
-    <row r="10" spans="2:117" ht="18.5" customHeight="1">
+    <row r="10" spans="2:96" ht="18.5" customHeight="1">
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1842,7 +1664,7 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
@@ -1865,7 +1687,7 @@
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
       <c r="AR10" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AS10" s="2"/>
       <c r="AT10" s="2"/>
@@ -1887,7 +1709,9 @@
       <c r="BJ10" s="2"/>
       <c r="BK10" s="2"/>
       <c r="BL10" s="2"/>
-      <c r="BM10" s="2"/>
+      <c r="BM10" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="BN10" s="2"/>
       <c r="BO10" s="2"/>
       <c r="BP10" s="2"/>
@@ -1908,9 +1732,7 @@
       <c r="CE10" s="2"/>
       <c r="CF10" s="2"/>
       <c r="CG10" s="2"/>
-      <c r="CH10" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="CH10" s="2"/>
       <c r="CI10" s="2"/>
       <c r="CJ10" s="2"/>
       <c r="CK10" s="2"/>
@@ -1921,36 +1743,15 @@
       <c r="CP10" s="2"/>
       <c r="CQ10" s="2"/>
       <c r="CR10" s="2"/>
-      <c r="CS10" s="2"/>
-      <c r="CT10" s="2"/>
-      <c r="CU10" s="2"/>
-      <c r="CV10" s="2"/>
-      <c r="CW10" s="2"/>
-      <c r="CX10" s="2"/>
-      <c r="CY10" s="2"/>
-      <c r="CZ10" s="2"/>
-      <c r="DA10" s="2"/>
-      <c r="DB10" s="2"/>
-      <c r="DC10" s="2"/>
-      <c r="DD10" s="2"/>
-      <c r="DE10" s="2"/>
-      <c r="DF10" s="2"/>
-      <c r="DG10" s="2"/>
-      <c r="DH10" s="2"/>
-      <c r="DI10" s="2"/>
-      <c r="DJ10" s="2"/>
-      <c r="DK10" s="2"/>
-      <c r="DL10" s="2"/>
-      <c r="DM10" s="2"/>
     </row>
-    <row r="11" spans="2:117" ht="18.5" customHeight="1">
+    <row r="11" spans="2:96" ht="18.5" customHeight="1">
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1970,7 +1771,7 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
@@ -1993,7 +1794,7 @@
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2"/>
       <c r="AR11" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AS11" s="2"/>
       <c r="AT11" s="2"/>
@@ -2016,7 +1817,7 @@
       <c r="BK11" s="2"/>
       <c r="BL11" s="2"/>
       <c r="BM11" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="BN11" s="2"/>
       <c r="BO11" s="2"/>
@@ -2038,9 +1839,7 @@
       <c r="CE11" s="2"/>
       <c r="CF11" s="2"/>
       <c r="CG11" s="2"/>
-      <c r="CH11" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="CH11" s="2"/>
       <c r="CI11" s="2"/>
       <c r="CJ11" s="2"/>
       <c r="CK11" s="2"/>
@@ -2051,36 +1850,15 @@
       <c r="CP11" s="2"/>
       <c r="CQ11" s="2"/>
       <c r="CR11" s="2"/>
-      <c r="CS11" s="2"/>
-      <c r="CT11" s="2"/>
-      <c r="CU11" s="2"/>
-      <c r="CV11" s="2"/>
-      <c r="CW11" s="2"/>
-      <c r="CX11" s="2"/>
-      <c r="CY11" s="2"/>
-      <c r="CZ11" s="2"/>
-      <c r="DA11" s="2"/>
-      <c r="DB11" s="2"/>
-      <c r="DC11" s="2"/>
-      <c r="DD11" s="2"/>
-      <c r="DE11" s="2"/>
-      <c r="DF11" s="2"/>
-      <c r="DG11" s="2"/>
-      <c r="DH11" s="2"/>
-      <c r="DI11" s="2"/>
-      <c r="DJ11" s="2"/>
-      <c r="DK11" s="2"/>
-      <c r="DL11" s="2"/>
-      <c r="DM11" s="2"/>
     </row>
-    <row r="12" spans="2:117" ht="18.5" customHeight="1">
+    <row r="12" spans="2:96" ht="18.5" customHeight="1">
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2100,7 +1878,7 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
@@ -2123,7 +1901,7 @@
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
       <c r="AR12" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AS12" s="2"/>
       <c r="AT12" s="2"/>
@@ -2145,7 +1923,9 @@
       <c r="BJ12" s="2"/>
       <c r="BK12" s="2"/>
       <c r="BL12" s="2"/>
-      <c r="BM12" s="2"/>
+      <c r="BM12" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="BN12" s="2"/>
       <c r="BO12" s="2"/>
       <c r="BP12" s="2"/>
@@ -2166,9 +1946,7 @@
       <c r="CE12" s="2"/>
       <c r="CF12" s="2"/>
       <c r="CG12" s="2"/>
-      <c r="CH12" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="CH12" s="2"/>
       <c r="CI12" s="2"/>
       <c r="CJ12" s="2"/>
       <c r="CK12" s="2"/>
@@ -2179,36 +1957,15 @@
       <c r="CP12" s="2"/>
       <c r="CQ12" s="2"/>
       <c r="CR12" s="2"/>
-      <c r="CS12" s="2"/>
-      <c r="CT12" s="2"/>
-      <c r="CU12" s="2"/>
-      <c r="CV12" s="2"/>
-      <c r="CW12" s="2"/>
-      <c r="CX12" s="2"/>
-      <c r="CY12" s="2"/>
-      <c r="CZ12" s="2"/>
-      <c r="DA12" s="2"/>
-      <c r="DB12" s="2"/>
-      <c r="DC12" s="2"/>
-      <c r="DD12" s="2"/>
-      <c r="DE12" s="2"/>
-      <c r="DF12" s="2"/>
-      <c r="DG12" s="2"/>
-      <c r="DH12" s="2"/>
-      <c r="DI12" s="2"/>
-      <c r="DJ12" s="2"/>
-      <c r="DK12" s="2"/>
-      <c r="DL12" s="2"/>
-      <c r="DM12" s="2"/>
     </row>
-    <row r="13" spans="2:117" ht="18.5" customHeight="1">
+    <row r="13" spans="2:96" ht="18.5" customHeight="1">
       <c r="B13" s="2">
         <v>9</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2228,7 +1985,7 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
@@ -2251,7 +2008,7 @@
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AS13" s="2"/>
       <c r="AT13" s="2"/>
@@ -2273,7 +2030,9 @@
       <c r="BJ13" s="2"/>
       <c r="BK13" s="2"/>
       <c r="BL13" s="2"/>
-      <c r="BM13" s="2"/>
+      <c r="BM13" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="BN13" s="2"/>
       <c r="BO13" s="2"/>
       <c r="BP13" s="2"/>
@@ -2294,9 +2053,7 @@
       <c r="CE13" s="2"/>
       <c r="CF13" s="2"/>
       <c r="CG13" s="2"/>
-      <c r="CH13" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="CH13" s="2"/>
       <c r="CI13" s="2"/>
       <c r="CJ13" s="2"/>
       <c r="CK13" s="2"/>
@@ -2307,36 +2064,15 @@
       <c r="CP13" s="2"/>
       <c r="CQ13" s="2"/>
       <c r="CR13" s="2"/>
-      <c r="CS13" s="2"/>
-      <c r="CT13" s="2"/>
-      <c r="CU13" s="2"/>
-      <c r="CV13" s="2"/>
-      <c r="CW13" s="2"/>
-      <c r="CX13" s="2"/>
-      <c r="CY13" s="2"/>
-      <c r="CZ13" s="2"/>
-      <c r="DA13" s="2"/>
-      <c r="DB13" s="2"/>
-      <c r="DC13" s="2"/>
-      <c r="DD13" s="2"/>
-      <c r="DE13" s="2"/>
-      <c r="DF13" s="2"/>
-      <c r="DG13" s="2"/>
-      <c r="DH13" s="2"/>
-      <c r="DI13" s="2"/>
-      <c r="DJ13" s="2"/>
-      <c r="DK13" s="2"/>
-      <c r="DL13" s="2"/>
-      <c r="DM13" s="2"/>
     </row>
-    <row r="14" spans="2:117" ht="18.5" customHeight="1">
+    <row r="14" spans="2:96" ht="18.5" customHeight="1">
       <c r="B14" s="2">
         <v>10</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2356,7 +2092,7 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
@@ -2379,7 +2115,7 @@
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
       <c r="AR14" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2"/>
@@ -2401,7 +2137,9 @@
       <c r="BJ14" s="2"/>
       <c r="BK14" s="2"/>
       <c r="BL14" s="2"/>
-      <c r="BM14" s="2"/>
+      <c r="BM14" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="BN14" s="2"/>
       <c r="BO14" s="2"/>
       <c r="BP14" s="2"/>
@@ -2422,9 +2160,7 @@
       <c r="CE14" s="2"/>
       <c r="CF14" s="2"/>
       <c r="CG14" s="2"/>
-      <c r="CH14" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="CH14" s="2"/>
       <c r="CI14" s="2"/>
       <c r="CJ14" s="2"/>
       <c r="CK14" s="2"/>
@@ -2435,36 +2171,15 @@
       <c r="CP14" s="2"/>
       <c r="CQ14" s="2"/>
       <c r="CR14" s="2"/>
-      <c r="CS14" s="2"/>
-      <c r="CT14" s="2"/>
-      <c r="CU14" s="2"/>
-      <c r="CV14" s="2"/>
-      <c r="CW14" s="2"/>
-      <c r="CX14" s="2"/>
-      <c r="CY14" s="2"/>
-      <c r="CZ14" s="2"/>
-      <c r="DA14" s="2"/>
-      <c r="DB14" s="2"/>
-      <c r="DC14" s="2"/>
-      <c r="DD14" s="2"/>
-      <c r="DE14" s="2"/>
-      <c r="DF14" s="2"/>
-      <c r="DG14" s="2"/>
-      <c r="DH14" s="2"/>
-      <c r="DI14" s="2"/>
-      <c r="DJ14" s="2"/>
-      <c r="DK14" s="2"/>
-      <c r="DL14" s="2"/>
-      <c r="DM14" s="2"/>
     </row>
-    <row r="15" spans="2:117" ht="18.5" customHeight="1">
+    <row r="15" spans="2:96" ht="18.5" customHeight="1">
       <c r="B15" s="2">
         <v>11</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2484,7 +2199,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
@@ -2507,7 +2222,7 @@
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
       <c r="AR15" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2"/>
@@ -2529,7 +2244,9 @@
       <c r="BJ15" s="2"/>
       <c r="BK15" s="2"/>
       <c r="BL15" s="2"/>
-      <c r="BM15" s="2"/>
+      <c r="BM15" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="BN15" s="2"/>
       <c r="BO15" s="2"/>
       <c r="BP15" s="2"/>
@@ -2550,9 +2267,7 @@
       <c r="CE15" s="2"/>
       <c r="CF15" s="2"/>
       <c r="CG15" s="2"/>
-      <c r="CH15" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="CH15" s="2"/>
       <c r="CI15" s="2"/>
       <c r="CJ15" s="2"/>
       <c r="CK15" s="2"/>
@@ -2563,36 +2278,15 @@
       <c r="CP15" s="2"/>
       <c r="CQ15" s="2"/>
       <c r="CR15" s="2"/>
-      <c r="CS15" s="2"/>
-      <c r="CT15" s="2"/>
-      <c r="CU15" s="2"/>
-      <c r="CV15" s="2"/>
-      <c r="CW15" s="2"/>
-      <c r="CX15" s="2"/>
-      <c r="CY15" s="2"/>
-      <c r="CZ15" s="2"/>
-      <c r="DA15" s="2"/>
-      <c r="DB15" s="2"/>
-      <c r="DC15" s="2"/>
-      <c r="DD15" s="2"/>
-      <c r="DE15" s="2"/>
-      <c r="DF15" s="2"/>
-      <c r="DG15" s="2"/>
-      <c r="DH15" s="2"/>
-      <c r="DI15" s="2"/>
-      <c r="DJ15" s="2"/>
-      <c r="DK15" s="2"/>
-      <c r="DL15" s="2"/>
-      <c r="DM15" s="2"/>
     </row>
-    <row r="16" spans="2:117" ht="18.5" customHeight="1">
+    <row r="16" spans="2:96" ht="18.5" customHeight="1">
       <c r="B16" s="2">
         <v>12</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2612,7 +2306,7 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
@@ -2635,7 +2329,7 @@
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2"/>
       <c r="AR16" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AS16" s="2"/>
       <c r="AT16" s="2"/>
@@ -2657,7 +2351,9 @@
       <c r="BJ16" s="2"/>
       <c r="BK16" s="2"/>
       <c r="BL16" s="2"/>
-      <c r="BM16" s="2"/>
+      <c r="BM16" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="BN16" s="2"/>
       <c r="BO16" s="2"/>
       <c r="BP16" s="2"/>
@@ -2678,9 +2374,7 @@
       <c r="CE16" s="2"/>
       <c r="CF16" s="2"/>
       <c r="CG16" s="2"/>
-      <c r="CH16" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="CH16" s="2"/>
       <c r="CI16" s="2"/>
       <c r="CJ16" s="2"/>
       <c r="CK16" s="2"/>
@@ -2691,36 +2385,15 @@
       <c r="CP16" s="2"/>
       <c r="CQ16" s="2"/>
       <c r="CR16" s="2"/>
-      <c r="CS16" s="2"/>
-      <c r="CT16" s="2"/>
-      <c r="CU16" s="2"/>
-      <c r="CV16" s="2"/>
-      <c r="CW16" s="2"/>
-      <c r="CX16" s="2"/>
-      <c r="CY16" s="2"/>
-      <c r="CZ16" s="2"/>
-      <c r="DA16" s="2"/>
-      <c r="DB16" s="2"/>
-      <c r="DC16" s="2"/>
-      <c r="DD16" s="2"/>
-      <c r="DE16" s="2"/>
-      <c r="DF16" s="2"/>
-      <c r="DG16" s="2"/>
-      <c r="DH16" s="2"/>
-      <c r="DI16" s="2"/>
-      <c r="DJ16" s="2"/>
-      <c r="DK16" s="2"/>
-      <c r="DL16" s="2"/>
-      <c r="DM16" s="2"/>
     </row>
-    <row r="17" spans="2:117" ht="18.5" customHeight="1">
+    <row r="17" spans="2:96" ht="18.5" customHeight="1">
       <c r="B17" s="2">
         <v>13</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2740,7 +2413,7 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
@@ -2763,7 +2436,7 @@
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AS17" s="2"/>
       <c r="AT17" s="2"/>
@@ -2786,7 +2459,7 @@
       <c r="BK17" s="2"/>
       <c r="BL17" s="2"/>
       <c r="BM17" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BN17" s="2"/>
       <c r="BO17" s="2"/>
@@ -2808,9 +2481,7 @@
       <c r="CE17" s="2"/>
       <c r="CF17" s="2"/>
       <c r="CG17" s="2"/>
-      <c r="CH17" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="CH17" s="2"/>
       <c r="CI17" s="2"/>
       <c r="CJ17" s="2"/>
       <c r="CK17" s="2"/>
@@ -2821,36 +2492,15 @@
       <c r="CP17" s="2"/>
       <c r="CQ17" s="2"/>
       <c r="CR17" s="2"/>
-      <c r="CS17" s="2"/>
-      <c r="CT17" s="2"/>
-      <c r="CU17" s="2"/>
-      <c r="CV17" s="2"/>
-      <c r="CW17" s="2"/>
-      <c r="CX17" s="2"/>
-      <c r="CY17" s="2"/>
-      <c r="CZ17" s="2"/>
-      <c r="DA17" s="2"/>
-      <c r="DB17" s="2"/>
-      <c r="DC17" s="2"/>
-      <c r="DD17" s="2"/>
-      <c r="DE17" s="2"/>
-      <c r="DF17" s="2"/>
-      <c r="DG17" s="2"/>
-      <c r="DH17" s="2"/>
-      <c r="DI17" s="2"/>
-      <c r="DJ17" s="2"/>
-      <c r="DK17" s="2"/>
-      <c r="DL17" s="2"/>
-      <c r="DM17" s="2"/>
     </row>
-    <row r="18" spans="2:117" ht="18.5" customHeight="1">
+    <row r="18" spans="2:96" ht="18.5" customHeight="1">
       <c r="B18" s="2">
         <v>14</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2870,7 +2520,7 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
@@ -2893,7 +2543,7 @@
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
       <c r="AR18" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="AS18" s="2"/>
       <c r="AT18" s="2"/>
@@ -2916,7 +2566,7 @@
       <c r="BK18" s="2"/>
       <c r="BL18" s="2"/>
       <c r="BM18" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BN18" s="2"/>
       <c r="BO18" s="2"/>
@@ -2938,9 +2588,7 @@
       <c r="CE18" s="2"/>
       <c r="CF18" s="2"/>
       <c r="CG18" s="2"/>
-      <c r="CH18" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="CH18" s="2"/>
       <c r="CI18" s="2"/>
       <c r="CJ18" s="2"/>
       <c r="CK18" s="2"/>
@@ -2951,36 +2599,15 @@
       <c r="CP18" s="2"/>
       <c r="CQ18" s="2"/>
       <c r="CR18" s="2"/>
-      <c r="CS18" s="2"/>
-      <c r="CT18" s="2"/>
-      <c r="CU18" s="2"/>
-      <c r="CV18" s="2"/>
-      <c r="CW18" s="2"/>
-      <c r="CX18" s="2"/>
-      <c r="CY18" s="2"/>
-      <c r="CZ18" s="2"/>
-      <c r="DA18" s="2"/>
-      <c r="DB18" s="2"/>
-      <c r="DC18" s="2"/>
-      <c r="DD18" s="2"/>
-      <c r="DE18" s="2"/>
-      <c r="DF18" s="2"/>
-      <c r="DG18" s="2"/>
-      <c r="DH18" s="2"/>
-      <c r="DI18" s="2"/>
-      <c r="DJ18" s="2"/>
-      <c r="DK18" s="2"/>
-      <c r="DL18" s="2"/>
-      <c r="DM18" s="2"/>
     </row>
-    <row r="19" spans="2:117" ht="18.5" customHeight="1">
+    <row r="19" spans="2:96" ht="18.5" customHeight="1">
       <c r="B19" s="2">
         <v>15</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3000,7 +2627,7 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
@@ -3023,7 +2650,7 @@
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
       <c r="AR19" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AS19" s="2"/>
       <c r="AT19" s="2"/>
@@ -3046,7 +2673,7 @@
       <c r="BK19" s="2"/>
       <c r="BL19" s="2"/>
       <c r="BM19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BN19" s="2"/>
       <c r="BO19" s="2"/>
@@ -3068,9 +2695,7 @@
       <c r="CE19" s="2"/>
       <c r="CF19" s="2"/>
       <c r="CG19" s="2"/>
-      <c r="CH19" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="CH19" s="2"/>
       <c r="CI19" s="2"/>
       <c r="CJ19" s="2"/>
       <c r="CK19" s="2"/>
@@ -3081,33 +2706,16 @@
       <c r="CP19" s="2"/>
       <c r="CQ19" s="2"/>
       <c r="CR19" s="2"/>
-      <c r="CS19" s="2"/>
-      <c r="CT19" s="2"/>
-      <c r="CU19" s="2"/>
-      <c r="CV19" s="2"/>
-      <c r="CW19" s="2"/>
-      <c r="CX19" s="2"/>
-      <c r="CY19" s="2"/>
-      <c r="CZ19" s="2"/>
-      <c r="DA19" s="2"/>
-      <c r="DB19" s="2"/>
-      <c r="DC19" s="2"/>
-      <c r="DD19" s="2"/>
-      <c r="DE19" s="2"/>
-      <c r="DF19" s="2"/>
-      <c r="DG19" s="2"/>
-      <c r="DH19" s="2"/>
-      <c r="DI19" s="2"/>
-      <c r="DJ19" s="2"/>
-      <c r="DK19" s="2"/>
-      <c r="DL19" s="2"/>
-      <c r="DM19" s="2"/>
     </row>
-    <row r="20" spans="2:117" ht="18.5" customHeight="1">
-      <c r="B20" s="2"/>
+    <row r="20" spans="2:96" ht="18.5" customHeight="1">
+      <c r="B20" s="2">
+        <v>16</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -3125,7 +2733,9 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
+      <c r="W20" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
@@ -3146,7 +2756,9 @@
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2"/>
-      <c r="AR20" s="2"/>
+      <c r="AR20" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="AS20" s="2"/>
       <c r="AT20" s="2"/>
       <c r="AU20" s="2"/>
@@ -3167,7 +2779,9 @@
       <c r="BJ20" s="2"/>
       <c r="BK20" s="2"/>
       <c r="BL20" s="2"/>
-      <c r="BM20" s="2"/>
+      <c r="BM20" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="BN20" s="2"/>
       <c r="BO20" s="2"/>
       <c r="BP20" s="2"/>
@@ -3199,29 +2813,8 @@
       <c r="CP20" s="2"/>
       <c r="CQ20" s="2"/>
       <c r="CR20" s="2"/>
-      <c r="CS20" s="2"/>
-      <c r="CT20" s="2"/>
-      <c r="CU20" s="2"/>
-      <c r="CV20" s="2"/>
-      <c r="CW20" s="2"/>
-      <c r="CX20" s="2"/>
-      <c r="CY20" s="2"/>
-      <c r="CZ20" s="2"/>
-      <c r="DA20" s="2"/>
-      <c r="DB20" s="2"/>
-      <c r="DC20" s="2"/>
-      <c r="DD20" s="2"/>
-      <c r="DE20" s="2"/>
-      <c r="DF20" s="2"/>
-      <c r="DG20" s="2"/>
-      <c r="DH20" s="2"/>
-      <c r="DI20" s="2"/>
-      <c r="DJ20" s="2"/>
-      <c r="DK20" s="2"/>
-      <c r="DL20" s="2"/>
-      <c r="DM20" s="2"/>
     </row>
-    <row r="21" spans="2:117" ht="18.5" customHeight="1">
+    <row r="21" spans="2:96" ht="18.5" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3317,29 +2910,8 @@
       <c r="CP21" s="2"/>
       <c r="CQ21" s="2"/>
       <c r="CR21" s="2"/>
-      <c r="CS21" s="2"/>
-      <c r="CT21" s="2"/>
-      <c r="CU21" s="2"/>
-      <c r="CV21" s="2"/>
-      <c r="CW21" s="2"/>
-      <c r="CX21" s="2"/>
-      <c r="CY21" s="2"/>
-      <c r="CZ21" s="2"/>
-      <c r="DA21" s="2"/>
-      <c r="DB21" s="2"/>
-      <c r="DC21" s="2"/>
-      <c r="DD21" s="2"/>
-      <c r="DE21" s="2"/>
-      <c r="DF21" s="2"/>
-      <c r="DG21" s="2"/>
-      <c r="DH21" s="2"/>
-      <c r="DI21" s="2"/>
-      <c r="DJ21" s="2"/>
-      <c r="DK21" s="2"/>
-      <c r="DL21" s="2"/>
-      <c r="DM21" s="2"/>
     </row>
-    <row r="22" spans="2:117" ht="18.5" customHeight="1">
+    <row r="22" spans="2:96" ht="18.5" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3435,29 +3007,8 @@
       <c r="CP22" s="2"/>
       <c r="CQ22" s="2"/>
       <c r="CR22" s="2"/>
-      <c r="CS22" s="2"/>
-      <c r="CT22" s="2"/>
-      <c r="CU22" s="2"/>
-      <c r="CV22" s="2"/>
-      <c r="CW22" s="2"/>
-      <c r="CX22" s="2"/>
-      <c r="CY22" s="2"/>
-      <c r="CZ22" s="2"/>
-      <c r="DA22" s="2"/>
-      <c r="DB22" s="2"/>
-      <c r="DC22" s="2"/>
-      <c r="DD22" s="2"/>
-      <c r="DE22" s="2"/>
-      <c r="DF22" s="2"/>
-      <c r="DG22" s="2"/>
-      <c r="DH22" s="2"/>
-      <c r="DI22" s="2"/>
-      <c r="DJ22" s="2"/>
-      <c r="DK22" s="2"/>
-      <c r="DL22" s="2"/>
-      <c r="DM22" s="2"/>
     </row>
-    <row r="23" spans="2:117" ht="18.5" customHeight="1">
+    <row r="23" spans="2:96" ht="18.5" customHeight="1">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3553,29 +3104,8 @@
       <c r="CP23" s="2"/>
       <c r="CQ23" s="2"/>
       <c r="CR23" s="2"/>
-      <c r="CS23" s="2"/>
-      <c r="CT23" s="2"/>
-      <c r="CU23" s="2"/>
-      <c r="CV23" s="2"/>
-      <c r="CW23" s="2"/>
-      <c r="CX23" s="2"/>
-      <c r="CY23" s="2"/>
-      <c r="CZ23" s="2"/>
-      <c r="DA23" s="2"/>
-      <c r="DB23" s="2"/>
-      <c r="DC23" s="2"/>
-      <c r="DD23" s="2"/>
-      <c r="DE23" s="2"/>
-      <c r="DF23" s="2"/>
-      <c r="DG23" s="2"/>
-      <c r="DH23" s="2"/>
-      <c r="DI23" s="2"/>
-      <c r="DJ23" s="2"/>
-      <c r="DK23" s="2"/>
-      <c r="DL23" s="2"/>
-      <c r="DM23" s="2"/>
     </row>
-    <row r="24" spans="2:117" ht="18.5" customHeight="1">
+    <row r="24" spans="2:96" ht="18.5" customHeight="1">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3671,29 +3201,8 @@
       <c r="CP24" s="2"/>
       <c r="CQ24" s="2"/>
       <c r="CR24" s="2"/>
-      <c r="CS24" s="2"/>
-      <c r="CT24" s="2"/>
-      <c r="CU24" s="2"/>
-      <c r="CV24" s="2"/>
-      <c r="CW24" s="2"/>
-      <c r="CX24" s="2"/>
-      <c r="CY24" s="2"/>
-      <c r="CZ24" s="2"/>
-      <c r="DA24" s="2"/>
-      <c r="DB24" s="2"/>
-      <c r="DC24" s="2"/>
-      <c r="DD24" s="2"/>
-      <c r="DE24" s="2"/>
-      <c r="DF24" s="2"/>
-      <c r="DG24" s="2"/>
-      <c r="DH24" s="2"/>
-      <c r="DI24" s="2"/>
-      <c r="DJ24" s="2"/>
-      <c r="DK24" s="2"/>
-      <c r="DL24" s="2"/>
-      <c r="DM24" s="2"/>
     </row>
-    <row r="25" spans="2:117" ht="18.5" customHeight="1">
+    <row r="25" spans="2:96" ht="18.5" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3789,29 +3298,8 @@
       <c r="CP25" s="2"/>
       <c r="CQ25" s="2"/>
       <c r="CR25" s="2"/>
-      <c r="CS25" s="2"/>
-      <c r="CT25" s="2"/>
-      <c r="CU25" s="2"/>
-      <c r="CV25" s="2"/>
-      <c r="CW25" s="2"/>
-      <c r="CX25" s="2"/>
-      <c r="CY25" s="2"/>
-      <c r="CZ25" s="2"/>
-      <c r="DA25" s="2"/>
-      <c r="DB25" s="2"/>
-      <c r="DC25" s="2"/>
-      <c r="DD25" s="2"/>
-      <c r="DE25" s="2"/>
-      <c r="DF25" s="2"/>
-      <c r="DG25" s="2"/>
-      <c r="DH25" s="2"/>
-      <c r="DI25" s="2"/>
-      <c r="DJ25" s="2"/>
-      <c r="DK25" s="2"/>
-      <c r="DL25" s="2"/>
-      <c r="DM25" s="2"/>
     </row>
-    <row r="26" spans="2:117" ht="18.5" customHeight="1">
+    <row r="26" spans="2:96" ht="18.5" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3907,29 +3395,8 @@
       <c r="CP26" s="2"/>
       <c r="CQ26" s="2"/>
       <c r="CR26" s="2"/>
-      <c r="CS26" s="2"/>
-      <c r="CT26" s="2"/>
-      <c r="CU26" s="2"/>
-      <c r="CV26" s="2"/>
-      <c r="CW26" s="2"/>
-      <c r="CX26" s="2"/>
-      <c r="CY26" s="2"/>
-      <c r="CZ26" s="2"/>
-      <c r="DA26" s="2"/>
-      <c r="DB26" s="2"/>
-      <c r="DC26" s="2"/>
-      <c r="DD26" s="2"/>
-      <c r="DE26" s="2"/>
-      <c r="DF26" s="2"/>
-      <c r="DG26" s="2"/>
-      <c r="DH26" s="2"/>
-      <c r="DI26" s="2"/>
-      <c r="DJ26" s="2"/>
-      <c r="DK26" s="2"/>
-      <c r="DL26" s="2"/>
-      <c r="DM26" s="2"/>
     </row>
-    <row r="27" spans="2:117" ht="18.5" customHeight="1">
+    <row r="27" spans="2:96" ht="18.5" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4025,29 +3492,8 @@
       <c r="CP27" s="2"/>
       <c r="CQ27" s="2"/>
       <c r="CR27" s="2"/>
-      <c r="CS27" s="2"/>
-      <c r="CT27" s="2"/>
-      <c r="CU27" s="2"/>
-      <c r="CV27" s="2"/>
-      <c r="CW27" s="2"/>
-      <c r="CX27" s="2"/>
-      <c r="CY27" s="2"/>
-      <c r="CZ27" s="2"/>
-      <c r="DA27" s="2"/>
-      <c r="DB27" s="2"/>
-      <c r="DC27" s="2"/>
-      <c r="DD27" s="2"/>
-      <c r="DE27" s="2"/>
-      <c r="DF27" s="2"/>
-      <c r="DG27" s="2"/>
-      <c r="DH27" s="2"/>
-      <c r="DI27" s="2"/>
-      <c r="DJ27" s="2"/>
-      <c r="DK27" s="2"/>
-      <c r="DL27" s="2"/>
-      <c r="DM27" s="2"/>
     </row>
-    <row r="28" spans="2:117" ht="18.5" customHeight="1">
+    <row r="28" spans="2:96" ht="18.5" customHeight="1">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4143,29 +3589,8 @@
       <c r="CP28" s="2"/>
       <c r="CQ28" s="2"/>
       <c r="CR28" s="2"/>
-      <c r="CS28" s="2"/>
-      <c r="CT28" s="2"/>
-      <c r="CU28" s="2"/>
-      <c r="CV28" s="2"/>
-      <c r="CW28" s="2"/>
-      <c r="CX28" s="2"/>
-      <c r="CY28" s="2"/>
-      <c r="CZ28" s="2"/>
-      <c r="DA28" s="2"/>
-      <c r="DB28" s="2"/>
-      <c r="DC28" s="2"/>
-      <c r="DD28" s="2"/>
-      <c r="DE28" s="2"/>
-      <c r="DF28" s="2"/>
-      <c r="DG28" s="2"/>
-      <c r="DH28" s="2"/>
-      <c r="DI28" s="2"/>
-      <c r="DJ28" s="2"/>
-      <c r="DK28" s="2"/>
-      <c r="DL28" s="2"/>
-      <c r="DM28" s="2"/>
     </row>
-    <row r="29" spans="2:117" ht="18.5" customHeight="1">
+    <row r="29" spans="2:96" ht="18.5" customHeight="1">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4261,29 +3686,8 @@
       <c r="CP29" s="2"/>
       <c r="CQ29" s="2"/>
       <c r="CR29" s="2"/>
-      <c r="CS29" s="2"/>
-      <c r="CT29" s="2"/>
-      <c r="CU29" s="2"/>
-      <c r="CV29" s="2"/>
-      <c r="CW29" s="2"/>
-      <c r="CX29" s="2"/>
-      <c r="CY29" s="2"/>
-      <c r="CZ29" s="2"/>
-      <c r="DA29" s="2"/>
-      <c r="DB29" s="2"/>
-      <c r="DC29" s="2"/>
-      <c r="DD29" s="2"/>
-      <c r="DE29" s="2"/>
-      <c r="DF29" s="2"/>
-      <c r="DG29" s="2"/>
-      <c r="DH29" s="2"/>
-      <c r="DI29" s="2"/>
-      <c r="DJ29" s="2"/>
-      <c r="DK29" s="2"/>
-      <c r="DL29" s="2"/>
-      <c r="DM29" s="2"/>
     </row>
-    <row r="30" spans="2:117" ht="18.5" customHeight="1">
+    <row r="30" spans="2:96" ht="18.5" customHeight="1">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4379,29 +3783,8 @@
       <c r="CP30" s="2"/>
       <c r="CQ30" s="2"/>
       <c r="CR30" s="2"/>
-      <c r="CS30" s="2"/>
-      <c r="CT30" s="2"/>
-      <c r="CU30" s="2"/>
-      <c r="CV30" s="2"/>
-      <c r="CW30" s="2"/>
-      <c r="CX30" s="2"/>
-      <c r="CY30" s="2"/>
-      <c r="CZ30" s="2"/>
-      <c r="DA30" s="2"/>
-      <c r="DB30" s="2"/>
-      <c r="DC30" s="2"/>
-      <c r="DD30" s="2"/>
-      <c r="DE30" s="2"/>
-      <c r="DF30" s="2"/>
-      <c r="DG30" s="2"/>
-      <c r="DH30" s="2"/>
-      <c r="DI30" s="2"/>
-      <c r="DJ30" s="2"/>
-      <c r="DK30" s="2"/>
-      <c r="DL30" s="2"/>
-      <c r="DM30" s="2"/>
     </row>
-    <row r="31" spans="2:117" ht="18.5" customHeight="1">
+    <row r="31" spans="2:96" ht="18.5" customHeight="1">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4497,29 +3880,8 @@
       <c r="CP31" s="2"/>
       <c r="CQ31" s="2"/>
       <c r="CR31" s="2"/>
-      <c r="CS31" s="2"/>
-      <c r="CT31" s="2"/>
-      <c r="CU31" s="2"/>
-      <c r="CV31" s="2"/>
-      <c r="CW31" s="2"/>
-      <c r="CX31" s="2"/>
-      <c r="CY31" s="2"/>
-      <c r="CZ31" s="2"/>
-      <c r="DA31" s="2"/>
-      <c r="DB31" s="2"/>
-      <c r="DC31" s="2"/>
-      <c r="DD31" s="2"/>
-      <c r="DE31" s="2"/>
-      <c r="DF31" s="2"/>
-      <c r="DG31" s="2"/>
-      <c r="DH31" s="2"/>
-      <c r="DI31" s="2"/>
-      <c r="DJ31" s="2"/>
-      <c r="DK31" s="2"/>
-      <c r="DL31" s="2"/>
-      <c r="DM31" s="2"/>
     </row>
-    <row r="32" spans="2:117" ht="18.5" customHeight="1">
+    <row r="32" spans="2:96" ht="18.5" customHeight="1">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4615,29 +3977,8 @@
       <c r="CP32" s="2"/>
       <c r="CQ32" s="2"/>
       <c r="CR32" s="2"/>
-      <c r="CS32" s="2"/>
-      <c r="CT32" s="2"/>
-      <c r="CU32" s="2"/>
-      <c r="CV32" s="2"/>
-      <c r="CW32" s="2"/>
-      <c r="CX32" s="2"/>
-      <c r="CY32" s="2"/>
-      <c r="CZ32" s="2"/>
-      <c r="DA32" s="2"/>
-      <c r="DB32" s="2"/>
-      <c r="DC32" s="2"/>
-      <c r="DD32" s="2"/>
-      <c r="DE32" s="2"/>
-      <c r="DF32" s="2"/>
-      <c r="DG32" s="2"/>
-      <c r="DH32" s="2"/>
-      <c r="DI32" s="2"/>
-      <c r="DJ32" s="2"/>
-      <c r="DK32" s="2"/>
-      <c r="DL32" s="2"/>
-      <c r="DM32" s="2"/>
     </row>
-    <row r="33" spans="2:117" ht="18.5" customHeight="1">
+    <row r="33" spans="2:96" ht="18.5" customHeight="1">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -4733,29 +4074,8 @@
       <c r="CP33" s="2"/>
       <c r="CQ33" s="2"/>
       <c r="CR33" s="2"/>
-      <c r="CS33" s="2"/>
-      <c r="CT33" s="2"/>
-      <c r="CU33" s="2"/>
-      <c r="CV33" s="2"/>
-      <c r="CW33" s="2"/>
-      <c r="CX33" s="2"/>
-      <c r="CY33" s="2"/>
-      <c r="CZ33" s="2"/>
-      <c r="DA33" s="2"/>
-      <c r="DB33" s="2"/>
-      <c r="DC33" s="2"/>
-      <c r="DD33" s="2"/>
-      <c r="DE33" s="2"/>
-      <c r="DF33" s="2"/>
-      <c r="DG33" s="2"/>
-      <c r="DH33" s="2"/>
-      <c r="DI33" s="2"/>
-      <c r="DJ33" s="2"/>
-      <c r="DK33" s="2"/>
-      <c r="DL33" s="2"/>
-      <c r="DM33" s="2"/>
     </row>
-    <row r="34" spans="2:117" ht="18.5" customHeight="1">
+    <row r="34" spans="2:96" ht="18.5" customHeight="1">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -4851,29 +4171,8 @@
       <c r="CP34" s="2"/>
       <c r="CQ34" s="2"/>
       <c r="CR34" s="2"/>
-      <c r="CS34" s="2"/>
-      <c r="CT34" s="2"/>
-      <c r="CU34" s="2"/>
-      <c r="CV34" s="2"/>
-      <c r="CW34" s="2"/>
-      <c r="CX34" s="2"/>
-      <c r="CY34" s="2"/>
-      <c r="CZ34" s="2"/>
-      <c r="DA34" s="2"/>
-      <c r="DB34" s="2"/>
-      <c r="DC34" s="2"/>
-      <c r="DD34" s="2"/>
-      <c r="DE34" s="2"/>
-      <c r="DF34" s="2"/>
-      <c r="DG34" s="2"/>
-      <c r="DH34" s="2"/>
-      <c r="DI34" s="2"/>
-      <c r="DJ34" s="2"/>
-      <c r="DK34" s="2"/>
-      <c r="DL34" s="2"/>
-      <c r="DM34" s="2"/>
     </row>
-    <row r="35" spans="2:117" ht="18.5" customHeight="1">
+    <row r="35" spans="2:96" ht="18.5" customHeight="1">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -4969,29 +4268,8 @@
       <c r="CP35" s="2"/>
       <c r="CQ35" s="2"/>
       <c r="CR35" s="2"/>
-      <c r="CS35" s="2"/>
-      <c r="CT35" s="2"/>
-      <c r="CU35" s="2"/>
-      <c r="CV35" s="2"/>
-      <c r="CW35" s="2"/>
-      <c r="CX35" s="2"/>
-      <c r="CY35" s="2"/>
-      <c r="CZ35" s="2"/>
-      <c r="DA35" s="2"/>
-      <c r="DB35" s="2"/>
-      <c r="DC35" s="2"/>
-      <c r="DD35" s="2"/>
-      <c r="DE35" s="2"/>
-      <c r="DF35" s="2"/>
-      <c r="DG35" s="2"/>
-      <c r="DH35" s="2"/>
-      <c r="DI35" s="2"/>
-      <c r="DJ35" s="2"/>
-      <c r="DK35" s="2"/>
-      <c r="DL35" s="2"/>
-      <c r="DM35" s="2"/>
     </row>
-    <row r="36" spans="2:117" ht="18.5" customHeight="1">
+    <row r="36" spans="2:96" ht="18.5" customHeight="1">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -5087,29 +4365,8 @@
       <c r="CP36" s="2"/>
       <c r="CQ36" s="2"/>
       <c r="CR36" s="2"/>
-      <c r="CS36" s="2"/>
-      <c r="CT36" s="2"/>
-      <c r="CU36" s="2"/>
-      <c r="CV36" s="2"/>
-      <c r="CW36" s="2"/>
-      <c r="CX36" s="2"/>
-      <c r="CY36" s="2"/>
-      <c r="CZ36" s="2"/>
-      <c r="DA36" s="2"/>
-      <c r="DB36" s="2"/>
-      <c r="DC36" s="2"/>
-      <c r="DD36" s="2"/>
-      <c r="DE36" s="2"/>
-      <c r="DF36" s="2"/>
-      <c r="DG36" s="2"/>
-      <c r="DH36" s="2"/>
-      <c r="DI36" s="2"/>
-      <c r="DJ36" s="2"/>
-      <c r="DK36" s="2"/>
-      <c r="DL36" s="2"/>
-      <c r="DM36" s="2"/>
     </row>
-    <row r="37" spans="2:117" ht="18.5" customHeight="1">
+    <row r="37" spans="2:96" ht="18.5" customHeight="1">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -5205,29 +4462,8 @@
       <c r="CP37" s="2"/>
       <c r="CQ37" s="2"/>
       <c r="CR37" s="2"/>
-      <c r="CS37" s="2"/>
-      <c r="CT37" s="2"/>
-      <c r="CU37" s="2"/>
-      <c r="CV37" s="2"/>
-      <c r="CW37" s="2"/>
-      <c r="CX37" s="2"/>
-      <c r="CY37" s="2"/>
-      <c r="CZ37" s="2"/>
-      <c r="DA37" s="2"/>
-      <c r="DB37" s="2"/>
-      <c r="DC37" s="2"/>
-      <c r="DD37" s="2"/>
-      <c r="DE37" s="2"/>
-      <c r="DF37" s="2"/>
-      <c r="DG37" s="2"/>
-      <c r="DH37" s="2"/>
-      <c r="DI37" s="2"/>
-      <c r="DJ37" s="2"/>
-      <c r="DK37" s="2"/>
-      <c r="DL37" s="2"/>
-      <c r="DM37" s="2"/>
     </row>
-    <row r="38" spans="2:117" ht="18.5" customHeight="1">
+    <row r="38" spans="2:96" ht="18.5" customHeight="1">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -5323,29 +4559,8 @@
       <c r="CP38" s="2"/>
       <c r="CQ38" s="2"/>
       <c r="CR38" s="2"/>
-      <c r="CS38" s="2"/>
-      <c r="CT38" s="2"/>
-      <c r="CU38" s="2"/>
-      <c r="CV38" s="2"/>
-      <c r="CW38" s="2"/>
-      <c r="CX38" s="2"/>
-      <c r="CY38" s="2"/>
-      <c r="CZ38" s="2"/>
-      <c r="DA38" s="2"/>
-      <c r="DB38" s="2"/>
-      <c r="DC38" s="2"/>
-      <c r="DD38" s="2"/>
-      <c r="DE38" s="2"/>
-      <c r="DF38" s="2"/>
-      <c r="DG38" s="2"/>
-      <c r="DH38" s="2"/>
-      <c r="DI38" s="2"/>
-      <c r="DJ38" s="2"/>
-      <c r="DK38" s="2"/>
-      <c r="DL38" s="2"/>
-      <c r="DM38" s="2"/>
     </row>
-    <row r="39" spans="2:117" ht="18.5" customHeight="1">
+    <row r="39" spans="2:96" ht="18.5" customHeight="1">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -5441,29 +4656,8 @@
       <c r="CP39" s="2"/>
       <c r="CQ39" s="2"/>
       <c r="CR39" s="2"/>
-      <c r="CS39" s="2"/>
-      <c r="CT39" s="2"/>
-      <c r="CU39" s="2"/>
-      <c r="CV39" s="2"/>
-      <c r="CW39" s="2"/>
-      <c r="CX39" s="2"/>
-      <c r="CY39" s="2"/>
-      <c r="CZ39" s="2"/>
-      <c r="DA39" s="2"/>
-      <c r="DB39" s="2"/>
-      <c r="DC39" s="2"/>
-      <c r="DD39" s="2"/>
-      <c r="DE39" s="2"/>
-      <c r="DF39" s="2"/>
-      <c r="DG39" s="2"/>
-      <c r="DH39" s="2"/>
-      <c r="DI39" s="2"/>
-      <c r="DJ39" s="2"/>
-      <c r="DK39" s="2"/>
-      <c r="DL39" s="2"/>
-      <c r="DM39" s="2"/>
     </row>
-    <row r="40" spans="2:117" ht="18.5" customHeight="1">
+    <row r="40" spans="2:96" ht="18.5" customHeight="1">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -5559,29 +4753,8 @@
       <c r="CP40" s="2"/>
       <c r="CQ40" s="2"/>
       <c r="CR40" s="2"/>
-      <c r="CS40" s="2"/>
-      <c r="CT40" s="2"/>
-      <c r="CU40" s="2"/>
-      <c r="CV40" s="2"/>
-      <c r="CW40" s="2"/>
-      <c r="CX40" s="2"/>
-      <c r="CY40" s="2"/>
-      <c r="CZ40" s="2"/>
-      <c r="DA40" s="2"/>
-      <c r="DB40" s="2"/>
-      <c r="DC40" s="2"/>
-      <c r="DD40" s="2"/>
-      <c r="DE40" s="2"/>
-      <c r="DF40" s="2"/>
-      <c r="DG40" s="2"/>
-      <c r="DH40" s="2"/>
-      <c r="DI40" s="2"/>
-      <c r="DJ40" s="2"/>
-      <c r="DK40" s="2"/>
-      <c r="DL40" s="2"/>
-      <c r="DM40" s="2"/>
     </row>
-    <row r="41" spans="2:117" ht="18.5" customHeight="1">
+    <row r="41" spans="2:96" ht="18.5" customHeight="1">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -5677,29 +4850,8 @@
       <c r="CP41" s="2"/>
       <c r="CQ41" s="2"/>
       <c r="CR41" s="2"/>
-      <c r="CS41" s="2"/>
-      <c r="CT41" s="2"/>
-      <c r="CU41" s="2"/>
-      <c r="CV41" s="2"/>
-      <c r="CW41" s="2"/>
-      <c r="CX41" s="2"/>
-      <c r="CY41" s="2"/>
-      <c r="CZ41" s="2"/>
-      <c r="DA41" s="2"/>
-      <c r="DB41" s="2"/>
-      <c r="DC41" s="2"/>
-      <c r="DD41" s="2"/>
-      <c r="DE41" s="2"/>
-      <c r="DF41" s="2"/>
-      <c r="DG41" s="2"/>
-      <c r="DH41" s="2"/>
-      <c r="DI41" s="2"/>
-      <c r="DJ41" s="2"/>
-      <c r="DK41" s="2"/>
-      <c r="DL41" s="2"/>
-      <c r="DM41" s="2"/>
     </row>
-    <row r="42" spans="2:117" ht="18.5" customHeight="1">
+    <row r="42" spans="2:96" ht="18.5" customHeight="1">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -5795,29 +4947,8 @@
       <c r="CP42" s="2"/>
       <c r="CQ42" s="2"/>
       <c r="CR42" s="2"/>
-      <c r="CS42" s="2"/>
-      <c r="CT42" s="2"/>
-      <c r="CU42" s="2"/>
-      <c r="CV42" s="2"/>
-      <c r="CW42" s="2"/>
-      <c r="CX42" s="2"/>
-      <c r="CY42" s="2"/>
-      <c r="CZ42" s="2"/>
-      <c r="DA42" s="2"/>
-      <c r="DB42" s="2"/>
-      <c r="DC42" s="2"/>
-      <c r="DD42" s="2"/>
-      <c r="DE42" s="2"/>
-      <c r="DF42" s="2"/>
-      <c r="DG42" s="2"/>
-      <c r="DH42" s="2"/>
-      <c r="DI42" s="2"/>
-      <c r="DJ42" s="2"/>
-      <c r="DK42" s="2"/>
-      <c r="DL42" s="2"/>
-      <c r="DM42" s="2"/>
     </row>
-    <row r="43" spans="2:117" ht="18.5" customHeight="1">
+    <row r="43" spans="2:96" ht="18.5" customHeight="1">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5913,311 +5044,250 @@
       <c r="CP43" s="2"/>
       <c r="CQ43" s="2"/>
       <c r="CR43" s="2"/>
-      <c r="CS43" s="2"/>
-      <c r="CT43" s="2"/>
-      <c r="CU43" s="2"/>
-      <c r="CV43" s="2"/>
-      <c r="CW43" s="2"/>
-      <c r="CX43" s="2"/>
-      <c r="CY43" s="2"/>
-      <c r="CZ43" s="2"/>
-      <c r="DA43" s="2"/>
-      <c r="DB43" s="2"/>
-      <c r="DC43" s="2"/>
-      <c r="DD43" s="2"/>
-      <c r="DE43" s="2"/>
-      <c r="DF43" s="2"/>
-      <c r="DG43" s="2"/>
-      <c r="DH43" s="2"/>
-      <c r="DI43" s="2"/>
-      <c r="DJ43" s="2"/>
-      <c r="DK43" s="2"/>
-      <c r="DL43" s="2"/>
-      <c r="DM43" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="281">
-    <mergeCell ref="DC5:DM5"/>
-    <mergeCell ref="B2:DL2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:V4"/>
-    <mergeCell ref="W4:AQ4"/>
-    <mergeCell ref="AR4:BL4"/>
-    <mergeCell ref="CH4:DB4"/>
-    <mergeCell ref="DC4:DM4"/>
-    <mergeCell ref="BM4:CG4"/>
-    <mergeCell ref="BM5:CG5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:V5"/>
-    <mergeCell ref="W5:AQ5"/>
-    <mergeCell ref="AR5:BL5"/>
-    <mergeCell ref="CH5:DB5"/>
-    <mergeCell ref="DC7:DM7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:V6"/>
-    <mergeCell ref="W6:AQ6"/>
-    <mergeCell ref="AR6:BL6"/>
-    <mergeCell ref="CH6:DB6"/>
-    <mergeCell ref="DC6:DM6"/>
-    <mergeCell ref="BM6:CG6"/>
-    <mergeCell ref="BM7:CG7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:V7"/>
-    <mergeCell ref="W7:AQ7"/>
-    <mergeCell ref="AR7:BL7"/>
-    <mergeCell ref="CH7:DB7"/>
-    <mergeCell ref="DC9:DM9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:V8"/>
-    <mergeCell ref="W8:AQ8"/>
-    <mergeCell ref="AR8:BL8"/>
-    <mergeCell ref="CH8:DB8"/>
-    <mergeCell ref="DC8:DM8"/>
-    <mergeCell ref="BM8:CG8"/>
-    <mergeCell ref="BM9:CG9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:V9"/>
-    <mergeCell ref="W9:AQ9"/>
-    <mergeCell ref="AR9:BL9"/>
-    <mergeCell ref="CH9:DB9"/>
-    <mergeCell ref="DC10:DM10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="BM10:CG10"/>
-    <mergeCell ref="E10:V10"/>
-    <mergeCell ref="W10:AQ10"/>
-    <mergeCell ref="AR10:BL10"/>
-    <mergeCell ref="CH10:DB10"/>
-    <mergeCell ref="DC12:DM12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:V11"/>
-    <mergeCell ref="W11:AQ11"/>
-    <mergeCell ref="AR11:BL11"/>
-    <mergeCell ref="CH11:DB11"/>
-    <mergeCell ref="DC11:DM11"/>
-    <mergeCell ref="BM11:CG11"/>
-    <mergeCell ref="BM12:CG12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:V12"/>
-    <mergeCell ref="W12:AQ12"/>
-    <mergeCell ref="AR12:BL12"/>
-    <mergeCell ref="CH12:DB12"/>
-    <mergeCell ref="DC14:DM14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:V13"/>
-    <mergeCell ref="W13:AQ13"/>
-    <mergeCell ref="AR13:BL13"/>
-    <mergeCell ref="CH13:DB13"/>
-    <mergeCell ref="DC13:DM13"/>
-    <mergeCell ref="BM13:CG13"/>
-    <mergeCell ref="BM14:CG14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:V14"/>
-    <mergeCell ref="W14:AQ14"/>
-    <mergeCell ref="AR14:BL14"/>
-    <mergeCell ref="CH14:DB14"/>
-    <mergeCell ref="DC16:DM16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:V15"/>
-    <mergeCell ref="W15:AQ15"/>
-    <mergeCell ref="AR15:BL15"/>
-    <mergeCell ref="CH15:DB15"/>
-    <mergeCell ref="DC15:DM15"/>
-    <mergeCell ref="BM15:CG15"/>
-    <mergeCell ref="BM16:CG16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:V16"/>
-    <mergeCell ref="W16:AQ16"/>
-    <mergeCell ref="AR16:BL16"/>
-    <mergeCell ref="CH16:DB16"/>
-    <mergeCell ref="DC18:DM18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:V17"/>
-    <mergeCell ref="W17:AQ17"/>
-    <mergeCell ref="AR17:BL17"/>
-    <mergeCell ref="CH17:DB17"/>
-    <mergeCell ref="DC17:DM17"/>
-    <mergeCell ref="BM17:CG17"/>
-    <mergeCell ref="BM18:CG18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:V18"/>
-    <mergeCell ref="W18:AQ18"/>
-    <mergeCell ref="AR18:BL18"/>
-    <mergeCell ref="CH18:DB18"/>
+  <mergeCells count="241">
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:V43"/>
+    <mergeCell ref="W43:AQ43"/>
+    <mergeCell ref="AR43:BL43"/>
+    <mergeCell ref="BM43:CG43"/>
+    <mergeCell ref="CH43:CR43"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:V41"/>
+    <mergeCell ref="W41:AQ41"/>
+    <mergeCell ref="AR41:BL41"/>
+    <mergeCell ref="BM41:CG41"/>
+    <mergeCell ref="CH41:CR41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:V42"/>
+    <mergeCell ref="W42:AQ42"/>
+    <mergeCell ref="AR42:BL42"/>
+    <mergeCell ref="BM42:CG42"/>
+    <mergeCell ref="CH42:CR42"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:V39"/>
+    <mergeCell ref="W39:AQ39"/>
+    <mergeCell ref="AR39:BL39"/>
+    <mergeCell ref="BM39:CG39"/>
+    <mergeCell ref="CH39:CR39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:V40"/>
+    <mergeCell ref="W40:AQ40"/>
+    <mergeCell ref="AR40:BL40"/>
+    <mergeCell ref="BM40:CG40"/>
+    <mergeCell ref="CH40:CR40"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:V37"/>
+    <mergeCell ref="W37:AQ37"/>
+    <mergeCell ref="AR37:BL37"/>
+    <mergeCell ref="BM37:CG37"/>
+    <mergeCell ref="CH37:CR37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:V38"/>
+    <mergeCell ref="W38:AQ38"/>
+    <mergeCell ref="AR38:BL38"/>
+    <mergeCell ref="BM38:CG38"/>
+    <mergeCell ref="CH38:CR38"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:V35"/>
+    <mergeCell ref="W35:AQ35"/>
+    <mergeCell ref="AR35:BL35"/>
+    <mergeCell ref="BM35:CG35"/>
+    <mergeCell ref="CH35:CR35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:V36"/>
+    <mergeCell ref="W36:AQ36"/>
+    <mergeCell ref="AR36:BL36"/>
+    <mergeCell ref="BM36:CG36"/>
+    <mergeCell ref="CH36:CR36"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:V33"/>
+    <mergeCell ref="W33:AQ33"/>
+    <mergeCell ref="AR33:BL33"/>
+    <mergeCell ref="BM33:CG33"/>
+    <mergeCell ref="CH33:CR33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:V34"/>
+    <mergeCell ref="W34:AQ34"/>
+    <mergeCell ref="AR34:BL34"/>
+    <mergeCell ref="BM34:CG34"/>
+    <mergeCell ref="CH34:CR34"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:V31"/>
+    <mergeCell ref="W31:AQ31"/>
+    <mergeCell ref="AR31:BL31"/>
+    <mergeCell ref="BM31:CG31"/>
+    <mergeCell ref="CH31:CR31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:V32"/>
+    <mergeCell ref="W32:AQ32"/>
+    <mergeCell ref="AR32:BL32"/>
+    <mergeCell ref="BM32:CG32"/>
+    <mergeCell ref="CH32:CR32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:V29"/>
+    <mergeCell ref="W29:AQ29"/>
+    <mergeCell ref="AR29:BL29"/>
+    <mergeCell ref="BM29:CG29"/>
+    <mergeCell ref="CH29:CR29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:V30"/>
+    <mergeCell ref="W30:AQ30"/>
+    <mergeCell ref="AR30:BL30"/>
+    <mergeCell ref="BM30:CG30"/>
+    <mergeCell ref="CH30:CR30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:V27"/>
+    <mergeCell ref="W27:AQ27"/>
+    <mergeCell ref="AR27:BL27"/>
+    <mergeCell ref="BM27:CG27"/>
+    <mergeCell ref="CH27:CR27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:V28"/>
+    <mergeCell ref="W28:AQ28"/>
+    <mergeCell ref="AR28:BL28"/>
+    <mergeCell ref="BM28:CG28"/>
+    <mergeCell ref="CH28:CR28"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:V25"/>
+    <mergeCell ref="W25:AQ25"/>
+    <mergeCell ref="AR25:BL25"/>
+    <mergeCell ref="BM25:CG25"/>
+    <mergeCell ref="CH25:CR25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:V26"/>
+    <mergeCell ref="W26:AQ26"/>
+    <mergeCell ref="AR26:BL26"/>
+    <mergeCell ref="BM26:CG26"/>
+    <mergeCell ref="CH26:CR26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:V23"/>
+    <mergeCell ref="W23:AQ23"/>
+    <mergeCell ref="AR23:BL23"/>
+    <mergeCell ref="BM23:CG23"/>
+    <mergeCell ref="CH23:CR23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:V24"/>
+    <mergeCell ref="W24:AQ24"/>
+    <mergeCell ref="AR24:BL24"/>
+    <mergeCell ref="BM24:CG24"/>
+    <mergeCell ref="CH24:CR24"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:V21"/>
+    <mergeCell ref="W21:AQ21"/>
+    <mergeCell ref="AR21:BL21"/>
+    <mergeCell ref="BM21:CG21"/>
+    <mergeCell ref="CH21:CR21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:V22"/>
+    <mergeCell ref="W22:AQ22"/>
+    <mergeCell ref="AR22:BL22"/>
+    <mergeCell ref="BM22:CG22"/>
+    <mergeCell ref="CH22:CR22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:V19"/>
     <mergeCell ref="W19:AQ19"/>
     <mergeCell ref="AR19:BL19"/>
     <mergeCell ref="BM19:CG19"/>
-    <mergeCell ref="CH19:DB19"/>
-    <mergeCell ref="DC19:DM19"/>
+    <mergeCell ref="CH19:CR19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:V20"/>
     <mergeCell ref="W20:AQ20"/>
     <mergeCell ref="AR20:BL20"/>
     <mergeCell ref="BM20:CG20"/>
-    <mergeCell ref="CH20:DB20"/>
-    <mergeCell ref="DC20:DM20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:V21"/>
-    <mergeCell ref="W21:AQ21"/>
-    <mergeCell ref="AR21:BL21"/>
-    <mergeCell ref="BM21:CG21"/>
-    <mergeCell ref="CH21:DB21"/>
-    <mergeCell ref="DC21:DM21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:V22"/>
-    <mergeCell ref="W22:AQ22"/>
-    <mergeCell ref="AR22:BL22"/>
-    <mergeCell ref="BM22:CG22"/>
-    <mergeCell ref="CH22:DB22"/>
-    <mergeCell ref="DC22:DM22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:V23"/>
-    <mergeCell ref="W23:AQ23"/>
-    <mergeCell ref="AR23:BL23"/>
-    <mergeCell ref="BM23:CG23"/>
-    <mergeCell ref="CH23:DB23"/>
-    <mergeCell ref="DC23:DM23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:V24"/>
-    <mergeCell ref="W24:AQ24"/>
-    <mergeCell ref="AR24:BL24"/>
-    <mergeCell ref="BM24:CG24"/>
-    <mergeCell ref="CH24:DB24"/>
-    <mergeCell ref="DC24:DM24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:V25"/>
-    <mergeCell ref="W25:AQ25"/>
-    <mergeCell ref="AR25:BL25"/>
-    <mergeCell ref="BM25:CG25"/>
-    <mergeCell ref="CH25:DB25"/>
-    <mergeCell ref="DC25:DM25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:V26"/>
-    <mergeCell ref="W26:AQ26"/>
-    <mergeCell ref="AR26:BL26"/>
-    <mergeCell ref="BM26:CG26"/>
-    <mergeCell ref="CH26:DB26"/>
-    <mergeCell ref="DC26:DM26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:V27"/>
-    <mergeCell ref="W27:AQ27"/>
-    <mergeCell ref="AR27:BL27"/>
-    <mergeCell ref="BM27:CG27"/>
-    <mergeCell ref="CH27:DB27"/>
-    <mergeCell ref="DC27:DM27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:V28"/>
-    <mergeCell ref="W28:AQ28"/>
-    <mergeCell ref="AR28:BL28"/>
-    <mergeCell ref="BM28:CG28"/>
-    <mergeCell ref="CH28:DB28"/>
-    <mergeCell ref="DC28:DM28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:V29"/>
-    <mergeCell ref="W29:AQ29"/>
-    <mergeCell ref="AR29:BL29"/>
-    <mergeCell ref="BM29:CG29"/>
-    <mergeCell ref="CH29:DB29"/>
-    <mergeCell ref="DC29:DM29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:V30"/>
-    <mergeCell ref="W30:AQ30"/>
-    <mergeCell ref="AR30:BL30"/>
-    <mergeCell ref="BM30:CG30"/>
-    <mergeCell ref="CH30:DB30"/>
-    <mergeCell ref="DC30:DM30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:V31"/>
-    <mergeCell ref="W31:AQ31"/>
-    <mergeCell ref="AR31:BL31"/>
-    <mergeCell ref="BM31:CG31"/>
-    <mergeCell ref="CH31:DB31"/>
-    <mergeCell ref="DC31:DM31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:V32"/>
-    <mergeCell ref="W32:AQ32"/>
-    <mergeCell ref="AR32:BL32"/>
-    <mergeCell ref="BM32:CG32"/>
-    <mergeCell ref="CH32:DB32"/>
-    <mergeCell ref="DC32:DM32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:V33"/>
-    <mergeCell ref="W33:AQ33"/>
-    <mergeCell ref="AR33:BL33"/>
-    <mergeCell ref="BM33:CG33"/>
-    <mergeCell ref="CH33:DB33"/>
-    <mergeCell ref="DC33:DM33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:V34"/>
-    <mergeCell ref="W34:AQ34"/>
-    <mergeCell ref="AR34:BL34"/>
-    <mergeCell ref="BM34:CG34"/>
-    <mergeCell ref="CH34:DB34"/>
-    <mergeCell ref="DC34:DM34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:V35"/>
-    <mergeCell ref="W35:AQ35"/>
-    <mergeCell ref="AR35:BL35"/>
-    <mergeCell ref="BM35:CG35"/>
-    <mergeCell ref="CH35:DB35"/>
-    <mergeCell ref="DC35:DM35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:V36"/>
-    <mergeCell ref="W36:AQ36"/>
-    <mergeCell ref="AR36:BL36"/>
-    <mergeCell ref="BM36:CG36"/>
-    <mergeCell ref="CH36:DB36"/>
-    <mergeCell ref="DC36:DM36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:V37"/>
-    <mergeCell ref="W37:AQ37"/>
-    <mergeCell ref="AR37:BL37"/>
-    <mergeCell ref="BM37:CG37"/>
-    <mergeCell ref="CH37:DB37"/>
-    <mergeCell ref="DC37:DM37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:V38"/>
-    <mergeCell ref="W38:AQ38"/>
-    <mergeCell ref="AR38:BL38"/>
-    <mergeCell ref="BM38:CG38"/>
-    <mergeCell ref="CH38:DB38"/>
-    <mergeCell ref="DC38:DM38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:V39"/>
-    <mergeCell ref="W39:AQ39"/>
-    <mergeCell ref="AR39:BL39"/>
-    <mergeCell ref="BM39:CG39"/>
-    <mergeCell ref="CH39:DB39"/>
-    <mergeCell ref="DC39:DM39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:V40"/>
-    <mergeCell ref="W40:AQ40"/>
-    <mergeCell ref="AR40:BL40"/>
-    <mergeCell ref="BM40:CG40"/>
-    <mergeCell ref="CH40:DB40"/>
-    <mergeCell ref="DC40:DM40"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:V43"/>
-    <mergeCell ref="W43:AQ43"/>
-    <mergeCell ref="AR43:BL43"/>
-    <mergeCell ref="BM43:CG43"/>
-    <mergeCell ref="CH43:DB43"/>
-    <mergeCell ref="DC43:DM43"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:V41"/>
-    <mergeCell ref="W41:AQ41"/>
-    <mergeCell ref="AR41:BL41"/>
-    <mergeCell ref="BM41:CG41"/>
-    <mergeCell ref="CH41:DB41"/>
-    <mergeCell ref="DC41:DM41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:V42"/>
-    <mergeCell ref="W42:AQ42"/>
-    <mergeCell ref="AR42:BL42"/>
-    <mergeCell ref="BM42:CG42"/>
-    <mergeCell ref="CH42:DB42"/>
-    <mergeCell ref="DC42:DM42"/>
+    <mergeCell ref="CH20:CR20"/>
+    <mergeCell ref="CH18:CR18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:V17"/>
+    <mergeCell ref="W17:AQ17"/>
+    <mergeCell ref="AR17:BL17"/>
+    <mergeCell ref="BM17:CG17"/>
+    <mergeCell ref="CH17:CR17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:V18"/>
+    <mergeCell ref="W18:AQ18"/>
+    <mergeCell ref="AR18:BL18"/>
+    <mergeCell ref="BM18:CG18"/>
+    <mergeCell ref="CH16:CR16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:V15"/>
+    <mergeCell ref="W15:AQ15"/>
+    <mergeCell ref="AR15:BL15"/>
+    <mergeCell ref="BM15:CG15"/>
+    <mergeCell ref="CH15:CR15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:V16"/>
+    <mergeCell ref="W16:AQ16"/>
+    <mergeCell ref="AR16:BL16"/>
+    <mergeCell ref="BM16:CG16"/>
+    <mergeCell ref="CH14:CR14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:V13"/>
+    <mergeCell ref="W13:AQ13"/>
+    <mergeCell ref="AR13:BL13"/>
+    <mergeCell ref="BM13:CG13"/>
+    <mergeCell ref="CH13:CR13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:V14"/>
+    <mergeCell ref="W14:AQ14"/>
+    <mergeCell ref="AR14:BL14"/>
+    <mergeCell ref="BM14:CG14"/>
+    <mergeCell ref="CH10:CR10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:V10"/>
+    <mergeCell ref="W10:AQ10"/>
+    <mergeCell ref="AR10:BL10"/>
+    <mergeCell ref="BM10:CG10"/>
+    <mergeCell ref="CH12:CR12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:V11"/>
+    <mergeCell ref="W11:AQ11"/>
+    <mergeCell ref="AR11:BL11"/>
+    <mergeCell ref="BM11:CG11"/>
+    <mergeCell ref="CH11:CR11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:V12"/>
+    <mergeCell ref="W12:AQ12"/>
+    <mergeCell ref="AR12:BL12"/>
+    <mergeCell ref="BM12:CG12"/>
+    <mergeCell ref="CH9:CR9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:V8"/>
+    <mergeCell ref="W8:AQ8"/>
+    <mergeCell ref="AR8:BL8"/>
+    <mergeCell ref="BM8:CG8"/>
+    <mergeCell ref="CH8:CR8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:V9"/>
+    <mergeCell ref="W9:AQ9"/>
+    <mergeCell ref="AR9:BL9"/>
+    <mergeCell ref="BM9:CG9"/>
+    <mergeCell ref="CH7:CR7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:V6"/>
+    <mergeCell ref="W6:AQ6"/>
+    <mergeCell ref="AR6:BL6"/>
+    <mergeCell ref="BM6:CG6"/>
+    <mergeCell ref="CH6:CR6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:V7"/>
+    <mergeCell ref="W7:AQ7"/>
+    <mergeCell ref="AR7:BL7"/>
+    <mergeCell ref="BM7:CG7"/>
+    <mergeCell ref="CH5:CR5"/>
+    <mergeCell ref="B2:CQ2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:V4"/>
+    <mergeCell ref="W4:AQ4"/>
+    <mergeCell ref="AR4:BL4"/>
+    <mergeCell ref="BM4:CG4"/>
+    <mergeCell ref="CH4:CR4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:V5"/>
+    <mergeCell ref="W5:AQ5"/>
+    <mergeCell ref="AR5:BL5"/>
+    <mergeCell ref="BM5:CG5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/アプリケーション一覧.xlsx
+++ b/doc/アプリケーション一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\django_base\django_base\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508077D5-192A-4E25-826D-453F0CD8ECC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D3182D-CBB7-44E9-A501-EA53D2694C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>アプリケーション一覧</t>
     <rPh sb="8" eb="10">
@@ -419,6 +419,31 @@
     <t>FormクラスによるBottStrap対応</t>
     <rPh sb="19" eb="21">
       <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Viewのクラス化</t>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pg018_view_class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./pg018_view_class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Viewの会員ページのクラス化</t>
+    <rPh sb="5" eb="7">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -501,14 +526,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -792,7 +817,7 @@
   <dimension ref="B1:CR43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="BM21" sqref="BM21:CG21"/>
+      <selection activeCell="BM22" sqref="BM22:CG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18"/>
@@ -894,211 +919,211 @@
       <c r="CQ1" s="1"/>
     </row>
     <row r="2" spans="2:96" ht="26.5">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3"/>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3"/>
-      <c r="BG2" s="3"/>
-      <c r="BH2" s="3"/>
-      <c r="BI2" s="3"/>
-      <c r="BJ2" s="3"/>
-      <c r="BK2" s="3"/>
-      <c r="BL2" s="3"/>
-      <c r="BM2" s="3"/>
-      <c r="BN2" s="3"/>
-      <c r="BO2" s="3"/>
-      <c r="BP2" s="3"/>
-      <c r="BQ2" s="3"/>
-      <c r="BR2" s="3"/>
-      <c r="BS2" s="3"/>
-      <c r="BT2" s="3"/>
-      <c r="BU2" s="3"/>
-      <c r="BV2" s="3"/>
-      <c r="BW2" s="3"/>
-      <c r="BX2" s="3"/>
-      <c r="BY2" s="3"/>
-      <c r="BZ2" s="3"/>
-      <c r="CA2" s="3"/>
-      <c r="CB2" s="3"/>
-      <c r="CC2" s="3"/>
-      <c r="CD2" s="3"/>
-      <c r="CE2" s="3"/>
-      <c r="CF2" s="3"/>
-      <c r="CG2" s="3"/>
-      <c r="CH2" s="3"/>
-      <c r="CI2" s="3"/>
-      <c r="CJ2" s="3"/>
-      <c r="CK2" s="3"/>
-      <c r="CL2" s="3"/>
-      <c r="CM2" s="3"/>
-      <c r="CN2" s="3"/>
-      <c r="CO2" s="3"/>
-      <c r="CP2" s="3"/>
-      <c r="CQ2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="4"/>
+      <c r="BZ2" s="4"/>
+      <c r="CA2" s="4"/>
+      <c r="CB2" s="4"/>
+      <c r="CC2" s="4"/>
+      <c r="CD2" s="4"/>
+      <c r="CE2" s="4"/>
+      <c r="CF2" s="4"/>
+      <c r="CG2" s="4"/>
+      <c r="CH2" s="4"/>
+      <c r="CI2" s="4"/>
+      <c r="CJ2" s="4"/>
+      <c r="CK2" s="4"/>
+      <c r="CL2" s="4"/>
+      <c r="CM2" s="4"/>
+      <c r="CN2" s="4"/>
+      <c r="CO2" s="4"/>
+      <c r="CP2" s="4"/>
+      <c r="CQ2" s="4"/>
     </row>
     <row r="4" spans="2:96">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4" t="s">
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-      <c r="BF4" s="4"/>
-      <c r="BG4" s="4"/>
-      <c r="BH4" s="4"/>
-      <c r="BI4" s="4"/>
-      <c r="BJ4" s="4"/>
-      <c r="BK4" s="4"/>
-      <c r="BL4" s="4"/>
-      <c r="BM4" s="4" t="s">
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
+      <c r="BF4" s="5"/>
+      <c r="BG4" s="5"/>
+      <c r="BH4" s="5"/>
+      <c r="BI4" s="5"/>
+      <c r="BJ4" s="5"/>
+      <c r="BK4" s="5"/>
+      <c r="BL4" s="5"/>
+      <c r="BM4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="BN4" s="4"/>
-      <c r="BO4" s="4"/>
-      <c r="BP4" s="4"/>
-      <c r="BQ4" s="4"/>
-      <c r="BR4" s="4"/>
-      <c r="BS4" s="4"/>
-      <c r="BT4" s="4"/>
-      <c r="BU4" s="4"/>
-      <c r="BV4" s="4"/>
-      <c r="BW4" s="4"/>
-      <c r="BX4" s="4"/>
-      <c r="BY4" s="4"/>
-      <c r="BZ4" s="4"/>
-      <c r="CA4" s="4"/>
-      <c r="CB4" s="4"/>
-      <c r="CC4" s="4"/>
-      <c r="CD4" s="4"/>
-      <c r="CE4" s="4"/>
-      <c r="CF4" s="4"/>
-      <c r="CG4" s="4"/>
-      <c r="CH4" s="5" t="s">
+      <c r="BN4" s="5"/>
+      <c r="BO4" s="5"/>
+      <c r="BP4" s="5"/>
+      <c r="BQ4" s="5"/>
+      <c r="BR4" s="5"/>
+      <c r="BS4" s="5"/>
+      <c r="BT4" s="5"/>
+      <c r="BU4" s="5"/>
+      <c r="BV4" s="5"/>
+      <c r="BW4" s="5"/>
+      <c r="BX4" s="5"/>
+      <c r="BY4" s="5"/>
+      <c r="BZ4" s="5"/>
+      <c r="CA4" s="5"/>
+      <c r="CB4" s="5"/>
+      <c r="CC4" s="5"/>
+      <c r="CD4" s="5"/>
+      <c r="CE4" s="5"/>
+      <c r="CF4" s="5"/>
+      <c r="CG4" s="5"/>
+      <c r="CH4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CI4" s="5"/>
-      <c r="CJ4" s="5"/>
-      <c r="CK4" s="5"/>
-      <c r="CL4" s="5"/>
-      <c r="CM4" s="5"/>
-      <c r="CN4" s="5"/>
-      <c r="CO4" s="5"/>
-      <c r="CP4" s="5"/>
-      <c r="CQ4" s="5"/>
-      <c r="CR4" s="5"/>
+      <c r="CI4" s="6"/>
+      <c r="CJ4" s="6"/>
+      <c r="CK4" s="6"/>
+      <c r="CL4" s="6"/>
+      <c r="CM4" s="6"/>
+      <c r="CN4" s="6"/>
+      <c r="CO4" s="6"/>
+      <c r="CP4" s="6"/>
+      <c r="CQ4" s="6"/>
+      <c r="CR4" s="6"/>
     </row>
     <row r="5" spans="2:96" ht="18.5" customHeight="1">
       <c r="B5" s="2">
@@ -1384,29 +1409,29 @@
       <c r="BJ7" s="2"/>
       <c r="BK7" s="2"/>
       <c r="BL7" s="2"/>
-      <c r="BM7" s="6" t="s">
+      <c r="BM7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BN7" s="6"/>
-      <c r="BO7" s="6"/>
-      <c r="BP7" s="6"/>
-      <c r="BQ7" s="6"/>
-      <c r="BR7" s="6"/>
-      <c r="BS7" s="6"/>
-      <c r="BT7" s="6"/>
-      <c r="BU7" s="6"/>
-      <c r="BV7" s="6"/>
-      <c r="BW7" s="6"/>
-      <c r="BX7" s="6"/>
-      <c r="BY7" s="6"/>
-      <c r="BZ7" s="6"/>
-      <c r="CA7" s="6"/>
-      <c r="CB7" s="6"/>
-      <c r="CC7" s="6"/>
-      <c r="CD7" s="6"/>
-      <c r="CE7" s="6"/>
-      <c r="CF7" s="6"/>
-      <c r="CG7" s="6"/>
+      <c r="BN7" s="3"/>
+      <c r="BO7" s="3"/>
+      <c r="BP7" s="3"/>
+      <c r="BQ7" s="3"/>
+      <c r="BR7" s="3"/>
+      <c r="BS7" s="3"/>
+      <c r="BT7" s="3"/>
+      <c r="BU7" s="3"/>
+      <c r="BV7" s="3"/>
+      <c r="BW7" s="3"/>
+      <c r="BX7" s="3"/>
+      <c r="BY7" s="3"/>
+      <c r="BZ7" s="3"/>
+      <c r="CA7" s="3"/>
+      <c r="CB7" s="3"/>
+      <c r="CC7" s="3"/>
+      <c r="CD7" s="3"/>
+      <c r="CE7" s="3"/>
+      <c r="CF7" s="3"/>
+      <c r="CG7" s="3"/>
       <c r="CH7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1493,29 +1518,29 @@
       <c r="BJ8" s="2"/>
       <c r="BK8" s="2"/>
       <c r="BL8" s="2"/>
-      <c r="BM8" s="6" t="s">
+      <c r="BM8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BN8" s="6"/>
-      <c r="BO8" s="6"/>
-      <c r="BP8" s="6"/>
-      <c r="BQ8" s="6"/>
-      <c r="BR8" s="6"/>
-      <c r="BS8" s="6"/>
-      <c r="BT8" s="6"/>
-      <c r="BU8" s="6"/>
-      <c r="BV8" s="6"/>
-      <c r="BW8" s="6"/>
-      <c r="BX8" s="6"/>
-      <c r="BY8" s="6"/>
-      <c r="BZ8" s="6"/>
-      <c r="CA8" s="6"/>
-      <c r="CB8" s="6"/>
-      <c r="CC8" s="6"/>
-      <c r="CD8" s="6"/>
-      <c r="CE8" s="6"/>
-      <c r="CF8" s="6"/>
-      <c r="CG8" s="6"/>
+      <c r="BN8" s="3"/>
+      <c r="BO8" s="3"/>
+      <c r="BP8" s="3"/>
+      <c r="BQ8" s="3"/>
+      <c r="BR8" s="3"/>
+      <c r="BS8" s="3"/>
+      <c r="BT8" s="3"/>
+      <c r="BU8" s="3"/>
+      <c r="BV8" s="3"/>
+      <c r="BW8" s="3"/>
+      <c r="BX8" s="3"/>
+      <c r="BY8" s="3"/>
+      <c r="BZ8" s="3"/>
+      <c r="CA8" s="3"/>
+      <c r="CB8" s="3"/>
+      <c r="CC8" s="3"/>
+      <c r="CD8" s="3"/>
+      <c r="CE8" s="3"/>
+      <c r="CF8" s="3"/>
+      <c r="CG8" s="3"/>
       <c r="CH8" s="2" t="s">
         <v>22</v>
       </c>
@@ -2815,10 +2840,14 @@
       <c r="CR20" s="2"/>
     </row>
     <row r="21" spans="2:96" ht="18.5" customHeight="1">
-      <c r="B21" s="2"/>
+      <c r="B21" s="2">
+        <v>17</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2836,7 +2865,9 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
+      <c r="W21" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
@@ -2857,7 +2888,9 @@
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2"/>
-      <c r="AR21" s="2"/>
+      <c r="AR21" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="AS21" s="2"/>
       <c r="AT21" s="2"/>
       <c r="AU21" s="2"/>
@@ -2878,7 +2911,9 @@
       <c r="BJ21" s="2"/>
       <c r="BK21" s="2"/>
       <c r="BL21" s="2"/>
-      <c r="BM21" s="2"/>
+      <c r="BM21" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="BN21" s="2"/>
       <c r="BO21" s="2"/>
       <c r="BP21" s="2"/>
@@ -5047,6 +5082,229 @@
     </row>
   </sheetData>
   <mergeCells count="241">
+    <mergeCell ref="CH5:CR5"/>
+    <mergeCell ref="B2:CQ2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:V4"/>
+    <mergeCell ref="W4:AQ4"/>
+    <mergeCell ref="AR4:BL4"/>
+    <mergeCell ref="BM4:CG4"/>
+    <mergeCell ref="CH4:CR4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:V5"/>
+    <mergeCell ref="W5:AQ5"/>
+    <mergeCell ref="AR5:BL5"/>
+    <mergeCell ref="BM5:CG5"/>
+    <mergeCell ref="CH7:CR7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:V6"/>
+    <mergeCell ref="W6:AQ6"/>
+    <mergeCell ref="AR6:BL6"/>
+    <mergeCell ref="BM6:CG6"/>
+    <mergeCell ref="CH6:CR6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:V7"/>
+    <mergeCell ref="W7:AQ7"/>
+    <mergeCell ref="AR7:BL7"/>
+    <mergeCell ref="BM7:CG7"/>
+    <mergeCell ref="CH9:CR9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:V8"/>
+    <mergeCell ref="W8:AQ8"/>
+    <mergeCell ref="AR8:BL8"/>
+    <mergeCell ref="BM8:CG8"/>
+    <mergeCell ref="CH8:CR8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:V9"/>
+    <mergeCell ref="W9:AQ9"/>
+    <mergeCell ref="AR9:BL9"/>
+    <mergeCell ref="BM9:CG9"/>
+    <mergeCell ref="CH10:CR10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:V10"/>
+    <mergeCell ref="W10:AQ10"/>
+    <mergeCell ref="AR10:BL10"/>
+    <mergeCell ref="BM10:CG10"/>
+    <mergeCell ref="CH12:CR12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:V11"/>
+    <mergeCell ref="W11:AQ11"/>
+    <mergeCell ref="AR11:BL11"/>
+    <mergeCell ref="BM11:CG11"/>
+    <mergeCell ref="CH11:CR11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:V12"/>
+    <mergeCell ref="W12:AQ12"/>
+    <mergeCell ref="AR12:BL12"/>
+    <mergeCell ref="BM12:CG12"/>
+    <mergeCell ref="CH14:CR14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:V13"/>
+    <mergeCell ref="W13:AQ13"/>
+    <mergeCell ref="AR13:BL13"/>
+    <mergeCell ref="BM13:CG13"/>
+    <mergeCell ref="CH13:CR13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:V14"/>
+    <mergeCell ref="W14:AQ14"/>
+    <mergeCell ref="AR14:BL14"/>
+    <mergeCell ref="BM14:CG14"/>
+    <mergeCell ref="CH16:CR16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:V15"/>
+    <mergeCell ref="W15:AQ15"/>
+    <mergeCell ref="AR15:BL15"/>
+    <mergeCell ref="BM15:CG15"/>
+    <mergeCell ref="CH15:CR15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:V16"/>
+    <mergeCell ref="W16:AQ16"/>
+    <mergeCell ref="AR16:BL16"/>
+    <mergeCell ref="BM16:CG16"/>
+    <mergeCell ref="CH18:CR18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:V17"/>
+    <mergeCell ref="W17:AQ17"/>
+    <mergeCell ref="AR17:BL17"/>
+    <mergeCell ref="BM17:CG17"/>
+    <mergeCell ref="CH17:CR17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:V18"/>
+    <mergeCell ref="W18:AQ18"/>
+    <mergeCell ref="AR18:BL18"/>
+    <mergeCell ref="BM18:CG18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:V19"/>
+    <mergeCell ref="W19:AQ19"/>
+    <mergeCell ref="AR19:BL19"/>
+    <mergeCell ref="BM19:CG19"/>
+    <mergeCell ref="CH19:CR19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:V20"/>
+    <mergeCell ref="W20:AQ20"/>
+    <mergeCell ref="AR20:BL20"/>
+    <mergeCell ref="BM20:CG20"/>
+    <mergeCell ref="CH20:CR20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:V21"/>
+    <mergeCell ref="W21:AQ21"/>
+    <mergeCell ref="AR21:BL21"/>
+    <mergeCell ref="BM21:CG21"/>
+    <mergeCell ref="CH21:CR21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:V22"/>
+    <mergeCell ref="W22:AQ22"/>
+    <mergeCell ref="AR22:BL22"/>
+    <mergeCell ref="BM22:CG22"/>
+    <mergeCell ref="CH22:CR22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:V23"/>
+    <mergeCell ref="W23:AQ23"/>
+    <mergeCell ref="AR23:BL23"/>
+    <mergeCell ref="BM23:CG23"/>
+    <mergeCell ref="CH23:CR23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:V24"/>
+    <mergeCell ref="W24:AQ24"/>
+    <mergeCell ref="AR24:BL24"/>
+    <mergeCell ref="BM24:CG24"/>
+    <mergeCell ref="CH24:CR24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:V25"/>
+    <mergeCell ref="W25:AQ25"/>
+    <mergeCell ref="AR25:BL25"/>
+    <mergeCell ref="BM25:CG25"/>
+    <mergeCell ref="CH25:CR25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:V26"/>
+    <mergeCell ref="W26:AQ26"/>
+    <mergeCell ref="AR26:BL26"/>
+    <mergeCell ref="BM26:CG26"/>
+    <mergeCell ref="CH26:CR26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:V27"/>
+    <mergeCell ref="W27:AQ27"/>
+    <mergeCell ref="AR27:BL27"/>
+    <mergeCell ref="BM27:CG27"/>
+    <mergeCell ref="CH27:CR27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:V28"/>
+    <mergeCell ref="W28:AQ28"/>
+    <mergeCell ref="AR28:BL28"/>
+    <mergeCell ref="BM28:CG28"/>
+    <mergeCell ref="CH28:CR28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:V29"/>
+    <mergeCell ref="W29:AQ29"/>
+    <mergeCell ref="AR29:BL29"/>
+    <mergeCell ref="BM29:CG29"/>
+    <mergeCell ref="CH29:CR29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:V30"/>
+    <mergeCell ref="W30:AQ30"/>
+    <mergeCell ref="AR30:BL30"/>
+    <mergeCell ref="BM30:CG30"/>
+    <mergeCell ref="CH30:CR30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:V31"/>
+    <mergeCell ref="W31:AQ31"/>
+    <mergeCell ref="AR31:BL31"/>
+    <mergeCell ref="BM31:CG31"/>
+    <mergeCell ref="CH31:CR31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:V32"/>
+    <mergeCell ref="W32:AQ32"/>
+    <mergeCell ref="AR32:BL32"/>
+    <mergeCell ref="BM32:CG32"/>
+    <mergeCell ref="CH32:CR32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:V33"/>
+    <mergeCell ref="W33:AQ33"/>
+    <mergeCell ref="AR33:BL33"/>
+    <mergeCell ref="BM33:CG33"/>
+    <mergeCell ref="CH33:CR33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:V34"/>
+    <mergeCell ref="W34:AQ34"/>
+    <mergeCell ref="AR34:BL34"/>
+    <mergeCell ref="BM34:CG34"/>
+    <mergeCell ref="CH34:CR34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:V35"/>
+    <mergeCell ref="W35:AQ35"/>
+    <mergeCell ref="AR35:BL35"/>
+    <mergeCell ref="BM35:CG35"/>
+    <mergeCell ref="CH35:CR35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:V36"/>
+    <mergeCell ref="W36:AQ36"/>
+    <mergeCell ref="AR36:BL36"/>
+    <mergeCell ref="BM36:CG36"/>
+    <mergeCell ref="CH36:CR36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:V37"/>
+    <mergeCell ref="W37:AQ37"/>
+    <mergeCell ref="AR37:BL37"/>
+    <mergeCell ref="BM37:CG37"/>
+    <mergeCell ref="CH37:CR37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:V38"/>
+    <mergeCell ref="W38:AQ38"/>
+    <mergeCell ref="AR38:BL38"/>
+    <mergeCell ref="BM38:CG38"/>
+    <mergeCell ref="CH38:CR38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:V39"/>
+    <mergeCell ref="W39:AQ39"/>
+    <mergeCell ref="AR39:BL39"/>
+    <mergeCell ref="BM39:CG39"/>
+    <mergeCell ref="CH39:CR39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:V40"/>
+    <mergeCell ref="W40:AQ40"/>
+    <mergeCell ref="AR40:BL40"/>
+    <mergeCell ref="BM40:CG40"/>
+    <mergeCell ref="CH40:CR40"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="E43:V43"/>
     <mergeCell ref="W43:AQ43"/>
@@ -5065,229 +5323,6 @@
     <mergeCell ref="AR42:BL42"/>
     <mergeCell ref="BM42:CG42"/>
     <mergeCell ref="CH42:CR42"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:V39"/>
-    <mergeCell ref="W39:AQ39"/>
-    <mergeCell ref="AR39:BL39"/>
-    <mergeCell ref="BM39:CG39"/>
-    <mergeCell ref="CH39:CR39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:V40"/>
-    <mergeCell ref="W40:AQ40"/>
-    <mergeCell ref="AR40:BL40"/>
-    <mergeCell ref="BM40:CG40"/>
-    <mergeCell ref="CH40:CR40"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:V37"/>
-    <mergeCell ref="W37:AQ37"/>
-    <mergeCell ref="AR37:BL37"/>
-    <mergeCell ref="BM37:CG37"/>
-    <mergeCell ref="CH37:CR37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:V38"/>
-    <mergeCell ref="W38:AQ38"/>
-    <mergeCell ref="AR38:BL38"/>
-    <mergeCell ref="BM38:CG38"/>
-    <mergeCell ref="CH38:CR38"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:V35"/>
-    <mergeCell ref="W35:AQ35"/>
-    <mergeCell ref="AR35:BL35"/>
-    <mergeCell ref="BM35:CG35"/>
-    <mergeCell ref="CH35:CR35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:V36"/>
-    <mergeCell ref="W36:AQ36"/>
-    <mergeCell ref="AR36:BL36"/>
-    <mergeCell ref="BM36:CG36"/>
-    <mergeCell ref="CH36:CR36"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:V33"/>
-    <mergeCell ref="W33:AQ33"/>
-    <mergeCell ref="AR33:BL33"/>
-    <mergeCell ref="BM33:CG33"/>
-    <mergeCell ref="CH33:CR33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:V34"/>
-    <mergeCell ref="W34:AQ34"/>
-    <mergeCell ref="AR34:BL34"/>
-    <mergeCell ref="BM34:CG34"/>
-    <mergeCell ref="CH34:CR34"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:V31"/>
-    <mergeCell ref="W31:AQ31"/>
-    <mergeCell ref="AR31:BL31"/>
-    <mergeCell ref="BM31:CG31"/>
-    <mergeCell ref="CH31:CR31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:V32"/>
-    <mergeCell ref="W32:AQ32"/>
-    <mergeCell ref="AR32:BL32"/>
-    <mergeCell ref="BM32:CG32"/>
-    <mergeCell ref="CH32:CR32"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:V29"/>
-    <mergeCell ref="W29:AQ29"/>
-    <mergeCell ref="AR29:BL29"/>
-    <mergeCell ref="BM29:CG29"/>
-    <mergeCell ref="CH29:CR29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:V30"/>
-    <mergeCell ref="W30:AQ30"/>
-    <mergeCell ref="AR30:BL30"/>
-    <mergeCell ref="BM30:CG30"/>
-    <mergeCell ref="CH30:CR30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:V27"/>
-    <mergeCell ref="W27:AQ27"/>
-    <mergeCell ref="AR27:BL27"/>
-    <mergeCell ref="BM27:CG27"/>
-    <mergeCell ref="CH27:CR27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:V28"/>
-    <mergeCell ref="W28:AQ28"/>
-    <mergeCell ref="AR28:BL28"/>
-    <mergeCell ref="BM28:CG28"/>
-    <mergeCell ref="CH28:CR28"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:V25"/>
-    <mergeCell ref="W25:AQ25"/>
-    <mergeCell ref="AR25:BL25"/>
-    <mergeCell ref="BM25:CG25"/>
-    <mergeCell ref="CH25:CR25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:V26"/>
-    <mergeCell ref="W26:AQ26"/>
-    <mergeCell ref="AR26:BL26"/>
-    <mergeCell ref="BM26:CG26"/>
-    <mergeCell ref="CH26:CR26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:V23"/>
-    <mergeCell ref="W23:AQ23"/>
-    <mergeCell ref="AR23:BL23"/>
-    <mergeCell ref="BM23:CG23"/>
-    <mergeCell ref="CH23:CR23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:V24"/>
-    <mergeCell ref="W24:AQ24"/>
-    <mergeCell ref="AR24:BL24"/>
-    <mergeCell ref="BM24:CG24"/>
-    <mergeCell ref="CH24:CR24"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:V21"/>
-    <mergeCell ref="W21:AQ21"/>
-    <mergeCell ref="AR21:BL21"/>
-    <mergeCell ref="BM21:CG21"/>
-    <mergeCell ref="CH21:CR21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:V22"/>
-    <mergeCell ref="W22:AQ22"/>
-    <mergeCell ref="AR22:BL22"/>
-    <mergeCell ref="BM22:CG22"/>
-    <mergeCell ref="CH22:CR22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:V19"/>
-    <mergeCell ref="W19:AQ19"/>
-    <mergeCell ref="AR19:BL19"/>
-    <mergeCell ref="BM19:CG19"/>
-    <mergeCell ref="CH19:CR19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:V20"/>
-    <mergeCell ref="W20:AQ20"/>
-    <mergeCell ref="AR20:BL20"/>
-    <mergeCell ref="BM20:CG20"/>
-    <mergeCell ref="CH20:CR20"/>
-    <mergeCell ref="CH18:CR18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:V17"/>
-    <mergeCell ref="W17:AQ17"/>
-    <mergeCell ref="AR17:BL17"/>
-    <mergeCell ref="BM17:CG17"/>
-    <mergeCell ref="CH17:CR17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:V18"/>
-    <mergeCell ref="W18:AQ18"/>
-    <mergeCell ref="AR18:BL18"/>
-    <mergeCell ref="BM18:CG18"/>
-    <mergeCell ref="CH16:CR16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:V15"/>
-    <mergeCell ref="W15:AQ15"/>
-    <mergeCell ref="AR15:BL15"/>
-    <mergeCell ref="BM15:CG15"/>
-    <mergeCell ref="CH15:CR15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:V16"/>
-    <mergeCell ref="W16:AQ16"/>
-    <mergeCell ref="AR16:BL16"/>
-    <mergeCell ref="BM16:CG16"/>
-    <mergeCell ref="CH14:CR14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:V13"/>
-    <mergeCell ref="W13:AQ13"/>
-    <mergeCell ref="AR13:BL13"/>
-    <mergeCell ref="BM13:CG13"/>
-    <mergeCell ref="CH13:CR13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:V14"/>
-    <mergeCell ref="W14:AQ14"/>
-    <mergeCell ref="AR14:BL14"/>
-    <mergeCell ref="BM14:CG14"/>
-    <mergeCell ref="CH10:CR10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:V10"/>
-    <mergeCell ref="W10:AQ10"/>
-    <mergeCell ref="AR10:BL10"/>
-    <mergeCell ref="BM10:CG10"/>
-    <mergeCell ref="CH12:CR12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:V11"/>
-    <mergeCell ref="W11:AQ11"/>
-    <mergeCell ref="AR11:BL11"/>
-    <mergeCell ref="BM11:CG11"/>
-    <mergeCell ref="CH11:CR11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:V12"/>
-    <mergeCell ref="W12:AQ12"/>
-    <mergeCell ref="AR12:BL12"/>
-    <mergeCell ref="BM12:CG12"/>
-    <mergeCell ref="CH9:CR9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:V8"/>
-    <mergeCell ref="W8:AQ8"/>
-    <mergeCell ref="AR8:BL8"/>
-    <mergeCell ref="BM8:CG8"/>
-    <mergeCell ref="CH8:CR8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:V9"/>
-    <mergeCell ref="W9:AQ9"/>
-    <mergeCell ref="AR9:BL9"/>
-    <mergeCell ref="BM9:CG9"/>
-    <mergeCell ref="CH7:CR7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:V6"/>
-    <mergeCell ref="W6:AQ6"/>
-    <mergeCell ref="AR6:BL6"/>
-    <mergeCell ref="BM6:CG6"/>
-    <mergeCell ref="CH6:CR6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:V7"/>
-    <mergeCell ref="W7:AQ7"/>
-    <mergeCell ref="AR7:BL7"/>
-    <mergeCell ref="BM7:CG7"/>
-    <mergeCell ref="CH5:CR5"/>
-    <mergeCell ref="B2:CQ2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:V4"/>
-    <mergeCell ref="W4:AQ4"/>
-    <mergeCell ref="AR4:BL4"/>
-    <mergeCell ref="BM4:CG4"/>
-    <mergeCell ref="CH4:CR4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:V5"/>
-    <mergeCell ref="W5:AQ5"/>
-    <mergeCell ref="AR5:BL5"/>
-    <mergeCell ref="BM5:CG5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/アプリケーション一覧.xlsx
+++ b/doc/アプリケーション一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\projects\django_base\django_base\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D3182D-CBB7-44E9-A501-EA53D2694C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47ACA041-0FE8-4290-BB74-047E6352A05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
   <si>
     <t>アプリケーション一覧</t>
     <rPh sb="8" eb="10">
@@ -444,6 +444,37 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字数制限</t>
+    <rPh sb="0" eb="3">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pg019_maxlength</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./pg019_maxlength</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号に文字数の制限</t>
+    <rPh sb="0" eb="4">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -526,14 +557,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -816,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:CR43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="BM22" sqref="BM22:CG22"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="BM18" sqref="BM18:CG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.58203125" defaultRowHeight="18"/>
@@ -919,211 +950,211 @@
       <c r="CQ1" s="1"/>
     </row>
     <row r="2" spans="2:96" ht="26.5">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4"/>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4"/>
-      <c r="BL2" s="4"/>
-      <c r="BM2" s="4"/>
-      <c r="BN2" s="4"/>
-      <c r="BO2" s="4"/>
-      <c r="BP2" s="4"/>
-      <c r="BQ2" s="4"/>
-      <c r="BR2" s="4"/>
-      <c r="BS2" s="4"/>
-      <c r="BT2" s="4"/>
-      <c r="BU2" s="4"/>
-      <c r="BV2" s="4"/>
-      <c r="BW2" s="4"/>
-      <c r="BX2" s="4"/>
-      <c r="BY2" s="4"/>
-      <c r="BZ2" s="4"/>
-      <c r="CA2" s="4"/>
-      <c r="CB2" s="4"/>
-      <c r="CC2" s="4"/>
-      <c r="CD2" s="4"/>
-      <c r="CE2" s="4"/>
-      <c r="CF2" s="4"/>
-      <c r="CG2" s="4"/>
-      <c r="CH2" s="4"/>
-      <c r="CI2" s="4"/>
-      <c r="CJ2" s="4"/>
-      <c r="CK2" s="4"/>
-      <c r="CL2" s="4"/>
-      <c r="CM2" s="4"/>
-      <c r="CN2" s="4"/>
-      <c r="CO2" s="4"/>
-      <c r="CP2" s="4"/>
-      <c r="CQ2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="3"/>
+      <c r="BP2" s="3"/>
+      <c r="BQ2" s="3"/>
+      <c r="BR2" s="3"/>
+      <c r="BS2" s="3"/>
+      <c r="BT2" s="3"/>
+      <c r="BU2" s="3"/>
+      <c r="BV2" s="3"/>
+      <c r="BW2" s="3"/>
+      <c r="BX2" s="3"/>
+      <c r="BY2" s="3"/>
+      <c r="BZ2" s="3"/>
+      <c r="CA2" s="3"/>
+      <c r="CB2" s="3"/>
+      <c r="CC2" s="3"/>
+      <c r="CD2" s="3"/>
+      <c r="CE2" s="3"/>
+      <c r="CF2" s="3"/>
+      <c r="CG2" s="3"/>
+      <c r="CH2" s="3"/>
+      <c r="CI2" s="3"/>
+      <c r="CJ2" s="3"/>
+      <c r="CK2" s="3"/>
+      <c r="CL2" s="3"/>
+      <c r="CM2" s="3"/>
+      <c r="CN2" s="3"/>
+      <c r="CO2" s="3"/>
+      <c r="CP2" s="3"/>
+      <c r="CQ2" s="3"/>
     </row>
     <row r="4" spans="2:96">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5" t="s">
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="5"/>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="5"/>
-      <c r="BF4" s="5"/>
-      <c r="BG4" s="5"/>
-      <c r="BH4" s="5"/>
-      <c r="BI4" s="5"/>
-      <c r="BJ4" s="5"/>
-      <c r="BK4" s="5"/>
-      <c r="BL4" s="5"/>
-      <c r="BM4" s="5" t="s">
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="BN4" s="5"/>
-      <c r="BO4" s="5"/>
-      <c r="BP4" s="5"/>
-      <c r="BQ4" s="5"/>
-      <c r="BR4" s="5"/>
-      <c r="BS4" s="5"/>
-      <c r="BT4" s="5"/>
-      <c r="BU4" s="5"/>
-      <c r="BV4" s="5"/>
-      <c r="BW4" s="5"/>
-      <c r="BX4" s="5"/>
-      <c r="BY4" s="5"/>
-      <c r="BZ4" s="5"/>
-      <c r="CA4" s="5"/>
-      <c r="CB4" s="5"/>
-      <c r="CC4" s="5"/>
-      <c r="CD4" s="5"/>
-      <c r="CE4" s="5"/>
-      <c r="CF4" s="5"/>
-      <c r="CG4" s="5"/>
-      <c r="CH4" s="6" t="s">
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4"/>
+      <c r="BU4" s="4"/>
+      <c r="BV4" s="4"/>
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="4"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="4"/>
+      <c r="CA4" s="4"/>
+      <c r="CB4" s="4"/>
+      <c r="CC4" s="4"/>
+      <c r="CD4" s="4"/>
+      <c r="CE4" s="4"/>
+      <c r="CF4" s="4"/>
+      <c r="CG4" s="4"/>
+      <c r="CH4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="CI4" s="6"/>
-      <c r="CJ4" s="6"/>
-      <c r="CK4" s="6"/>
-      <c r="CL4" s="6"/>
-      <c r="CM4" s="6"/>
-      <c r="CN4" s="6"/>
-      <c r="CO4" s="6"/>
-      <c r="CP4" s="6"/>
-      <c r="CQ4" s="6"/>
-      <c r="CR4" s="6"/>
+      <c r="CI4" s="5"/>
+      <c r="CJ4" s="5"/>
+      <c r="CK4" s="5"/>
+      <c r="CL4" s="5"/>
+      <c r="CM4" s="5"/>
+      <c r="CN4" s="5"/>
+      <c r="CO4" s="5"/>
+      <c r="CP4" s="5"/>
+      <c r="CQ4" s="5"/>
+      <c r="CR4" s="5"/>
     </row>
     <row r="5" spans="2:96" ht="18.5" customHeight="1">
       <c r="B5" s="2">
@@ -1409,29 +1440,29 @@
       <c r="BJ7" s="2"/>
       <c r="BK7" s="2"/>
       <c r="BL7" s="2"/>
-      <c r="BM7" s="3" t="s">
+      <c r="BM7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="BN7" s="3"/>
-      <c r="BO7" s="3"/>
-      <c r="BP7" s="3"/>
-      <c r="BQ7" s="3"/>
-      <c r="BR7" s="3"/>
-      <c r="BS7" s="3"/>
-      <c r="BT7" s="3"/>
-      <c r="BU7" s="3"/>
-      <c r="BV7" s="3"/>
-      <c r="BW7" s="3"/>
-      <c r="BX7" s="3"/>
-      <c r="BY7" s="3"/>
-      <c r="BZ7" s="3"/>
-      <c r="CA7" s="3"/>
-      <c r="CB7" s="3"/>
-      <c r="CC7" s="3"/>
-      <c r="CD7" s="3"/>
-      <c r="CE7" s="3"/>
-      <c r="CF7" s="3"/>
-      <c r="CG7" s="3"/>
+      <c r="BN7" s="6"/>
+      <c r="BO7" s="6"/>
+      <c r="BP7" s="6"/>
+      <c r="BQ7" s="6"/>
+      <c r="BR7" s="6"/>
+      <c r="BS7" s="6"/>
+      <c r="BT7" s="6"/>
+      <c r="BU7" s="6"/>
+      <c r="BV7" s="6"/>
+      <c r="BW7" s="6"/>
+      <c r="BX7" s="6"/>
+      <c r="BY7" s="6"/>
+      <c r="BZ7" s="6"/>
+      <c r="CA7" s="6"/>
+      <c r="CB7" s="6"/>
+      <c r="CC7" s="6"/>
+      <c r="CD7" s="6"/>
+      <c r="CE7" s="6"/>
+      <c r="CF7" s="6"/>
+      <c r="CG7" s="6"/>
       <c r="CH7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1518,29 +1549,29 @@
       <c r="BJ8" s="2"/>
       <c r="BK8" s="2"/>
       <c r="BL8" s="2"/>
-      <c r="BM8" s="3" t="s">
+      <c r="BM8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="BN8" s="3"/>
-      <c r="BO8" s="3"/>
-      <c r="BP8" s="3"/>
-      <c r="BQ8" s="3"/>
-      <c r="BR8" s="3"/>
-      <c r="BS8" s="3"/>
-      <c r="BT8" s="3"/>
-      <c r="BU8" s="3"/>
-      <c r="BV8" s="3"/>
-      <c r="BW8" s="3"/>
-      <c r="BX8" s="3"/>
-      <c r="BY8" s="3"/>
-      <c r="BZ8" s="3"/>
-      <c r="CA8" s="3"/>
-      <c r="CB8" s="3"/>
-      <c r="CC8" s="3"/>
-      <c r="CD8" s="3"/>
-      <c r="CE8" s="3"/>
-      <c r="CF8" s="3"/>
-      <c r="CG8" s="3"/>
+      <c r="BN8" s="6"/>
+      <c r="BO8" s="6"/>
+      <c r="BP8" s="6"/>
+      <c r="BQ8" s="6"/>
+      <c r="BR8" s="6"/>
+      <c r="BS8" s="6"/>
+      <c r="BT8" s="6"/>
+      <c r="BU8" s="6"/>
+      <c r="BV8" s="6"/>
+      <c r="BW8" s="6"/>
+      <c r="BX8" s="6"/>
+      <c r="BY8" s="6"/>
+      <c r="BZ8" s="6"/>
+      <c r="CA8" s="6"/>
+      <c r="CB8" s="6"/>
+      <c r="CC8" s="6"/>
+      <c r="CD8" s="6"/>
+      <c r="CE8" s="6"/>
+      <c r="CF8" s="6"/>
+      <c r="CG8" s="6"/>
       <c r="CH8" s="2" t="s">
         <v>22</v>
       </c>
@@ -2947,10 +2978,14 @@
       <c r="CR21" s="2"/>
     </row>
     <row r="22" spans="2:96" ht="18.5" customHeight="1">
-      <c r="B22" s="2"/>
+      <c r="B22" s="2">
+        <v>18</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -2968,7 +3003,9 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
+      <c r="W22" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
@@ -2989,7 +3026,9 @@
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2"/>
-      <c r="AR22" s="2"/>
+      <c r="AR22" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="AS22" s="2"/>
       <c r="AT22" s="2"/>
       <c r="AU22" s="2"/>
@@ -3010,7 +3049,9 @@
       <c r="BJ22" s="2"/>
       <c r="BK22" s="2"/>
       <c r="BL22" s="2"/>
-      <c r="BM22" s="2"/>
+      <c r="BM22" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="BN22" s="2"/>
       <c r="BO22" s="2"/>
       <c r="BP22" s="2"/>
@@ -5082,43 +5123,192 @@
     </row>
   </sheetData>
   <mergeCells count="241">
-    <mergeCell ref="CH5:CR5"/>
-    <mergeCell ref="B2:CQ2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:V4"/>
-    <mergeCell ref="W4:AQ4"/>
-    <mergeCell ref="AR4:BL4"/>
-    <mergeCell ref="BM4:CG4"/>
-    <mergeCell ref="CH4:CR4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:V5"/>
-    <mergeCell ref="W5:AQ5"/>
-    <mergeCell ref="AR5:BL5"/>
-    <mergeCell ref="BM5:CG5"/>
-    <mergeCell ref="CH7:CR7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:V6"/>
-    <mergeCell ref="W6:AQ6"/>
-    <mergeCell ref="AR6:BL6"/>
-    <mergeCell ref="BM6:CG6"/>
-    <mergeCell ref="CH6:CR6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:V7"/>
-    <mergeCell ref="W7:AQ7"/>
-    <mergeCell ref="AR7:BL7"/>
-    <mergeCell ref="BM7:CG7"/>
-    <mergeCell ref="CH9:CR9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:V8"/>
-    <mergeCell ref="W8:AQ8"/>
-    <mergeCell ref="AR8:BL8"/>
-    <mergeCell ref="BM8:CG8"/>
-    <mergeCell ref="CH8:CR8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:V9"/>
-    <mergeCell ref="W9:AQ9"/>
-    <mergeCell ref="AR9:BL9"/>
-    <mergeCell ref="BM9:CG9"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:V43"/>
+    <mergeCell ref="W43:AQ43"/>
+    <mergeCell ref="AR43:BL43"/>
+    <mergeCell ref="BM43:CG43"/>
+    <mergeCell ref="CH43:CR43"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:V41"/>
+    <mergeCell ref="W41:AQ41"/>
+    <mergeCell ref="AR41:BL41"/>
+    <mergeCell ref="BM41:CG41"/>
+    <mergeCell ref="CH41:CR41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:V42"/>
+    <mergeCell ref="W42:AQ42"/>
+    <mergeCell ref="AR42:BL42"/>
+    <mergeCell ref="BM42:CG42"/>
+    <mergeCell ref="CH42:CR42"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:V39"/>
+    <mergeCell ref="W39:AQ39"/>
+    <mergeCell ref="AR39:BL39"/>
+    <mergeCell ref="BM39:CG39"/>
+    <mergeCell ref="CH39:CR39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:V40"/>
+    <mergeCell ref="W40:AQ40"/>
+    <mergeCell ref="AR40:BL40"/>
+    <mergeCell ref="BM40:CG40"/>
+    <mergeCell ref="CH40:CR40"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:V37"/>
+    <mergeCell ref="W37:AQ37"/>
+    <mergeCell ref="AR37:BL37"/>
+    <mergeCell ref="BM37:CG37"/>
+    <mergeCell ref="CH37:CR37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:V38"/>
+    <mergeCell ref="W38:AQ38"/>
+    <mergeCell ref="AR38:BL38"/>
+    <mergeCell ref="BM38:CG38"/>
+    <mergeCell ref="CH38:CR38"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:V35"/>
+    <mergeCell ref="W35:AQ35"/>
+    <mergeCell ref="AR35:BL35"/>
+    <mergeCell ref="BM35:CG35"/>
+    <mergeCell ref="CH35:CR35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:V36"/>
+    <mergeCell ref="W36:AQ36"/>
+    <mergeCell ref="AR36:BL36"/>
+    <mergeCell ref="BM36:CG36"/>
+    <mergeCell ref="CH36:CR36"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:V33"/>
+    <mergeCell ref="W33:AQ33"/>
+    <mergeCell ref="AR33:BL33"/>
+    <mergeCell ref="BM33:CG33"/>
+    <mergeCell ref="CH33:CR33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:V34"/>
+    <mergeCell ref="W34:AQ34"/>
+    <mergeCell ref="AR34:BL34"/>
+    <mergeCell ref="BM34:CG34"/>
+    <mergeCell ref="CH34:CR34"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:V31"/>
+    <mergeCell ref="W31:AQ31"/>
+    <mergeCell ref="AR31:BL31"/>
+    <mergeCell ref="BM31:CG31"/>
+    <mergeCell ref="CH31:CR31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:V32"/>
+    <mergeCell ref="W32:AQ32"/>
+    <mergeCell ref="AR32:BL32"/>
+    <mergeCell ref="BM32:CG32"/>
+    <mergeCell ref="CH32:CR32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:V29"/>
+    <mergeCell ref="W29:AQ29"/>
+    <mergeCell ref="AR29:BL29"/>
+    <mergeCell ref="BM29:CG29"/>
+    <mergeCell ref="CH29:CR29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:V30"/>
+    <mergeCell ref="W30:AQ30"/>
+    <mergeCell ref="AR30:BL30"/>
+    <mergeCell ref="BM30:CG30"/>
+    <mergeCell ref="CH30:CR30"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:V27"/>
+    <mergeCell ref="W27:AQ27"/>
+    <mergeCell ref="AR27:BL27"/>
+    <mergeCell ref="BM27:CG27"/>
+    <mergeCell ref="CH27:CR27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:V28"/>
+    <mergeCell ref="W28:AQ28"/>
+    <mergeCell ref="AR28:BL28"/>
+    <mergeCell ref="BM28:CG28"/>
+    <mergeCell ref="CH28:CR28"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:V25"/>
+    <mergeCell ref="W25:AQ25"/>
+    <mergeCell ref="AR25:BL25"/>
+    <mergeCell ref="BM25:CG25"/>
+    <mergeCell ref="CH25:CR25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:V26"/>
+    <mergeCell ref="W26:AQ26"/>
+    <mergeCell ref="AR26:BL26"/>
+    <mergeCell ref="BM26:CG26"/>
+    <mergeCell ref="CH26:CR26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:V23"/>
+    <mergeCell ref="W23:AQ23"/>
+    <mergeCell ref="AR23:BL23"/>
+    <mergeCell ref="BM23:CG23"/>
+    <mergeCell ref="CH23:CR23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:V24"/>
+    <mergeCell ref="W24:AQ24"/>
+    <mergeCell ref="AR24:BL24"/>
+    <mergeCell ref="BM24:CG24"/>
+    <mergeCell ref="CH24:CR24"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:V21"/>
+    <mergeCell ref="W21:AQ21"/>
+    <mergeCell ref="AR21:BL21"/>
+    <mergeCell ref="BM21:CG21"/>
+    <mergeCell ref="CH21:CR21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:V22"/>
+    <mergeCell ref="W22:AQ22"/>
+    <mergeCell ref="AR22:BL22"/>
+    <mergeCell ref="BM22:CG22"/>
+    <mergeCell ref="CH22:CR22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:V19"/>
+    <mergeCell ref="W19:AQ19"/>
+    <mergeCell ref="AR19:BL19"/>
+    <mergeCell ref="BM19:CG19"/>
+    <mergeCell ref="CH19:CR19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:V20"/>
+    <mergeCell ref="W20:AQ20"/>
+    <mergeCell ref="AR20:BL20"/>
+    <mergeCell ref="BM20:CG20"/>
+    <mergeCell ref="CH20:CR20"/>
+    <mergeCell ref="CH18:CR18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:V17"/>
+    <mergeCell ref="W17:AQ17"/>
+    <mergeCell ref="AR17:BL17"/>
+    <mergeCell ref="BM17:CG17"/>
+    <mergeCell ref="CH17:CR17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:V18"/>
+    <mergeCell ref="W18:AQ18"/>
+    <mergeCell ref="AR18:BL18"/>
+    <mergeCell ref="BM18:CG18"/>
+    <mergeCell ref="CH16:CR16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:V15"/>
+    <mergeCell ref="W15:AQ15"/>
+    <mergeCell ref="AR15:BL15"/>
+    <mergeCell ref="BM15:CG15"/>
+    <mergeCell ref="CH15:CR15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:V16"/>
+    <mergeCell ref="W16:AQ16"/>
+    <mergeCell ref="AR16:BL16"/>
+    <mergeCell ref="BM16:CG16"/>
+    <mergeCell ref="CH14:CR14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:V13"/>
+    <mergeCell ref="W13:AQ13"/>
+    <mergeCell ref="AR13:BL13"/>
+    <mergeCell ref="BM13:CG13"/>
+    <mergeCell ref="CH13:CR13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:V14"/>
+    <mergeCell ref="W14:AQ14"/>
+    <mergeCell ref="AR14:BL14"/>
+    <mergeCell ref="BM14:CG14"/>
     <mergeCell ref="CH10:CR10"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:V10"/>
@@ -5137,192 +5327,43 @@
     <mergeCell ref="W12:AQ12"/>
     <mergeCell ref="AR12:BL12"/>
     <mergeCell ref="BM12:CG12"/>
-    <mergeCell ref="CH14:CR14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:V13"/>
-    <mergeCell ref="W13:AQ13"/>
-    <mergeCell ref="AR13:BL13"/>
-    <mergeCell ref="BM13:CG13"/>
-    <mergeCell ref="CH13:CR13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:V14"/>
-    <mergeCell ref="W14:AQ14"/>
-    <mergeCell ref="AR14:BL14"/>
-    <mergeCell ref="BM14:CG14"/>
-    <mergeCell ref="CH16:CR16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:V15"/>
-    <mergeCell ref="W15:AQ15"/>
-    <mergeCell ref="AR15:BL15"/>
-    <mergeCell ref="BM15:CG15"/>
-    <mergeCell ref="CH15:CR15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:V16"/>
-    <mergeCell ref="W16:AQ16"/>
-    <mergeCell ref="AR16:BL16"/>
-    <mergeCell ref="BM16:CG16"/>
-    <mergeCell ref="CH18:CR18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:V17"/>
-    <mergeCell ref="W17:AQ17"/>
-    <mergeCell ref="AR17:BL17"/>
-    <mergeCell ref="BM17:CG17"/>
-    <mergeCell ref="CH17:CR17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:V18"/>
-    <mergeCell ref="W18:AQ18"/>
-    <mergeCell ref="AR18:BL18"/>
-    <mergeCell ref="BM18:CG18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:V19"/>
-    <mergeCell ref="W19:AQ19"/>
-    <mergeCell ref="AR19:BL19"/>
-    <mergeCell ref="BM19:CG19"/>
-    <mergeCell ref="CH19:CR19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:V20"/>
-    <mergeCell ref="W20:AQ20"/>
-    <mergeCell ref="AR20:BL20"/>
-    <mergeCell ref="BM20:CG20"/>
-    <mergeCell ref="CH20:CR20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:V21"/>
-    <mergeCell ref="W21:AQ21"/>
-    <mergeCell ref="AR21:BL21"/>
-    <mergeCell ref="BM21:CG21"/>
-    <mergeCell ref="CH21:CR21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:V22"/>
-    <mergeCell ref="W22:AQ22"/>
-    <mergeCell ref="AR22:BL22"/>
-    <mergeCell ref="BM22:CG22"/>
-    <mergeCell ref="CH22:CR22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:V23"/>
-    <mergeCell ref="W23:AQ23"/>
-    <mergeCell ref="AR23:BL23"/>
-    <mergeCell ref="BM23:CG23"/>
-    <mergeCell ref="CH23:CR23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:V24"/>
-    <mergeCell ref="W24:AQ24"/>
-    <mergeCell ref="AR24:BL24"/>
-    <mergeCell ref="BM24:CG24"/>
-    <mergeCell ref="CH24:CR24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:V25"/>
-    <mergeCell ref="W25:AQ25"/>
-    <mergeCell ref="AR25:BL25"/>
-    <mergeCell ref="BM25:CG25"/>
-    <mergeCell ref="CH25:CR25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:V26"/>
-    <mergeCell ref="W26:AQ26"/>
-    <mergeCell ref="AR26:BL26"/>
-    <mergeCell ref="BM26:CG26"/>
-    <mergeCell ref="CH26:CR26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:V27"/>
-    <mergeCell ref="W27:AQ27"/>
-    <mergeCell ref="AR27:BL27"/>
-    <mergeCell ref="BM27:CG27"/>
-    <mergeCell ref="CH27:CR27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:V28"/>
-    <mergeCell ref="W28:AQ28"/>
-    <mergeCell ref="AR28:BL28"/>
-    <mergeCell ref="BM28:CG28"/>
-    <mergeCell ref="CH28:CR28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:V29"/>
-    <mergeCell ref="W29:AQ29"/>
-    <mergeCell ref="AR29:BL29"/>
-    <mergeCell ref="BM29:CG29"/>
-    <mergeCell ref="CH29:CR29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:V30"/>
-    <mergeCell ref="W30:AQ30"/>
-    <mergeCell ref="AR30:BL30"/>
-    <mergeCell ref="BM30:CG30"/>
-    <mergeCell ref="CH30:CR30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:V31"/>
-    <mergeCell ref="W31:AQ31"/>
-    <mergeCell ref="AR31:BL31"/>
-    <mergeCell ref="BM31:CG31"/>
-    <mergeCell ref="CH31:CR31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:V32"/>
-    <mergeCell ref="W32:AQ32"/>
-    <mergeCell ref="AR32:BL32"/>
-    <mergeCell ref="BM32:CG32"/>
-    <mergeCell ref="CH32:CR32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:V33"/>
-    <mergeCell ref="W33:AQ33"/>
-    <mergeCell ref="AR33:BL33"/>
-    <mergeCell ref="BM33:CG33"/>
-    <mergeCell ref="CH33:CR33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:V34"/>
-    <mergeCell ref="W34:AQ34"/>
-    <mergeCell ref="AR34:BL34"/>
-    <mergeCell ref="BM34:CG34"/>
-    <mergeCell ref="CH34:CR34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:V35"/>
-    <mergeCell ref="W35:AQ35"/>
-    <mergeCell ref="AR35:BL35"/>
-    <mergeCell ref="BM35:CG35"/>
-    <mergeCell ref="CH35:CR35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:V36"/>
-    <mergeCell ref="W36:AQ36"/>
-    <mergeCell ref="AR36:BL36"/>
-    <mergeCell ref="BM36:CG36"/>
-    <mergeCell ref="CH36:CR36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:V37"/>
-    <mergeCell ref="W37:AQ37"/>
-    <mergeCell ref="AR37:BL37"/>
-    <mergeCell ref="BM37:CG37"/>
-    <mergeCell ref="CH37:CR37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:V38"/>
-    <mergeCell ref="W38:AQ38"/>
-    <mergeCell ref="AR38:BL38"/>
-    <mergeCell ref="BM38:CG38"/>
-    <mergeCell ref="CH38:CR38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:V39"/>
-    <mergeCell ref="W39:AQ39"/>
-    <mergeCell ref="AR39:BL39"/>
-    <mergeCell ref="BM39:CG39"/>
-    <mergeCell ref="CH39:CR39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:V40"/>
-    <mergeCell ref="W40:AQ40"/>
-    <mergeCell ref="AR40:BL40"/>
-    <mergeCell ref="BM40:CG40"/>
-    <mergeCell ref="CH40:CR40"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:V43"/>
-    <mergeCell ref="W43:AQ43"/>
-    <mergeCell ref="AR43:BL43"/>
-    <mergeCell ref="BM43:CG43"/>
-    <mergeCell ref="CH43:CR43"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:V41"/>
-    <mergeCell ref="W41:AQ41"/>
-    <mergeCell ref="AR41:BL41"/>
-    <mergeCell ref="BM41:CG41"/>
-    <mergeCell ref="CH41:CR41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:V42"/>
-    <mergeCell ref="W42:AQ42"/>
-    <mergeCell ref="AR42:BL42"/>
-    <mergeCell ref="BM42:CG42"/>
-    <mergeCell ref="CH42:CR42"/>
+    <mergeCell ref="CH9:CR9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:V8"/>
+    <mergeCell ref="W8:AQ8"/>
+    <mergeCell ref="AR8:BL8"/>
+    <mergeCell ref="BM8:CG8"/>
+    <mergeCell ref="CH8:CR8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:V9"/>
+    <mergeCell ref="W9:AQ9"/>
+    <mergeCell ref="AR9:BL9"/>
+    <mergeCell ref="BM9:CG9"/>
+    <mergeCell ref="CH7:CR7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:V6"/>
+    <mergeCell ref="W6:AQ6"/>
+    <mergeCell ref="AR6:BL6"/>
+    <mergeCell ref="BM6:CG6"/>
+    <mergeCell ref="CH6:CR6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:V7"/>
+    <mergeCell ref="W7:AQ7"/>
+    <mergeCell ref="AR7:BL7"/>
+    <mergeCell ref="BM7:CG7"/>
+    <mergeCell ref="CH5:CR5"/>
+    <mergeCell ref="B2:CQ2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:V4"/>
+    <mergeCell ref="W4:AQ4"/>
+    <mergeCell ref="AR4:BL4"/>
+    <mergeCell ref="BM4:CG4"/>
+    <mergeCell ref="CH4:CR4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:V5"/>
+    <mergeCell ref="W5:AQ5"/>
+    <mergeCell ref="AR5:BL5"/>
+    <mergeCell ref="BM5:CG5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
